--- a/DataConfig/Datas/bubble.xlsx
+++ b/DataConfig/Datas/bubble.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18165" windowHeight="6060"/>
+    <workbookView windowWidth="12840" windowHeight="6720"/>
   </bookViews>
   <sheets>
     <sheet name="快递员" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="31">
   <si>
     <t>##var</t>
   </si>
@@ -72,58 +72,61 @@
     <t>int#ref=character.TbBaseInfo</t>
   </si>
   <si>
+    <t>common.bubbleType</t>
+  </si>
+  <si>
+    <t>string?</t>
+  </si>
+  <si>
+    <t>##</t>
+  </si>
+  <si>
+    <t>自增id</t>
+  </si>
+  <si>
+    <t>标题</t>
+  </si>
+  <si>
+    <t>关联id</t>
+  </si>
+  <si>
+    <t>气泡类型</t>
+  </si>
+  <si>
+    <t>气泡背景图</t>
+  </si>
+  <si>
+    <t>剧本路径</t>
+  </si>
+  <si>
+    <t>你好....</t>
+  </si>
+  <si>
+    <t>对话</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/Picture/UI/wish_bubble1.png</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/Story/NewProject.yarnproject</t>
+  </si>
+  <si>
+    <t>来个蛋炒饭</t>
+  </si>
+  <si>
+    <t>下单</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/Picture/UI/wish_bubble2.png</t>
+  </si>
+  <si>
+    <t>这里什么时候...</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/Picture/UI/wish_bubble3.png</t>
+  </si>
+  <si>
     <t>common_bubbleType</t>
-  </si>
-  <si>
-    <t>string?</t>
-  </si>
-  <si>
-    <t>##</t>
-  </si>
-  <si>
-    <t>自增id</t>
-  </si>
-  <si>
-    <t>标题</t>
-  </si>
-  <si>
-    <t>关联id</t>
-  </si>
-  <si>
-    <t>气泡类型</t>
-  </si>
-  <si>
-    <t>气泡背景图</t>
-  </si>
-  <si>
-    <t>剧本路径</t>
-  </si>
-  <si>
-    <t>你好....</t>
-  </si>
-  <si>
-    <t>对话</t>
-  </si>
-  <si>
-    <t>Assets/GameRes/Picture/UI/wish_bubble1.png</t>
-  </si>
-  <si>
-    <t>Assets/GameRes/Story/NewProject.yarnproject</t>
-  </si>
-  <si>
-    <t>来个蛋炒饭</t>
-  </si>
-  <si>
-    <t>下单</t>
-  </si>
-  <si>
-    <t>Assets/GameRes/Picture/UI/wish_bubble2.png</t>
-  </si>
-  <si>
-    <t>这里什么时候...</t>
-  </si>
-  <si>
-    <t>Assets/GameRes/Picture/UI/wish_bubble3.png</t>
   </si>
 </sst>
 </file>
@@ -1079,7 +1082,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -1309,7 +1312,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>10</v>

--- a/DataConfig/Datas/bubble.xlsx
+++ b/DataConfig/Datas/bubble.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12840" windowHeight="6720"/>
+    <workbookView windowWidth="29730" windowHeight="13140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="快递员" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="40">
   <si>
     <t>##var</t>
   </si>
@@ -60,6 +60,9 @@
     <t>dialogue_content_res</t>
   </si>
   <si>
+    <t>dialogue_start_node</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -72,6 +75,9 @@
     <t>int#ref=character.TbBaseInfo</t>
   </si>
   <si>
+    <t>common.value_region</t>
+  </si>
+  <si>
     <t>common.bubbleType</t>
   </si>
   <si>
@@ -99,9 +105,15 @@
     <t>剧本路径</t>
   </si>
   <si>
+    <t>剧本开始对话节点</t>
+  </si>
+  <si>
     <t>你好....</t>
   </si>
   <si>
+    <t>0:100</t>
+  </si>
+  <si>
     <t>对话</t>
   </si>
   <si>
@@ -111,9 +123,15 @@
     <t>Assets/GameRes/Story/NewProject.yarnproject</t>
   </si>
   <si>
+    <t>Beginner</t>
+  </si>
+  <si>
     <t>来个蛋炒饭</t>
   </si>
   <si>
+    <t>101:500</t>
+  </si>
+  <si>
     <t>下单</t>
   </si>
   <si>
@@ -123,10 +141,19 @@
     <t>这里什么时候...</t>
   </si>
   <si>
+    <t>501:1000</t>
+  </si>
+  <si>
     <t>Assets/GameRes/Picture/UI/wish_bubble3.png</t>
   </si>
   <si>
     <t>common_bubbleType</t>
+  </si>
+  <si>
+    <t>101:200</t>
+  </si>
+  <si>
+    <t>201:300</t>
   </si>
 </sst>
 </file>
@@ -755,10 +782,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="31" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="7" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1079,120 +1109,133 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="9.375"/>
+    <col min="2" max="2" width="12.625" customWidth="1"/>
     <col min="3" max="3" width="12.125" customWidth="1"/>
     <col min="4" max="4" width="27.875" customWidth="1"/>
     <col min="5" max="6" width="22.625" customWidth="1"/>
     <col min="7" max="7" width="39.5" customWidth="1"/>
     <col min="8" max="8" width="41.125" customWidth="1"/>
+    <col min="9" max="9" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:9">
+      <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="F2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="1" t="s">
+    <row r="3" spans="1:9">
+      <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="G3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="4" spans="2:8">
+    <row r="4" spans="2:9">
       <c r="B4">
         <f>$D4*1000+1</f>
         <v>10001001</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D4">
         <v>10001</v>
       </c>
-      <c r="E4">
-        <v>0</v>
+      <c r="E4" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="2:7">
@@ -1201,48 +1244,51 @@
         <v>10001002</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D5">
         <v>10001</v>
       </c>
-      <c r="E5">
-        <v>10</v>
+      <c r="E5" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="6" spans="2:8">
+    <row r="6" spans="2:9">
       <c r="B6">
         <f>$D6*1000+3</f>
         <v>10001003</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D6">
         <v>10001</v>
       </c>
-      <c r="E6">
-        <v>5</v>
+      <c r="E6" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s">
         <v>29</v>
-      </c>
-      <c r="H6" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="9" spans="3:4">
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1253,120 +1299,134 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="9.375"/>
     <col min="3" max="3" width="12.125" customWidth="1"/>
     <col min="4" max="4" width="27.875" customWidth="1"/>
-    <col min="5" max="6" width="22.625" customWidth="1"/>
+    <col min="5" max="5" width="22.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.625" customWidth="1"/>
     <col min="7" max="7" width="39.5" customWidth="1"/>
     <col min="8" max="8" width="41.125" customWidth="1"/>
+    <col min="9" max="9" width="19.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:9">
+      <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="D2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>13</v>
       </c>
+      <c r="F2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="1" t="s">
+    <row r="3" spans="1:9">
+      <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="E3" s="3"/>
+      <c r="F3" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="G3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="4" spans="2:8">
+    <row r="4" spans="2:9">
       <c r="B4">
         <f>$D$4*1000+1</f>
         <v>10004001</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D4">
         <v>10004</v>
       </c>
-      <c r="E4">
-        <v>0</v>
+      <c r="E4" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="2:7">
@@ -1375,48 +1435,51 @@
         <v>10004002</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D5">
         <v>10004</v>
       </c>
-      <c r="E5">
-        <v>10</v>
+      <c r="E5" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="6" spans="2:8">
+    <row r="6" spans="2:9">
       <c r="B6">
         <f>$D$4*1000+3</f>
         <v>10004003</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D6">
         <v>10004</v>
       </c>
-      <c r="E6">
-        <v>5</v>
+      <c r="E6" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s">
         <v>29</v>
-      </c>
-      <c r="H6" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="9" spans="3:4">
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/DataConfig/Datas/bubble.xlsx
+++ b/DataConfig/Datas/bubble.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29730" windowHeight="13140" activeTab="1"/>
+    <workbookView windowHeight="17820" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="快递员" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="44">
   <si>
     <t>##var</t>
   </si>
@@ -154,6 +154,18 @@
   </si>
   <si>
     <t>201:300</t>
+  </si>
+  <si>
+    <t>难以描述</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>评论</t>
+  </si>
+  <si>
+    <t>comment</t>
   </si>
 </sst>
 </file>
@@ -1301,14 +1313,14 @@
   <sheetPr/>
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="9.375"/>
-    <col min="3" max="3" width="12.125" customWidth="1"/>
+    <col min="2" max="2" width="11.4666666666667" customWidth="1"/>
+    <col min="3" max="3" width="16.375" customWidth="1"/>
     <col min="4" max="4" width="27.875" customWidth="1"/>
     <col min="5" max="5" width="22.625" style="1" customWidth="1"/>
     <col min="6" max="6" width="22.625" customWidth="1"/>
@@ -1477,9 +1489,35 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="3:4">
+    <row r="7" spans="2:9">
+      <c r="B7">
+        <f>$D$4*1000+4</f>
+        <v>10004004</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7">
+        <v>10004</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3">
       <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/DataConfig/Datas/bubble.xlsx
+++ b/DataConfig/Datas/bubble.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17820" activeTab="1"/>
+    <workbookView windowHeight="17820"/>
   </bookViews>
   <sheets>
-    <sheet name="快递员" sheetId="2" r:id="rId1"/>
+    <sheet name="章鱼" sheetId="2" r:id="rId1"/>
     <sheet name="小女孩" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="48">
   <si>
     <t>##var</t>
   </si>
@@ -108,18 +108,42 @@
     <t>剧本开始对话节点</t>
   </si>
   <si>
+    <t>老板，没打烊吧？</t>
+  </si>
+  <si>
+    <t>0:10</t>
+  </si>
+  <si>
+    <t>对话</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/Picture/UI/wish_bubble1.png</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/Story/ZhangyuProject.yarnproject</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>老板我又来了</t>
+  </si>
+  <si>
+    <t>20:30</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/Picture/UI/wish_bubble2.png</t>
+  </si>
+  <si>
+    <t>common_bubbleType</t>
+  </si>
+  <si>
     <t>你好....</t>
   </si>
   <si>
     <t>0:100</t>
   </si>
   <si>
-    <t>对话</t>
-  </si>
-  <si>
-    <t>Assets/GameRes/Picture/UI/wish_bubble1.png</t>
-  </si>
-  <si>
     <t>Assets/GameRes/Story/NewProject.yarnproject</t>
   </si>
   <si>
@@ -129,31 +153,19 @@
     <t>来个蛋炒饭</t>
   </si>
   <si>
-    <t>101:500</t>
+    <t>101:200</t>
   </si>
   <si>
     <t>下单</t>
   </si>
   <si>
-    <t>Assets/GameRes/Picture/UI/wish_bubble2.png</t>
-  </si>
-  <si>
     <t>这里什么时候...</t>
   </si>
   <si>
-    <t>501:1000</t>
+    <t>201:300</t>
   </si>
   <si>
     <t>Assets/GameRes/Picture/UI/wish_bubble3.png</t>
-  </si>
-  <si>
-    <t>common_bubbleType</t>
-  </si>
-  <si>
-    <t>101:200</t>
-  </si>
-  <si>
-    <t>201:300</t>
   </si>
   <si>
     <t>难以描述</t>
@@ -1121,16 +1133,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I6"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
   <cols>
-    <col min="2" max="2" width="12.625" customWidth="1"/>
-    <col min="3" max="3" width="12.125" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="17.25" customWidth="1"/>
     <col min="4" max="4" width="27.875" customWidth="1"/>
     <col min="5" max="6" width="22.625" customWidth="1"/>
     <col min="7" max="7" width="39.5" customWidth="1"/>
@@ -1250,7 +1262,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:9">
       <c r="B5">
         <f>$D5*1000+2</f>
         <v>10001002</v>
@@ -1265,42 +1277,21 @@
         <v>31</v>
       </c>
       <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
         <v>32</v>
       </c>
-      <c r="G5" t="s">
-        <v>33</v>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="6" spans="2:9">
-      <c r="B6">
-        <f>$D6*1000+3</f>
-        <v>10001003</v>
-      </c>
-      <c r="C6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6">
-        <v>10001</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="3:4">
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
+    <row r="8" spans="3:4">
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1313,8 +1304,8 @@
   <sheetPr/>
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1375,7 +1366,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>11</v>
@@ -1420,13 +1411,13 @@
         <v>10004001</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D4">
         <v>10004</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F4" t="s">
         <v>26</v>
@@ -1435,10 +1426,10 @@
         <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="2:7">
@@ -1447,19 +1438,19 @@
         <v>10004002</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D5">
         <v>10004</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" t="s">
         <v>32</v>
-      </c>
-      <c r="G5" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="6" spans="2:9">
@@ -1468,25 +1459,25 @@
         <v>10004003</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D6">
         <v>10004</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F6" t="s">
         <v>26</v>
       </c>
       <c r="G6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" t="s">
         <v>36</v>
       </c>
-      <c r="H6" t="s">
-        <v>28</v>
-      </c>
       <c r="I6" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="2:9">
@@ -1495,25 +1486,25 @@
         <v>10004004</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D7">
         <v>10004</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" t="s">
         <v>36</v>
       </c>
-      <c r="H7" t="s">
-        <v>28</v>
-      </c>
       <c r="I7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="3:3">

--- a/DataConfig/Datas/bubble.xlsx
+++ b/DataConfig/Datas/bubble.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="68">
   <si>
     <t>##var</t>
   </si>
@@ -48,12 +48,21 @@
     <t>npc_id</t>
   </si>
   <si>
+    <t>repeated</t>
+  </si>
+  <si>
+    <t>pre_condition</t>
+  </si>
+  <si>
     <t>friend_value</t>
   </si>
   <si>
     <t>bubble_type</t>
   </si>
   <si>
+    <t>menu_id</t>
+  </si>
+  <si>
     <t>bubble_bg</t>
   </si>
   <si>
@@ -75,6 +84,9 @@
     <t>int#ref=character.TbBaseInfo</t>
   </si>
   <si>
+    <t>bool</t>
+  </si>
+  <si>
     <t>common.value_region</t>
   </si>
   <si>
@@ -96,9 +108,18 @@
     <t>关联id</t>
   </si>
   <si>
+    <t>是否反复阅读</t>
+  </si>
+  <si>
+    <t>前置条件</t>
+  </si>
+  <si>
     <t>气泡类型</t>
   </si>
   <si>
+    <t>下单</t>
+  </si>
+  <si>
     <t>气泡背景图</t>
   </si>
   <si>
@@ -111,28 +132,76 @@
     <t>老板，没打烊吧？</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>0:10</t>
   </si>
   <si>
+    <t>主线</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/Picture/UI/wish_bubble1.png</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/Story/ZhangyuProject.yarnproject</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>老板我又来了</t>
+  </si>
+  <si>
+    <t>20:30</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/Picture/UI/wish_bubble2.png</t>
+  </si>
+  <si>
+    <t>来个蛋炒饭</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>5:10</t>
+  </si>
+  <si>
+    <t>来个炒虾</t>
+  </si>
+  <si>
+    <t>魔王又半夜找我</t>
+  </si>
+  <si>
+    <t>10:20</t>
+  </si>
+  <si>
     <t>对话</t>
   </si>
   <si>
-    <t>Assets/GameRes/Picture/UI/wish_bubble1.png</t>
-  </si>
-  <si>
-    <t>Assets/GameRes/Story/ZhangyuProject.yarnproject</t>
-  </si>
-  <si>
-    <t>Start</t>
-  </si>
-  <si>
-    <t>老板我又来了</t>
-  </si>
-  <si>
-    <t>20:30</t>
-  </si>
-  <si>
-    <t>Assets/GameRes/Picture/UI/wish_bubble2.png</t>
+    <t>complaintA</t>
+  </si>
+  <si>
+    <t>山梨又发布了新的电脑了</t>
+  </si>
+  <si>
+    <t>15:30</t>
+  </si>
+  <si>
+    <t>complaintB</t>
+  </si>
+  <si>
+    <t>这个菜的味道.....</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>评论</t>
+  </si>
+  <si>
+    <t>ZhangyuComment</t>
   </si>
   <si>
     <t>common_bubbleType</t>
@@ -141,24 +210,21 @@
     <t>你好....</t>
   </si>
   <si>
+    <t>false</t>
+  </si>
+  <si>
     <t>0:100</t>
   </si>
   <si>
     <t>Assets/GameRes/Story/NewProject.yarnproject</t>
   </si>
   <si>
-    <t>Beginner</t>
-  </si>
-  <si>
-    <t>来个蛋炒饭</t>
+    <t>true</t>
   </si>
   <si>
     <t>101:200</t>
   </si>
   <si>
-    <t>下单</t>
-  </si>
-  <si>
     <t>这里什么时候...</t>
   </si>
   <si>
@@ -169,12 +235,6 @@
   </si>
   <si>
     <t>难以描述</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>评论</t>
   </si>
   <si>
     <t>comment</t>
@@ -190,7 +250,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,6 +271,12 @@
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑 Light"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -343,7 +409,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -359,6 +425,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -664,10 +736,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -676,7 +748,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -685,27 +757,24 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -715,105 +784,119 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="31" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="7" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1133,24 +1216,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="3" max="3" width="17.25" customWidth="1"/>
-    <col min="4" max="4" width="27.875" customWidth="1"/>
-    <col min="5" max="6" width="22.625" customWidth="1"/>
-    <col min="7" max="7" width="39.5" customWidth="1"/>
-    <col min="8" max="8" width="41.125" customWidth="1"/>
-    <col min="9" max="9" width="18.5" customWidth="1"/>
+    <col min="2" max="2" width="9.81666666666667" customWidth="1"/>
+    <col min="3" max="3" width="14.475" customWidth="1"/>
+    <col min="4" max="4" width="11.2" customWidth="1"/>
+    <col min="5" max="6" width="13.9583333333333" customWidth="1"/>
+    <col min="7" max="7" width="18.7833333333333" customWidth="1"/>
+    <col min="8" max="8" width="15.8583333333333" customWidth="1"/>
+    <col min="9" max="9" width="11.4833333333333" customWidth="1"/>
+    <col min="10" max="10" width="36.95" customWidth="1"/>
+    <col min="11" max="11" width="23.275" customWidth="1"/>
+    <col min="12" max="12" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1175,123 +1261,334 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:12">
       <c r="A2" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" t="s">
-        <v>15</v>
+      <c r="K2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:12">
       <c r="A3" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="F3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>21</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="4" spans="2:9">
+    <row r="4" spans="2:12">
       <c r="B4">
         <f>$D4*1000+1</f>
         <v>10001001</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D4">
         <v>10001</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" t="s">
-        <v>29</v>
+      <c r="E4" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="10">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="5" spans="2:9">
+    <row r="5" spans="2:12">
       <c r="B5">
         <f>$D5*1000+2</f>
         <v>10001002</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D5">
         <v>10001</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" t="s">
-        <v>29</v>
+      <c r="E5" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <f>$D5*1000+1</f>
+        <v>10001001</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="10">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="8" spans="3:4">
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
+    <row r="6" customFormat="1" ht="16.5" spans="2:10">
+      <c r="B6">
+        <f>$D6*1000+3</f>
+        <v>10001003</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6">
+        <v>10001</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="6">
+        <f>$D6*1000+1</f>
+        <v>10001001</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="11">
+        <v>10002</v>
+      </c>
+      <c r="J6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" ht="16.5" spans="2:10">
+      <c r="B7">
+        <f>$D7*1000+4</f>
+        <v>10001004</v>
+      </c>
+      <c r="C7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7">
+        <v>10001</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="6">
+        <v>10001002</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="11">
+        <v>10002</v>
+      </c>
+      <c r="J7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="B8">
+        <f>$D8*1000+5</f>
+        <v>10001005</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8">
+        <v>10001</v>
+      </c>
+      <c r="E8" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" s="6">
+        <v>10001002</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="10">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="B9">
+        <f>$D9*1000+6</f>
+        <v>10001006</v>
+      </c>
+      <c r="C9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9">
+        <v>10001</v>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" s="6">
+        <v>10001002</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="10">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" t="s">
+        <v>36</v>
+      </c>
+      <c r="L9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="B10">
+        <f>$D10*1000+7</f>
+        <v>10001007</v>
+      </c>
+      <c r="C10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10">
+        <v>10001</v>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10" t="s">
+        <v>36</v>
+      </c>
+      <c r="L10" t="s">
+        <v>55</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1302,10 +1599,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1313,14 +1610,15 @@
     <col min="2" max="2" width="11.4666666666667" customWidth="1"/>
     <col min="3" max="3" width="16.375" customWidth="1"/>
     <col min="4" max="4" width="27.875" customWidth="1"/>
-    <col min="5" max="5" width="22.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.625" customWidth="1"/>
-    <col min="7" max="7" width="39.5" customWidth="1"/>
-    <col min="8" max="8" width="41.125" customWidth="1"/>
-    <col min="9" max="9" width="19.75" customWidth="1"/>
+    <col min="5" max="7" width="22.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.625" customWidth="1"/>
+    <col min="9" max="9" width="11.625" customWidth="1"/>
+    <col min="10" max="10" width="39.5" customWidth="1"/>
+    <col min="11" max="11" width="41.125" customWidth="1"/>
+    <col min="12" max="12" width="19.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1333,182 +1631,251 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:12">
       <c r="A2" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>11</v>
+      <c r="G2" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" t="s">
-        <v>15</v>
+        <v>56</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:12">
       <c r="A3" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="F3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>21</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G3" s="3"/>
       <c r="H3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="4" spans="2:9">
+    <row r="4" spans="2:12">
       <c r="B4">
         <f>$D$4*1000+1</f>
         <v>10004001</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="D4">
         <v>10004</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
         <v>35</v>
       </c>
-      <c r="F4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
+        <v>60</v>
+      </c>
+      <c r="L4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:10">
       <c r="B5">
         <f>$D$4*1000+2</f>
         <v>10004002</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D5">
         <v>10004</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="6">
+        <f>$D5*1000+1</f>
+        <v>10004001</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5">
+        <v>10002</v>
+      </c>
+      <c r="J5" t="s">
         <v>40</v>
       </c>
-      <c r="G5" t="s">
-        <v>32</v>
-      </c>
     </row>
-    <row r="6" spans="2:9">
+    <row r="6" ht="16.5" spans="2:12">
       <c r="B6">
         <f>$D$4*1000+3</f>
         <v>10004003</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="D6">
         <v>10004</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" t="s">
-        <v>43</v>
+        <v>58</v>
+      </c>
+      <c r="F6" s="6">
+        <f>$D6*1000+1</f>
+        <v>10004001</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="H6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="8">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>65</v>
+      </c>
+      <c r="K6" t="s">
+        <v>60</v>
+      </c>
+      <c r="L6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="2:9">
+    <row r="7" ht="16.5" spans="2:12">
       <c r="B7">
         <f>$D$4*1000+4</f>
         <v>10004004</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="D7">
         <v>10004</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" t="s">
-        <v>43</v>
+        <v>61</v>
+      </c>
+      <c r="F7" s="6">
+        <v>10001002</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="H7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" t="s">
         <v>47</v>
       </c>
+      <c r="I7" s="8">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L7" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="9" spans="3:3">
-      <c r="C9" s="6"/>
+    <row r="8" spans="6:6">
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="3:6">
+      <c r="C9" s="7"/>
+      <c r="F9" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/DataConfig/Datas/bubble.xlsx
+++ b/DataConfig/Datas/bubble.xlsx
@@ -1219,7 +1219,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/DataConfig/Datas/bubble.xlsx
+++ b/DataConfig/Datas/bubble.xlsx
@@ -1219,7 +1219,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/DataConfig/Datas/bubble.xlsx
+++ b/DataConfig/Datas/bubble.xlsx
@@ -8,14 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="章鱼" sheetId="2" r:id="rId1"/>
-    <sheet name="小女孩" sheetId="3" r:id="rId2"/>
+    <sheet name="卖鱼佬" sheetId="4" r:id="rId2"/>
+    <sheet name="小女孩" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="76">
   <si>
     <t>##var</t>
   </si>
@@ -54,6 +55,9 @@
     <t>pre_condition</t>
   </si>
   <si>
+    <t>week_day</t>
+  </si>
+  <si>
     <t>friend_value</t>
   </si>
   <si>
@@ -87,6 +91,9 @@
     <t>bool</t>
   </si>
   <si>
+    <t>(list#sep=,),common.WeekDay</t>
+  </si>
+  <si>
     <t>common.value_region</t>
   </si>
   <si>
@@ -135,6 +142,9 @@
     <t>0</t>
   </si>
   <si>
+    <t>全部</t>
+  </si>
+  <si>
     <t>0:10</t>
   </si>
   <si>
@@ -165,15 +175,24 @@
     <t>TRUE</t>
   </si>
   <si>
-    <t>5:10</t>
+    <t>周六</t>
+  </si>
+  <si>
+    <t>5:99999</t>
   </si>
   <si>
     <t>来个炒虾</t>
   </si>
   <si>
+    <t>周日,周二</t>
+  </si>
+  <si>
     <t>魔王又半夜找我</t>
   </si>
   <si>
+    <t>周六,周日,周一</t>
+  </si>
+  <si>
     <t>10:20</t>
   </si>
   <si>
@@ -186,6 +205,9 @@
     <t>山梨又发布了新的电脑了</t>
   </si>
   <si>
+    <t>周一,周二</t>
+  </si>
+  <si>
     <t>15:30</t>
   </si>
   <si>
@@ -204,6 +226,24 @@
     <t>ZhangyuComment</t>
   </si>
   <si>
+    <t>这里的新开了一家店啊</t>
+  </si>
+  <si>
+    <t>来个拍黄瓜</t>
+  </si>
+  <si>
+    <t>10001002</t>
+  </si>
+  <si>
+    <t>老婆又开始唠叨</t>
+  </si>
+  <si>
+    <t>小孩子的书包好贵</t>
+  </si>
+  <si>
+    <t>现在学校真是....</t>
+  </si>
+  <si>
     <t>common_bubbleType</t>
   </si>
   <si>
@@ -213,31 +253,16 @@
     <t>false</t>
   </si>
   <si>
-    <t>0:100</t>
-  </si>
-  <si>
-    <t>Assets/GameRes/Story/NewProject.yarnproject</t>
-  </si>
-  <si>
     <t>true</t>
   </si>
   <si>
-    <t>101:200</t>
-  </si>
-  <si>
     <t>这里什么时候...</t>
   </si>
   <si>
-    <t>201:300</t>
-  </si>
-  <si>
     <t>Assets/GameRes/Picture/UI/wish_bubble3.png</t>
   </si>
   <si>
     <t>难以描述</t>
-  </si>
-  <si>
-    <t>comment</t>
   </si>
 </sst>
 </file>
@@ -1216,10 +1241,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1228,15 +1253,16 @@
     <col min="3" max="3" width="14.475" customWidth="1"/>
     <col min="4" max="4" width="11.2" customWidth="1"/>
     <col min="5" max="6" width="13.9583333333333" customWidth="1"/>
-    <col min="7" max="7" width="18.7833333333333" customWidth="1"/>
-    <col min="8" max="8" width="15.8583333333333" customWidth="1"/>
-    <col min="9" max="9" width="11.4833333333333" customWidth="1"/>
-    <col min="10" max="10" width="36.95" customWidth="1"/>
-    <col min="11" max="11" width="23.275" customWidth="1"/>
-    <col min="12" max="12" width="18.5" customWidth="1"/>
+    <col min="7" max="7" width="19.7666666666667" customWidth="1"/>
+    <col min="8" max="8" width="18.7833333333333" customWidth="1"/>
+    <col min="9" max="9" width="15.8583333333333" customWidth="1"/>
+    <col min="10" max="10" width="11.4833333333333" customWidth="1"/>
+    <col min="11" max="11" width="36.95" customWidth="1"/>
+    <col min="12" max="12" width="23.275" customWidth="1"/>
+    <col min="13" max="13" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1270,91 +1296,98 @@
       <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="G2" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>15</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G3" s="2"/>
-      <c r="H3" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="H3" s="2"/>
       <c r="I3" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" s="9" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="2:12">
+      <c r="L3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13">
       <c r="B4">
         <f>$D4*1000+1</f>
         <v>10001001</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D4">
         <v>10001</v>
@@ -1363,34 +1396,37 @@
         <v>0</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" s="10">
+        <v>36</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="10">
         <v>0</v>
       </c>
-      <c r="J4" t="s">
-        <v>35</v>
-      </c>
       <c r="K4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12">
+        <v>39</v>
+      </c>
+      <c r="M4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13">
       <c r="B5">
         <f>$D5*1000+2</f>
         <v>10001002</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D5">
         <v>10001</v>
@@ -1403,92 +1439,101 @@
         <v>10001001</v>
       </c>
       <c r="G5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="10">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="10">
-        <v>0</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="M5" t="s">
         <v>40</v>
       </c>
-      <c r="K5" t="s">
-        <v>36</v>
-      </c>
-      <c r="L5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" ht="16.5" spans="2:10">
+    </row>
+    <row r="6" customFormat="1" ht="16.5" spans="2:11">
       <c r="B6">
         <f>$D6*1000+3</f>
         <v>10001003</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D6">
         <v>10001</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F6" s="6">
         <f>$D6*1000+1</f>
         <v>10001001</v>
       </c>
       <c r="G6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="11">
+        <v>10002</v>
+      </c>
+      <c r="K6" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="11">
-        <v>10002</v>
-      </c>
-      <c r="J6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" ht="16.5" spans="2:10">
+    </row>
+    <row r="7" ht="16.5" spans="2:11">
       <c r="B7">
         <f>$D7*1000+4</f>
         <v>10001004</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D7">
         <v>10001</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F7" s="6">
         <v>10001002</v>
       </c>
       <c r="G7" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="11">
+        <v>10002</v>
+      </c>
+      <c r="K7" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="11">
-        <v>10002</v>
-      </c>
-      <c r="J7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12">
+    </row>
+    <row r="8" spans="2:13">
       <c r="B8">
         <f>$D8*1000+5</f>
         <v>10001005</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D8">
         <v>10001</v>
@@ -1500,31 +1545,34 @@
         <v>10001002</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" s="10">
+        <v>52</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J8" s="10">
         <v>0</v>
       </c>
-      <c r="J8" t="s">
-        <v>35</v>
-      </c>
       <c r="K8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12">
+        <v>39</v>
+      </c>
+      <c r="M8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13">
       <c r="B9">
         <f>$D9*1000+6</f>
         <v>10001006</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D9">
         <v>10001</v>
@@ -1536,31 +1584,34 @@
         <v>10001002</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" s="10">
+        <v>57</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J9" s="10">
         <v>0</v>
       </c>
-      <c r="J9" t="s">
-        <v>40</v>
-      </c>
       <c r="K9" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="L9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12">
+        <v>39</v>
+      </c>
+      <c r="M9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13">
       <c r="B10">
         <f>$D10*1000+7</f>
         <v>10001007</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D10">
         <v>10001</v>
@@ -1572,22 +1623,25 @@
         <v>0</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="I10" s="6">
+        <v>60</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J10" s="6">
         <v>0</v>
       </c>
-      <c r="J10" t="s">
-        <v>40</v>
-      </c>
       <c r="K10" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="L10" t="s">
-        <v>55</v>
+        <v>39</v>
+      </c>
+      <c r="M10" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1599,10 +1653,422 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="12.8916666666667" customWidth="1"/>
+    <col min="3" max="3" width="20.8583333333333" customWidth="1"/>
+    <col min="4" max="4" width="16.0916666666667" customWidth="1"/>
+    <col min="5" max="5" width="12.1083333333333" customWidth="1"/>
+    <col min="6" max="6" width="13.5916666666667" customWidth="1"/>
+    <col min="7" max="7" width="20.625" customWidth="1"/>
+    <col min="8" max="8" width="18.825" customWidth="1"/>
+    <col min="9" max="9" width="18.125" customWidth="1"/>
+    <col min="10" max="10" width="20.4666666666667" customWidth="1"/>
+    <col min="11" max="11" width="37.425" customWidth="1"/>
+    <col min="12" max="12" width="37.1833333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13">
+      <c r="B4">
+        <f>$D4*1000+1</f>
+        <v>10002001</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4">
+        <v>10002</v>
+      </c>
+      <c r="E4" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="10">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="B5">
+        <f>$D5*1000+2</f>
+        <v>10002002</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5">
+        <v>10002</v>
+      </c>
+      <c r="E5" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <f>$D5*1000+1</f>
+        <v>10002001</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="10">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" ht="16.5" spans="2:11">
+      <c r="B6">
+        <f>$D6*1000+3</f>
+        <v>10002003</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6">
+        <v>10002</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="6">
+        <f>$D6*1000+1</f>
+        <v>10002001</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="11">
+        <v>10002</v>
+      </c>
+      <c r="K6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" ht="16.5" spans="2:11">
+      <c r="B7">
+        <f>$D7*1000+4</f>
+        <v>10002004</v>
+      </c>
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7">
+        <v>10002</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="11">
+        <v>10002</v>
+      </c>
+      <c r="K7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="B8">
+        <f>$D8*1000+5</f>
+        <v>10002005</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8">
+        <v>10002</v>
+      </c>
+      <c r="E8" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" s="6">
+        <v>10001002</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J8" s="10">
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="B9">
+        <f>$D9*1000+6</f>
+        <v>10002006</v>
+      </c>
+      <c r="C9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9">
+        <v>10002</v>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" s="6">
+        <v>10001002</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J9" s="10">
+        <v>0</v>
+      </c>
+      <c r="K9" t="s">
+        <v>43</v>
+      </c>
+      <c r="L9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="B10">
+        <f>$D10*1000+7</f>
+        <v>10002007</v>
+      </c>
+      <c r="C10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10">
+        <v>10002</v>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J10" s="6">
+        <v>0</v>
+      </c>
+      <c r="K10" t="s">
+        <v>43</v>
+      </c>
+      <c r="L10" t="s">
+        <v>39</v>
+      </c>
+      <c r="M10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M10"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1610,15 +2076,15 @@
     <col min="2" max="2" width="11.4666666666667" customWidth="1"/>
     <col min="3" max="3" width="16.375" customWidth="1"/>
     <col min="4" max="4" width="27.875" customWidth="1"/>
-    <col min="5" max="7" width="22.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="22.625" customWidth="1"/>
-    <col min="9" max="9" width="11.625" customWidth="1"/>
-    <col min="10" max="10" width="39.5" customWidth="1"/>
-    <col min="11" max="11" width="41.125" customWidth="1"/>
-    <col min="12" max="12" width="19.75" customWidth="1"/>
+    <col min="5" max="8" width="22.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="22.625" customWidth="1"/>
+    <col min="10" max="10" width="11.625" customWidth="1"/>
+    <col min="11" max="11" width="39.5" customWidth="1"/>
+    <col min="12" max="12" width="41.125" customWidth="1"/>
+    <col min="13" max="13" width="19.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1637,10 +2103,10 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
@@ -1652,230 +2118,254 @@
       <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>56</v>
+      <c r="G2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>15</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="2" t="s">
-        <v>26</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="3"/>
       <c r="I3" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="2:12">
+      <c r="L3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13">
       <c r="B4">
         <f>$D$4*1000+1</f>
         <v>10004001</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="D4">
         <v>10004</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4">
+        <v>34</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4">
         <v>0</v>
       </c>
-      <c r="J4" t="s">
-        <v>35</v>
-      </c>
       <c r="K4" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="L4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10">
+        <v>39</v>
+      </c>
+      <c r="M4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11">
       <c r="B5">
         <f>$D$4*1000+2</f>
         <v>10004002</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D5">
         <v>10004</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="F5" s="6">
         <f>$D5*1000+1</f>
         <v>10004001</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5">
+      <c r="G5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5">
         <v>10002</v>
       </c>
-      <c r="J5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" ht="16.5" spans="2:12">
+      <c r="K5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" ht="16.5" spans="2:13">
       <c r="B6">
         <f>$D$4*1000+3</f>
         <v>10004003</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="D6">
         <v>10004</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="F6" s="6">
         <f>$D6*1000+1</f>
         <v>10004001</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="G6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J6" s="8">
         <v>0</v>
       </c>
-      <c r="J6" t="s">
-        <v>65</v>
-      </c>
       <c r="K6" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="L6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" ht="16.5" spans="2:12">
+        <v>39</v>
+      </c>
+      <c r="M6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" ht="16.5" spans="2:13">
       <c r="B7">
         <f>$D$4*1000+4</f>
         <v>10004004</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D7">
         <v>10004</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="F7" s="6">
         <v>10001002</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
         <v>53</v>
       </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" s="8">
+      <c r="J7" s="8">
         <v>0</v>
       </c>
-      <c r="J7" t="s">
-        <v>65</v>
-      </c>
       <c r="K7" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="L7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="6:6">
+        <v>39</v>
+      </c>
+      <c r="M7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="6:7">
       <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="3:6">
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="3:7">
       <c r="C9" s="7"/>
       <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="7:7">
+      <c r="G10" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/DataConfig/Datas/bubble.xlsx
+++ b/DataConfig/Datas/bubble.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17820"/>
+    <workbookView windowHeight="17820" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="章鱼" sheetId="2" r:id="rId1"/>
-    <sheet name="卖鱼佬" sheetId="4" r:id="rId2"/>
-    <sheet name="小女孩" sheetId="3" r:id="rId3"/>
+    <sheet name="小女孩" sheetId="3" r:id="rId2"/>
+    <sheet name="卖鱼佬" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="88">
   <si>
     <t>##var</t>
   </si>
@@ -157,78 +157,135 @@
     <t>Assets/GameRes/Story/ZhangyuProject.yarnproject</t>
   </si>
   <si>
+    <t>FirstTalk</t>
+  </si>
+  <si>
+    <t>老板我又来了</t>
+  </si>
+  <si>
+    <t>20:30</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/Picture/UI/wish_bubble2.png</t>
+  </si>
+  <si>
+    <t>SecondTalk</t>
+  </si>
+  <si>
+    <t>来个蛋炒饭</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>周六</t>
+  </si>
+  <si>
+    <t>5:99999</t>
+  </si>
+  <si>
+    <t>来个炒虾</t>
+  </si>
+  <si>
+    <t>周日,周二</t>
+  </si>
+  <si>
+    <t>魔王又半夜找我</t>
+  </si>
+  <si>
+    <t>周六,周日,周一</t>
+  </si>
+  <si>
+    <t>10:20</t>
+  </si>
+  <si>
+    <t>对话</t>
+  </si>
+  <si>
+    <t>complaintA</t>
+  </si>
+  <si>
+    <t>山梨又发布了新的电脑了</t>
+  </si>
+  <si>
+    <t>周一,周二</t>
+  </si>
+  <si>
+    <t>15:30</t>
+  </si>
+  <si>
+    <t>complaintB</t>
+  </si>
+  <si>
+    <t>这个菜的味道.....</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>评论</t>
+  </si>
+  <si>
+    <t>ZhangyuComment</t>
+  </si>
+  <si>
+    <t>common_bubbleType</t>
+  </si>
+  <si>
+    <t>你好....</t>
+  </si>
+  <si>
+    <t>FALSE</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/Story/LittleGirlProject.yarnproject</t>
+  </si>
+  <si>
+    <t>LittleGirl_First</t>
+  </si>
+  <si>
+    <t>老板,你好</t>
+  </si>
+  <si>
+    <t>10:30</t>
+  </si>
+  <si>
+    <t>LittleGirl_Second</t>
+  </si>
+  <si>
+    <t>最近 又被客户...</t>
+  </si>
+  <si>
+    <t>0:30</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/Picture/UI/wish_bubble3.png</t>
+  </si>
+  <si>
+    <t>LittleGirl_talkA</t>
+  </si>
+  <si>
+    <t>今天又被喂了奇...</t>
+  </si>
+  <si>
+    <t>0:45</t>
+  </si>
+  <si>
+    <t>LittleGirl_talkB</t>
+  </si>
+  <si>
+    <t>这个菜的口味</t>
+  </si>
+  <si>
+    <t>LittleGirl_comment</t>
+  </si>
+  <si>
+    <t>这里的新开了一家店啊</t>
+  </si>
+  <si>
     <t>Start</t>
   </si>
   <si>
-    <t>老板我又来了</t>
-  </si>
-  <si>
-    <t>20:30</t>
-  </si>
-  <si>
-    <t>Assets/GameRes/Picture/UI/wish_bubble2.png</t>
-  </si>
-  <si>
-    <t>来个蛋炒饭</t>
-  </si>
-  <si>
-    <t>TRUE</t>
-  </si>
-  <si>
-    <t>周六</t>
-  </si>
-  <si>
-    <t>5:99999</t>
-  </si>
-  <si>
-    <t>来个炒虾</t>
-  </si>
-  <si>
-    <t>周日,周二</t>
-  </si>
-  <si>
-    <t>魔王又半夜找我</t>
-  </si>
-  <si>
-    <t>周六,周日,周一</t>
-  </si>
-  <si>
-    <t>10:20</t>
-  </si>
-  <si>
-    <t>对话</t>
-  </si>
-  <si>
-    <t>complaintA</t>
-  </si>
-  <si>
-    <t>山梨又发布了新的电脑了</t>
-  </si>
-  <si>
-    <t>周一,周二</t>
-  </si>
-  <si>
-    <t>15:30</t>
-  </si>
-  <si>
-    <t>complaintB</t>
-  </si>
-  <si>
-    <t>这个菜的味道.....</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>评论</t>
-  </si>
-  <si>
-    <t>ZhangyuComment</t>
-  </si>
-  <si>
-    <t>这里的新开了一家店啊</t>
-  </si>
-  <si>
     <t>来个拍黄瓜</t>
   </si>
   <si>
@@ -242,27 +299,6 @@
   </si>
   <si>
     <t>现在学校真是....</t>
-  </si>
-  <si>
-    <t>common_bubbleType</t>
-  </si>
-  <si>
-    <t>你好....</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>这里什么时候...</t>
-  </si>
-  <si>
-    <t>Assets/GameRes/Picture/UI/wish_bubble3.png</t>
-  </si>
-  <si>
-    <t>难以描述</t>
   </si>
 </sst>
 </file>
@@ -905,21 +941,23 @@
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="31" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="7" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1243,8 +1281,8 @@
   <sheetPr/>
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1263,121 +1301,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2" t="s">
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="5" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1392,22 +1430,22 @@
       <c r="D4">
         <v>10001</v>
       </c>
-      <c r="E4" s="6" t="b">
+      <c r="E4" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="6">
         <v>0</v>
       </c>
       <c r="K4" t="s">
@@ -1431,23 +1469,23 @@
       <c r="D5">
         <v>10001</v>
       </c>
-      <c r="E5" s="6" t="b">
+      <c r="E5" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="3">
         <f>$D5*1000+1</f>
         <v>10001001</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="6">
         <v>0</v>
       </c>
       <c r="K5" t="s">
@@ -1457,7 +1495,7 @@
         <v>39</v>
       </c>
       <c r="M5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" customFormat="1" ht="16.5" spans="2:11">
@@ -1466,28 +1504,28 @@
         <v>10001003</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D6">
         <v>10001</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="6">
+      <c r="E6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="3">
         <f>$D6*1000+1</f>
         <v>10001001</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" s="6" t="s">
+      <c r="G6" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="H6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="7">
         <v>10002</v>
       </c>
       <c r="K6" t="s">
@@ -1500,27 +1538,27 @@
         <v>10001004</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D7">
         <v>10001</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="6">
+      <c r="E7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="3">
         <v>10001002</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" s="6" t="s">
+      <c r="G7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="7">
         <v>10002</v>
       </c>
       <c r="K7" t="s">
@@ -1532,28 +1570,28 @@
         <f>$D8*1000+5</f>
         <v>10001005</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>50</v>
+      <c r="C8" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="D8">
         <v>10001</v>
       </c>
-      <c r="E8" s="7" t="b">
+      <c r="E8" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="3">
         <v>10001002</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H8" s="6" t="s">
+      <c r="G8" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="H8" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="J8" s="10">
+      <c r="I8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" s="6">
         <v>0</v>
       </c>
       <c r="K8" t="s">
@@ -1563,7 +1601,7 @@
         <v>39</v>
       </c>
       <c r="M8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="2:13">
@@ -1572,7 +1610,7 @@
         <v>10001006</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D9">
         <v>10001</v>
@@ -1580,19 +1618,19 @@
       <c r="E9" t="b">
         <v>1</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="3">
         <v>10001002</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" s="6" t="s">
+      <c r="G9" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I9" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="J9" s="10">
+      <c r="H9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" s="6">
         <v>0</v>
       </c>
       <c r="K9" t="s">
@@ -1602,7 +1640,7 @@
         <v>39</v>
       </c>
       <c r="M9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="2:13">
@@ -1611,7 +1649,7 @@
         <v>10001007</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D10">
         <v>10001</v>
@@ -1619,19 +1657,19 @@
       <c r="E10" t="b">
         <v>1</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="3">
         <v>0</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="I10" s="6" t="s">
+      <c r="H10" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="J10" s="6">
+      <c r="I10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J10" s="3">
         <v>0</v>
       </c>
       <c r="K10" t="s">
@@ -1641,7 +1679,7 @@
         <v>39</v>
       </c>
       <c r="M10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1653,10 +1691,401 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:M11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="11.4666666666667" customWidth="1"/>
+    <col min="3" max="3" width="16.375" customWidth="1"/>
+    <col min="4" max="4" width="9.56666666666667" customWidth="1"/>
+    <col min="5" max="5" width="14.3" style="8" customWidth="1"/>
+    <col min="6" max="6" width="16.6333333333333" style="8" customWidth="1"/>
+    <col min="7" max="7" width="14.65" style="8" customWidth="1"/>
+    <col min="8" max="8" width="10.775" style="8" customWidth="1"/>
+    <col min="9" max="9" width="8.275" customWidth="1"/>
+    <col min="10" max="10" width="11.625" customWidth="1"/>
+    <col min="11" max="11" width="39.5" customWidth="1"/>
+    <col min="12" max="12" width="42.6666666666667" customWidth="1"/>
+    <col min="13" max="13" width="19.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13">
+      <c r="B4">
+        <f>$D$4*1000+1</f>
+        <v>10004001</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4">
+        <v>10004</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="B5">
+        <f>$D$4*1000+2</f>
+        <v>10004002</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5">
+        <v>10004</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="3">
+        <f>$D5*1000+1</f>
+        <v>10004001</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" t="s">
+        <v>67</v>
+      </c>
+      <c r="M5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12">
+      <c r="B6">
+        <f>$D$4*1000+3</f>
+        <v>10004003</v>
+      </c>
+      <c r="C6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6">
+        <v>10004</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="3">
+        <f>$D6*1000+1</f>
+        <v>10004001</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="3">
+        <v>10002</v>
+      </c>
+      <c r="K6" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" ht="16.5" spans="2:13">
+      <c r="B7">
+        <f>$D$4*1000+4</f>
+        <v>10004004</v>
+      </c>
+      <c r="C7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7">
+        <v>10004</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" s="11">
+        <v>0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" ht="16.5" spans="2:13">
+      <c r="B8">
+        <f>$D$4*1000+5</f>
+        <v>10004005</v>
+      </c>
+      <c r="C8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8">
+        <v>10004</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" s="11">
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>74</v>
+      </c>
+      <c r="L8" t="s">
+        <v>67</v>
+      </c>
+      <c r="M8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="B9">
+        <f>$D9*1000+6</f>
+        <v>10004006</v>
+      </c>
+      <c r="C9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9">
+        <v>10004</v>
+      </c>
+      <c r="E9" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" t="s">
+        <v>43</v>
+      </c>
+      <c r="L9" t="s">
+        <v>67</v>
+      </c>
+      <c r="M9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7">
+      <c r="C10" s="4"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="7:7">
+      <c r="G11" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1675,121 +2104,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2" t="s">
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="5" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1799,27 +2228,27 @@
         <v>10002001</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="D4">
         <v>10002</v>
       </c>
-      <c r="E4" s="6" t="b">
+      <c r="E4" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="6">
         <v>0</v>
       </c>
       <c r="K4" t="s">
@@ -1829,7 +2258,7 @@
         <v>39</v>
       </c>
       <c r="M4" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="2:13">
@@ -1843,23 +2272,23 @@
       <c r="D5">
         <v>10002</v>
       </c>
-      <c r="E5" s="6" t="b">
+      <c r="E5" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="3">
         <f>$D5*1000+1</f>
         <v>10002001</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="6">
         <v>0</v>
       </c>
       <c r="K5" t="s">
@@ -1869,7 +2298,7 @@
         <v>39</v>
       </c>
       <c r="M5" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="2:11">
@@ -1878,28 +2307,28 @@
         <v>10002003</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D6">
         <v>10002</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="6">
+      <c r="E6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="3">
         <f>$D6*1000+1</f>
         <v>10002001</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" s="6" t="s">
+      <c r="G6" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="H6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="7">
         <v>10002</v>
       </c>
       <c r="K6" t="s">
@@ -1912,27 +2341,27 @@
         <v>10002004</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="D7">
         <v>10002</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" s="6" t="s">
+      <c r="E7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="7">
         <v>10002</v>
       </c>
       <c r="K7" t="s">
@@ -1944,28 +2373,28 @@
         <f>$D8*1000+5</f>
         <v>10002005</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>66</v>
+      <c r="C8" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="D8">
         <v>10002</v>
       </c>
-      <c r="E8" s="7" t="b">
+      <c r="E8" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="3">
         <v>10001002</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H8" s="6" t="s">
+      <c r="G8" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="H8" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="J8" s="10">
+      <c r="I8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" s="6">
         <v>0</v>
       </c>
       <c r="K8" t="s">
@@ -1975,7 +2404,7 @@
         <v>39</v>
       </c>
       <c r="M8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="2:13">
@@ -1984,7 +2413,7 @@
         <v>10002006</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="D9">
         <v>10002</v>
@@ -1992,19 +2421,19 @@
       <c r="E9" t="b">
         <v>1</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="3">
         <v>10001002</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" s="6" t="s">
+      <c r="G9" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I9" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="J9" s="10">
+      <c r="H9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" s="6">
         <v>0</v>
       </c>
       <c r="K9" t="s">
@@ -2014,7 +2443,7 @@
         <v>39</v>
       </c>
       <c r="M9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="2:13">
@@ -2023,7 +2452,7 @@
         <v>10002007</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="D10">
         <v>10002</v>
@@ -2031,19 +2460,19 @@
       <c r="E10" t="b">
         <v>1</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="3">
         <v>0</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="I10" s="6" t="s">
+      <c r="H10" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="J10" s="6">
+      <c r="I10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J10" s="3">
         <v>0</v>
       </c>
       <c r="K10" t="s">
@@ -2053,319 +2482,8 @@
         <v>39</v>
       </c>
       <c r="M10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:M10"/>
-  <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <cols>
-    <col min="2" max="2" width="11.4666666666667" customWidth="1"/>
-    <col min="3" max="3" width="16.375" customWidth="1"/>
-    <col min="4" max="4" width="27.875" customWidth="1"/>
-    <col min="5" max="8" width="22.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="22.625" customWidth="1"/>
-    <col min="10" max="10" width="11.625" customWidth="1"/>
-    <col min="11" max="11" width="39.5" customWidth="1"/>
-    <col min="12" max="12" width="41.125" customWidth="1"/>
-    <col min="13" max="13" width="19.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13">
-      <c r="B4">
-        <f>$D$4*1000+1</f>
-        <v>10004001</v>
-      </c>
-      <c r="C4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D4">
-        <v>10004</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" t="s">
-        <v>53</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L4" t="s">
-        <v>39</v>
-      </c>
-      <c r="M4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11">
-      <c r="B5">
-        <f>$D$4*1000+2</f>
-        <v>10004002</v>
-      </c>
-      <c r="C5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5">
-        <v>10004</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F5" s="6">
-        <f>$D5*1000+1</f>
-        <v>10004001</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5">
-        <v>10002</v>
-      </c>
-      <c r="K5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" ht="16.5" spans="2:13">
-      <c r="B6">
-        <f>$D$4*1000+3</f>
-        <v>10004003</v>
-      </c>
-      <c r="C6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6">
-        <v>10004</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F6" s="6">
-        <f>$D6*1000+1</f>
-        <v>10004001</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
-        <v>53</v>
-      </c>
-      <c r="J6" s="8">
-        <v>0</v>
-      </c>
-      <c r="K6" t="s">
-        <v>74</v>
-      </c>
-      <c r="L6" t="s">
-        <v>39</v>
-      </c>
-      <c r="M6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" ht="16.5" spans="2:13">
-      <c r="B7">
-        <f>$D$4*1000+4</f>
-        <v>10004004</v>
-      </c>
-      <c r="C7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7">
-        <v>10004</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F7" s="6">
-        <v>10001002</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
-        <v>53</v>
-      </c>
-      <c r="J7" s="8">
-        <v>0</v>
-      </c>
-      <c r="K7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L7" t="s">
-        <v>39</v>
-      </c>
-      <c r="M7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="6:7">
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" spans="3:7">
-      <c r="C9" s="7"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="7:7">
-      <c r="G10" s="6"/>
+        <v>63</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/DataConfig/Datas/bubble.xlsx
+++ b/DataConfig/Datas/bubble.xlsx
@@ -4,19 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17820" activeTab="1"/>
+    <workbookView windowWidth="24765" windowHeight="17655" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="章鱼" sheetId="2" r:id="rId1"/>
-    <sheet name="小女孩" sheetId="3" r:id="rId2"/>
-    <sheet name="卖鱼佬" sheetId="4" r:id="rId3"/>
+    <sheet name="喵老师" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="83">
   <si>
     <t>##var</t>
   </si>
@@ -247,12 +246,18 @@
     <t>老板,你好</t>
   </si>
   <si>
+    <t>10002001</t>
+  </si>
+  <si>
     <t>10:30</t>
   </si>
   <si>
     <t>LittleGirl_Second</t>
   </si>
   <si>
+    <t>10002002</t>
+  </si>
+  <si>
     <t>最近 又被客户...</t>
   </si>
   <si>
@@ -278,33 +283,12 @@
   </si>
   <si>
     <t>LittleGirl_comment</t>
-  </si>
-  <si>
-    <t>这里的新开了一家店啊</t>
-  </si>
-  <si>
-    <t>Start</t>
-  </si>
-  <si>
-    <t>来个拍黄瓜</t>
-  </si>
-  <si>
-    <t>10001002</t>
-  </si>
-  <si>
-    <t>老婆又开始唠叨</t>
-  </si>
-  <si>
-    <t>小孩子的书包好贵</t>
-  </si>
-  <si>
-    <t>现在学校真是....</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -340,27 +324,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -374,14 +337,6 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -421,6 +376,21 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -469,6 +439,20 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -497,18 +481,96 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -521,19 +583,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -545,115 +607,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -690,21 +674,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -738,6 +707,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -794,159 +778,165 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="31" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="7" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="22" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="23" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -954,61 +944,55 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1301,121 +1285,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1" t="s">
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="9" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1430,22 +1414,22 @@
       <c r="D4">
         <v>10001</v>
       </c>
-      <c r="E4" s="3" t="b">
+      <c r="E4" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="10">
         <v>0</v>
       </c>
       <c r="K4" t="s">
@@ -1469,23 +1453,23 @@
       <c r="D5">
         <v>10001</v>
       </c>
-      <c r="E5" s="3" t="b">
+      <c r="E5" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="6">
         <f>$D5*1000+1</f>
         <v>10001001</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="10">
         <v>0</v>
       </c>
       <c r="K5" t="s">
@@ -1509,23 +1493,23 @@
       <c r="D6">
         <v>10001</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="6">
         <f>$D6*1000+1</f>
         <v>10001001</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="11">
         <v>10002</v>
       </c>
       <c r="K6" t="s">
@@ -1543,22 +1527,22 @@
       <c r="D7">
         <v>10001</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="6">
         <v>10001002</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="11">
         <v>10002</v>
       </c>
       <c r="K7" t="s">
@@ -1570,28 +1554,28 @@
         <f>$D8*1000+5</f>
         <v>10001005</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="7" t="s">
         <v>51</v>
       </c>
       <c r="D8">
         <v>10001</v>
       </c>
-      <c r="E8" s="4" t="b">
+      <c r="E8" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="6">
         <v>10001002</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="10">
         <v>0</v>
       </c>
       <c r="K8" t="s">
@@ -1618,19 +1602,19 @@
       <c r="E9" t="b">
         <v>1</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="6">
         <v>10001002</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="10">
         <v>0</v>
       </c>
       <c r="K9" t="s">
@@ -1657,19 +1641,19 @@
       <c r="E10" t="b">
         <v>1</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="6">
         <v>0</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="6">
         <v>0</v>
       </c>
       <c r="K10" t="s">
@@ -1694,7 +1678,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1702,10 +1686,10 @@
     <col min="2" max="2" width="11.4666666666667" customWidth="1"/>
     <col min="3" max="3" width="16.375" customWidth="1"/>
     <col min="4" max="4" width="9.56666666666667" customWidth="1"/>
-    <col min="5" max="5" width="14.3" style="8" customWidth="1"/>
-    <col min="6" max="6" width="16.6333333333333" style="8" customWidth="1"/>
-    <col min="7" max="7" width="14.65" style="8" customWidth="1"/>
-    <col min="8" max="8" width="10.775" style="8" customWidth="1"/>
+    <col min="5" max="5" width="14.3" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6333333333333" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.65" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.775" style="1" customWidth="1"/>
     <col min="9" max="9" width="8.275" customWidth="1"/>
     <col min="10" max="10" width="11.625" customWidth="1"/>
     <col min="11" max="11" width="39.5" customWidth="1"/>
@@ -1714,40 +1698,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="M1" t="s">
@@ -1755,40 +1739,40 @@
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="4" t="s">
         <v>21</v>
       </c>
       <c r="M2" t="s">
@@ -1796,36 +1780,36 @@
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="1" t="s">
+      <c r="G3" s="2"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M3" t="s">
@@ -1835,30 +1819,30 @@
     <row r="4" spans="2:13">
       <c r="B4">
         <f>$D$4*1000+1</f>
-        <v>10004001</v>
+        <v>10002001</v>
       </c>
       <c r="C4" t="s">
         <v>65</v>
       </c>
       <c r="D4">
-        <v>10004</v>
-      </c>
-      <c r="E4" s="3" t="s">
+        <v>10002</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="6">
         <v>0</v>
       </c>
       <c r="K4" t="s">
@@ -1874,31 +1858,30 @@
     <row r="5" spans="2:13">
       <c r="B5">
         <f>$D$4*1000+2</f>
-        <v>10004002</v>
+        <v>10002002</v>
       </c>
       <c r="C5" t="s">
         <v>69</v>
       </c>
       <c r="D5">
-        <v>10004</v>
-      </c>
-      <c r="E5" s="3" t="s">
+        <v>10002</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F5" s="3">
-        <f>$D5*1000+1</f>
-        <v>10004001</v>
-      </c>
-      <c r="G5" s="3" t="s">
+      <c r="F5" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="I5" s="3" t="s">
+      <c r="H5" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="6" t="s">
         <v>34</v>
       </c>
       <c r="K5" t="s">
@@ -1908,37 +1891,36 @@
         <v>67</v>
       </c>
       <c r="M5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="2:12">
       <c r="B6">
         <f>$D$4*1000+3</f>
-        <v>10004003</v>
+        <v>10002003</v>
       </c>
       <c r="C6" t="s">
         <v>45</v>
       </c>
       <c r="D6">
-        <v>10004</v>
-      </c>
-      <c r="E6" s="3" t="s">
+        <v>10002</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="3">
-        <f>$D6*1000+1</f>
-        <v>10004001</v>
-      </c>
-      <c r="G6" s="3" t="s">
+      <c r="F6" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="6">
         <v>10002</v>
       </c>
       <c r="K6" t="s">
@@ -1951,460 +1933,79 @@
     <row r="7" ht="16.5" spans="2:13">
       <c r="B7">
         <f>$D$4*1000+4</f>
-        <v>10004004</v>
+        <v>10002004</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D7">
-        <v>10004</v>
-      </c>
-      <c r="E7" s="3" t="s">
+        <v>10002</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="I7" s="3" t="s">
+      <c r="H7" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="I7" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="8">
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L7" t="s">
         <v>67</v>
       </c>
       <c r="M7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" ht="16.5" spans="2:13">
       <c r="B8">
         <f>$D$4*1000+5</f>
-        <v>10004005</v>
+        <v>10002005</v>
       </c>
       <c r="C8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8">
+        <v>10002</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" s="8">
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
         <v>76</v>
-      </c>
-      <c r="D8">
-        <v>10004</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="J8" s="11">
-        <v>0</v>
-      </c>
-      <c r="K8" t="s">
-        <v>74</v>
       </c>
       <c r="L8" t="s">
         <v>67</v>
       </c>
       <c r="M8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13">
-      <c r="B9">
-        <f>$D9*1000+6</f>
-        <v>10004006</v>
-      </c>
-      <c r="C9" t="s">
-        <v>79</v>
-      </c>
-      <c r="D9">
-        <v>10004</v>
-      </c>
-      <c r="E9" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" t="s">
-        <v>43</v>
-      </c>
-      <c r="L9" t="s">
-        <v>67</v>
-      </c>
-      <c r="M9" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="3:7">
-      <c r="C10" s="4"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="7:7">
-      <c r="G11" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:M10"/>
-  <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <cols>
-    <col min="2" max="2" width="12.8916666666667" customWidth="1"/>
-    <col min="3" max="3" width="20.8583333333333" customWidth="1"/>
-    <col min="4" max="4" width="16.0916666666667" customWidth="1"/>
-    <col min="5" max="5" width="12.1083333333333" customWidth="1"/>
-    <col min="6" max="6" width="13.5916666666667" customWidth="1"/>
-    <col min="7" max="7" width="20.625" customWidth="1"/>
-    <col min="8" max="8" width="18.825" customWidth="1"/>
-    <col min="9" max="9" width="18.125" customWidth="1"/>
-    <col min="10" max="10" width="20.4666666666667" customWidth="1"/>
-    <col min="11" max="11" width="37.425" customWidth="1"/>
-    <col min="12" max="12" width="37.1833333333333" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13">
-      <c r="B4">
-        <f>$D4*1000+1</f>
-        <v>10002001</v>
-      </c>
-      <c r="C4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4">
-        <v>10002</v>
-      </c>
-      <c r="E4" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" s="6">
-        <v>0</v>
-      </c>
-      <c r="K4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L4" t="s">
-        <v>39</v>
-      </c>
-      <c r="M4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13">
-      <c r="B5">
-        <f>$D5*1000+2</f>
-        <v>10002002</v>
-      </c>
-      <c r="C5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5">
-        <v>10002</v>
-      </c>
-      <c r="E5" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3">
-        <f>$D5*1000+1</f>
-        <v>10002001</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="6">
-        <v>0</v>
-      </c>
-      <c r="K5" t="s">
-        <v>43</v>
-      </c>
-      <c r="L5" t="s">
-        <v>39</v>
-      </c>
-      <c r="M5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" ht="16.5" spans="2:11">
-      <c r="B6">
-        <f>$D6*1000+3</f>
-        <v>10002003</v>
-      </c>
-      <c r="C6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6">
-        <v>10002</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="3">
-        <f>$D6*1000+1</f>
-        <v>10002001</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" s="7">
-        <v>10002</v>
-      </c>
-      <c r="K6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" ht="16.5" spans="2:11">
-      <c r="B7">
-        <f>$D7*1000+4</f>
-        <v>10002004</v>
-      </c>
-      <c r="C7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D7">
-        <v>10002</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" s="7">
-        <v>10002</v>
-      </c>
-      <c r="K7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13">
-      <c r="B8">
-        <f>$D8*1000+5</f>
-        <v>10002005</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D8">
-        <v>10002</v>
-      </c>
-      <c r="E8" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3">
-        <v>10001002</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="J8" s="6">
-        <v>0</v>
-      </c>
-      <c r="K8" t="s">
-        <v>38</v>
-      </c>
-      <c r="L8" t="s">
-        <v>39</v>
-      </c>
-      <c r="M8" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="9" spans="2:13">
@@ -2413,25 +2014,25 @@
         <v>10002006</v>
       </c>
       <c r="C9" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D9">
         <v>10002</v>
       </c>
-      <c r="E9" t="b">
+      <c r="E9" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="F9" s="3">
-        <v>10001002</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>54</v>
+      <c r="F9" s="6">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="J9" s="6">
         <v>0</v>
@@ -2440,50 +2041,19 @@
         <v>43</v>
       </c>
       <c r="L9" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="M9" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="10" spans="2:13">
-      <c r="B10">
-        <f>$D10*1000+7</f>
-        <v>10002007</v>
-      </c>
-      <c r="C10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D10">
-        <v>10002</v>
-      </c>
-      <c r="E10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
-      <c r="K10" t="s">
-        <v>43</v>
-      </c>
-      <c r="L10" t="s">
-        <v>39</v>
-      </c>
-      <c r="M10" t="s">
-        <v>63</v>
-      </c>
+    <row r="10" spans="3:7">
+      <c r="C10" s="7"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="7:7">
+      <c r="G11" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/DataConfig/Datas/bubble.xlsx
+++ b/DataConfig/Datas/bubble.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24765" windowHeight="17655" activeTab="1"/>
+    <workbookView windowHeight="17655" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="章鱼" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="87">
   <si>
     <t>##var</t>
   </si>
@@ -231,43 +231,55 @@
     <t>common_bubbleType</t>
   </si>
   <si>
-    <t>你好....</t>
+    <t>喵喵肚子很饿</t>
   </si>
   <si>
     <t>FALSE</t>
   </si>
   <si>
+    <t>-9999:10</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/Story/Miao.yarnproject</t>
+  </si>
+  <si>
+    <t>MiaoMainFirst</t>
+  </si>
+  <si>
+    <t>等了好久呢</t>
+  </si>
+  <si>
+    <t>10002001</t>
+  </si>
+  <si>
+    <t>10:30</t>
+  </si>
+  <si>
     <t>Assets/GameRes/Story/LittleGirlProject.yarnproject</t>
   </si>
   <si>
-    <t>LittleGirl_First</t>
-  </si>
-  <si>
-    <t>老板,你好</t>
-  </si>
-  <si>
-    <t>10002001</t>
-  </si>
-  <si>
-    <t>10:30</t>
-  </si>
-  <si>
-    <t>LittleGirl_Second</t>
+    <t>MiaoSecond</t>
+  </si>
+  <si>
+    <t>黄油拌饭</t>
   </si>
   <si>
     <t>10002002</t>
   </si>
   <si>
-    <t>最近 又被客户...</t>
-  </si>
-  <si>
-    <t>0:30</t>
+    <t>30:9999</t>
+  </si>
+  <si>
+    <t>Ciao～</t>
+  </si>
+  <si>
+    <t>35:50</t>
   </si>
   <si>
     <t>Assets/GameRes/Picture/UI/wish_bubble3.png</t>
   </si>
   <si>
-    <t>LittleGirl_talkA</t>
+    <t>MiaoThird</t>
   </si>
   <si>
     <t>今天又被喂了奇...</t>
@@ -923,7 +935,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1"/>
@@ -931,6 +943,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="23" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1265,7 +1280,7 @@
   <sheetPr/>
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -1321,7 +1336,7 @@
       <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="10" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1362,7 +1377,7 @@
       <c r="L2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="10" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1399,7 +1414,7 @@
       <c r="L3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="10" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1429,7 +1444,7 @@
       <c r="I4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="11">
         <v>0</v>
       </c>
       <c r="K4" t="s">
@@ -1469,7 +1484,7 @@
       <c r="I5" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="11">
         <v>0</v>
       </c>
       <c r="K5" t="s">
@@ -1509,7 +1524,7 @@
       <c r="I6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="12">
         <v>10002</v>
       </c>
       <c r="K6" t="s">
@@ -1542,7 +1557,7 @@
       <c r="I7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="12">
         <v>10002</v>
       </c>
       <c r="K7" t="s">
@@ -1554,13 +1569,13 @@
         <f>$D8*1000+5</f>
         <v>10001005</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="8" t="s">
         <v>51</v>
       </c>
       <c r="D8">
         <v>10001</v>
       </c>
-      <c r="E8" s="7" t="b">
+      <c r="E8" s="8" t="b">
         <v>1</v>
       </c>
       <c r="F8" s="6">
@@ -1575,7 +1590,7 @@
       <c r="I8" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="11">
         <v>0</v>
       </c>
       <c r="K8" t="s">
@@ -1614,7 +1629,7 @@
       <c r="I9" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="11">
         <v>0</v>
       </c>
       <c r="K9" t="s">
@@ -1677,8 +1692,8 @@
   <sheetPr/>
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23:H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1837,7 +1852,7 @@
         <v>35</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>37</v>
@@ -1849,10 +1864,10 @@
         <v>38</v>
       </c>
       <c r="L4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="2:13">
@@ -1861,7 +1876,7 @@
         <v>10002002</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D5">
         <v>10002</v>
@@ -1870,13 +1885,13 @@
         <v>66</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>35</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>37</v>
@@ -1888,10 +1903,10 @@
         <v>38</v>
       </c>
       <c r="L5" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="M5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="2:12">
@@ -1900,7 +1915,7 @@
         <v>10002003</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="D6">
         <v>10002</v>
@@ -1909,13 +1924,13 @@
         <v>46</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>35</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>29</v>
@@ -1927,7 +1942,7 @@
         <v>43</v>
       </c>
       <c r="L6" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="2:13">
@@ -1936,7 +1951,7 @@
         <v>10002004</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D7">
         <v>10002</v>
@@ -1944,29 +1959,30 @@
       <c r="E7" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>34</v>
+      <c r="F7" s="7">
+        <f>$D$4*1000+3</f>
+        <v>10002003</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>35</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="J7" s="8">
+        <v>37</v>
+      </c>
+      <c r="J7" s="9">
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L7" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="M7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" ht="16.5" spans="2:13">
@@ -1975,7 +1991,7 @@
         <v>10002005</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D8">
         <v>10002</v>
@@ -1990,22 +2006,22 @@
         <v>35</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="9">
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L8" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="M8" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="2:13">
@@ -2014,7 +2030,7 @@
         <v>10002006</v>
       </c>
       <c r="C9" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D9">
         <v>10002</v>
@@ -2041,14 +2057,14 @@
         <v>43</v>
       </c>
       <c r="L9" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="M9" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="3:7">
-      <c r="C10" s="7"/>
+      <c r="C10" s="8"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
     </row>

--- a/DataConfig/Datas/bubble.xlsx
+++ b/DataConfig/Datas/bubble.xlsx
@@ -9,13 +9,14 @@
   <sheets>
     <sheet name="章鱼" sheetId="2" r:id="rId1"/>
     <sheet name="喵老师" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="105">
   <si>
     <t>##var</t>
   </si>
@@ -90,6 +91,9 @@
     <t>bool</t>
   </si>
   <si>
+    <t>(list#sep=,),int</t>
+  </si>
+  <si>
     <t>(list#sep=,),common.WeekDay</t>
   </si>
   <si>
@@ -228,9 +232,21 @@
     <t>ZhangyuComment</t>
   </si>
   <si>
+    <t>flavor_tags</t>
+  </si>
+  <si>
     <t>common_bubbleType</t>
   </si>
   <si>
+    <t>(list#sep=,),food.flavorTag</t>
+  </si>
+  <si>
+    <t>气泡类型=下单</t>
+  </si>
+  <si>
+    <t>气泡类型=模糊订单</t>
+  </si>
+  <si>
     <t>喵喵肚子很饿</t>
   </si>
   <si>
@@ -270,15 +286,45 @@
     <t>30:9999</t>
   </si>
   <si>
+    <t>想吃甜的</t>
+  </si>
+  <si>
+    <t>10:99999</t>
+  </si>
+  <si>
+    <t>模糊订单</t>
+  </si>
+  <si>
+    <t>甜,酸,清凉</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/Picture/UI/wish_bubble3.png</t>
+  </si>
+  <si>
+    <t>今天来点带劲的</t>
+  </si>
+  <si>
+    <t>10002001,10002002</t>
+  </si>
+  <si>
+    <t>30:99999</t>
+  </si>
+  <si>
+    <t>模棱两可</t>
+  </si>
+  <si>
+    <t>10002</t>
+  </si>
+  <si>
+    <t>辣,甜,清凉</t>
+  </si>
+  <si>
     <t>Ciao～</t>
   </si>
   <si>
     <t>35:50</t>
   </si>
   <si>
-    <t>Assets/GameRes/Picture/UI/wish_bubble3.png</t>
-  </si>
-  <si>
     <t>MiaoThird</t>
   </si>
   <si>
@@ -291,10 +337,19 @@
     <t>LittleGirl_talkB</t>
   </si>
   <si>
-    <t>这个菜的口味</t>
-  </si>
-  <si>
-    <t>LittleGirl_comment</t>
+    <t>list,int</t>
+  </si>
+  <si>
+    <t>10002001,0</t>
+  </si>
+  <si>
+    <t>10002002,1</t>
+  </si>
+  <si>
+    <t>10002001,1</t>
+  </si>
+  <si>
+    <t>10001,10002</t>
   </si>
 </sst>
 </file>
@@ -935,27 +990,29 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="22" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="23" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1280,8 +1337,8 @@
   <sheetPr/>
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1300,122 +1357,122 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>21</v>
+      <c r="L2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="6" t="s">
         <v>26</v>
       </c>
+      <c r="E3" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="F3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="J3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="K3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="L3" s="6" t="s">
         <v>32</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="2:13">
@@ -1424,37 +1481,37 @@
         <v>10001001</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D4">
         <v>10001</v>
       </c>
-      <c r="E4" s="6" t="b">
+      <c r="E4" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="6" t="s">
+      <c r="F4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="G4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="H4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="11">
+      <c r="I4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="5">
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="2:13">
@@ -1463,38 +1520,38 @@
         <v>10001002</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D5">
         <v>10001</v>
       </c>
-      <c r="E5" s="6" t="b">
+      <c r="E5" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="4">
         <f>$D5*1000+1</f>
         <v>10001001</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="11">
+      <c r="G5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="5">
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" customFormat="1" ht="16.5" spans="2:11">
@@ -1503,32 +1560,32 @@
         <v>10001003</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D6">
         <v>10001</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="6">
+      <c r="E6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="4">
         <f>$D6*1000+1</f>
         <v>10001001</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" s="6" t="s">
+      <c r="G6" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="I6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" s="12">
+      <c r="H6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="14">
         <v>10002</v>
       </c>
       <c r="K6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="2:11">
@@ -1537,31 +1594,31 @@
         <v>10001004</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D7">
         <v>10001</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="6">
+      <c r="E7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="4">
         <v>10001002</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" s="12">
+      <c r="G7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="14">
         <v>10002</v>
       </c>
       <c r="K7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="2:13">
@@ -1569,38 +1626,38 @@
         <f>$D8*1000+5</f>
         <v>10001005</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>51</v>
+      <c r="C8" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="D8">
         <v>10001</v>
       </c>
-      <c r="E8" s="8" t="b">
+      <c r="E8" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="4">
         <v>10001002</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H8" s="6" t="s">
+      <c r="G8" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="H8" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J8" s="11">
+      <c r="I8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J8" s="5">
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="2:13">
@@ -1609,7 +1666,7 @@
         <v>10001006</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D9">
         <v>10001</v>
@@ -1617,29 +1674,29 @@
       <c r="E9" t="b">
         <v>1</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="4">
         <v>10001002</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="H9" s="6" t="s">
+      <c r="G9" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="I9" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="J9" s="11">
+      <c r="H9" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J9" s="5">
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="2:13">
@@ -1648,7 +1705,7 @@
         <v>10001007</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D10">
         <v>10001</v>
@@ -1656,29 +1713,29 @@
       <c r="E10" t="b">
         <v>1</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="4">
         <v>0</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="I10" s="6" t="s">
+      <c r="G10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="J10" s="6">
+      <c r="I10" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J10" s="4">
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1690,223 +1747,235 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23:H24"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="11.4666666666667" customWidth="1"/>
     <col min="3" max="3" width="16.375" customWidth="1"/>
-    <col min="4" max="4" width="9.56666666666667" customWidth="1"/>
+    <col min="4" max="4" width="21.025" customWidth="1"/>
     <col min="5" max="5" width="14.3" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.6333333333333" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.65" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.8583333333333" style="1" customWidth="1"/>
     <col min="8" max="8" width="10.775" style="1" customWidth="1"/>
     <col min="9" max="9" width="8.275" customWidth="1"/>
-    <col min="10" max="10" width="11.625" customWidth="1"/>
-    <col min="11" max="11" width="39.5" customWidth="1"/>
-    <col min="12" max="12" width="42.6666666666667" customWidth="1"/>
-    <col min="13" max="13" width="19.75" customWidth="1"/>
+    <col min="10" max="10" width="15.2583333333333" customWidth="1"/>
+    <col min="11" max="11" width="29.65" customWidth="1"/>
+    <col min="12" max="12" width="39.5" customWidth="1"/>
+    <col min="13" max="13" width="42.6666666666667" customWidth="1"/>
+    <col min="14" max="14" width="19.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:14">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:14">
+      <c r="A2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="L2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="2" t="s">
+      <c r="M2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="N2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="6" t="s">
         <v>26</v>
       </c>
+      <c r="E3" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="F3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="G3" s="6"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" s="2" t="s">
+      <c r="J3" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="L3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="2:13">
+      <c r="N3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14">
       <c r="B4">
         <f>$D$4*1000+1</f>
         <v>10002001</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D4">
         <v>10002</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="6" t="s">
+      <c r="E4" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" s="6">
+      <c r="G4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="4">
         <v>0</v>
       </c>
-      <c r="K4" t="s">
-        <v>38</v>
-      </c>
+      <c r="K4" s="4"/>
       <c r="L4" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="M4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13">
+        <v>73</v>
+      </c>
+      <c r="N4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14">
       <c r="B5">
         <f>$D$4*1000+2</f>
         <v>10002002</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D5">
         <v>10002</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F5" s="6" t="s">
+      <c r="E5" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="F5" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" t="s">
-        <v>38</v>
-      </c>
+      <c r="K5" s="4"/>
       <c r="L5" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="M5" t="s">
-        <v>74</v>
+        <v>78</v>
+      </c>
+      <c r="N5" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="2:12">
@@ -1915,161 +1984,277 @@
         <v>10002003</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D6">
         <v>10002</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" s="6">
+      <c r="E6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="4">
         <v>10002</v>
       </c>
-      <c r="K6" t="s">
-        <v>43</v>
-      </c>
+      <c r="K6" s="4"/>
       <c r="L6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" ht="16.5" spans="2:13">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" ht="16.5" spans="2:12">
       <c r="B7">
         <f>$D$4*1000+4</f>
         <v>10002004</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D7">
         <v>10002</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F7" s="7">
-        <f>$D$4*1000+3</f>
-        <v>10002003</v>
-      </c>
-      <c r="G7" s="6" t="s">
+      <c r="E7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="5">
+        <v>10002001</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7" s="9">
-        <v>0</v>
-      </c>
-      <c r="K7" t="s">
-        <v>80</v>
+      <c r="K7" s="12" t="s">
+        <v>86</v>
       </c>
       <c r="L7" t="s">
-        <v>73</v>
-      </c>
-      <c r="M7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" ht="16.5" spans="2:13">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" ht="16.5" spans="2:12">
       <c r="B8">
         <f>$D$4*1000+5</f>
         <v>10002005</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D8">
         <v>10002</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="J8" s="9">
-        <v>0</v>
-      </c>
-      <c r="K8" t="s">
-        <v>80</v>
+      <c r="E8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>93</v>
       </c>
       <c r="L8" t="s">
-        <v>73</v>
-      </c>
-      <c r="M8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" ht="16.5" spans="2:14">
       <c r="B9">
-        <f>$D9*1000+6</f>
+        <f>$D$4*1000+6</f>
         <v>10002006</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="D9">
         <v>10002</v>
       </c>
-      <c r="E9" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F9" s="6">
+      <c r="E9" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="5">
+        <v>10002002</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="12">
         <v>0</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="K9" s="12"/>
+      <c r="L9" t="s">
+        <v>87</v>
+      </c>
+      <c r="M9" t="s">
+        <v>78</v>
+      </c>
+      <c r="N9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" ht="16.5" spans="2:14">
+      <c r="B10">
+        <f>$D$4*1000+7</f>
+        <v>10002007</v>
+      </c>
+      <c r="C10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10">
+        <v>10002</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="J9" s="6">
+      <c r="G10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J10" s="12">
         <v>0</v>
       </c>
-      <c r="K9" t="s">
-        <v>43</v>
-      </c>
-      <c r="L9" t="s">
-        <v>73</v>
-      </c>
-      <c r="M9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="3:7">
-      <c r="C10" s="8"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="7:7">
-      <c r="G11" s="6"/>
+      <c r="K10" s="12"/>
+      <c r="L10" t="s">
+        <v>87</v>
+      </c>
+      <c r="M10" t="s">
+        <v>78</v>
+      </c>
+      <c r="N10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="5:11">
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="3:7">
+      <c r="C12" s="11"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="7:7">
+      <c r="G13" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="L1:L12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:L10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="12" max="12" width="23.2666666666667" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="12:12">
+      <c r="L1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="12:12">
+      <c r="L2" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="12:12">
+      <c r="L3" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="12:12">
+      <c r="L4" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="12:12">
+      <c r="L5" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="12:12">
+      <c r="L6" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="12:12">
+      <c r="L7" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="12:12">
+      <c r="L8" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="12:12">
+      <c r="L9" s="5">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="10" spans="12:12">
+      <c r="L10" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="12:12">
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="12:12">
+      <c r="L12" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/DataConfig/Datas/bubble.xlsx
+++ b/DataConfig/Datas/bubble.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655" activeTab="1"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="章鱼" sheetId="2" r:id="rId1"/>
@@ -1337,8 +1337,8 @@
   <sheetPr/>
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1749,8 +1749,8 @@
   <sheetPr/>
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1761,8 +1761,8 @@
     <col min="5" max="5" width="14.3" style="1" customWidth="1"/>
     <col min="6" max="6" width="19.6" style="1" customWidth="1"/>
     <col min="7" max="7" width="25.8583333333333" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.775" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.275" customWidth="1"/>
+    <col min="8" max="8" width="16.6333333333333" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.25" customWidth="1"/>
     <col min="10" max="10" width="15.2583333333333" customWidth="1"/>
     <col min="11" max="11" width="29.65" customWidth="1"/>
     <col min="12" max="12" width="39.5" customWidth="1"/>

--- a/DataConfig/Datas/bubble.xlsx
+++ b/DataConfig/Datas/bubble.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowHeight="17655" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="章鱼" sheetId="2" r:id="rId1"/>
     <sheet name="喵老师" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
+    <sheet name="杂鱼A" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="153">
   <si>
     <t>##var</t>
   </si>
@@ -154,7 +154,7 @@
     <t>主线</t>
   </si>
   <si>
-    <t>Assets/GameRes/Picture/UI/wish_bubble1.png</t>
+    <t>Assets/GameRes/Picture/UI/Dialogue/think_common.png</t>
   </si>
   <si>
     <t>Assets/GameRes/Story/ZhangyuProject.yarnproject</t>
@@ -169,9 +169,6 @@
     <t>20:30</t>
   </si>
   <si>
-    <t>Assets/GameRes/Picture/UI/wish_bubble2.png</t>
-  </si>
-  <si>
     <t>SecondTalk</t>
   </si>
   <si>
@@ -253,9 +250,6 @@
     <t>FALSE</t>
   </si>
   <si>
-    <t>-9999:10</t>
-  </si>
-  <si>
     <t>Assets/GameRes/Story/Miao.yarnproject</t>
   </si>
   <si>
@@ -298,9 +292,6 @@
     <t>甜,酸,清凉</t>
   </si>
   <si>
-    <t>Assets/GameRes/Picture/UI/wish_bubble3.png</t>
-  </si>
-  <si>
     <t>今天来点带劲的</t>
   </si>
   <si>
@@ -337,19 +328,172 @@
     <t>LittleGirl_talkB</t>
   </si>
   <si>
-    <t>list,int</t>
-  </si>
-  <si>
-    <t>10002001,0</t>
-  </si>
-  <si>
-    <t>10002002,1</t>
-  </si>
-  <si>
-    <t>10002001,1</t>
-  </si>
-  <si>
-    <t>10001,10002</t>
+    <t>还能点单吗</t>
+  </si>
+  <si>
+    <t>周一</t>
+  </si>
+  <si>
+    <t>0:100</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/Story/young/young.yarnproject</t>
+  </si>
+  <si>
+    <t>young_main_a</t>
+  </si>
+  <si>
+    <t>老板晚上好</t>
+  </si>
+  <si>
+    <t>周三</t>
+  </si>
+  <si>
+    <t>101:200</t>
+  </si>
+  <si>
+    <t>young_main_b</t>
+  </si>
+  <si>
+    <t>肚子有点饿了</t>
+  </si>
+  <si>
+    <t>周五</t>
+  </si>
+  <si>
+    <t>201:300</t>
+  </si>
+  <si>
+    <t>young_main_c</t>
+  </si>
+  <si>
+    <t>又要重写了</t>
+  </si>
+  <si>
+    <t>301:400</t>
+  </si>
+  <si>
+    <t>young_main_d</t>
+  </si>
+  <si>
+    <t>每时每刻都好紧张</t>
+  </si>
+  <si>
+    <t>401:500</t>
+  </si>
+  <si>
+    <t>young_main_e</t>
+  </si>
+  <si>
+    <t>什么时候加班</t>
+  </si>
+  <si>
+    <t>501:600</t>
+  </si>
+  <si>
+    <t>young_main_f</t>
+  </si>
+  <si>
+    <t>累死了</t>
+  </si>
+  <si>
+    <t>601:700</t>
+  </si>
+  <si>
+    <t>young_main_g</t>
+  </si>
+  <si>
+    <t>又要团建</t>
+  </si>
+  <si>
+    <t>701:800</t>
+  </si>
+  <si>
+    <t>young_main_h</t>
+  </si>
+  <si>
+    <t>老板啊,好羡慕</t>
+  </si>
+  <si>
+    <t>801:900</t>
+  </si>
+  <si>
+    <t>young_main_l</t>
+  </si>
+  <si>
+    <t>你有什么梦想</t>
+  </si>
+  <si>
+    <t>901:1000</t>
+  </si>
+  <si>
+    <t>young_main_m</t>
+  </si>
+  <si>
+    <t>大城市</t>
+  </si>
+  <si>
+    <t>young_talk_a</t>
+  </si>
+  <si>
+    <t>剧还没来得及看</t>
+  </si>
+  <si>
+    <t>young_talk_b</t>
+  </si>
+  <si>
+    <t>一定能通过的</t>
+  </si>
+  <si>
+    <t>young_talk_c</t>
+  </si>
+  <si>
+    <t>睡个懒觉</t>
+  </si>
+  <si>
+    <t>young_talk_d_1</t>
+  </si>
+  <si>
+    <t>教教我</t>
+  </si>
+  <si>
+    <t>young_talk_d_2</t>
+  </si>
+  <si>
+    <t>做卵做啊</t>
+  </si>
+  <si>
+    <t>young_talk_e_1</t>
+  </si>
+  <si>
+    <t>好羡慕</t>
+  </si>
+  <si>
+    <t>young_talk_e_2</t>
+  </si>
+  <si>
+    <t>放假啦</t>
+  </si>
+  <si>
+    <t>young_talk_f_1</t>
+  </si>
+  <si>
+    <t>去哪玩呢</t>
+  </si>
+  <si>
+    <t>young_talk_f_2</t>
+  </si>
+  <si>
+    <t>租的房子</t>
+  </si>
+  <si>
+    <t>young_talk_g_1</t>
+  </si>
+  <si>
+    <t>看到一个广告</t>
+  </si>
+  <si>
+    <t>young_talk_g_2</t>
   </si>
 </sst>
 </file>
@@ -521,7 +665,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -537,6 +681,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -866,7 +1028,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -890,16 +1052,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -914,105 +1076,123 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="22" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="23" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="22" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="23" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1337,8 +1517,8 @@
   <sheetPr/>
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1357,121 +1537,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="23" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="M2" s="23" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6" t="s">
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="M3" s="23" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1486,22 +1666,22 @@
       <c r="D4">
         <v>10001</v>
       </c>
-      <c r="E4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="E4" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="19">
         <v>0</v>
       </c>
       <c r="K4" t="s">
@@ -1525,33 +1705,33 @@
       <c r="D5">
         <v>10001</v>
       </c>
-      <c r="E5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4">
+      <c r="E5" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="17">
         <f>$D5*1000+1</f>
         <v>10001001</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="19">
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="L5" t="s">
         <v>40</v>
       </c>
       <c r="M5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" customFormat="1" ht="16.5" spans="2:11">
@@ -1560,32 +1740,32 @@
         <v>10001003</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6">
         <v>10001</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" s="4">
+      <c r="E6" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="17">
         <f>$D6*1000+1</f>
         <v>10001001</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="24">
         <v>10002</v>
       </c>
       <c r="K6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="2:11">
@@ -1594,31 +1774,31 @@
         <v>10001004</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D7">
         <v>10001</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="4">
+      <c r="E7" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="17">
         <v>10001002</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I7" s="4" t="s">
+      <c r="G7" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="24">
         <v>10002</v>
       </c>
       <c r="K7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="2:13">
@@ -1626,28 +1806,28 @@
         <f>$D8*1000+5</f>
         <v>10001005</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>52</v>
+      <c r="C8" s="20" t="s">
+        <v>51</v>
       </c>
       <c r="D8">
         <v>10001</v>
       </c>
-      <c r="E8" s="11" t="b">
+      <c r="E8" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="17">
         <v>10001002</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="I8" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="J8" s="5">
+      <c r="J8" s="19">
         <v>0</v>
       </c>
       <c r="K8" t="s">
@@ -1657,7 +1837,7 @@
         <v>40</v>
       </c>
       <c r="M8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="2:13">
@@ -1666,7 +1846,7 @@
         <v>10001006</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D9">
         <v>10001</v>
@@ -1674,29 +1854,29 @@
       <c r="E9" t="b">
         <v>1</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="17">
         <v>10001002</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="H9" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="J9" s="5">
+      <c r="I9" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" s="19">
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="L9" t="s">
         <v>40</v>
       </c>
       <c r="M9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="2:13">
@@ -1705,7 +1885,7 @@
         <v>10001007</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D10">
         <v>10001</v>
@@ -1713,29 +1893,29 @@
       <c r="E10" t="b">
         <v>1</v>
       </c>
-      <c r="F10" s="4">
-        <v>0</v>
-      </c>
-      <c r="G10" s="4" t="s">
+      <c r="F10" s="17">
+        <v>0</v>
+      </c>
+      <c r="G10" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="I10" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="J10" s="4">
+      <c r="J10" s="17">
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="L10" t="s">
         <v>40</v>
       </c>
       <c r="M10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1749,8 +1929,8 @@
   <sheetPr/>
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1758,427 +1938,430 @@
     <col min="2" max="2" width="11.4666666666667" customWidth="1"/>
     <col min="3" max="3" width="16.375" customWidth="1"/>
     <col min="4" max="4" width="21.025" customWidth="1"/>
-    <col min="5" max="5" width="14.3" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6" style="1" customWidth="1"/>
-    <col min="7" max="7" width="25.8583333333333" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.6333333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.3" style="15" customWidth="1"/>
+    <col min="6" max="6" width="19.6" style="15" customWidth="1"/>
+    <col min="7" max="7" width="25.8583333333333" style="15" customWidth="1"/>
+    <col min="8" max="8" width="16.6333333333333" style="15" customWidth="1"/>
     <col min="9" max="9" width="11.25" customWidth="1"/>
     <col min="10" max="10" width="15.2583333333333" customWidth="1"/>
     <col min="11" max="11" width="29.65" customWidth="1"/>
-    <col min="12" max="12" width="39.5" customWidth="1"/>
+    <col min="12" max="12" width="33.9583333333333" customWidth="1"/>
     <col min="13" max="13" width="42.6666666666667" customWidth="1"/>
     <col min="14" max="14" width="19.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="L1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="8" t="s">
+      <c r="J2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="K2" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="8" t="s">
+      <c r="M2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="L2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="6" t="s">
+      <c r="K3" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="K3" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="2:14">
+    <row r="4" ht="28.5" spans="2:14">
       <c r="B4">
         <f>$D$4*1000+1</f>
         <v>10002001</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D4">
         <v>10002</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="17">
+        <v>0</v>
+      </c>
+      <c r="K4" s="17"/>
+      <c r="L4" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="F4" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="4" t="s">
+      <c r="N4" t="s">
         <v>72</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J4" s="4">
-        <v>0</v>
-      </c>
-      <c r="K4" s="4"/>
-      <c r="L4" t="s">
-        <v>39</v>
-      </c>
-      <c r="M4" t="s">
-        <v>73</v>
-      </c>
-      <c r="N4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14">
+    </row>
+    <row r="5" ht="28.5" spans="2:14">
       <c r="B5">
         <f>$D$4*1000+2</f>
         <v>10002002</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D5">
         <v>10002</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F5" s="4" t="s">
+      <c r="E5" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="17"/>
+      <c r="L5" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="4" t="s">
+      <c r="N5" t="s">
         <v>77</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" s="4"/>
-      <c r="L5" t="s">
-        <v>39</v>
-      </c>
-      <c r="M5" t="s">
-        <v>78</v>
-      </c>
-      <c r="N5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12">
+    </row>
+    <row r="6" ht="28.5" spans="2:13">
       <c r="B6">
         <f>$D$4*1000+3</f>
         <v>10002003</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D6">
         <v>10002</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="G6" s="4" t="s">
+      <c r="E6" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="I6" s="4" t="s">
+      <c r="H6" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="I6" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="17">
         <v>10002</v>
       </c>
-      <c r="K6" s="4"/>
-      <c r="L6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" ht="16.5" spans="2:12">
+      <c r="K6" s="17"/>
+      <c r="L6" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" s="21"/>
+    </row>
+    <row r="7" ht="28.5" spans="2:13">
       <c r="B7">
         <f>$D$4*1000+4</f>
         <v>10002004</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D7">
         <v>10002</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="5">
+      <c r="E7" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="19">
         <v>10002001</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H7" s="4" t="s">
+      <c r="G7" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="K7" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="L7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" ht="16.5" spans="2:12">
+      <c r="L7" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" s="21"/>
+    </row>
+    <row r="8" ht="28.5" spans="2:13">
       <c r="B8">
         <f>$D$4*1000+5</f>
         <v>10002005</v>
       </c>
       <c r="C8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D8">
         <v>10002</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="4" t="s">
+      <c r="E8" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" s="4" t="s">
+      <c r="K8" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="L8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" ht="16.5" spans="2:14">
+      <c r="L8" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8" s="21"/>
+    </row>
+    <row r="9" ht="28.5" spans="2:14">
       <c r="B9">
         <f>$D$4*1000+6</f>
         <v>10002006</v>
       </c>
       <c r="C9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D9">
         <v>10002</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F9" s="5">
+      <c r="E9" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="19">
         <v>10002002</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="I9" s="4" t="s">
+      <c r="H9" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="I9" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="J9" s="12">
-        <v>0</v>
-      </c>
-      <c r="K9" s="12"/>
-      <c r="L9" t="s">
-        <v>87</v>
-      </c>
-      <c r="M9" t="s">
-        <v>78</v>
+      <c r="J9" s="22">
+        <v>0</v>
+      </c>
+      <c r="K9" s="22"/>
+      <c r="L9" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="M9" s="21" t="s">
+        <v>76</v>
       </c>
       <c r="N9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" ht="16.5" spans="2:14">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" ht="28.5" spans="2:14">
       <c r="B10">
         <f>$D$4*1000+7</f>
         <v>10002007</v>
       </c>
       <c r="C10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D10">
         <v>10002</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="4" t="s">
+      <c r="E10" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="J10" s="12">
-        <v>0</v>
-      </c>
-      <c r="K10" s="12"/>
-      <c r="L10" t="s">
-        <v>87</v>
-      </c>
-      <c r="M10" t="s">
-        <v>78</v>
+      <c r="H10" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="J10" s="22">
+        <v>0</v>
+      </c>
+      <c r="K10" s="22"/>
+      <c r="L10" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="M10" s="21" t="s">
+        <v>76</v>
       </c>
       <c r="N10" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="5:11">
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
     </row>
     <row r="12" spans="3:7">
-      <c r="C12" s="11"/>
-      <c r="G12" s="4"/>
+      <c r="C12" s="20"/>
+      <c r="G12" s="17"/>
     </row>
     <row r="13" spans="7:7">
-      <c r="G13" s="4"/>
+      <c r="G13" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2189,72 +2372,1025 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="L1:L12"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L10"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="12" max="12" width="23.2666666666667" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="12.8833333333333" customWidth="1"/>
+    <col min="4" max="4" width="12.5916666666667" customWidth="1"/>
+    <col min="5" max="5" width="14.875" customWidth="1"/>
+    <col min="6" max="6" width="14.25" customWidth="1"/>
+    <col min="7" max="7" width="13.175" customWidth="1"/>
+    <col min="8" max="8" width="10.675" customWidth="1"/>
+    <col min="9" max="9" width="9.51666666666667" customWidth="1"/>
+    <col min="10" max="10" width="16.75" customWidth="1"/>
+    <col min="11" max="11" width="17.5916666666667" customWidth="1"/>
+    <col min="12" max="12" width="26.725" style="1" customWidth="1"/>
+    <col min="13" max="13" width="23.8416666666667" customWidth="1"/>
+    <col min="14" max="14" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="12:12">
+    <row r="1" spans="1:14">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="L1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="12:12">
-      <c r="L2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" ht="28.5" spans="1:14">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8">
+        <v>20001001</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="8">
+        <v>20001</v>
+      </c>
+      <c r="E4" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="8">
+        <v>0</v>
+      </c>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" s="8" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="12:12">
-      <c r="L3" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="12:12">
-      <c r="L4" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="12:12">
-      <c r="L5" s="4" t="s">
+      <c r="N4" s="8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="12:12">
-      <c r="L6" s="4" t="s">
+    <row r="5" ht="28.5" spans="1:14">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8">
+        <v>20001002</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="7" spans="12:12">
-      <c r="L7" s="5" t="s">
+      <c r="D5" s="8">
+        <v>20001</v>
+      </c>
+      <c r="E5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="8">
+        <v>20001001</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="8" spans="12:12">
-      <c r="L8" s="4" t="s">
+      <c r="H5" s="9" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="9" spans="12:12">
-      <c r="L9" s="5">
-        <v>10001</v>
-      </c>
-    </row>
-    <row r="10" spans="12:12">
-      <c r="L10" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="12:12">
-      <c r="L11" s="4"/>
-    </row>
-    <row r="12" spans="12:12">
-      <c r="L12" s="4"/>
+      <c r="I5" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="8">
+        <v>0</v>
+      </c>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" ht="28.5" spans="1:14">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8">
+        <v>20001003</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="8">
+        <v>20001</v>
+      </c>
+      <c r="E6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="8">
+        <v>20001002</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="8">
+        <v>0</v>
+      </c>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" ht="28.5" spans="1:14">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8">
+        <v>20001004</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="8">
+        <v>20001</v>
+      </c>
+      <c r="E7" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="8">
+        <v>20001003</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="8">
+        <v>0</v>
+      </c>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" ht="28.5" spans="1:14">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8">
+        <v>20001005</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="8">
+        <v>20001</v>
+      </c>
+      <c r="E8" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="8">
+        <v>20001004</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="8">
+        <v>0</v>
+      </c>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" ht="28.5" spans="1:14">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8">
+        <v>20001006</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" s="8">
+        <v>20001</v>
+      </c>
+      <c r="E9" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="8">
+        <v>20001005</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="8">
+        <v>0</v>
+      </c>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" ht="28.5" spans="1:14">
+      <c r="A10" s="10"/>
+      <c r="B10" s="8">
+        <v>20001007</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" s="8">
+        <v>20001</v>
+      </c>
+      <c r="E10" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="8">
+        <v>20001006</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="10">
+        <v>0</v>
+      </c>
+      <c r="K10" s="10"/>
+      <c r="L10" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" ht="28.5" spans="1:14">
+      <c r="A11" s="10"/>
+      <c r="B11" s="8">
+        <v>20001008</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" s="8">
+        <v>20001</v>
+      </c>
+      <c r="E11" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" s="8">
+        <v>20001007</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="10">
+        <v>0</v>
+      </c>
+      <c r="K11" s="10"/>
+      <c r="L11" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" ht="28.5" spans="1:14">
+      <c r="A12" s="10"/>
+      <c r="B12" s="8">
+        <v>20001009</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" s="8">
+        <v>20001</v>
+      </c>
+      <c r="E12" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="8">
+        <v>20001008</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="10">
+        <v>0</v>
+      </c>
+      <c r="K12" s="10"/>
+      <c r="L12" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="N12" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" ht="28.5" spans="1:14">
+      <c r="A13" s="10"/>
+      <c r="B13" s="8">
+        <v>20001010</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D13" s="8">
+        <v>20001</v>
+      </c>
+      <c r="E13" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" s="8">
+        <v>20001009</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="10">
+        <v>0</v>
+      </c>
+      <c r="K13" s="10"/>
+      <c r="L13" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="N13" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" ht="28.5" spans="2:14">
+      <c r="B14" s="12">
+        <v>20002001</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="D14" s="12">
+        <v>20001</v>
+      </c>
+      <c r="E14" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" s="13">
+        <v>20001001</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="J14" s="13">
+        <v>0</v>
+      </c>
+      <c r="K14" s="13"/>
+      <c r="L14" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="N14" s="13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" ht="28.5" spans="2:14">
+      <c r="B15" s="12">
+        <v>20002002</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D15" s="13">
+        <v>20001</v>
+      </c>
+      <c r="E15" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" s="13">
+        <v>20001002</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0</v>
+      </c>
+      <c r="K15" s="13"/>
+      <c r="L15" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="M15" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="N15" s="13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" ht="28.5" spans="2:14">
+      <c r="B16" s="12">
+        <v>20002003</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="D16" s="12">
+        <v>20001</v>
+      </c>
+      <c r="E16" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" s="13">
+        <v>20001003</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="J16" s="13">
+        <v>0</v>
+      </c>
+      <c r="K16" s="13"/>
+      <c r="L16" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="M16" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="N16" s="16" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" ht="28.5" spans="2:14">
+      <c r="B17" s="12">
+        <v>20002004</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D17" s="13">
+        <v>20001</v>
+      </c>
+      <c r="E17" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17" s="13">
+        <v>20001004</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="J17" s="13">
+        <v>0</v>
+      </c>
+      <c r="K17" s="13"/>
+      <c r="L17" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="M17" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="N17" s="16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" ht="28.5" spans="2:14">
+      <c r="B18" s="12">
+        <v>20002005</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D18" s="12">
+        <v>20001</v>
+      </c>
+      <c r="E18" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F18" s="13">
+        <v>20001004</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="J18" s="13">
+        <v>0</v>
+      </c>
+      <c r="K18" s="13"/>
+      <c r="L18" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="M18" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="N18" s="16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" ht="28.5" spans="2:14">
+      <c r="B19" s="12">
+        <v>20002006</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D19" s="13">
+        <v>20001</v>
+      </c>
+      <c r="E19" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F19" s="13">
+        <v>20001005</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="J19" s="13">
+        <v>0</v>
+      </c>
+      <c r="K19" s="13"/>
+      <c r="L19" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="M19" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="N19" s="16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" ht="28.5" spans="2:14">
+      <c r="B20" s="12">
+        <v>20002007</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="D20" s="12">
+        <v>20001</v>
+      </c>
+      <c r="E20" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F20" s="13">
+        <v>20001006</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="J20" s="13">
+        <v>0</v>
+      </c>
+      <c r="K20" s="13"/>
+      <c r="L20" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="M20" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="N20" s="16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" ht="28.5" spans="2:14">
+      <c r="B21" s="12">
+        <v>20002008</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="D21" s="13">
+        <v>20001</v>
+      </c>
+      <c r="E21" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F21" s="13">
+        <v>20001006</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="J21" s="13">
+        <v>0</v>
+      </c>
+      <c r="K21" s="13"/>
+      <c r="L21" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="M21" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="N21" s="16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="22" ht="28.5" spans="2:14">
+      <c r="B22" s="12">
+        <v>20002009</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D22" s="12">
+        <v>20001</v>
+      </c>
+      <c r="E22" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F22" s="13">
+        <v>20001007</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="J22" s="13">
+        <v>0</v>
+      </c>
+      <c r="K22" s="13"/>
+      <c r="L22" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="M22" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="N22" s="16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="23" ht="28.5" spans="2:14">
+      <c r="B23" s="12">
+        <v>20002010</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="D23" s="13">
+        <v>20001</v>
+      </c>
+      <c r="E23" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F23" s="13">
+        <v>20001008</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="J23" s="13">
+        <v>0</v>
+      </c>
+      <c r="K23" s="13"/>
+      <c r="L23" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="M23" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="N23" s="16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" ht="28.5" spans="2:14">
+      <c r="B24" s="12">
+        <v>20002011</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="D24" s="12">
+        <v>20001</v>
+      </c>
+      <c r="E24" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F24" s="13">
+        <v>20001008</v>
+      </c>
+      <c r="G24" s="13"/>
+      <c r="H24" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="J24" s="13">
+        <v>0</v>
+      </c>
+      <c r="K24" s="13"/>
+      <c r="L24" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="M24" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="N24" s="16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="25" spans="8:8">
+      <c r="H25" s="15"/>
+    </row>
+    <row r="26" spans="8:8">
+      <c r="H26" s="15"/>
+    </row>
+    <row r="27" spans="8:8">
+      <c r="H27" s="15"/>
+    </row>
+    <row r="28" spans="8:8">
+      <c r="H28" s="15"/>
+    </row>
+    <row r="29" spans="8:8">
+      <c r="H29" s="15"/>
+    </row>
+    <row r="30" spans="8:8">
+      <c r="H30" s="15"/>
+    </row>
+    <row r="31" spans="8:8">
+      <c r="H31" s="15"/>
+    </row>
+    <row r="32" spans="8:8">
+      <c r="H32" s="15"/>
+    </row>
+    <row r="33" spans="8:8">
+      <c r="H33" s="15"/>
+    </row>
+    <row r="34" spans="8:8">
+      <c r="H34" s="15"/>
+    </row>
+    <row r="35" spans="8:8">
+      <c r="H35" s="15"/>
+    </row>
+    <row r="36" spans="8:8">
+      <c r="H36" s="15"/>
+    </row>
+    <row r="37" spans="8:8">
+      <c r="H37" s="15"/>
+    </row>
+    <row r="38" spans="8:8">
+      <c r="H38" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/DataConfig/Datas/bubble.xlsx
+++ b/DataConfig/Datas/bubble.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655" activeTab="2"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="章鱼" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="160">
   <si>
     <t>##var</t>
   </si>
@@ -178,198 +178,186 @@
     <t>TRUE</t>
   </si>
   <si>
+    <t>0:100</t>
+  </si>
+  <si>
+    <t>来个炒虾</t>
+  </si>
+  <si>
+    <t>0:200</t>
+  </si>
+  <si>
+    <t>魔王又半夜找我</t>
+  </si>
+  <si>
+    <t>对话</t>
+  </si>
+  <si>
+    <t>complaintA</t>
+  </si>
+  <si>
+    <t>山梨又发布了新的电脑了</t>
+  </si>
+  <si>
+    <t>complaintB</t>
+  </si>
+  <si>
+    <t>这个菜的味道.....</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>评论</t>
+  </si>
+  <si>
+    <t>ZhangyuComment</t>
+  </si>
+  <si>
+    <t>flavor_tags</t>
+  </si>
+  <si>
+    <t>common_bubbleType</t>
+  </si>
+  <si>
+    <t>(list#sep=,),food.flavorTag</t>
+  </si>
+  <si>
+    <t>气泡类型=下单</t>
+  </si>
+  <si>
+    <t>气泡类型=模糊订单</t>
+  </si>
+  <si>
+    <t>喵喵肚子很饿</t>
+  </si>
+  <si>
+    <t>FALSE</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/Story/Miao.yarnproject</t>
+  </si>
+  <si>
+    <t>MiaoMainFirst</t>
+  </si>
+  <si>
+    <t>等了好久呢</t>
+  </si>
+  <si>
+    <t>10002001</t>
+  </si>
+  <si>
+    <t>10:30</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/Story/LittleGirlProject.yarnproject</t>
+  </si>
+  <si>
+    <t>MiaoSecond</t>
+  </si>
+  <si>
+    <t>黄油拌饭</t>
+  </si>
+  <si>
+    <t>10002002</t>
+  </si>
+  <si>
+    <t>30:9999</t>
+  </si>
+  <si>
+    <t>想吃甜的</t>
+  </si>
+  <si>
+    <t>周一,周二</t>
+  </si>
+  <si>
+    <t>10:99999</t>
+  </si>
+  <si>
+    <t>模糊订单</t>
+  </si>
+  <si>
+    <t>甜,酸,清凉</t>
+  </si>
+  <si>
+    <t>今天来点带劲的</t>
+  </si>
+  <si>
+    <t>10002001,10002002</t>
+  </si>
+  <si>
+    <t>30:99999</t>
+  </si>
+  <si>
+    <t>模棱两可</t>
+  </si>
+  <si>
+    <t>10002</t>
+  </si>
+  <si>
+    <t>辣,甜,清凉</t>
+  </si>
+  <si>
+    <t>Ciao～</t>
+  </si>
+  <si>
+    <t>35:50</t>
+  </si>
+  <si>
+    <t>MiaoThird</t>
+  </si>
+  <si>
+    <t>今天又被喂了奇...</t>
+  </si>
+  <si>
+    <t>0:45</t>
+  </si>
+  <si>
+    <t>LittleGirl_talkB</t>
+  </si>
+  <si>
+    <t>还能点单吗</t>
+  </si>
+  <si>
+    <t>周一</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/Story/young/young.yarnproject</t>
+  </si>
+  <si>
+    <t>young_main_a</t>
+  </si>
+  <si>
+    <t>老板晚上好</t>
+  </si>
+  <si>
+    <t>周三</t>
+  </si>
+  <si>
+    <t>101:200</t>
+  </si>
+  <si>
+    <t>young_main_b</t>
+  </si>
+  <si>
+    <t>肚子有点饿了</t>
+  </si>
+  <si>
+    <t>周五</t>
+  </si>
+  <si>
+    <t>201:300</t>
+  </si>
+  <si>
+    <t>young_main_c</t>
+  </si>
+  <si>
+    <t>又要重写了</t>
+  </si>
+  <si>
     <t>周六</t>
   </si>
   <si>
-    <t>5:99999</t>
-  </si>
-  <si>
-    <t>来个炒虾</t>
-  </si>
-  <si>
-    <t>周日,周二</t>
-  </si>
-  <si>
-    <t>魔王又半夜找我</t>
-  </si>
-  <si>
-    <t>周六,周日,周一</t>
-  </si>
-  <si>
-    <t>10:20</t>
-  </si>
-  <si>
-    <t>对话</t>
-  </si>
-  <si>
-    <t>complaintA</t>
-  </si>
-  <si>
-    <t>山梨又发布了新的电脑了</t>
-  </si>
-  <si>
-    <t>周一,周二</t>
-  </si>
-  <si>
-    <t>15:30</t>
-  </si>
-  <si>
-    <t>complaintB</t>
-  </si>
-  <si>
-    <t>这个菜的味道.....</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>评论</t>
-  </si>
-  <si>
-    <t>ZhangyuComment</t>
-  </si>
-  <si>
-    <t>flavor_tags</t>
-  </si>
-  <si>
-    <t>common_bubbleType</t>
-  </si>
-  <si>
-    <t>(list#sep=,),food.flavorTag</t>
-  </si>
-  <si>
-    <t>气泡类型=下单</t>
-  </si>
-  <si>
-    <t>气泡类型=模糊订单</t>
-  </si>
-  <si>
-    <t>喵喵肚子很饿</t>
-  </si>
-  <si>
-    <t>FALSE</t>
-  </si>
-  <si>
-    <t>Assets/GameRes/Story/Miao.yarnproject</t>
-  </si>
-  <si>
-    <t>MiaoMainFirst</t>
-  </si>
-  <si>
-    <t>等了好久呢</t>
-  </si>
-  <si>
-    <t>10002001</t>
-  </si>
-  <si>
-    <t>10:30</t>
-  </si>
-  <si>
-    <t>Assets/GameRes/Story/LittleGirlProject.yarnproject</t>
-  </si>
-  <si>
-    <t>MiaoSecond</t>
-  </si>
-  <si>
-    <t>黄油拌饭</t>
-  </si>
-  <si>
-    <t>10002002</t>
-  </si>
-  <si>
-    <t>30:9999</t>
-  </si>
-  <si>
-    <t>想吃甜的</t>
-  </si>
-  <si>
-    <t>10:99999</t>
-  </si>
-  <si>
-    <t>模糊订单</t>
-  </si>
-  <si>
-    <t>甜,酸,清凉</t>
-  </si>
-  <si>
-    <t>今天来点带劲的</t>
-  </si>
-  <si>
-    <t>10002001,10002002</t>
-  </si>
-  <si>
-    <t>30:99999</t>
-  </si>
-  <si>
-    <t>模棱两可</t>
-  </si>
-  <si>
-    <t>10002</t>
-  </si>
-  <si>
-    <t>辣,甜,清凉</t>
-  </si>
-  <si>
-    <t>Ciao～</t>
-  </si>
-  <si>
-    <t>35:50</t>
-  </si>
-  <si>
-    <t>MiaoThird</t>
-  </si>
-  <si>
-    <t>今天又被喂了奇...</t>
-  </si>
-  <si>
-    <t>0:45</t>
-  </si>
-  <si>
-    <t>LittleGirl_talkB</t>
-  </si>
-  <si>
-    <t>还能点单吗</t>
-  </si>
-  <si>
-    <t>周一</t>
-  </si>
-  <si>
-    <t>0:100</t>
-  </si>
-  <si>
-    <t>Assets/GameRes/Story/young/young.yarnproject</t>
-  </si>
-  <si>
-    <t>young_main_a</t>
-  </si>
-  <si>
-    <t>老板晚上好</t>
-  </si>
-  <si>
-    <t>周三</t>
-  </si>
-  <si>
-    <t>101:200</t>
-  </si>
-  <si>
-    <t>young_main_b</t>
-  </si>
-  <si>
-    <t>肚子有点饿了</t>
-  </si>
-  <si>
-    <t>周五</t>
-  </si>
-  <si>
-    <t>201:300</t>
-  </si>
-  <si>
-    <t>young_main_c</t>
-  </si>
-  <si>
-    <t>又要重写了</t>
-  </si>
-  <si>
     <t>301:400</t>
   </si>
   <si>
@@ -494,6 +482,39 @@
   </si>
   <si>
     <t>young_talk_g_2</t>
+  </si>
+  <si>
+    <t>来份蛋炒饭</t>
+  </si>
+  <si>
+    <t>0:500</t>
+  </si>
+  <si>
+    <t>来份羊肉串</t>
+  </si>
+  <si>
+    <t>炒花蛤</t>
+  </si>
+  <si>
+    <t>蛋炒饭加点刺激的</t>
+  </si>
+  <si>
+    <t>100:500</t>
+  </si>
+  <si>
+    <t>辣,咸</t>
+  </si>
+  <si>
+    <t>羊肉串来点反差</t>
+  </si>
+  <si>
+    <t>甜,素</t>
+  </si>
+  <si>
+    <t>中和下炒花蛤</t>
+  </si>
+  <si>
+    <t>酸</t>
   </si>
 </sst>
 </file>
@@ -698,7 +719,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.8"/>
+        <fgColor theme="7" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1152,7 +1173,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1"/>
@@ -1169,13 +1190,17 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1517,8 +1542,8 @@
   <sheetPr/>
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1573,7 +1598,7 @@
       <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="25" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1614,7 +1639,7 @@
       <c r="L2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="23" t="s">
+      <c r="M2" s="25" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1651,7 +1676,7 @@
       <c r="L3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="23" t="s">
+      <c r="M3" s="25" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1666,22 +1691,22 @@
       <c r="D4">
         <v>10001</v>
       </c>
-      <c r="E4" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" s="17" t="s">
+      <c r="E4" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="19">
+      <c r="J4" s="21">
         <v>0</v>
       </c>
       <c r="K4" t="s">
@@ -1705,23 +1730,23 @@
       <c r="D5">
         <v>10001</v>
       </c>
-      <c r="E5" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" s="17">
+      <c r="E5" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="19">
         <f>$D5*1000+1</f>
         <v>10001001</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="19">
+      <c r="J5" s="21">
         <v>0</v>
       </c>
       <c r="K5" t="s">
@@ -1745,23 +1770,22 @@
       <c r="D6">
         <v>10001</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="17">
-        <f>$D6*1000+1</f>
-        <v>10001001</v>
-      </c>
-      <c r="G6" s="17" t="s">
+      <c r="F6" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="H6" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="24">
+      <c r="J6" s="26">
         <v>10002</v>
       </c>
       <c r="K6" t="s">
@@ -1774,27 +1798,27 @@
         <v>10001004</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D7">
         <v>10001</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="17">
-        <v>10001002</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" s="17" t="s">
+      <c r="F7" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="24">
+      <c r="J7" s="26">
         <v>10002</v>
       </c>
       <c r="K7" t="s">
@@ -1806,28 +1830,28 @@
         <f>$D8*1000+5</f>
         <v>10001005</v>
       </c>
-      <c r="C8" s="20" t="s">
-        <v>51</v>
+      <c r="C8" s="22" t="s">
+        <v>50</v>
       </c>
       <c r="D8">
         <v>10001</v>
       </c>
-      <c r="E8" s="20" t="b">
+      <c r="E8" s="22" t="b">
         <v>1</v>
       </c>
-      <c r="F8" s="17">
-        <v>10001002</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="H8" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="I8" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="J8" s="19">
+      <c r="F8" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="J8" s="21">
         <v>0</v>
       </c>
       <c r="K8" t="s">
@@ -1837,7 +1861,7 @@
         <v>40</v>
       </c>
       <c r="M8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="2:13">
@@ -1846,7 +1870,7 @@
         <v>10001006</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D9">
         <v>10001</v>
@@ -1854,19 +1878,19 @@
       <c r="E9" t="b">
         <v>1</v>
       </c>
-      <c r="F9" s="17">
-        <v>10001002</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="H9" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="I9" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="J9" s="19">
+      <c r="F9" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="J9" s="21">
         <v>0</v>
       </c>
       <c r="K9" t="s">
@@ -1876,7 +1900,7 @@
         <v>40</v>
       </c>
       <c r="M9" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="2:13">
@@ -1885,7 +1909,7 @@
         <v>10001007</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D10">
         <v>10001</v>
@@ -1893,19 +1917,19 @@
       <c r="E10" t="b">
         <v>1</v>
       </c>
-      <c r="F10" s="17">
-        <v>0</v>
-      </c>
-      <c r="G10" s="17" t="s">
+      <c r="F10" s="19">
+        <v>0</v>
+      </c>
+      <c r="G10" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="I10" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="J10" s="17">
+      <c r="H10" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" s="19">
         <v>0</v>
       </c>
       <c r="K10" t="s">
@@ -1915,7 +1939,7 @@
         <v>40</v>
       </c>
       <c r="M10" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1930,7 +1954,7 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1938,10 +1962,10 @@
     <col min="2" max="2" width="11.4666666666667" customWidth="1"/>
     <col min="3" max="3" width="16.375" customWidth="1"/>
     <col min="4" max="4" width="21.025" customWidth="1"/>
-    <col min="5" max="5" width="14.3" style="15" customWidth="1"/>
-    <col min="6" max="6" width="19.6" style="15" customWidth="1"/>
-    <col min="7" max="7" width="25.8583333333333" style="15" customWidth="1"/>
-    <col min="8" max="8" width="16.6333333333333" style="15" customWidth="1"/>
+    <col min="5" max="5" width="14.3" style="17" customWidth="1"/>
+    <col min="6" max="6" width="19.6" style="17" customWidth="1"/>
+    <col min="7" max="7" width="25.8583333333333" style="17" customWidth="1"/>
+    <col min="8" max="8" width="16.6333333333333" style="17" customWidth="1"/>
     <col min="9" max="9" width="11.25" customWidth="1"/>
     <col min="10" max="10" width="15.2583333333333" customWidth="1"/>
     <col min="11" max="11" width="29.65" customWidth="1"/>
@@ -1982,7 +2006,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>10</v>
@@ -2020,13 +2044,13 @@
         <v>20</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>15</v>
@@ -2063,10 +2087,10 @@
         <v>29</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>31</v>
@@ -2084,38 +2108,38 @@
         <v>10002001</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D4">
         <v>10002</v>
       </c>
-      <c r="E4" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="F4" s="18" t="s">
+      <c r="E4" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="17">
-        <v>0</v>
-      </c>
-      <c r="K4" s="17"/>
-      <c r="L4" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="M4" s="21" t="s">
-        <v>71</v>
+      <c r="J4" s="19">
+        <v>0</v>
+      </c>
+      <c r="K4" s="19"/>
+      <c r="L4" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" s="23" t="s">
+        <v>66</v>
       </c>
       <c r="N4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" ht="28.5" spans="2:14">
@@ -2124,38 +2148,38 @@
         <v>10002002</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D5">
         <v>10002</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="F5" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="17" t="s">
+      <c r="J5" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="17"/>
-      <c r="L5" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="M5" s="21" t="s">
-        <v>76</v>
+      <c r="K5" s="19"/>
+      <c r="L5" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="23" t="s">
+        <v>71</v>
       </c>
       <c r="N5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" ht="28.5" spans="2:13">
@@ -2164,34 +2188,34 @@
         <v>10002003</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D6">
         <v>10002</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="G6" s="17" t="s">
+      <c r="F6" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="I6" s="17" t="s">
+      <c r="H6" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="I6" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="17">
+      <c r="J6" s="19">
         <v>10002</v>
       </c>
-      <c r="K6" s="17"/>
-      <c r="L6" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="M6" s="21"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" s="23"/>
     </row>
     <row r="7" ht="28.5" spans="2:13">
       <c r="B7">
@@ -2199,36 +2223,36 @@
         <v>10002004</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D7">
         <v>10002</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="21">
         <v>10002001</v>
       </c>
-      <c r="G7" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="I7" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="J7" s="22" t="s">
+      <c r="G7" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="L7" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="M7" s="21"/>
+      <c r="K7" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="L7" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" s="23"/>
     </row>
     <row r="8" ht="28.5" spans="2:13">
       <c r="B8">
@@ -2236,36 +2260,36 @@
         <v>10002005</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D8">
         <v>10002</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="J8" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="K8" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="G8" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="I8" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="J8" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="K8" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="L8" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="M8" s="21"/>
+      <c r="L8" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8" s="23"/>
     </row>
     <row r="9" ht="28.5" spans="2:14">
       <c r="B9">
@@ -2273,38 +2297,38 @@
         <v>10002006</v>
       </c>
       <c r="C9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D9">
         <v>10002</v>
       </c>
-      <c r="E9" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" s="19">
+      <c r="E9" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="21">
         <v>10002002</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="I9" s="17" t="s">
+      <c r="H9" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="I9" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="J9" s="22">
-        <v>0</v>
-      </c>
-      <c r="K9" s="22"/>
-      <c r="L9" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="M9" s="21" t="s">
-        <v>76</v>
+      <c r="J9" s="24">
+        <v>0</v>
+      </c>
+      <c r="K9" s="24"/>
+      <c r="L9" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="M9" s="23" t="s">
+        <v>71</v>
       </c>
       <c r="N9" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" ht="28.5" spans="2:14">
@@ -2313,55 +2337,55 @@
         <v>10002007</v>
       </c>
       <c r="C10" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D10">
         <v>10002</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="I10" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="J10" s="22">
-        <v>0</v>
-      </c>
-      <c r="K10" s="22"/>
-      <c r="L10" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="M10" s="21" t="s">
-        <v>76</v>
+      <c r="H10" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="J10" s="24">
+        <v>0</v>
+      </c>
+      <c r="K10" s="24"/>
+      <c r="L10" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="M10" s="23" t="s">
+        <v>71</v>
       </c>
       <c r="N10" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="5:11">
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
     </row>
     <row r="12" spans="3:7">
-      <c r="C12" s="20"/>
-      <c r="G12" s="17"/>
+      <c r="C12" s="22"/>
+      <c r="G12" s="19"/>
     </row>
     <row r="13" spans="7:7">
-      <c r="G13" s="17"/>
+      <c r="G13" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2374,8 +2398,8 @@
   <sheetPr/>
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2427,7 +2451,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>10</v>
@@ -2465,13 +2489,13 @@
         <v>20</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>15</v>
@@ -2508,10 +2532,10 @@
         <v>29</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>31</v>
@@ -2529,7 +2553,7 @@
         <v>20001001</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D4" s="8">
         <v>20001</v>
@@ -2537,14 +2561,12 @@
       <c r="E4" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="F4" s="8">
-        <v>0</v>
-      </c>
+      <c r="F4" s="8"/>
       <c r="G4" s="8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>99</v>
+        <v>47</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>38</v>
@@ -2557,10 +2579,10 @@
         <v>39</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" ht="28.5" spans="1:14">
@@ -2569,7 +2591,7 @@
         <v>20001002</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D5" s="8">
         <v>20001</v>
@@ -2581,10 +2603,10 @@
         <v>20001001</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>38</v>
@@ -2597,10 +2619,10 @@
         <v>39</v>
       </c>
       <c r="M5" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="N5" s="8" t="s">
         <v>100</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="6" ht="28.5" spans="1:14">
@@ -2609,7 +2631,7 @@
         <v>20001003</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D6" s="8">
         <v>20001</v>
@@ -2621,10 +2643,10 @@
         <v>20001002</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>38</v>
@@ -2637,10 +2659,10 @@
         <v>39</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" ht="28.5" spans="1:14">
@@ -2649,7 +2671,7 @@
         <v>20001004</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D7" s="8">
         <v>20001</v>
@@ -2661,10 +2683,10 @@
         <v>20001003</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>47</v>
+        <v>106</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>38</v>
@@ -2677,10 +2699,10 @@
         <v>39</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" ht="28.5" spans="1:14">
@@ -2689,7 +2711,7 @@
         <v>20001005</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D8" s="8">
         <v>20001</v>
@@ -2701,10 +2723,10 @@
         <v>20001004</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>38</v>
@@ -2717,10 +2739,10 @@
         <v>39</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" ht="28.5" spans="1:14">
@@ -2729,7 +2751,7 @@
         <v>20001006</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D9" s="8">
         <v>20001</v>
@@ -2741,10 +2763,10 @@
         <v>20001005</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>38</v>
@@ -2757,10 +2779,10 @@
         <v>39</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" ht="28.5" spans="1:14">
@@ -2769,7 +2791,7 @@
         <v>20001007</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D10" s="8">
         <v>20001</v>
@@ -2781,10 +2803,10 @@
         <v>20001006</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="I10" s="10" t="s">
         <v>38</v>
@@ -2797,10 +2819,10 @@
         <v>39</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="N10" s="8" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" ht="28.5" spans="1:14">
@@ -2809,7 +2831,7 @@
         <v>20001008</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D11" s="8">
         <v>20001</v>
@@ -2821,10 +2843,10 @@
         <v>20001007</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I11" s="10" t="s">
         <v>38</v>
@@ -2837,10 +2859,10 @@
         <v>39</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="N11" s="10" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" ht="28.5" spans="1:14">
@@ -2849,7 +2871,7 @@
         <v>20001009</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D12" s="8">
         <v>20001</v>
@@ -2861,10 +2883,10 @@
         <v>20001008</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>38</v>
@@ -2877,10 +2899,10 @@
         <v>39</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="N12" s="10" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" ht="28.5" spans="1:14">
@@ -2889,7 +2911,7 @@
         <v>20001010</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D13" s="8">
         <v>20001</v>
@@ -2901,10 +2923,10 @@
         <v>20001009</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>47</v>
+        <v>106</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>38</v>
@@ -2917,480 +2939,693 @@
         <v>39</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="N13" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" ht="28.5" spans="1:14">
+      <c r="A14" s="12"/>
+      <c r="B14" s="13">
+        <v>20002001</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" s="13">
+        <v>20001</v>
+      </c>
+      <c r="E14" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="J14" s="12">
+        <v>0</v>
+      </c>
+      <c r="K14" s="12"/>
+      <c r="L14" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="M14" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="N14" s="12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" ht="28.5" spans="1:14">
+      <c r="A15" s="12"/>
+      <c r="B15" s="13">
+        <v>20002002</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D15" s="12">
+        <v>20001</v>
+      </c>
+      <c r="E15" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" s="12">
+        <v>20001002</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="J15" s="12">
+        <v>0</v>
+      </c>
+      <c r="K15" s="12"/>
+      <c r="L15" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="M15" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="N15" s="12" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="14" ht="28.5" spans="2:14">
-      <c r="B14" s="12">
-        <v>20002001</v>
-      </c>
-      <c r="C14" s="13" t="s">
+    <row r="16" ht="28.5" spans="1:14">
+      <c r="A16" s="12"/>
+      <c r="B16" s="13">
+        <v>20002003</v>
+      </c>
+      <c r="C16" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D16" s="13">
         <v>20001</v>
       </c>
-      <c r="E14" s="13" t="b">
+      <c r="E16" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="F14" s="13">
-        <v>20001001</v>
-      </c>
-      <c r="G14" s="13" t="s">
+      <c r="F16" s="12">
+        <v>20001003</v>
+      </c>
+      <c r="G16" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H14" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="J14" s="13">
-        <v>0</v>
-      </c>
-      <c r="K14" s="13"/>
-      <c r="L14" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="M14" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="N14" s="13" t="s">
+      <c r="H16" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="J16" s="12">
+        <v>0</v>
+      </c>
+      <c r="K16" s="12"/>
+      <c r="L16" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="M16" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="N16" s="12" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="15" ht="28.5" spans="2:14">
-      <c r="B15" s="12">
-        <v>20002002</v>
-      </c>
-      <c r="C15" s="13" t="s">
+    <row r="17" ht="28.5" spans="1:14">
+      <c r="A17" s="12"/>
+      <c r="B17" s="13">
+        <v>20002004</v>
+      </c>
+      <c r="C17" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D17" s="12">
         <v>20001</v>
       </c>
-      <c r="E15" s="13" t="b">
+      <c r="E17" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="F15" s="13">
-        <v>20001002</v>
-      </c>
-      <c r="G15" s="13" t="s">
+      <c r="F17" s="12">
+        <v>20001004</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="J17" s="12">
+        <v>0</v>
+      </c>
+      <c r="K17" s="12"/>
+      <c r="L17" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="M17" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="N17" s="12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" ht="28.5" spans="1:14">
+      <c r="A18" s="12"/>
+      <c r="B18" s="13">
+        <v>20002005</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D18" s="13">
+        <v>20001</v>
+      </c>
+      <c r="E18" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F18" s="12">
+        <v>20001004</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="J18" s="12">
+        <v>0</v>
+      </c>
+      <c r="K18" s="12"/>
+      <c r="L18" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="M18" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="N18" s="12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="19" ht="28.5" spans="1:14">
+      <c r="A19" s="12"/>
+      <c r="B19" s="13">
+        <v>20002006</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="D19" s="12">
+        <v>20001</v>
+      </c>
+      <c r="E19" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F19" s="12">
+        <v>20001005</v>
+      </c>
+      <c r="G19" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="J15" s="13">
-        <v>0</v>
-      </c>
-      <c r="K15" s="13"/>
-      <c r="L15" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="M15" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="N15" s="13" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="16" ht="28.5" spans="2:14">
-      <c r="B16" s="12">
-        <v>20002003</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="D16" s="12">
+      <c r="H19" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="J19" s="12">
+        <v>0</v>
+      </c>
+      <c r="K19" s="12"/>
+      <c r="L19" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="M19" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="N19" s="12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" ht="28.5" spans="1:14">
+      <c r="A20" s="12"/>
+      <c r="B20" s="13">
+        <v>20002007</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D20" s="13">
         <v>20001</v>
       </c>
-      <c r="E16" s="13" t="b">
+      <c r="E20" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="F16" s="13">
-        <v>20001003</v>
-      </c>
-      <c r="G16" s="13" t="s">
+      <c r="F20" s="12">
+        <v>20001006</v>
+      </c>
+      <c r="G20" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="I16" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="J16" s="13">
-        <v>0</v>
-      </c>
-      <c r="K16" s="13"/>
-      <c r="L16" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="M16" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="N16" s="16" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="17" ht="28.5" spans="2:14">
-      <c r="B17" s="12">
-        <v>20002004</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="D17" s="13">
+      <c r="H20" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="J20" s="12">
+        <v>0</v>
+      </c>
+      <c r="K20" s="12"/>
+      <c r="L20" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="M20" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="N20" s="12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" ht="28.5" spans="1:14">
+      <c r="A21" s="12"/>
+      <c r="B21" s="13">
+        <v>20002008</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D21" s="12">
         <v>20001</v>
       </c>
-      <c r="E17" s="13" t="b">
+      <c r="E21" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="F17" s="13">
-        <v>20001004</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="H17" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="I17" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="J17" s="13">
-        <v>0</v>
-      </c>
-      <c r="K17" s="13"/>
-      <c r="L17" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="M17" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="N17" s="16" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="18" ht="28.5" spans="2:14">
-      <c r="B18" s="12">
-        <v>20002005</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="D18" s="12">
+      <c r="F21" s="12">
+        <v>20001006</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="J21" s="12">
+        <v>0</v>
+      </c>
+      <c r="K21" s="12"/>
+      <c r="L21" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="M21" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="N21" s="12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" ht="28.5" spans="1:14">
+      <c r="A22" s="12"/>
+      <c r="B22" s="13">
+        <v>20002009</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="D22" s="13">
         <v>20001</v>
       </c>
-      <c r="E18" s="13" t="b">
+      <c r="E22" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="F18" s="13">
-        <v>20001004</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="H18" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="I18" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="J18" s="13">
-        <v>0</v>
-      </c>
-      <c r="K18" s="13"/>
-      <c r="L18" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="M18" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="N18" s="16" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="19" ht="28.5" spans="2:14">
-      <c r="B19" s="12">
-        <v>20002006</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="D19" s="13">
+      <c r="F22" s="12">
+        <v>20001007</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="J22" s="12">
+        <v>0</v>
+      </c>
+      <c r="K22" s="12"/>
+      <c r="L22" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="M22" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="N22" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" ht="28.5" spans="1:14">
+      <c r="A23" s="12"/>
+      <c r="B23" s="13">
+        <v>20002010</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D23" s="12">
         <v>20001</v>
       </c>
-      <c r="E19" s="13" t="b">
+      <c r="E23" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="F19" s="13">
-        <v>20001005</v>
-      </c>
-      <c r="G19" s="13" t="s">
+      <c r="F23" s="12">
+        <v>20001008</v>
+      </c>
+      <c r="G23" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H19" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="J19" s="13">
-        <v>0</v>
-      </c>
-      <c r="K19" s="13"/>
-      <c r="L19" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="M19" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="N19" s="16" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="20" ht="28.5" spans="2:14">
-      <c r="B20" s="12">
-        <v>20002007</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="D20" s="12">
+      <c r="H23" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="J23" s="12">
+        <v>0</v>
+      </c>
+      <c r="K23" s="12"/>
+      <c r="L23" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="M23" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="N23" s="12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24" ht="28.5" spans="1:14">
+      <c r="A24" s="12"/>
+      <c r="B24" s="13">
+        <v>20002011</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D24" s="13">
         <v>20001</v>
       </c>
-      <c r="E20" s="13" t="b">
+      <c r="E24" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="F20" s="13">
-        <v>20001006</v>
-      </c>
-      <c r="G20" s="13" t="s">
+      <c r="F24" s="12">
+        <v>20001008</v>
+      </c>
+      <c r="G24" s="12"/>
+      <c r="H24" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="J24" s="12">
+        <v>0</v>
+      </c>
+      <c r="K24" s="12"/>
+      <c r="L24" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="M24" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="N24" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="25" ht="28.5" spans="1:14">
+      <c r="A25" s="15"/>
+      <c r="B25" s="15">
+        <v>20003001</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="D25" s="15">
+        <v>20001</v>
+      </c>
+      <c r="E25" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F25" s="15">
+        <v>0</v>
+      </c>
+      <c r="G25" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="H20" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="J20" s="13">
-        <v>0</v>
-      </c>
-      <c r="K20" s="13"/>
-      <c r="L20" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="M20" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="N20" s="16" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="21" ht="28.5" spans="2:14">
-      <c r="B21" s="12">
-        <v>20002008</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="D21" s="13">
+      <c r="H25" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="I25" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="J25" s="15">
+        <v>10002</v>
+      </c>
+      <c r="K25" s="15"/>
+      <c r="L25" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+    </row>
+    <row r="26" ht="28.5" spans="1:14">
+      <c r="A26" s="15"/>
+      <c r="B26" s="15">
+        <v>20003002</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="D26" s="15">
         <v>20001</v>
       </c>
-      <c r="E21" s="13" t="b">
+      <c r="E26" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="F21" s="13">
-        <v>20001006</v>
-      </c>
-      <c r="G21" s="13" t="s">
+      <c r="F26" s="15">
+        <v>0</v>
+      </c>
+      <c r="G26" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="H21" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="I21" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="J21" s="13">
-        <v>0</v>
-      </c>
-      <c r="K21" s="13"/>
-      <c r="L21" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="M21" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="N21" s="16" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="22" ht="28.5" spans="2:14">
-      <c r="B22" s="12">
-        <v>20002009</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="D22" s="12">
+      <c r="H26" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="I26" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="J26" s="15">
+        <v>10002</v>
+      </c>
+      <c r="K26" s="15"/>
+      <c r="L26" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+    </row>
+    <row r="27" ht="28.5" spans="1:14">
+      <c r="A27" s="15"/>
+      <c r="B27" s="15">
+        <v>20003003</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="D27" s="15">
         <v>20001</v>
       </c>
-      <c r="E22" s="13" t="b">
+      <c r="E27" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="F22" s="13">
-        <v>20001007</v>
-      </c>
-      <c r="G22" s="13" t="s">
+      <c r="F27" s="15">
+        <v>0</v>
+      </c>
+      <c r="G27" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="H22" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="I22" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="J22" s="13">
-        <v>0</v>
-      </c>
-      <c r="K22" s="13"/>
-      <c r="L22" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="M22" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="N22" s="16" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="23" ht="28.5" spans="2:14">
-      <c r="B23" s="12">
-        <v>20002010</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="D23" s="13">
+      <c r="H27" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="I27" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="J27" s="15">
+        <v>10002</v>
+      </c>
+      <c r="K27" s="15"/>
+      <c r="L27" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+    </row>
+    <row r="28" ht="28.5" spans="1:14">
+      <c r="A28" s="15"/>
+      <c r="B28" s="15">
+        <v>20003004</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D28" s="15">
         <v>20001</v>
       </c>
-      <c r="E23" s="13" t="b">
+      <c r="E28" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="F23" s="13">
-        <v>20001008</v>
-      </c>
-      <c r="G23" s="13" t="s">
+      <c r="F28" s="15">
+        <v>0</v>
+      </c>
+      <c r="G28" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="H23" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="I23" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="J23" s="13">
-        <v>0</v>
-      </c>
-      <c r="K23" s="13"/>
-      <c r="L23" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="M23" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="N23" s="16" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="24" ht="28.5" spans="2:14">
-      <c r="B24" s="12">
-        <v>20002011</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="D24" s="12">
+      <c r="H28" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="I28" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="J28" s="15">
+        <v>10002</v>
+      </c>
+      <c r="K28" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="L28" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+    </row>
+    <row r="29" ht="28.5" spans="1:14">
+      <c r="A29" s="15"/>
+      <c r="B29" s="15">
+        <v>20003005</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="D29" s="15">
         <v>20001</v>
       </c>
-      <c r="E24" s="13" t="b">
+      <c r="E29" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="F24" s="13">
-        <v>20001008</v>
-      </c>
-      <c r="G24" s="13"/>
-      <c r="H24" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="I24" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="J24" s="13">
-        <v>0</v>
-      </c>
-      <c r="K24" s="13"/>
-      <c r="L24" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="M24" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="N24" s="16" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="25" spans="8:8">
-      <c r="H25" s="15"/>
-    </row>
-    <row r="26" spans="8:8">
-      <c r="H26" s="15"/>
-    </row>
-    <row r="27" spans="8:8">
-      <c r="H27" s="15"/>
-    </row>
-    <row r="28" spans="8:8">
-      <c r="H28" s="15"/>
-    </row>
-    <row r="29" spans="8:8">
-      <c r="H29" s="15"/>
-    </row>
-    <row r="30" spans="8:8">
-      <c r="H30" s="15"/>
+      <c r="F29" s="15">
+        <v>0</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H29" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="I29" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="J29" s="15">
+        <v>10005</v>
+      </c>
+      <c r="K29" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="L29" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+    </row>
+    <row r="30" ht="28.5" spans="1:14">
+      <c r="A30" s="15"/>
+      <c r="B30" s="15">
+        <v>20003006</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="D30" s="15">
+        <v>20001</v>
+      </c>
+      <c r="E30" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F30" s="15">
+        <v>0</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H30" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="I30" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="J30" s="15">
+        <v>10002</v>
+      </c>
+      <c r="K30" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="L30" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
     </row>
     <row r="31" spans="8:8">
-      <c r="H31" s="15"/>
+      <c r="H31" s="17"/>
     </row>
     <row r="32" spans="8:8">
-      <c r="H32" s="15"/>
+      <c r="H32" s="17"/>
     </row>
     <row r="33" spans="8:8">
-      <c r="H33" s="15"/>
+      <c r="H33" s="17"/>
     </row>
     <row r="34" spans="8:8">
-      <c r="H34" s="15"/>
+      <c r="H34" s="17"/>
     </row>
     <row r="35" spans="8:8">
-      <c r="H35" s="15"/>
+      <c r="H35" s="17"/>
     </row>
     <row r="36" spans="8:8">
-      <c r="H36" s="15"/>
+      <c r="H36" s="17"/>
     </row>
     <row r="37" spans="8:8">
-      <c r="H37" s="15"/>
+      <c r="H37" s="17"/>
     </row>
     <row r="38" spans="8:8">
-      <c r="H38" s="15"/>
+      <c r="H38" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/DataConfig/Datas/bubble.xlsx
+++ b/DataConfig/Datas/bubble.xlsx
@@ -1,39 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tabri\Documents\GitHub\ProjectX\DataConfig\Datas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4870E45E-0C48-4692-BDDC-1825EB0A709B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="17655" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="章鱼" sheetId="2" r:id="rId1"/>
     <sheet name="喵老师" sheetId="3" r:id="rId2"/>
     <sheet name="杂鱼A" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="199">
   <si>
     <t>##var</t>
   </si>
@@ -198,6 +181,9 @@
     <t>0:100</t>
   </si>
   <si>
+    <t>精准下单</t>
+  </si>
+  <si>
     <t>来个炒虾</t>
   </si>
   <si>
@@ -225,7 +211,7 @@
     <t>0:0</t>
   </si>
   <si>
-    <t>评论</t>
+    <t>精准评论</t>
   </si>
   <si>
     <t>ZhangyuComment</t>
@@ -333,10 +319,16 @@
     <t>LittleGirl_talkB</t>
   </si>
   <si>
+    <t>现在是营业时间吗</t>
+  </si>
+  <si>
     <t>0:99999</t>
   </si>
   <si>
     <t>Assets/GameResStory/Miao.yarnproject</t>
+  </si>
+  <si>
+    <t>您有什么推荐吗</t>
   </si>
   <si>
     <t>MiaoFirst</t>
@@ -347,10 +339,13 @@
         <sz val="10.5"/>
         <color rgb="FFC586C0"/>
         <rFont val="Consolas"/>
-        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>MiaoSecond</t>
     </r>
+  </si>
+  <si>
+    <t>老板晚上好呀</t>
   </si>
   <si>
     <r>
@@ -358,13 +353,22 @@
         <sz val="10.5"/>
         <color rgb="FFC586C0"/>
         <rFont val="Consolas"/>
-        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>MiaoThird</t>
     </r>
   </si>
   <si>
+    <t>喵喵第一次加班呢</t>
+  </si>
+  <si>
     <t>MiaoFourth</t>
+  </si>
+  <si>
+    <t>一只胖胖的三花猫</t>
+  </si>
+  <si>
+    <t>甜</t>
   </si>
   <si>
     <r>
@@ -372,12 +376,57 @@
         <sz val="10.5"/>
         <color rgb="FFC586C0"/>
         <rFont val="Consolas"/>
-        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>MiaoFifth</t>
     </r>
   </si>
   <si>
+    <t>Miaosixth</t>
+  </si>
+  <si>
+    <t>生命体征维持餐</t>
+  </si>
+  <si>
+    <t>Miao_tsugumi1</t>
+  </si>
+  <si>
+    <t>妈咪又开发黑暗料理了</t>
+  </si>
+  <si>
+    <t>Miao_tsugumi2</t>
+  </si>
+  <si>
+    <t>妈咪说喵喵做的菜难吃</t>
+  </si>
+  <si>
+    <t>Miao_tsugumi3</t>
+  </si>
+  <si>
+    <t>妈咪又对喵喵生气了</t>
+  </si>
+  <si>
+    <t>Miao_tsugumi4</t>
+  </si>
+  <si>
+    <t>妈咪不让喵喵再做菜了</t>
+  </si>
+  <si>
+    <t>Miao_tsugumi5</t>
+  </si>
+  <si>
+    <t>很可怕的猫饭</t>
+  </si>
+  <si>
+    <t>Miao_tsugumi6</t>
+  </si>
+  <si>
+    <t>东西都被妈咪动过了</t>
+  </si>
+  <si>
+    <t>Miao_tsugumi7</t>
+  </si>
+  <si>
     <t>还能点单吗</t>
   </si>
   <si>
@@ -561,7 +610,7 @@
     <t>蛋炒饭加点刺激的</t>
   </si>
   <si>
-    <t>100:500</t>
+    <t>400:500</t>
   </si>
   <si>
     <t>辣,咸</t>
@@ -576,102 +625,50 @@
     <t>中和下炒花蛤</t>
   </si>
   <si>
-    <t>酸</t>
-  </si>
-  <si>
-    <t>Miaosixth</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>现在是营业时间吗</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>您有什么推荐吗</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>老板晚上好呀</t>
-  </si>
-  <si>
-    <t>喵喵第一次加班呢</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>一只胖胖的三花猫</t>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>甜</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Miao_tsugumi1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Miao_tsugumi2</t>
-  </si>
-  <si>
-    <t>Miao_tsugumi3</t>
-  </si>
-  <si>
-    <t>Miao_tsugumi4</t>
-  </si>
-  <si>
-    <t>Miao_tsugumi5</t>
-  </si>
-  <si>
-    <t>Miao_tsugumi6</t>
-  </si>
-  <si>
-    <t>Miao_tsugumi7</t>
-  </si>
-  <si>
-    <t>对话</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>妈咪又开发黑暗料理了</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>生命体征维持餐</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>妈咪说喵喵做的菜难吃</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>妈咪又对喵喵生气了</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>妈咪不让喵喵再做菜了</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>很可怕的猫饭</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>东西都被妈咪动过了</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>FALSE</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <t>酸,辣</t>
+  </si>
+  <si>
+    <t>确定的订单评论</t>
+  </si>
+  <si>
+    <t>0:999999</t>
+  </si>
+  <si>
+    <t>young_comment_specify</t>
+  </si>
+  <si>
+    <t>模棱两可的订单评论</t>
+  </si>
+  <si>
+    <t>9998:9999</t>
+  </si>
+  <si>
+    <t>模棱两可评论</t>
+  </si>
+  <si>
+    <t>young_comment_blur</t>
+  </si>
+  <si>
+    <t>omakase评论</t>
+  </si>
+  <si>
+    <t>模糊评论</t>
+  </si>
+  <si>
+    <t>young_comment_omakase</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -706,27 +703,143 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <color rgb="FFC586C0"/>
-      <name val="Consolas"/>
-      <family val="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFC586C0"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -747,25 +860,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -775,8 +888,158 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -799,23 +1062,259 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="22" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="23" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -835,6 +1334,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -848,46 +1353,82 @@
     <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="差" xfId="2" builtinId="27"/>
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1145,19 +1686,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="9.875" customWidth="1"/>
     <col min="3" max="3" width="14.5" customWidth="1"/>
@@ -1172,7 +1713,7 @@
     <col min="13" max="13" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1209,11 +1750,11 @@
       <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="M1" s="30" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
@@ -1250,11 +1791,11 @@
       <c r="L2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="26" t="s">
+      <c r="M2" s="30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
@@ -1287,11 +1828,11 @@
       <c r="L3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="26" t="s">
+      <c r="M3" s="30" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13">
       <c r="B4">
         <f>$D4*1000+1</f>
         <v>10001001</v>
@@ -1302,22 +1843,22 @@
       <c r="D4">
         <v>10001</v>
       </c>
-      <c r="E4" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" s="16" t="s">
+      <c r="E4" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="20">
         <v>0</v>
       </c>
       <c r="K4" t="s">
@@ -1330,7 +1871,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:13">
       <c r="B5">
         <f>$D5*1000+2</f>
         <v>10001002</v>
@@ -1341,23 +1882,23 @@
       <c r="D5">
         <v>10001</v>
       </c>
-      <c r="E5" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" s="16">
+      <c r="E5" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="18">
         <f>$D5*1000+1</f>
         <v>10001001</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="20">
         <v>0</v>
       </c>
       <c r="K5" t="s">
@@ -1370,7 +1911,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" ht="16.5" spans="2:11">
       <c r="B6">
         <f>$D6*1000+3</f>
         <v>10001003</v>
@@ -1381,68 +1922,68 @@
       <c r="D6">
         <v>10001</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="I6" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="27">
+      <c r="I6" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" s="31">
         <v>10002</v>
       </c>
       <c r="K6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" ht="16.5" spans="2:11">
       <c r="B7">
         <f>$D7*1000+4</f>
         <v>10001004</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D7">
         <v>10001</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="27">
+      <c r="H7" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" s="31">
         <v>10002</v>
       </c>
       <c r="K7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:13">
       <c r="B8">
         <f>$D8*1000+5</f>
         <v>10001005</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D8">
         <v>10001</v>
@@ -1450,19 +1991,19 @@
       <c r="E8" t="b">
         <v>1</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="I8" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="J8" s="18">
+      <c r="I8" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8" s="20">
         <v>0</v>
       </c>
       <c r="K8" t="s">
@@ -1472,16 +2013,16 @@
         <v>40</v>
       </c>
       <c r="M8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13">
       <c r="B9">
         <f>$D9*1000+6</f>
         <v>10001006</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D9">
         <v>10001</v>
@@ -1489,19 +2030,19 @@
       <c r="E9" t="b">
         <v>1</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="I9" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="J9" s="18">
+      <c r="I9" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" s="20">
         <v>0</v>
       </c>
       <c r="K9" t="s">
@@ -1511,16 +2052,16 @@
         <v>40</v>
       </c>
       <c r="M9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13">
       <c r="B10">
         <f>$D10*1000+7</f>
         <v>10001007</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D10">
         <v>10001</v>
@@ -1528,19 +2069,19 @@
       <c r="E10" t="b">
         <v>1</v>
       </c>
-      <c r="F10" s="16">
-        <v>0</v>
-      </c>
-      <c r="G10" s="16" t="s">
+      <c r="F10" s="18">
+        <v>0</v>
+      </c>
+      <c r="G10" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="I10" s="16" t="s">
+      <c r="H10" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="J10" s="16">
+      <c r="I10" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" s="18">
         <v>0</v>
       </c>
       <c r="K10" t="s">
@@ -1550,27 +2091,28 @@
         <v>40</v>
       </c>
       <c r="M10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:A24"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="11.5" customWidth="1"/>
-    <col min="3" max="3" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.375" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
     <col min="5" max="5" width="14.25" style="1" customWidth="1"/>
     <col min="6" max="6" width="19.625" style="1" customWidth="1"/>
@@ -1584,7 +2126,7 @@
     <col min="14" max="14" width="19.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1616,7 +2158,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>10</v>
@@ -1628,7 +2170,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14">
       <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
@@ -1654,13 +2196,13 @@
         <v>20</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>15</v>
@@ -1672,7 +2214,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
@@ -1697,10 +2239,10 @@
         <v>29</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>31</v>
@@ -1712,848 +2254,849 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="4" ht="28.5" spans="2:14">
       <c r="B4">
         <f>$D$4*1000+1</f>
         <v>10002001</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D4">
         <v>10002</v>
       </c>
-      <c r="E4" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="F4" s="17" t="s">
+      <c r="E4" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="16">
-        <v>0</v>
-      </c>
-      <c r="K4" s="16"/>
-      <c r="L4" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="M4" s="23" t="s">
-        <v>66</v>
+      <c r="J4" s="18">
+        <v>0</v>
+      </c>
+      <c r="K4" s="18"/>
+      <c r="L4" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" s="17" t="s">
+        <v>67</v>
       </c>
       <c r="N4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" ht="28.5" spans="2:14">
       <c r="B5">
         <f>$D$4*1000+2</f>
         <v>10002002</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D5">
         <v>10002</v>
       </c>
-      <c r="E5" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="G5" s="16" t="s">
+      <c r="E5" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="I5" s="16" t="s">
+      <c r="H5" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="I5" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="16" t="s">
+      <c r="J5" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="16"/>
-      <c r="L5" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="M5" s="23" t="s">
-        <v>71</v>
+      <c r="K5" s="18"/>
+      <c r="L5" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="17" t="s">
+        <v>72</v>
       </c>
       <c r="N5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" ht="28.5" spans="2:13">
       <c r="B6">
         <f>$D$4*1000+3</f>
         <v>10002003</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D6">
         <v>10002</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="G6" s="16" t="s">
+      <c r="F6" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="I6" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="16">
+      <c r="H6" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" s="18">
         <v>10002</v>
       </c>
-      <c r="K6" s="16"/>
-      <c r="L6" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="M6" s="23"/>
-    </row>
-    <row r="7" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="K6" s="18"/>
+      <c r="L6" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" s="17"/>
+    </row>
+    <row r="7" ht="28.5" spans="2:13">
       <c r="B7">
         <f>$D$4*1000+4</f>
         <v>10002004</v>
       </c>
       <c r="C7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D7">
         <v>10002</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="20">
         <v>10002001</v>
       </c>
-      <c r="G7" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="H7" s="16" t="s">
+      <c r="G7" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="H7" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="J7" s="24" t="s">
+      <c r="I7" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="L7" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="M7" s="23"/>
-    </row>
-    <row r="8" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="K7" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="L7" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" s="17"/>
+    </row>
+    <row r="8" ht="28.5" spans="2:13">
       <c r="B8">
         <f>$D$4*1000+5</f>
         <v>10002005</v>
       </c>
       <c r="C8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D8">
         <v>10002</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="G8" s="16" t="s">
+      <c r="F8" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="I8" s="16" t="s">
+      <c r="H8" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="J8" s="24" t="s">
+      <c r="I8" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="K8" s="24" t="s">
+      <c r="J8" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="L8" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="M8" s="23"/>
-    </row>
-    <row r="9" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="K8" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="L8" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8" s="17"/>
+    </row>
+    <row r="9" ht="28.5" spans="2:14">
       <c r="B9">
         <f>$D$4*1000+6</f>
         <v>10002006</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
-      </c>
-      <c r="D9" s="19">
+        <v>88</v>
+      </c>
+      <c r="D9" s="21">
         <v>10002</v>
       </c>
-      <c r="E9" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" s="18">
+      <c r="E9" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="20">
         <v>10002002</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="I9" s="16" t="s">
+      <c r="H9" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="I9" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="J9" s="24">
-        <v>0</v>
-      </c>
-      <c r="K9" s="24"/>
-      <c r="L9" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="M9" s="23" t="s">
-        <v>71</v>
+      <c r="J9" s="27">
+        <v>0</v>
+      </c>
+      <c r="K9" s="27"/>
+      <c r="L9" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="M9" s="17" t="s">
+        <v>72</v>
       </c>
       <c r="N9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" ht="28.5" spans="2:14">
       <c r="B10">
         <f>$D$4*1000+7</f>
         <v>10002007</v>
       </c>
       <c r="C10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D10">
         <v>10002</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="J10" s="24">
-        <v>0</v>
-      </c>
-      <c r="K10" s="24"/>
-      <c r="L10" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="M10" s="23" t="s">
-        <v>71</v>
+      <c r="H10" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10" s="27">
+        <v>0</v>
+      </c>
+      <c r="K10" s="27"/>
+      <c r="L10" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="M10" s="17" t="s">
+        <v>72</v>
       </c>
       <c r="N10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="20"/>
-      <c r="B11" s="20">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" ht="28.5" spans="1:14">
+      <c r="A11" s="22"/>
+      <c r="B11" s="22">
         <v>10002008</v>
       </c>
-      <c r="C11" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="D11" s="20">
+      <c r="C11" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="22">
         <v>10002</v>
       </c>
-      <c r="E11" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21" t="s">
+      <c r="E11" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="I11" s="21" t="s">
+      <c r="H11" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="I11" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="K11" s="21"/>
-      <c r="L11" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="M11" s="20" t="s">
-        <v>94</v>
+      <c r="J11" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="K11" s="23"/>
+      <c r="L11" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="M11" s="22" t="s">
+        <v>96</v>
       </c>
       <c r="N11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" ht="28.5" spans="1:14">
+      <c r="A12" s="22"/>
+      <c r="B12" s="22">
         <v>10002009</v>
       </c>
-      <c r="C12" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="D12" s="20">
+      <c r="C12" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="22">
         <v>10002</v>
       </c>
-      <c r="E12" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" s="28">
+      <c r="E12" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="24">
         <v>10002009</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="I12" s="21" t="s">
+      <c r="H12" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="I12" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="J12" s="29">
-        <v>0</v>
-      </c>
-      <c r="K12" s="20"/>
-      <c r="L12" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="M12" s="20" t="s">
-        <v>94</v>
+      <c r="J12" s="26">
+        <v>0</v>
+      </c>
+      <c r="K12" s="22"/>
+      <c r="L12" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="M12" s="22" t="s">
+        <v>96</v>
       </c>
       <c r="N12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" ht="28.5" spans="1:14">
+      <c r="A13" s="22"/>
+      <c r="B13" s="22">
+        <v>10002010</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="22">
+        <v>10002</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="25"/>
+      <c r="G13" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="23" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20">
-        <v>10002010</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" s="20">
+      <c r="I13" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="26">
+        <v>0</v>
+      </c>
+      <c r="K13" s="22"/>
+      <c r="L13" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="M13" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="N13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" ht="28.5" spans="1:14">
+      <c r="A14" s="22"/>
+      <c r="B14" s="22">
+        <v>10002011</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="22">
         <v>10002</v>
       </c>
-      <c r="E13" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13" s="22"/>
-      <c r="G13" s="21" t="s">
+      <c r="E14" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="25"/>
+      <c r="G14" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="H13" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="I13" s="21" t="s">
+      <c r="H14" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="I14" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="29">
-        <v>0</v>
-      </c>
-      <c r="K13" s="20"/>
-      <c r="L13" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="M13" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="N13" t="s">
+      <c r="J14" s="26">
+        <v>0</v>
+      </c>
+      <c r="K14" s="22"/>
+      <c r="L14" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="M14" s="22" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20">
-        <v>10002011</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="D14" s="20">
+      <c r="N14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" ht="28.5" spans="1:14">
+      <c r="A15" s="22"/>
+      <c r="B15" s="22">
+        <v>10002012</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" s="22">
         <v>10002</v>
       </c>
-      <c r="E14" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="F14" s="22"/>
-      <c r="G14" s="21" t="s">
+      <c r="E15" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="25"/>
+      <c r="G15" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="H14" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="I14" s="21" t="s">
+      <c r="H15" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="I15" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="J14" s="29">
-        <v>0</v>
-      </c>
-      <c r="K14" s="20"/>
-      <c r="L14" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="M14" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="N14" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="20"/>
-      <c r="B15" s="20">
-        <v>10002012</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="D15" s="20">
+      <c r="J15" s="26">
+        <v>0</v>
+      </c>
+      <c r="K15" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="L15" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="M15" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="N15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" ht="28.5" spans="1:14">
+      <c r="A16" s="22"/>
+      <c r="B16" s="22">
+        <v>10002013</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" s="22">
         <v>10002</v>
       </c>
-      <c r="E15" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="F15" s="22"/>
-      <c r="G15" s="21" t="s">
+      <c r="E16" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="25"/>
+      <c r="G16" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="I15" s="21" t="s">
+      <c r="H16" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="I16" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="J15" s="29">
-        <v>0</v>
-      </c>
-      <c r="K15" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="L15" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="M15" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="N15" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20">
-        <v>10002013</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="D16" s="20">
+      <c r="J16" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="K16" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="L16" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="M16" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="N16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" ht="28.5" spans="1:14">
+      <c r="A17" s="22"/>
+      <c r="B17" s="22">
+        <v>10002014</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22">
         <v>10002</v>
       </c>
-      <c r="E16" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" s="22"/>
-      <c r="G16" s="21" t="s">
+      <c r="E17" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="25"/>
+      <c r="G17" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="I16" s="21" t="s">
+      <c r="H17" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="I17" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="J16" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="K16" s="30" t="s">
-        <v>174</v>
-      </c>
-      <c r="L16" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="M16" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="N16" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="20"/>
-      <c r="B17" s="20">
-        <v>10002014</v>
-      </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20">
+      <c r="J17" s="26">
+        <v>0</v>
+      </c>
+      <c r="K17" s="22"/>
+      <c r="L17" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="M17" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="N17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" ht="28.5" spans="1:14">
+      <c r="A18" s="22"/>
+      <c r="B18" s="22">
+        <v>10002015</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" s="22">
         <v>10002</v>
       </c>
-      <c r="E17" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="F17" s="22"/>
-      <c r="G17" s="21" t="s">
+      <c r="E18" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="25"/>
+      <c r="G18" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="H17" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="I17" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="J17" s="29">
-        <v>0</v>
-      </c>
-      <c r="K17" s="20"/>
-      <c r="L17" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="M17" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="N17" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="20"/>
-      <c r="B18" s="20">
+      <c r="H18" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="I18" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="J18" s="26">
+        <v>0</v>
+      </c>
+      <c r="K18" s="22"/>
+      <c r="L18" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="M18" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="N18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" ht="28.5" spans="1:14">
+      <c r="A19" s="22"/>
+      <c r="B19" s="22">
+        <v>10002016</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D19" s="22">
+        <v>10002</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="22">
         <v>10002015</v>
       </c>
-      <c r="C18" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="D18" s="20">
+      <c r="G19" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="I19" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="J19" s="26">
+        <v>0</v>
+      </c>
+      <c r="K19" s="22"/>
+      <c r="L19" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="M19" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="N19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" ht="28.5" spans="1:14">
+      <c r="A20" s="22"/>
+      <c r="B20" s="22">
+        <v>10002017</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="D20" s="22">
         <v>10002</v>
       </c>
-      <c r="E18" s="29" t="s">
-        <v>190</v>
-      </c>
-      <c r="F18" s="22"/>
-      <c r="G18" s="21" t="s">
+      <c r="E20" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" s="22">
+        <v>10002016</v>
+      </c>
+      <c r="G20" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="H18" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="I18" s="31" t="s">
-        <v>182</v>
-      </c>
-      <c r="J18" s="29">
-        <v>0</v>
-      </c>
-      <c r="K18" s="20"/>
-      <c r="L18" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="M18" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="N18" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="20"/>
-      <c r="B19" s="20">
-        <v>10002016</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="D19" s="20">
+      <c r="H20" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="I20" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="J20" s="26">
+        <v>0</v>
+      </c>
+      <c r="K20" s="22"/>
+      <c r="L20" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="M20" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="N20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" ht="28.5" spans="1:14">
+      <c r="A21" s="22"/>
+      <c r="B21" s="22">
+        <v>10002018</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21" s="22">
         <v>10002</v>
       </c>
-      <c r="E19" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="F19" s="20">
-        <v>10002015</v>
-      </c>
-      <c r="G19" s="21" t="s">
+      <c r="E21" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="22">
+        <v>10002017</v>
+      </c>
+      <c r="G21" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="H19" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="I19" s="31" t="s">
-        <v>182</v>
-      </c>
-      <c r="J19" s="29">
-        <v>0</v>
-      </c>
-      <c r="K19" s="20"/>
-      <c r="L19" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="M19" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="N19" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="20"/>
-      <c r="B20" s="20">
-        <v>10002017</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="D20" s="20">
+      <c r="H21" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="I21" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="J21" s="26">
+        <v>0</v>
+      </c>
+      <c r="K21" s="22"/>
+      <c r="L21" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="M21" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="N21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" ht="28.5" spans="1:14">
+      <c r="A22" s="22"/>
+      <c r="B22" s="22">
+        <v>10002019</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="D22" s="22">
         <v>10002</v>
       </c>
-      <c r="E20" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="F20" s="20">
-        <v>10002016</v>
-      </c>
-      <c r="G20" s="21" t="s">
+      <c r="E22" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" s="22">
+        <v>10002018</v>
+      </c>
+      <c r="G22" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="H20" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="I20" s="31" t="s">
-        <v>182</v>
-      </c>
-      <c r="J20" s="29">
-        <v>0</v>
-      </c>
-      <c r="K20" s="20"/>
-      <c r="L20" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="M20" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="N20" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="20"/>
-      <c r="B21" s="20">
-        <v>10002018</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="D21" s="20">
+      <c r="H22" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="I22" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="J22" s="26">
+        <v>0</v>
+      </c>
+      <c r="K22" s="22"/>
+      <c r="L22" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="M22" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="N22" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" ht="28.5" spans="1:14">
+      <c r="A23" s="22"/>
+      <c r="B23" s="22">
+        <v>10002020</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="D23" s="22">
         <v>10002</v>
       </c>
-      <c r="E21" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="F21" s="20">
-        <v>10002017</v>
-      </c>
-      <c r="G21" s="21" t="s">
+      <c r="E23" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" s="22">
+        <v>10002019</v>
+      </c>
+      <c r="G23" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="H21" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="I21" s="31" t="s">
-        <v>182</v>
-      </c>
-      <c r="J21" s="29">
-        <v>0</v>
-      </c>
-      <c r="K21" s="20"/>
-      <c r="L21" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="M21" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="N21" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="20"/>
-      <c r="B22" s="20">
-        <v>10002019</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="D22" s="20">
+      <c r="H23" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="I23" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="J23" s="26">
+        <v>0</v>
+      </c>
+      <c r="K23" s="22"/>
+      <c r="L23" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="M23" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="N23" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" ht="28.5" spans="1:14">
+      <c r="A24" s="22"/>
+      <c r="B24" s="22">
+        <v>10002021</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="D24" s="22">
         <v>10002</v>
       </c>
-      <c r="E22" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="F22" s="20">
-        <v>10002018</v>
-      </c>
-      <c r="G22" s="21" t="s">
+      <c r="E24" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" s="22">
+        <v>10002020</v>
+      </c>
+      <c r="G24" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="H22" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="I22" s="31" t="s">
-        <v>182</v>
-      </c>
-      <c r="J22" s="29">
-        <v>0</v>
-      </c>
-      <c r="K22" s="20"/>
-      <c r="L22" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="M22" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="N22" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="20"/>
-      <c r="B23" s="20">
-        <v>10002020</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="D23" s="20">
-        <v>10002</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="F23" s="20">
-        <v>10002019</v>
-      </c>
-      <c r="G23" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="H23" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="I23" s="31" t="s">
-        <v>182</v>
-      </c>
-      <c r="J23" s="29">
-        <v>0</v>
-      </c>
-      <c r="K23" s="20"/>
-      <c r="L23" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="M23" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="N23" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="20"/>
-      <c r="B24" s="20">
-        <v>10002021</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="D24" s="20">
-        <v>10002</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="F24" s="20">
-        <v>10002020</v>
-      </c>
-      <c r="G24" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="H24" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="I24" s="31" t="s">
-        <v>182</v>
-      </c>
-      <c r="J24" s="29">
-        <v>0</v>
-      </c>
-      <c r="K24" s="20"/>
-      <c r="L24" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="M24" s="20" t="s">
-        <v>94</v>
+      <c r="H24" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="I24" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="J24" s="26">
+        <v>0</v>
+      </c>
+      <c r="K24" s="22"/>
+      <c r="L24" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="M24" s="22" t="s">
+        <v>96</v>
       </c>
       <c r="N24" t="s">
-        <v>181</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="12.5" customWidth="1"/>
-    <col min="3" max="3" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="16.4416666666667" customWidth="1"/>
     <col min="4" max="4" width="12.625" customWidth="1"/>
     <col min="5" max="5" width="14.875" customWidth="1"/>
     <col min="6" max="6" width="14.25" customWidth="1"/>
     <col min="7" max="7" width="13.125" customWidth="1"/>
     <col min="8" max="8" width="10.625" customWidth="1"/>
-    <col min="9" max="9" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="22.4916666666667" customWidth="1"/>
     <col min="10" max="10" width="16.75" customWidth="1"/>
     <col min="11" max="11" width="17.625" customWidth="1"/>
     <col min="12" max="12" width="26.75" style="1" customWidth="1"/>
@@ -2561,7 +3104,7 @@
     <col min="14" max="14" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2593,7 +3136,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>10</v>
@@ -2605,7 +3148,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14">
       <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
@@ -2631,13 +3174,13 @@
         <v>20</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>15</v>
@@ -2649,7 +3192,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
@@ -2674,10 +3217,10 @@
         <v>29</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>31</v>
@@ -2689,13 +3232,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="4" ht="28.5" spans="1:14">
       <c r="A4" s="6"/>
       <c r="B4" s="6">
         <v>20001001</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="D4" s="6">
         <v>20001</v>
@@ -2705,7 +3248,7 @@
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>47</v>
@@ -2721,19 +3264,19 @@
         <v>39</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" ht="28.5" spans="1:14">
       <c r="A5" s="6"/>
       <c r="B5" s="6">
         <v>20001002</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="D5" s="6">
         <v>20001</v>
@@ -2745,10 +3288,10 @@
         <v>20001001</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>38</v>
@@ -2761,19 +3304,19 @@
         <v>39</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" ht="28.5" spans="1:14">
       <c r="A6" s="6"/>
       <c r="B6" s="6">
         <v>20001003</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="D6" s="6">
         <v>20001</v>
@@ -2785,10 +3328,10 @@
         <v>20001002</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>38</v>
@@ -2801,19 +3344,19 @@
         <v>39</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" ht="28.5" spans="1:14">
       <c r="A7" s="6"/>
       <c r="B7" s="6">
         <v>20001004</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="D7" s="6">
         <v>20001</v>
@@ -2825,10 +3368,10 @@
         <v>20001003</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>38</v>
@@ -2841,19 +3384,19 @@
         <v>39</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" ht="28.5" spans="1:14">
       <c r="A8" s="6"/>
       <c r="B8" s="6">
         <v>20001005</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="D8" s="6">
         <v>20001</v>
@@ -2865,10 +3408,10 @@
         <v>20001004</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>38</v>
@@ -2881,19 +3424,19 @@
         <v>39</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" ht="28.5" spans="1:14">
       <c r="A9" s="6"/>
       <c r="B9" s="6">
         <v>20001006</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="D9" s="6">
         <v>20001</v>
@@ -2905,10 +3448,10 @@
         <v>20001005</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>38</v>
@@ -2921,19 +3464,19 @@
         <v>39</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" ht="28.5" spans="1:14">
       <c r="A10" s="8"/>
       <c r="B10" s="6">
         <v>20001007</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="D10" s="6">
         <v>20001</v>
@@ -2945,10 +3488,10 @@
         <v>20001006</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="I10" s="8" t="s">
         <v>38</v>
@@ -2961,19 +3504,19 @@
         <v>39</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" ht="28.5" spans="1:14">
       <c r="A11" s="8"/>
       <c r="B11" s="6">
         <v>20001008</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="D11" s="6">
         <v>20001</v>
@@ -2985,10 +3528,10 @@
         <v>20001007</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="I11" s="8" t="s">
         <v>38</v>
@@ -3001,19 +3544,19 @@
         <v>39</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" ht="28.5" spans="1:14">
       <c r="A12" s="8"/>
       <c r="B12" s="6">
         <v>20001009</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="D12" s="6">
         <v>20001</v>
@@ -3025,10 +3568,10 @@
         <v>20001008</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="I12" s="8" t="s">
         <v>38</v>
@@ -3041,19 +3584,19 @@
         <v>39</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="N12" s="8" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" ht="28.5" spans="1:14">
       <c r="A13" s="8"/>
       <c r="B13" s="6">
         <v>20001010</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="D13" s="6">
         <v>20001</v>
@@ -3065,10 +3608,10 @@
         <v>20001009</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="I13" s="8" t="s">
         <v>38</v>
@@ -3081,19 +3624,19 @@
         <v>39</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="N13" s="8" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" ht="28.5" spans="1:14">
       <c r="A14" s="10"/>
       <c r="B14" s="11">
         <v>20002001</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="D14" s="11">
         <v>20001</v>
@@ -3109,7 +3652,7 @@
         <v>47</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J14" s="10">
         <v>0</v>
@@ -3119,19 +3662,19 @@
         <v>39</v>
       </c>
       <c r="M14" s="11" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="N14" s="10" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" ht="28.5" spans="1:14">
       <c r="A15" s="10"/>
       <c r="B15" s="11">
         <v>20002002</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="D15" s="10">
         <v>20001</v>
@@ -3146,10 +3689,10 @@
         <v>36</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J15" s="10">
         <v>0</v>
@@ -3159,19 +3702,19 @@
         <v>39</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="N15" s="10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" ht="28.5" spans="1:14">
       <c r="A16" s="10"/>
       <c r="B16" s="11">
         <v>20002003</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="D16" s="11">
         <v>20001</v>
@@ -3186,10 +3729,10 @@
         <v>36</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J16" s="10">
         <v>0</v>
@@ -3199,19 +3742,19 @@
         <v>39</v>
       </c>
       <c r="M16" s="11" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="N16" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" ht="28.5" spans="1:14">
       <c r="A17" s="10"/>
       <c r="B17" s="11">
         <v>20002004</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="D17" s="10">
         <v>20001</v>
@@ -3223,13 +3766,13 @@
         <v>20001004</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J17" s="10">
         <v>0</v>
@@ -3239,19 +3782,19 @@
         <v>39</v>
       </c>
       <c r="M17" s="11" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="N17" s="10" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18" ht="28.5" spans="1:14">
       <c r="A18" s="10"/>
       <c r="B18" s="11">
         <v>20002005</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="D18" s="11">
         <v>20001</v>
@@ -3263,13 +3806,13 @@
         <v>20001004</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J18" s="10">
         <v>0</v>
@@ -3279,19 +3822,19 @@
         <v>39</v>
       </c>
       <c r="M18" s="11" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="N18" s="10" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19" ht="28.5" spans="1:14">
       <c r="A19" s="10"/>
       <c r="B19" s="11">
         <v>20002006</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="D19" s="10">
         <v>20001</v>
@@ -3306,10 +3849,10 @@
         <v>36</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J19" s="10">
         <v>0</v>
@@ -3319,19 +3862,19 @@
         <v>39</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="N19" s="10" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" ht="28.5" spans="1:14">
       <c r="A20" s="10"/>
       <c r="B20" s="11">
         <v>20002007</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>146</v>
+        <v>168</v>
       </c>
       <c r="D20" s="11">
         <v>20001</v>
@@ -3346,10 +3889,10 @@
         <v>36</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J20" s="10">
         <v>0</v>
@@ -3359,19 +3902,19 @@
         <v>39</v>
       </c>
       <c r="M20" s="11" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="N20" s="10" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21" ht="28.5" spans="1:14">
       <c r="A21" s="10"/>
       <c r="B21" s="11">
         <v>20002008</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="D21" s="10">
         <v>20001</v>
@@ -3386,10 +3929,10 @@
         <v>36</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J21" s="10">
         <v>0</v>
@@ -3399,19 +3942,19 @@
         <v>39</v>
       </c>
       <c r="M21" s="11" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="N21" s="10" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="22" ht="28.5" spans="1:14">
       <c r="A22" s="10"/>
       <c r="B22" s="11">
         <v>20002009</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="D22" s="11">
         <v>20001</v>
@@ -3426,10 +3969,10 @@
         <v>36</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J22" s="10">
         <v>0</v>
@@ -3439,19 +3982,19 @@
         <v>39</v>
       </c>
       <c r="M22" s="11" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="N22" s="10" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="23" ht="28.5" spans="1:14">
       <c r="A23" s="10"/>
       <c r="B23" s="11">
         <v>20002010</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="D23" s="10">
         <v>20001</v>
@@ -3466,10 +4009,10 @@
         <v>36</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J23" s="10">
         <v>0</v>
@@ -3479,19 +4022,19 @@
         <v>39</v>
       </c>
       <c r="M23" s="11" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="N23" s="10" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="24" ht="28.5" spans="1:14">
       <c r="A24" s="10"/>
       <c r="B24" s="11">
         <v>20002011</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="D24" s="11">
         <v>20001</v>
@@ -3504,10 +4047,10 @@
       </c>
       <c r="G24" s="10"/>
       <c r="H24" s="12" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J24" s="10">
         <v>0</v>
@@ -3517,19 +4060,19 @@
         <v>39</v>
       </c>
       <c r="M24" s="11" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="N24" s="10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="25" ht="28.5" spans="1:14">
       <c r="A25" s="13"/>
       <c r="B25" s="13">
         <v>20003001</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="D25" s="13">
         <v>20001</v>
@@ -3544,10 +4087,10 @@
         <v>36</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="J25" s="13">
         <v>10002</v>
@@ -3559,13 +4102,13 @@
       <c r="M25" s="13"/>
       <c r="N25" s="13"/>
     </row>
-    <row r="26" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="26" ht="28.5" spans="1:14">
       <c r="A26" s="13"/>
       <c r="B26" s="13">
         <v>20003002</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="D26" s="13">
         <v>20001</v>
@@ -3580,10 +4123,10 @@
         <v>36</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="J26" s="13">
         <v>10002</v>
@@ -3595,13 +4138,13 @@
       <c r="M26" s="13"/>
       <c r="N26" s="13"/>
     </row>
-    <row r="27" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="27" ht="28.5" spans="1:14">
       <c r="A27" s="13"/>
       <c r="B27" s="13">
         <v>20003003</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="D27" s="13">
         <v>20001</v>
@@ -3616,10 +4159,10 @@
         <v>36</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="I27" s="13" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="J27" s="13">
         <v>10002</v>
@@ -3631,13 +4174,13 @@
       <c r="M27" s="13"/>
       <c r="N27" s="13"/>
     </row>
-    <row r="28" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="28" ht="28.5" spans="1:14">
       <c r="A28" s="13"/>
       <c r="B28" s="13">
         <v>20003004</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="D28" s="13">
         <v>20001</v>
@@ -3652,16 +4195,16 @@
         <v>36</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="I28" s="13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J28" s="13">
         <v>10002</v>
       </c>
       <c r="K28" s="13" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="L28" s="15" t="s">
         <v>39</v>
@@ -3669,13 +4212,13 @@
       <c r="M28" s="13"/>
       <c r="N28" s="13"/>
     </row>
-    <row r="29" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="29" ht="28.5" spans="1:14">
       <c r="A29" s="13"/>
       <c r="B29" s="13">
         <v>20003005</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="D29" s="13">
         <v>20001</v>
@@ -3690,16 +4233,16 @@
         <v>36</v>
       </c>
       <c r="H29" s="14" t="s">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J29" s="13">
         <v>10005</v>
       </c>
       <c r="K29" s="13" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="L29" s="15" t="s">
         <v>39</v>
@@ -3707,13 +4250,13 @@
       <c r="M29" s="13"/>
       <c r="N29" s="13"/>
     </row>
-    <row r="30" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="30" ht="28.5" spans="1:14">
       <c r="A30" s="13"/>
       <c r="B30" s="13">
         <v>20003006</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="D30" s="13">
         <v>20001</v>
@@ -3728,16 +4271,16 @@
         <v>36</v>
       </c>
       <c r="H30" s="14" t="s">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J30" s="13">
         <v>10002</v>
       </c>
       <c r="K30" s="13" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="L30" s="15" t="s">
         <v>39</v>
@@ -3745,32 +4288,137 @@
       <c r="M30" s="13"/>
       <c r="N30" s="13"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="31" ht="28.5" spans="2:14">
+      <c r="B31">
+        <v>20004001</v>
+      </c>
+      <c r="C31" t="s">
+        <v>189</v>
+      </c>
+      <c r="D31">
+        <v>20001</v>
+      </c>
+      <c r="E31" t="b">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31" t="s">
+        <v>36</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="I31" t="s">
+        <v>58</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="L31" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="M31" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="N31" s="17" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="32" ht="28.5" spans="2:14">
+      <c r="B32">
+        <v>20004002</v>
+      </c>
+      <c r="C32" t="s">
+        <v>192</v>
+      </c>
+      <c r="D32">
+        <v>20001</v>
+      </c>
+      <c r="E32" t="b">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32" t="s">
+        <v>36</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="I32" t="s">
+        <v>194</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="L32" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="M32" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="N32" s="17" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="33" ht="28.5" spans="2:14">
+      <c r="B33">
+        <v>20004003</v>
+      </c>
+      <c r="C33" t="s">
+        <v>196</v>
+      </c>
+      <c r="D33">
+        <v>20001</v>
+      </c>
+      <c r="E33" t="b">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33" t="s">
+        <v>36</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="I33" t="s">
+        <v>197</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="L33" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="M33" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="N33" s="17" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="34" spans="8:8">
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="8:8">
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="8:8">
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="8:8">
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="8:8">
       <c r="H38" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/DataConfig/Datas/bubble.xlsx
+++ b/DataConfig/Datas/bubble.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" activeTab="2"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="章鱼" sheetId="2" r:id="rId1"/>
@@ -1700,8 +1700,8 @@
   <sheetPr/>
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D3"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3123,8 +3123,8 @@
   <sheetPr/>
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3135,8 +3135,8 @@
     <col min="5" max="5" width="12.625" customWidth="1"/>
     <col min="6" max="6" width="14.875" customWidth="1"/>
     <col min="7" max="7" width="14.25" customWidth="1"/>
-    <col min="8" max="8" width="13.125" customWidth="1"/>
-    <col min="9" max="9" width="10.625" customWidth="1"/>
+    <col min="8" max="8" width="26.625" customWidth="1"/>
+    <col min="9" max="9" width="19.375" customWidth="1"/>
     <col min="10" max="10" width="22.4916666666667" customWidth="1"/>
     <col min="11" max="11" width="16.75" customWidth="1"/>
     <col min="12" max="12" width="17.625" customWidth="1"/>

--- a/DataConfig/Datas/bubble.xlsx
+++ b/DataConfig/Datas/bubble.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655" activeTab="3"/>
+    <workbookView windowHeight="17655" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="章鱼" sheetId="2" r:id="rId1"/>
@@ -362,7 +362,7 @@
     <t>黄油拌饭</t>
   </si>
   <si>
-    <t>10002002</t>
+    <t>100021001</t>
   </si>
   <si>
     <t>0:9999</t>
@@ -383,7 +383,7 @@
     <t>今天来点带劲的</t>
   </si>
   <si>
-    <t>10002001,10002002</t>
+    <t>100021001,100021002</t>
   </si>
   <si>
     <t>模棱两可</t>
@@ -810,7 +810,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -844,6 +844,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1016,7 +1028,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1034,6 +1046,19 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -1161,7 +1186,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1173,34 +1198,34 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1209,46 +1234,46 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1257,35 +1282,35 @@
     <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyBorder="1" applyAlignment="1"/>
@@ -1318,35 +1343,79 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1731,7 +1800,7 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="30" t="s">
+      <c r="N1" s="47" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1775,7 +1844,7 @@
       <c r="M2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="30" t="s">
+      <c r="N2" s="47" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1815,7 +1884,7 @@
       <c r="M3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N3" s="30" t="s">
+      <c r="N3" s="47" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1830,22 +1899,22 @@
       <c r="E4">
         <v>10001</v>
       </c>
-      <c r="F4" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="24" t="s">
+      <c r="F4" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="24" t="s">
+      <c r="H4" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="24" t="s">
+      <c r="I4" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="24" t="s">
+      <c r="J4" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="25">
+      <c r="K4" s="48">
         <v>0</v>
       </c>
       <c r="L4" t="s">
@@ -1869,23 +1938,23 @@
       <c r="E5">
         <v>10001</v>
       </c>
-      <c r="F5" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" s="24">
+      <c r="F5" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="46">
         <f>$E5*1000+1</f>
         <v>10001001</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="H5" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="I5" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="J5" s="24" t="s">
+      <c r="J5" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="K5" s="25">
+      <c r="K5" s="48">
         <v>0</v>
       </c>
       <c r="L5" t="s">
@@ -1909,22 +1978,22 @@
       <c r="E6">
         <v>10001</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="H6" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="24" t="s">
+      <c r="I6" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="J6" s="24" t="s">
+      <c r="J6" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="K6" s="31">
+      <c r="K6" s="49">
         <v>10002</v>
       </c>
       <c r="L6" t="s">
@@ -1942,22 +2011,22 @@
       <c r="E7">
         <v>10001</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="H7" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="24" t="s">
+      <c r="I7" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="J7" s="24" t="s">
+      <c r="J7" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="K7" s="31">
+      <c r="K7" s="49">
         <v>10002</v>
       </c>
       <c r="L7" t="s">
@@ -1978,19 +2047,19 @@
       <c r="F8" t="b">
         <v>1</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="24" t="s">
+      <c r="H8" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="24" t="s">
+      <c r="I8" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="J8" s="24" t="s">
+      <c r="J8" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="25">
+      <c r="K8" s="48">
         <v>0</v>
       </c>
       <c r="L8" t="s">
@@ -2017,19 +2086,19 @@
       <c r="F9" t="b">
         <v>1</v>
       </c>
-      <c r="G9" s="24" t="s">
+      <c r="G9" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="24" t="s">
+      <c r="H9" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="I9" s="24" t="s">
+      <c r="I9" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="J9" s="24" t="s">
+      <c r="J9" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="K9" s="25">
+      <c r="K9" s="48">
         <v>0</v>
       </c>
       <c r="L9" t="s">
@@ -2056,19 +2125,19 @@
       <c r="F10" t="b">
         <v>1</v>
       </c>
-      <c r="G10" s="24">
-        <v>0</v>
-      </c>
-      <c r="H10" s="24" t="s">
+      <c r="G10" s="46">
+        <v>0</v>
+      </c>
+      <c r="H10" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="I10" s="24" t="s">
+      <c r="I10" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="J10" s="24" t="s">
+      <c r="J10" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="K10" s="24">
+      <c r="K10" s="46">
         <v>0</v>
       </c>
       <c r="L10" t="s">
@@ -2092,8 +2161,8 @@
   <sheetPr/>
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2251,790 +2320,808 @@
       </c>
     </row>
     <row r="4" ht="28.5" spans="1:15">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18">
+      <c r="A4" s="20"/>
+      <c r="B4" s="20">
+        <v>100021001</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21">
+        <v>10002</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="J4" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" s="22"/>
+      <c r="M4" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4" s="20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" ht="28.5" spans="1:15">
+      <c r="A5" s="23"/>
+      <c r="B5" s="23">
+        <v>100021002</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24">
+        <v>10002</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" s="26">
+        <v>10002009</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="28">
+        <v>0</v>
+      </c>
+      <c r="L5" s="24"/>
+      <c r="M5" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5" s="23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" ht="28.5" spans="1:15">
+      <c r="A6" s="23"/>
+      <c r="B6" s="23">
+        <v>100021003</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24">
+        <v>10002</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" s="27"/>
+      <c r="H6" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="J6" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="28">
+        <v>0</v>
+      </c>
+      <c r="L6" s="24"/>
+      <c r="M6" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="N6" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="O6" s="23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" ht="28.5" spans="1:15">
+      <c r="A7" s="23"/>
+      <c r="B7" s="23">
+        <v>100021004</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24">
+        <v>10002</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" s="27"/>
+      <c r="H7" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="J7" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="28">
+        <v>0</v>
+      </c>
+      <c r="L7" s="24"/>
+      <c r="M7" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="N7" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="O7" s="23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" ht="28.5" spans="1:15">
+      <c r="A8" s="23"/>
+      <c r="B8" s="23">
         <v>100021005</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19">
+      <c r="C8" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24">
         <v>10002</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F8" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20" t="s">
+      <c r="G8" s="27"/>
+      <c r="H8" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="I8" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="J4" s="20" t="s">
+      <c r="J8" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="23" t="s">
+      <c r="K8" s="28">
+        <v>0</v>
+      </c>
+      <c r="L8" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="M8" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="N8" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="O8" s="23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" ht="28.5" spans="1:15">
+      <c r="A9" s="23"/>
+      <c r="B9" s="20">
+        <v>100021006</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24">
+        <v>10002</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="27"/>
+      <c r="H9" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="J9" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="L4" s="20"/>
-      <c r="M4" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="N4" s="27" t="s">
+      <c r="L9" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="M9" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="N9" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="O4" s="18" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" ht="28.5" spans="1:15">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18">
-        <v>100021006</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19">
+      <c r="O9" s="23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" ht="28.5" spans="1:15">
+      <c r="A10" s="23"/>
+      <c r="B10" s="23">
+        <v>100021007</v>
+      </c>
+      <c r="C10" s="23"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24">
         <v>10002</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F10" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="G5" s="21">
-        <v>10002009</v>
-      </c>
-      <c r="H5" s="20" t="s">
+      <c r="G10" s="27"/>
+      <c r="H10" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="20" t="s">
+      <c r="I10" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="J5" s="20" t="s">
+      <c r="J10" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="K5" s="23">
-        <v>0</v>
-      </c>
-      <c r="L5" s="19"/>
-      <c r="M5" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="N5" s="27" t="s">
+      <c r="K10" s="28">
+        <v>0</v>
+      </c>
+      <c r="L10" s="24"/>
+      <c r="M10" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="N10" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="O5" s="18" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" ht="28.5" spans="1:15">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18">
-        <v>100021007</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19">
+      <c r="O10" s="23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" ht="28.5" spans="1:15">
+      <c r="A11" s="23"/>
+      <c r="B11" s="23">
+        <v>100021008</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24">
         <v>10002</v>
       </c>
-      <c r="F6" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="G6" s="22"/>
-      <c r="H6" s="20" t="s">
+      <c r="F11" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="27"/>
+      <c r="H11" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="20" t="s">
+      <c r="I11" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="J6" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="K6" s="23">
-        <v>0</v>
-      </c>
-      <c r="L6" s="19"/>
-      <c r="M6" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="N6" s="27" t="s">
+      <c r="J11" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11" s="28">
+        <v>0</v>
+      </c>
+      <c r="L11" s="24"/>
+      <c r="M11" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="N11" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="O6" s="18" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" ht="28.5" spans="1:15">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18">
-        <v>100021008</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19">
+      <c r="O11" s="23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" ht="28.5" spans="1:15">
+      <c r="A12" s="23"/>
+      <c r="B12" s="23">
+        <v>100021009</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24">
         <v>10002</v>
       </c>
-      <c r="F7" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="20" t="s">
+      <c r="F12" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="29">
+        <v>10002015</v>
+      </c>
+      <c r="H12" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="20" t="s">
+      <c r="I12" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="J7" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="K7" s="23">
-        <v>0</v>
-      </c>
-      <c r="L7" s="19"/>
-      <c r="M7" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="N7" s="27" t="s">
+      <c r="J12" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="K12" s="28">
+        <v>0</v>
+      </c>
+      <c r="L12" s="24"/>
+      <c r="M12" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="N12" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="O7" s="18" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" ht="28.5" spans="1:15">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18">
-        <v>100021009</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19">
+      <c r="O12" s="23" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" ht="28.5" spans="1:15">
+      <c r="A13" s="23"/>
+      <c r="B13" s="23">
+        <v>100021010</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24">
         <v>10002</v>
       </c>
-      <c r="F8" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="G8" s="22"/>
-      <c r="H8" s="20" t="s">
+      <c r="F13" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="29">
+        <v>10002016</v>
+      </c>
+      <c r="H13" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="20" t="s">
+      <c r="I13" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="J8" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="K8" s="23">
-        <v>0</v>
-      </c>
-      <c r="L8" s="28" t="s">
+      <c r="J13" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="K13" s="28">
+        <v>0</v>
+      </c>
+      <c r="L13" s="24"/>
+      <c r="M13" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="N13" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="O13" s="23" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" ht="28.5" spans="1:15">
+      <c r="A14" s="23"/>
+      <c r="B14" s="20">
+        <v>100021011</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24">
+        <v>10002</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="29">
+        <v>10002017</v>
+      </c>
+      <c r="H14" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="J14" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="K14" s="28">
+        <v>0</v>
+      </c>
+      <c r="L14" s="24"/>
+      <c r="M14" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="N14" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="O14" s="23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" ht="28.5" spans="1:15">
+      <c r="A15" s="23"/>
+      <c r="B15" s="23">
+        <v>100021012</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24">
+        <v>10002</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="29">
+        <v>10002018</v>
+      </c>
+      <c r="H15" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="J15" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="K15" s="28">
+        <v>0</v>
+      </c>
+      <c r="L15" s="24"/>
+      <c r="M15" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="N15" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="O15" s="23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" ht="28.5" spans="1:15">
+      <c r="A16" s="23"/>
+      <c r="B16" s="23">
+        <v>100021013</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24">
+        <v>10002</v>
+      </c>
+      <c r="F16" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="29">
+        <v>10002019</v>
+      </c>
+      <c r="H16" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="J16" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="K16" s="28">
+        <v>0</v>
+      </c>
+      <c r="L16" s="24"/>
+      <c r="M16" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="N16" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="O16" s="23" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" ht="28.5" spans="1:15">
+      <c r="A17" s="23"/>
+      <c r="B17" s="23">
+        <v>100021014</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24">
+        <v>10002</v>
+      </c>
+      <c r="F17" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" s="29">
+        <v>10002020</v>
+      </c>
+      <c r="H17" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="J17" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="K17" s="28">
+        <v>0</v>
+      </c>
+      <c r="L17" s="24"/>
+      <c r="M17" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="N17" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="O17" s="23" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" s="18" customFormat="1" ht="28.5" spans="1:15">
+      <c r="A18" s="30"/>
+      <c r="B18" s="30">
+        <v>100022001</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30">
+        <v>10002</v>
+      </c>
+      <c r="F18" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="H18" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="J18" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="K18" s="31">
+        <v>10002</v>
+      </c>
+      <c r="L18" s="31"/>
+      <c r="M18" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="N18" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="O18" s="30"/>
+    </row>
+    <row r="19" s="18" customFormat="1" ht="28.5" spans="1:15">
+      <c r="A19" s="30"/>
+      <c r="B19" s="30">
+        <v>100022002</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30">
+        <v>10002</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="32">
+        <v>100021002</v>
+      </c>
+      <c r="H19" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="I19" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="J19" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="K19" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="L19" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="M19" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="N19" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="O19" s="30"/>
+    </row>
+    <row r="20" s="18" customFormat="1" ht="28.5" spans="1:15">
+      <c r="A20" s="30"/>
+      <c r="B20" s="30">
+        <v>100022003</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30">
+        <v>10002</v>
+      </c>
+      <c r="F20" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="H20" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="J20" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="K20" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="L20" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="M8" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="N8" s="27" t="s">
+      <c r="M20" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="N20" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="O8" s="18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" ht="28.5" spans="1:15">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18">
-        <v>100021010</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19">
+      <c r="O20" s="30"/>
+    </row>
+    <row r="21" s="19" customFormat="1" ht="28.5" spans="1:15">
+      <c r="A21" s="33"/>
+      <c r="B21" s="33">
+        <v>100023001</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33">
         <v>10002</v>
       </c>
-      <c r="F9" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="G9" s="22"/>
-      <c r="H9" s="20" t="s">
+      <c r="F21" s="33" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" s="34">
+        <v>0</v>
+      </c>
+      <c r="H21" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="I9" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="J9" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="K9" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="L9" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="M9" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="N9" s="27" t="s">
+      <c r="I21" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="J21" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="K21" s="34">
+        <v>0</v>
+      </c>
+      <c r="L21" s="33"/>
+      <c r="M21" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="N21" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="O9" s="18" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" ht="28.5" spans="1:15">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18">
-        <v>100021011</v>
-      </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19">
+      <c r="O21" s="45" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" s="19" customFormat="1" ht="28.5" spans="1:15">
+      <c r="A22" s="33"/>
+      <c r="B22" s="33">
+        <v>100023002</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33">
         <v>10002</v>
       </c>
-      <c r="F10" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="G10" s="22"/>
-      <c r="H10" s="20" t="s">
+      <c r="F22" s="33" t="b">
+        <v>1</v>
+      </c>
+      <c r="G22" s="34">
+        <v>0</v>
+      </c>
+      <c r="H22" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="I10" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="J10" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="K10" s="23">
-        <v>0</v>
-      </c>
-      <c r="L10" s="19"/>
-      <c r="M10" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="N10" s="27" t="s">
+      <c r="I22" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="J22" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="K22" s="34">
+        <v>0</v>
+      </c>
+      <c r="L22" s="33"/>
+      <c r="M22" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="N22" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="O10" s="18" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" ht="28.5" spans="1:15">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18">
-        <v>100021012</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19">
+      <c r="O22" s="45" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" s="19" customFormat="1" ht="28.5" spans="1:15">
+      <c r="A23" s="33"/>
+      <c r="B23" s="33">
+        <v>100023003</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33">
         <v>10002</v>
       </c>
-      <c r="F11" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="22"/>
-      <c r="H11" s="20" t="s">
+      <c r="F23" s="33" t="b">
+        <v>1</v>
+      </c>
+      <c r="G23" s="34">
+        <v>0</v>
+      </c>
+      <c r="H23" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="I11" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="J11" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="K11" s="23">
-        <v>0</v>
-      </c>
-      <c r="L11" s="19"/>
-      <c r="M11" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="N11" s="27" t="s">
+      <c r="I23" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="J23" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="K23" s="34">
+        <v>0</v>
+      </c>
+      <c r="L23" s="33"/>
+      <c r="M23" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="N23" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="O11" s="18" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" ht="28.5" spans="1:15">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18">
-        <v>100021013</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19">
-        <v>10002</v>
-      </c>
-      <c r="F12" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" s="19">
-        <v>10002015</v>
-      </c>
-      <c r="H12" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="J12" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="K12" s="23">
-        <v>0</v>
-      </c>
-      <c r="L12" s="19"/>
-      <c r="M12" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="N12" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="O12" s="18" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" ht="28.5" spans="1:15">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18">
-        <v>100021014</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19">
-        <v>10002</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" s="19">
-        <v>10002016</v>
-      </c>
-      <c r="H13" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="J13" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="K13" s="23">
-        <v>0</v>
-      </c>
-      <c r="L13" s="19"/>
-      <c r="M13" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="N13" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="O13" s="18" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" ht="28.5" spans="1:15">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18">
-        <v>100021015</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19">
-        <v>10002</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="G14" s="19">
-        <v>10002017</v>
-      </c>
-      <c r="H14" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="I14" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="J14" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="K14" s="23">
-        <v>0</v>
-      </c>
-      <c r="L14" s="19"/>
-      <c r="M14" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="N14" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="O14" s="18" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15" ht="28.5" spans="1:15">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18">
-        <v>100021016</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19">
-        <v>10002</v>
-      </c>
-      <c r="F15" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="G15" s="19">
-        <v>10002018</v>
-      </c>
-      <c r="H15" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="I15" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="J15" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="K15" s="23">
-        <v>0</v>
-      </c>
-      <c r="L15" s="19"/>
-      <c r="M15" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="N15" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="O15" s="18" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="16" ht="28.5" spans="1:15">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18">
-        <v>100021017</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19">
-        <v>10002</v>
-      </c>
-      <c r="F16" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="G16" s="19">
-        <v>10002019</v>
-      </c>
-      <c r="H16" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="I16" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="J16" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="K16" s="23">
-        <v>0</v>
-      </c>
-      <c r="L16" s="19"/>
-      <c r="M16" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="N16" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="O16" s="18" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="17" ht="28.5" spans="1:15">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18">
-        <v>100021018</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19">
-        <v>10002</v>
-      </c>
-      <c r="F17" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="G17" s="19">
-        <v>10002020</v>
-      </c>
-      <c r="H17" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="I17" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="J17" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="K17" s="23">
-        <v>0</v>
-      </c>
-      <c r="L17" s="19"/>
-      <c r="M17" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="N17" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="O17" s="18" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" ht="28.5" spans="2:14">
-      <c r="B18">
-        <v>100022001</v>
-      </c>
-      <c r="C18" t="s">
-        <v>99</v>
-      </c>
-      <c r="E18">
-        <v>10002</v>
-      </c>
-      <c r="F18" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="G18" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="H18" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="I18" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="J18" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="K18" s="24">
-        <v>10002</v>
-      </c>
-      <c r="L18" s="24"/>
-      <c r="M18" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="N18" s="15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" ht="28.5" spans="2:14">
-      <c r="B19">
-        <v>100022002</v>
-      </c>
-      <c r="C19" t="s">
-        <v>102</v>
-      </c>
-      <c r="E19">
-        <v>10002</v>
-      </c>
-      <c r="F19" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="G19" s="25">
-        <v>10002001</v>
-      </c>
-      <c r="H19" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="I19" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="J19" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="K19" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="L19" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="M19" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="N19" s="15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" ht="28.5" spans="2:14">
-      <c r="B20">
-        <v>100022003</v>
-      </c>
-      <c r="C20" t="s">
-        <v>106</v>
-      </c>
-      <c r="E20">
-        <v>10002</v>
-      </c>
-      <c r="F20" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="G20" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="H20" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="I20" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="J20" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="K20" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="L20" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="M20" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="N20" s="15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" ht="28.5" spans="2:15">
-      <c r="B21">
-        <v>100023001</v>
-      </c>
-      <c r="C21" t="s">
-        <v>110</v>
-      </c>
-      <c r="E21">
-        <v>10002</v>
-      </c>
-      <c r="F21" t="b">
-        <v>1</v>
-      </c>
-      <c r="G21" s="25">
-        <v>0</v>
-      </c>
-      <c r="H21" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="I21" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="J21" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="K21" s="25">
-        <v>0</v>
-      </c>
-      <c r="M21" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="N21" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="O21" s="15" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="22" ht="28.5" spans="2:15">
-      <c r="B22">
-        <v>100023002</v>
-      </c>
-      <c r="C22" t="s">
-        <v>113</v>
-      </c>
-      <c r="E22">
-        <v>10002</v>
-      </c>
-      <c r="F22" t="b">
-        <v>1</v>
-      </c>
-      <c r="G22" s="25">
-        <v>0</v>
-      </c>
-      <c r="H22" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="I22" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="J22" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="K22" s="25">
-        <v>0</v>
-      </c>
-      <c r="M22" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="N22" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="O22" s="15" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="23" ht="28.5" spans="2:15">
-      <c r="B23">
-        <v>100023003</v>
-      </c>
-      <c r="C23" t="s">
-        <v>116</v>
-      </c>
-      <c r="E23">
-        <v>10002</v>
-      </c>
-      <c r="F23" t="b">
-        <v>1</v>
-      </c>
-      <c r="G23" s="25">
-        <v>0</v>
-      </c>
-      <c r="H23" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="I23" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="J23" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="K23" s="25">
-        <v>0</v>
-      </c>
-      <c r="M23" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="N23" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="O23" s="15" t="s">
+      <c r="O23" s="45" t="s">
         <v>118</v>
       </c>
     </row>
@@ -4432,8 +4519,8 @@
   <sheetPr/>
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>

--- a/DataConfig/Datas/bubble.xlsx
+++ b/DataConfig/Datas/bubble.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655" activeTab="1"/>
+    <workbookView windowWidth="20685" windowHeight="13635" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="章鱼" sheetId="2" r:id="rId1"/>
@@ -1310,7 +1310,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyBorder="1" applyAlignment="1"/>
@@ -1356,13 +1356,7 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1800,7 +1794,7 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="47" t="s">
+      <c r="N1" s="45" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1844,7 +1838,7 @@
       <c r="M2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="47" t="s">
+      <c r="N2" s="45" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1884,7 +1878,7 @@
       <c r="M3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N3" s="47" t="s">
+      <c r="N3" s="45" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1899,22 +1893,22 @@
       <c r="E4">
         <v>10001</v>
       </c>
-      <c r="F4" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="46" t="s">
+      <c r="F4" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="46" t="s">
+      <c r="H4" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="46" t="s">
+      <c r="I4" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="46" t="s">
+      <c r="J4" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="48">
+      <c r="K4" s="46">
         <v>0</v>
       </c>
       <c r="L4" t="s">
@@ -1938,23 +1932,23 @@
       <c r="E5">
         <v>10001</v>
       </c>
-      <c r="F5" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" s="46">
+      <c r="F5" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="44">
         <f>$E5*1000+1</f>
         <v>10001001</v>
       </c>
-      <c r="H5" s="46" t="s">
+      <c r="H5" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="46" t="s">
+      <c r="I5" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="J5" s="46" t="s">
+      <c r="J5" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="K5" s="48">
+      <c r="K5" s="46">
         <v>0</v>
       </c>
       <c r="L5" t="s">
@@ -1978,22 +1972,22 @@
       <c r="E6">
         <v>10001</v>
       </c>
-      <c r="F6" s="46" t="s">
+      <c r="F6" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="46" t="s">
+      <c r="G6" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="46" t="s">
+      <c r="H6" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="46" t="s">
+      <c r="I6" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="J6" s="46" t="s">
+      <c r="J6" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="K6" s="49">
+      <c r="K6" s="47">
         <v>10002</v>
       </c>
       <c r="L6" t="s">
@@ -2011,22 +2005,22 @@
       <c r="E7">
         <v>10001</v>
       </c>
-      <c r="F7" s="46" t="s">
+      <c r="F7" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="46" t="s">
+      <c r="G7" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="46" t="s">
+      <c r="H7" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="46" t="s">
+      <c r="I7" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="J7" s="46" t="s">
+      <c r="J7" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="K7" s="49">
+      <c r="K7" s="47">
         <v>10002</v>
       </c>
       <c r="L7" t="s">
@@ -2047,19 +2041,19 @@
       <c r="F8" t="b">
         <v>1</v>
       </c>
-      <c r="G8" s="46" t="s">
+      <c r="G8" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="46" t="s">
+      <c r="H8" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="46" t="s">
+      <c r="I8" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="J8" s="46" t="s">
+      <c r="J8" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="48">
+      <c r="K8" s="46">
         <v>0</v>
       </c>
       <c r="L8" t="s">
@@ -2086,19 +2080,19 @@
       <c r="F9" t="b">
         <v>1</v>
       </c>
-      <c r="G9" s="46" t="s">
+      <c r="G9" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="46" t="s">
+      <c r="H9" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="I9" s="46" t="s">
+      <c r="I9" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="J9" s="46" t="s">
+      <c r="J9" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="K9" s="48">
+      <c r="K9" s="46">
         <v>0</v>
       </c>
       <c r="L9" t="s">
@@ -2125,19 +2119,19 @@
       <c r="F10" t="b">
         <v>1</v>
       </c>
-      <c r="G10" s="46">
-        <v>0</v>
-      </c>
-      <c r="H10" s="46" t="s">
+      <c r="G10" s="44">
+        <v>0</v>
+      </c>
+      <c r="H10" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="I10" s="46" t="s">
+      <c r="I10" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="J10" s="46" t="s">
+      <c r="J10" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="K10" s="46">
+      <c r="K10" s="44">
         <v>0</v>
       </c>
       <c r="L10" t="s">
@@ -2161,8 +2155,8 @@
   <sheetPr/>
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2344,14 +2338,14 @@
       <c r="J4" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="35" t="s">
+      <c r="K4" s="33" t="s">
         <v>37</v>
       </c>
       <c r="L4" s="22"/>
-      <c r="M4" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="N4" s="37" t="s">
+      <c r="M4" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" s="35" t="s">
         <v>70</v>
       </c>
       <c r="O4" s="20" t="s">
@@ -2385,14 +2379,14 @@
       <c r="J5" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="K5" s="28">
+      <c r="K5" s="27">
         <v>0</v>
       </c>
       <c r="L5" s="24"/>
-      <c r="M5" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="N5" s="39" t="s">
+      <c r="M5" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" s="37" t="s">
         <v>70</v>
       </c>
       <c r="O5" s="23" t="s">
@@ -2414,7 +2408,7 @@
       <c r="F6" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="G6" s="27"/>
+      <c r="G6" s="25"/>
       <c r="H6" s="25" t="s">
         <v>38</v>
       </c>
@@ -2424,14 +2418,14 @@
       <c r="J6" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="K6" s="28">
+      <c r="K6" s="27">
         <v>0</v>
       </c>
       <c r="L6" s="24"/>
-      <c r="M6" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="N6" s="39" t="s">
+      <c r="M6" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="N6" s="37" t="s">
         <v>70</v>
       </c>
       <c r="O6" s="23" t="s">
@@ -2453,7 +2447,7 @@
       <c r="F7" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="G7" s="27"/>
+      <c r="G7" s="25"/>
       <c r="H7" s="25" t="s">
         <v>38</v>
       </c>
@@ -2463,14 +2457,14 @@
       <c r="J7" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="28">
+      <c r="K7" s="27">
         <v>0</v>
       </c>
       <c r="L7" s="24"/>
-      <c r="M7" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="N7" s="39" t="s">
+      <c r="M7" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="N7" s="37" t="s">
         <v>70</v>
       </c>
       <c r="O7" s="23" t="s">
@@ -2492,7 +2486,7 @@
       <c r="F8" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="G8" s="27"/>
+      <c r="G8" s="25"/>
       <c r="H8" s="25" t="s">
         <v>38</v>
       </c>
@@ -2502,16 +2496,16 @@
       <c r="J8" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="K8" s="28">
-        <v>0</v>
-      </c>
-      <c r="L8" s="40" t="s">
+      <c r="K8" s="27">
+        <v>0</v>
+      </c>
+      <c r="L8" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="M8" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="N8" s="39" t="s">
+      <c r="M8" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="N8" s="37" t="s">
         <v>70</v>
       </c>
       <c r="O8" s="23" t="s">
@@ -2533,7 +2527,7 @@
       <c r="F9" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="G9" s="27"/>
+      <c r="G9" s="25"/>
       <c r="H9" s="25" t="s">
         <v>38</v>
       </c>
@@ -2543,16 +2537,16 @@
       <c r="J9" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="K9" s="28" t="s">
+      <c r="K9" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="L9" s="40" t="s">
+      <c r="L9" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="M9" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="N9" s="39" t="s">
+      <c r="M9" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="N9" s="37" t="s">
         <v>70</v>
       </c>
       <c r="O9" s="23" t="s">
@@ -2572,7 +2566,7 @@
       <c r="F10" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="G10" s="27"/>
+      <c r="G10" s="25"/>
       <c r="H10" s="25" t="s">
         <v>38</v>
       </c>
@@ -2582,14 +2576,14 @@
       <c r="J10" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="K10" s="28">
+      <c r="K10" s="27">
         <v>0</v>
       </c>
       <c r="L10" s="24"/>
-      <c r="M10" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="N10" s="39" t="s">
+      <c r="M10" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="N10" s="37" t="s">
         <v>70</v>
       </c>
       <c r="O10" s="23" t="s">
@@ -2608,27 +2602,27 @@
       <c r="E11" s="24">
         <v>10002</v>
       </c>
-      <c r="F11" s="28" t="s">
+      <c r="F11" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="G11" s="27"/>
+      <c r="G11" s="25"/>
       <c r="H11" s="25" t="s">
         <v>38</v>
       </c>
       <c r="I11" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="J11" s="28" t="s">
+      <c r="J11" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="K11" s="28">
+      <c r="K11" s="27">
         <v>0</v>
       </c>
       <c r="L11" s="24"/>
-      <c r="M11" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="N11" s="39" t="s">
+      <c r="M11" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="N11" s="37" t="s">
         <v>70</v>
       </c>
       <c r="O11" s="23" t="s">
@@ -2647,10 +2641,10 @@
       <c r="E12" s="24">
         <v>10002</v>
       </c>
-      <c r="F12" s="28" t="s">
+      <c r="F12" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="G12" s="29">
+      <c r="G12" s="26">
         <v>10002015</v>
       </c>
       <c r="H12" s="25" t="s">
@@ -2659,17 +2653,17 @@
       <c r="I12" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="J12" s="28" t="s">
+      <c r="J12" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="K12" s="28">
+      <c r="K12" s="27">
         <v>0</v>
       </c>
       <c r="L12" s="24"/>
-      <c r="M12" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="N12" s="39" t="s">
+      <c r="M12" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="N12" s="37" t="s">
         <v>70</v>
       </c>
       <c r="O12" s="23" t="s">
@@ -2688,10 +2682,10 @@
       <c r="E13" s="24">
         <v>10002</v>
       </c>
-      <c r="F13" s="28" t="s">
+      <c r="F13" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="G13" s="29">
+      <c r="G13" s="26">
         <v>10002016</v>
       </c>
       <c r="H13" s="25" t="s">
@@ -2700,17 +2694,17 @@
       <c r="I13" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="J13" s="28" t="s">
+      <c r="J13" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="K13" s="28">
+      <c r="K13" s="27">
         <v>0</v>
       </c>
       <c r="L13" s="24"/>
-      <c r="M13" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="N13" s="39" t="s">
+      <c r="M13" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="N13" s="37" t="s">
         <v>70</v>
       </c>
       <c r="O13" s="23" t="s">
@@ -2729,10 +2723,10 @@
       <c r="E14" s="24">
         <v>10002</v>
       </c>
-      <c r="F14" s="28" t="s">
+      <c r="F14" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="G14" s="29">
+      <c r="G14" s="26">
         <v>10002017</v>
       </c>
       <c r="H14" s="25" t="s">
@@ -2741,17 +2735,17 @@
       <c r="I14" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="J14" s="28" t="s">
+      <c r="J14" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="K14" s="28">
+      <c r="K14" s="27">
         <v>0</v>
       </c>
       <c r="L14" s="24"/>
-      <c r="M14" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="N14" s="39" t="s">
+      <c r="M14" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="N14" s="37" t="s">
         <v>70</v>
       </c>
       <c r="O14" s="23" t="s">
@@ -2770,10 +2764,10 @@
       <c r="E15" s="24">
         <v>10002</v>
       </c>
-      <c r="F15" s="28" t="s">
+      <c r="F15" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="G15" s="29">
+      <c r="G15" s="26">
         <v>10002018</v>
       </c>
       <c r="H15" s="25" t="s">
@@ -2782,17 +2776,17 @@
       <c r="I15" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="J15" s="28" t="s">
+      <c r="J15" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="K15" s="28">
+      <c r="K15" s="27">
         <v>0</v>
       </c>
       <c r="L15" s="24"/>
-      <c r="M15" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="N15" s="39" t="s">
+      <c r="M15" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="N15" s="37" t="s">
         <v>70</v>
       </c>
       <c r="O15" s="23" t="s">
@@ -2811,10 +2805,10 @@
       <c r="E16" s="24">
         <v>10002</v>
       </c>
-      <c r="F16" s="28" t="s">
+      <c r="F16" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="G16" s="29">
+      <c r="G16" s="26">
         <v>10002019</v>
       </c>
       <c r="H16" s="25" t="s">
@@ -2823,17 +2817,17 @@
       <c r="I16" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="J16" s="28" t="s">
+      <c r="J16" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="K16" s="28">
+      <c r="K16" s="27">
         <v>0</v>
       </c>
       <c r="L16" s="24"/>
-      <c r="M16" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="N16" s="39" t="s">
+      <c r="M16" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="N16" s="37" t="s">
         <v>70</v>
       </c>
       <c r="O16" s="23" t="s">
@@ -2852,10 +2846,10 @@
       <c r="E17" s="24">
         <v>10002</v>
       </c>
-      <c r="F17" s="28" t="s">
+      <c r="F17" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="G17" s="29">
+      <c r="G17" s="26">
         <v>10002020</v>
       </c>
       <c r="H17" s="25" t="s">
@@ -2864,17 +2858,17 @@
       <c r="I17" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="J17" s="28" t="s">
+      <c r="J17" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="K17" s="28">
+      <c r="K17" s="27">
         <v>0</v>
       </c>
       <c r="L17" s="24"/>
-      <c r="M17" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="N17" s="39" t="s">
+      <c r="M17" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="N17" s="37" t="s">
         <v>70</v>
       </c>
       <c r="O17" s="23" t="s">
@@ -2882,246 +2876,246 @@
       </c>
     </row>
     <row r="18" s="18" customFormat="1" ht="28.5" spans="1:15">
-      <c r="A18" s="30"/>
-      <c r="B18" s="30">
+      <c r="A18" s="28"/>
+      <c r="B18" s="28">
         <v>100022001</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30">
+      <c r="D18" s="28"/>
+      <c r="E18" s="28">
         <v>10002</v>
       </c>
-      <c r="F18" s="31" t="s">
+      <c r="F18" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="G18" s="31" t="s">
+      <c r="G18" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="H18" s="31" t="s">
+      <c r="H18" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="I18" s="31" t="s">
+      <c r="I18" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="J18" s="31" t="s">
+      <c r="J18" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="K18" s="31">
+      <c r="K18" s="29">
         <v>10002</v>
       </c>
-      <c r="L18" s="31"/>
-      <c r="M18" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="N18" s="41" t="s">
+      <c r="L18" s="29"/>
+      <c r="M18" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="N18" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="O18" s="30"/>
+      <c r="O18" s="28"/>
     </row>
     <row r="19" s="18" customFormat="1" ht="28.5" spans="1:15">
-      <c r="A19" s="30"/>
-      <c r="B19" s="30">
+      <c r="A19" s="28"/>
+      <c r="B19" s="28">
         <v>100022002</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30">
+      <c r="D19" s="28"/>
+      <c r="E19" s="28">
         <v>10002</v>
       </c>
-      <c r="F19" s="31" t="s">
+      <c r="F19" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="G19" s="32">
+      <c r="G19" s="30">
         <v>100021002</v>
       </c>
-      <c r="H19" s="31" t="s">
+      <c r="H19" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="I19" s="31" t="s">
+      <c r="I19" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="J19" s="31" t="s">
+      <c r="J19" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="K19" s="42" t="s">
+      <c r="K19" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="L19" s="42" t="s">
+      <c r="L19" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="M19" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="N19" s="41" t="s">
+      <c r="M19" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="N19" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="O19" s="30"/>
+      <c r="O19" s="28"/>
     </row>
     <row r="20" s="18" customFormat="1" ht="28.5" spans="1:15">
-      <c r="A20" s="30"/>
-      <c r="B20" s="30">
+      <c r="A20" s="28"/>
+      <c r="B20" s="28">
         <v>100022003</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30">
+      <c r="D20" s="28"/>
+      <c r="E20" s="28">
         <v>10002</v>
       </c>
-      <c r="F20" s="31" t="s">
+      <c r="F20" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="G20" s="31" t="s">
+      <c r="G20" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="H20" s="31" t="s">
+      <c r="H20" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="I20" s="31" t="s">
+      <c r="I20" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="J20" s="31" t="s">
+      <c r="J20" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="K20" s="42" t="s">
+      <c r="K20" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="L20" s="42" t="s">
+      <c r="L20" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="M20" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="N20" s="41" t="s">
+      <c r="M20" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="N20" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="O20" s="30"/>
+      <c r="O20" s="28"/>
     </row>
     <row r="21" s="19" customFormat="1" ht="28.5" spans="1:15">
-      <c r="A21" s="33"/>
-      <c r="B21" s="33">
+      <c r="A21" s="31"/>
+      <c r="B21" s="31">
         <v>100023001</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33">
+      <c r="D21" s="31"/>
+      <c r="E21" s="31">
         <v>10002</v>
       </c>
-      <c r="F21" s="33" t="b">
+      <c r="F21" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="G21" s="34">
-        <v>0</v>
-      </c>
-      <c r="H21" s="34" t="s">
+      <c r="G21" s="32">
+        <v>0</v>
+      </c>
+      <c r="H21" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="I21" s="43" t="s">
+      <c r="I21" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="J21" s="34" t="s">
+      <c r="J21" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="K21" s="34">
-        <v>0</v>
-      </c>
-      <c r="L21" s="33"/>
-      <c r="M21" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="N21" s="45" t="s">
+      <c r="K21" s="32">
+        <v>0</v>
+      </c>
+      <c r="L21" s="31"/>
+      <c r="M21" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="N21" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="O21" s="45" t="s">
+      <c r="O21" s="43" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="22" s="19" customFormat="1" ht="28.5" spans="1:15">
-      <c r="A22" s="33"/>
-      <c r="B22" s="33">
+      <c r="A22" s="31"/>
+      <c r="B22" s="31">
         <v>100023002</v>
       </c>
-      <c r="C22" s="33" t="s">
+      <c r="C22" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33">
+      <c r="D22" s="31"/>
+      <c r="E22" s="31">
         <v>10002</v>
       </c>
-      <c r="F22" s="33" t="b">
+      <c r="F22" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="G22" s="34">
-        <v>0</v>
-      </c>
-      <c r="H22" s="34" t="s">
+      <c r="G22" s="32">
+        <v>0</v>
+      </c>
+      <c r="H22" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="I22" s="43" t="s">
+      <c r="I22" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="J22" s="34" t="s">
+      <c r="J22" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="K22" s="34">
-        <v>0</v>
-      </c>
-      <c r="L22" s="33"/>
-      <c r="M22" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="N22" s="45" t="s">
+      <c r="K22" s="32">
+        <v>0</v>
+      </c>
+      <c r="L22" s="31"/>
+      <c r="M22" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="N22" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="O22" s="45" t="s">
+      <c r="O22" s="43" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="23" s="19" customFormat="1" ht="28.5" spans="1:15">
-      <c r="A23" s="33"/>
-      <c r="B23" s="33">
+      <c r="A23" s="31"/>
+      <c r="B23" s="31">
         <v>100023003</v>
       </c>
-      <c r="C23" s="33" t="s">
+      <c r="C23" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33">
+      <c r="D23" s="31"/>
+      <c r="E23" s="31">
         <v>10002</v>
       </c>
-      <c r="F23" s="33" t="b">
+      <c r="F23" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="G23" s="34">
-        <v>0</v>
-      </c>
-      <c r="H23" s="34" t="s">
+      <c r="G23" s="32">
+        <v>0</v>
+      </c>
+      <c r="H23" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="I23" s="43" t="s">
+      <c r="I23" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="J23" s="34" t="s">
+      <c r="J23" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="K23" s="34">
-        <v>0</v>
-      </c>
-      <c r="L23" s="33"/>
-      <c r="M23" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="N23" s="45" t="s">
+      <c r="K23" s="32">
+        <v>0</v>
+      </c>
+      <c r="L23" s="31"/>
+      <c r="M23" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="N23" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="O23" s="45" t="s">
+      <c r="O23" s="43" t="s">
         <v>118</v>
       </c>
     </row>

--- a/DataConfig/Datas/bubble.xlsx
+++ b/DataConfig/Datas/bubble.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20685" windowHeight="13635" activeTab="1"/>
+    <workbookView windowWidth="18345" windowHeight="17655" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="章鱼" sheetId="2" r:id="rId1"/>
     <sheet name="喵老师" sheetId="3" r:id="rId2"/>
-    <sheet name="杂鱼A" sheetId="4" r:id="rId3"/>
-    <sheet name="伊万" sheetId="5" r:id="rId4"/>
+    <sheet name="伊万" sheetId="5" r:id="rId3"/>
+    <sheet name="杂鱼A" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="192">
   <si>
     <t>##var</t>
   </si>
@@ -359,7 +359,7 @@
     <t>Miao_tsugumi7</t>
   </si>
   <si>
-    <t>黄油拌饭</t>
+    <t>意式茄汁焗饭</t>
   </si>
   <si>
     <t>100021001</t>
@@ -368,6 +368,9 @@
     <t>0:9999</t>
   </si>
   <si>
+    <t>10004</t>
+  </si>
+  <si>
     <t>想吃甜的</t>
   </si>
   <si>
@@ -389,7 +392,7 @@
     <t>模棱两可</t>
   </si>
   <si>
-    <t>10002</t>
+    <t>10005</t>
   </si>
   <si>
     <t>确定的订单评论</t>
@@ -425,12 +428,27 @@
     <t>周一</t>
   </si>
   <si>
+    <t>999:9999</t>
+  </si>
+  <si>
     <t>Assets/GameRes/Story/young/young.yarnproject</t>
   </si>
   <si>
     <t>young_main_a</t>
   </si>
   <si>
+    <t>大城市</t>
+  </si>
+  <si>
+    <t>young_talk_a</t>
+  </si>
+  <si>
+    <t>来份蛋炒饭</t>
+  </si>
+  <si>
+    <t>young_comment_specify</t>
+  </si>
+  <si>
     <t>老板晚上好</t>
   </si>
   <si>
@@ -521,12 +539,6 @@
     <t>young_main_m</t>
   </si>
   <si>
-    <t>大城市</t>
-  </si>
-  <si>
-    <t>young_talk_a</t>
-  </si>
-  <si>
     <t>剧还没来得及看</t>
   </si>
   <si>
@@ -587,9 +599,6 @@
     <t>young_talk_g_2</t>
   </si>
   <si>
-    <t>来份蛋炒饭</t>
-  </si>
-  <si>
     <t>0:500</t>
   </si>
   <si>
@@ -620,9 +629,6 @@
     <t>酸,辣</t>
   </si>
   <si>
-    <t>young_comment_specify</t>
-  </si>
-  <si>
     <t>9998:9999</t>
   </si>
   <si>
@@ -630,9 +636,6 @@
   </si>
   <si>
     <t>young_comment_omakase</t>
-  </si>
-  <si>
-    <t>999:9999</t>
   </si>
 </sst>
 </file>
@@ -1312,11 +1315,13 @@
   </cellStyleXfs>
   <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1327,20 +1332,18 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1755,43 +1758,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="45" t="s">
@@ -1799,43 +1802,43 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N2" s="45" t="s">
@@ -1843,39 +1846,39 @@
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1" t="s">
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="2" t="s">
         <v>34</v>
       </c>
       <c r="N3" s="45" t="s">
@@ -2155,8 +2158,8 @@
   <sheetPr/>
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2164,10 +2167,10 @@
     <col min="2" max="2" width="11.5" customWidth="1"/>
     <col min="3" max="3" width="21.375" customWidth="1"/>
     <col min="4" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="14.25" style="13" customWidth="1"/>
-    <col min="7" max="7" width="19.625" style="13" customWidth="1"/>
-    <col min="8" max="8" width="25.875" style="13" customWidth="1"/>
-    <col min="9" max="9" width="16.625" style="13" customWidth="1"/>
+    <col min="6" max="6" width="14.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="25.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.625" style="1" customWidth="1"/>
     <col min="10" max="10" width="17.1666666666667" customWidth="1"/>
     <col min="11" max="11" width="15.25" customWidth="1"/>
     <col min="12" max="12" width="29.625" customWidth="1"/>
@@ -2177,139 +2180,139 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="1" t="s">
+      <c r="H3" s="2"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="O3" s="2" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2902,8 +2905,8 @@
       <c r="J18" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="K18" s="29">
-        <v>10002</v>
+      <c r="K18" s="29" t="s">
+        <v>102</v>
       </c>
       <c r="L18" s="29"/>
       <c r="M18" s="39" t="s">
@@ -2920,7 +2923,7 @@
         <v>100022002</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D19" s="28"/>
       <c r="E19" s="28">
@@ -2933,19 +2936,19 @@
         <v>100021002</v>
       </c>
       <c r="H19" s="29" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I19" s="29" t="s">
         <v>69</v>
       </c>
       <c r="J19" s="29" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K19" s="40" t="s">
         <v>37</v>
       </c>
       <c r="L19" s="40" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M19" s="39" t="s">
         <v>41</v>
@@ -2961,7 +2964,7 @@
         <v>100022003</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D20" s="28"/>
       <c r="E20" s="28">
@@ -2971,7 +2974,7 @@
         <v>48</v>
       </c>
       <c r="G20" s="29" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H20" s="29" t="s">
         <v>38</v>
@@ -2980,10 +2983,10 @@
         <v>69</v>
       </c>
       <c r="J20" s="29" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K20" s="40" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L20" s="40" t="s">
         <v>79</v>
@@ -3002,7 +3005,7 @@
         <v>100023001</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D21" s="31"/>
       <c r="E21" s="31">
@@ -3018,7 +3021,7 @@
         <v>38</v>
       </c>
       <c r="I21" s="41" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J21" s="32" t="s">
         <v>60</v>
@@ -3034,7 +3037,7 @@
         <v>70</v>
       </c>
       <c r="O21" s="43" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" s="19" customFormat="1" ht="28.5" spans="1:15">
@@ -3043,7 +3046,7 @@
         <v>100023002</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D22" s="31"/>
       <c r="E22" s="31">
@@ -3062,7 +3065,7 @@
         <v>101</v>
       </c>
       <c r="J22" s="32" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K22" s="32">
         <v>0</v>
@@ -3075,7 +3078,7 @@
         <v>70</v>
       </c>
       <c r="O22" s="43" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" s="19" customFormat="1" ht="28.5" spans="1:15">
@@ -3084,7 +3087,7 @@
         <v>100023003</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D23" s="31"/>
       <c r="E23" s="31">
@@ -3103,7 +3106,7 @@
         <v>101</v>
       </c>
       <c r="J23" s="32" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K23" s="32">
         <v>0</v>
@@ -3116,7 +3119,7 @@
         <v>70</v>
       </c>
       <c r="O23" s="43" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -3129,1392 +3132,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O38"/>
-  <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <cols>
-    <col min="2" max="2" width="12.5" customWidth="1"/>
-    <col min="3" max="3" width="16.4416666666667" customWidth="1"/>
-    <col min="4" max="4" width="16.125" customWidth="1"/>
-    <col min="5" max="5" width="12.625" customWidth="1"/>
-    <col min="6" max="6" width="14.875" customWidth="1"/>
-    <col min="7" max="7" width="14.25" customWidth="1"/>
-    <col min="8" max="8" width="26.625" customWidth="1"/>
-    <col min="9" max="9" width="19.375" customWidth="1"/>
-    <col min="10" max="10" width="22.4916666666667" customWidth="1"/>
-    <col min="11" max="11" width="16.75" customWidth="1"/>
-    <col min="12" max="12" width="17.625" customWidth="1"/>
-    <col min="13" max="13" width="26.75" style="13" customWidth="1"/>
-    <col min="14" max="14" width="23.875" customWidth="1"/>
-    <col min="15" max="15" width="18.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" ht="28.5" spans="1:15">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3">
-        <v>20001001</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3">
-        <v>20001</v>
-      </c>
-      <c r="F4" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K4" s="3">
-        <v>0</v>
-      </c>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5" ht="28.5" spans="1:15">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3">
-        <v>20001002</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3">
-        <v>20001</v>
-      </c>
-      <c r="F5" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3">
-        <v>20001001</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K5" s="3">
-        <v>0</v>
-      </c>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6" ht="28.5" spans="1:15">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3">
-        <v>20001003</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3">
-        <v>20001</v>
-      </c>
-      <c r="F6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3">
-        <v>20001002</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K6" s="3">
-        <v>0</v>
-      </c>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="7" ht="28.5" spans="1:15">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3">
-        <v>20001004</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3">
-        <v>20001</v>
-      </c>
-      <c r="F7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3">
-        <v>20001003</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K7" s="3">
-        <v>0</v>
-      </c>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="8" ht="28.5" spans="1:15">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3">
-        <v>20001005</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3">
-        <v>20001</v>
-      </c>
-      <c r="F8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>20001004</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="9" ht="28.5" spans="1:15">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3">
-        <v>20001006</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3">
-        <v>20001</v>
-      </c>
-      <c r="F9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3">
-        <v>20001005</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="10" ht="28.5" spans="1:15">
-      <c r="A10" s="16"/>
-      <c r="B10" s="3">
-        <v>20001007</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3">
-        <v>20001</v>
-      </c>
-      <c r="F10" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3">
-        <v>20001006</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="I10" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="J10" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="K10" s="16">
-        <v>0</v>
-      </c>
-      <c r="L10" s="16"/>
-      <c r="M10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="11" ht="28.5" spans="1:15">
-      <c r="A11" s="16"/>
-      <c r="B11" s="3">
-        <v>20001008</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3">
-        <v>20001</v>
-      </c>
-      <c r="F11" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G11" s="3">
-        <v>20001007</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="I11" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="J11" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="K11" s="16">
-        <v>0</v>
-      </c>
-      <c r="L11" s="16"/>
-      <c r="M11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="O11" s="16" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="12" ht="28.5" spans="1:15">
-      <c r="A12" s="16"/>
-      <c r="B12" s="3">
-        <v>20001009</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3">
-        <v>20001</v>
-      </c>
-      <c r="F12" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3">
-        <v>20001008</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="I12" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="J12" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="K12" s="16">
-        <v>0</v>
-      </c>
-      <c r="L12" s="16"/>
-      <c r="M12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="O12" s="16" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="13" ht="28.5" spans="1:15">
-      <c r="A13" s="16"/>
-      <c r="B13" s="3">
-        <v>20001010</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3">
-        <v>20001</v>
-      </c>
-      <c r="F13" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G13" s="3">
-        <v>20001009</v>
-      </c>
-      <c r="H13" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="I13" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="J13" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="K13" s="16">
-        <v>0</v>
-      </c>
-      <c r="L13" s="16"/>
-      <c r="M13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="O13" s="16" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="14" ht="28.5" spans="1:15">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5">
-        <v>20002001</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5">
-        <v>20001</v>
-      </c>
-      <c r="F14" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="K14" s="4">
-        <v>0</v>
-      </c>
-      <c r="L14" s="4"/>
-      <c r="M14" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="N14" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="O14" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="15" ht="28.5" spans="1:15">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5">
-        <v>20002002</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4">
-        <v>20001</v>
-      </c>
-      <c r="F15" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G15" s="4">
-        <v>20001002</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="K15" s="4">
-        <v>0</v>
-      </c>
-      <c r="L15" s="4"/>
-      <c r="M15" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="N15" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="O15" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="16" ht="28.5" spans="1:15">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5">
-        <v>20002003</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5">
-        <v>20001</v>
-      </c>
-      <c r="F16" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G16" s="4">
-        <v>20001003</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="K16" s="4">
-        <v>0</v>
-      </c>
-      <c r="L16" s="4"/>
-      <c r="M16" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="N16" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="O16" s="4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="17" ht="28.5" spans="1:15">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5">
-        <v>20002004</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4">
-        <v>20001</v>
-      </c>
-      <c r="F17" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G17" s="4">
-        <v>20001004</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="K17" s="4">
-        <v>0</v>
-      </c>
-      <c r="L17" s="4"/>
-      <c r="M17" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="N17" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="O17" s="4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="18" ht="28.5" spans="1:15">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5">
-        <v>20002005</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5">
-        <v>20001</v>
-      </c>
-      <c r="F18" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G18" s="4">
-        <v>20001004</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="K18" s="4">
-        <v>0</v>
-      </c>
-      <c r="L18" s="4"/>
-      <c r="M18" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="N18" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="O18" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="19" ht="28.5" spans="1:15">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5">
-        <v>20002006</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4">
-        <v>20001</v>
-      </c>
-      <c r="F19" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G19" s="4">
-        <v>20001005</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I19" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="K19" s="4">
-        <v>0</v>
-      </c>
-      <c r="L19" s="4"/>
-      <c r="M19" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="N19" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="O19" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="20" ht="28.5" spans="1:15">
-      <c r="A20" s="4"/>
-      <c r="B20" s="5">
-        <v>20002007</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5">
-        <v>20001</v>
-      </c>
-      <c r="F20" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G20" s="4">
-        <v>20001006</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I20" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="K20" s="4">
-        <v>0</v>
-      </c>
-      <c r="L20" s="4"/>
-      <c r="M20" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="N20" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="O20" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="21" ht="28.5" spans="1:15">
-      <c r="A21" s="4"/>
-      <c r="B21" s="5">
-        <v>20002008</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4">
-        <v>20001</v>
-      </c>
-      <c r="F21" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G21" s="4">
-        <v>20001006</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I21" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="K21" s="4">
-        <v>0</v>
-      </c>
-      <c r="L21" s="4"/>
-      <c r="M21" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="N21" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="O21" s="4" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="22" ht="28.5" spans="1:15">
-      <c r="A22" s="4"/>
-      <c r="B22" s="5">
-        <v>20002009</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5">
-        <v>20001</v>
-      </c>
-      <c r="F22" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G22" s="4">
-        <v>20001007</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I22" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="K22" s="4">
-        <v>0</v>
-      </c>
-      <c r="L22" s="4"/>
-      <c r="M22" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="N22" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="O22" s="4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="23" ht="28.5" spans="1:15">
-      <c r="A23" s="4"/>
-      <c r="B23" s="5">
-        <v>20002010</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4">
-        <v>20001</v>
-      </c>
-      <c r="F23" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G23" s="4">
-        <v>20001008</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I23" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="K23" s="4">
-        <v>0</v>
-      </c>
-      <c r="L23" s="4"/>
-      <c r="M23" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="N23" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="O23" s="4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="24" ht="28.5" spans="1:15">
-      <c r="A24" s="4"/>
-      <c r="B24" s="5">
-        <v>20002011</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5">
-        <v>20001</v>
-      </c>
-      <c r="F24" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G24" s="4">
-        <v>20001008</v>
-      </c>
-      <c r="H24" s="4"/>
-      <c r="I24" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="K24" s="4">
-        <v>0</v>
-      </c>
-      <c r="L24" s="4"/>
-      <c r="M24" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="N24" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="O24" s="4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="25" ht="28.5" spans="1:15">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6">
-        <v>20003001</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6">
-        <v>20001</v>
-      </c>
-      <c r="F25" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G25" s="6">
-        <v>0</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I25" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="K25" s="6">
-        <v>10002</v>
-      </c>
-      <c r="L25" s="6"/>
-      <c r="M25" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-    </row>
-    <row r="26" ht="28.5" spans="1:15">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6">
-        <v>20003002</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6">
-        <v>20001</v>
-      </c>
-      <c r="F26" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G26" s="6">
-        <v>0</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I26" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="J26" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="K26" s="6">
-        <v>10002</v>
-      </c>
-      <c r="L26" s="6"/>
-      <c r="M26" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-    </row>
-    <row r="27" ht="28.5" spans="1:15">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6">
-        <v>20003003</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6">
-        <v>20001</v>
-      </c>
-      <c r="F27" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G27" s="6">
-        <v>0</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I27" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="J27" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="K27" s="6">
-        <v>10002</v>
-      </c>
-      <c r="L27" s="6"/>
-      <c r="M27" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-    </row>
-    <row r="28" ht="28.5" spans="1:15">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6">
-        <v>20003004</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6">
-        <v>20001</v>
-      </c>
-      <c r="F28" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G28" s="6">
-        <v>0</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I28" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="J28" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="K28" s="6">
-        <v>10002</v>
-      </c>
-      <c r="L28" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="M28" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-    </row>
-    <row r="29" ht="28.5" spans="1:15">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6">
-        <v>20003005</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6">
-        <v>20001</v>
-      </c>
-      <c r="F29" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G29" s="6">
-        <v>0</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I29" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="J29" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="K29" s="6">
-        <v>10005</v>
-      </c>
-      <c r="L29" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="M29" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
-    </row>
-    <row r="30" ht="28.5" spans="1:15">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6">
-        <v>20003006</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6">
-        <v>20001</v>
-      </c>
-      <c r="F30" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G30" s="6">
-        <v>0</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I30" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="J30" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="K30" s="6">
-        <v>10002</v>
-      </c>
-      <c r="L30" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="M30" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
-    </row>
-    <row r="31" ht="28.5" spans="2:15">
-      <c r="B31">
-        <v>20004001</v>
-      </c>
-      <c r="C31" t="s">
-        <v>110</v>
-      </c>
-      <c r="E31">
-        <v>20001</v>
-      </c>
-      <c r="F31" t="b">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31" t="s">
-        <v>38</v>
-      </c>
-      <c r="I31" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="J31" t="s">
-        <v>60</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="M31" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="N31" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="O31" s="15" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="32" ht="28.5" spans="2:15">
-      <c r="B32">
-        <v>20004002</v>
-      </c>
-      <c r="C32" t="s">
-        <v>113</v>
-      </c>
-      <c r="E32">
-        <v>20001</v>
-      </c>
-      <c r="F32" t="b">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32" t="s">
-        <v>38</v>
-      </c>
-      <c r="I32" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="J32" t="s">
-        <v>114</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="M32" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="N32" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="O32" s="15" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="33" ht="28.5" spans="2:15">
-      <c r="B33">
-        <v>20004003</v>
-      </c>
-      <c r="C33" t="s">
-        <v>116</v>
-      </c>
-      <c r="E33">
-        <v>20001</v>
-      </c>
-      <c r="F33" t="b">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33" t="s">
-        <v>38</v>
-      </c>
-      <c r="I33" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="J33" t="s">
-        <v>117</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="M33" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="N33" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="O33" s="15" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="34" spans="9:9">
-      <c r="I34" s="13"/>
-    </row>
-    <row r="35" spans="9:9">
-      <c r="I35" s="13"/>
-    </row>
-    <row r="36" spans="9:9">
-      <c r="I36" s="13"/>
-    </row>
-    <row r="37" spans="9:9">
-      <c r="I37" s="13"/>
-    </row>
-    <row r="38" spans="9:9">
-      <c r="I38" s="13"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
@@ -4532,263 +3153,263 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="1" t="s">
+      <c r="H3" s="2"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="O3" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="4" ht="57" spans="1:15">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4">
         <v>30001001</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3">
+      <c r="C4" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4">
         <v>10003</v>
       </c>
-      <c r="F4" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="J4" s="3" t="s">
+      <c r="F4" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="3">
-        <v>0</v>
-      </c>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="O4" s="3" t="s">
+      <c r="K4" s="4">
+        <v>0</v>
+      </c>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" ht="57" spans="1:15">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7">
+        <v>30002001</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7">
+        <v>10003</v>
+      </c>
+      <c r="F5" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="13" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="5" ht="57" spans="1:15">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5">
-        <v>30002001</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5">
+      <c r="J5" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0</v>
+      </c>
+      <c r="L5" s="6"/>
+      <c r="M5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" ht="57" spans="1:15">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8">
+        <v>30003001</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8">
         <v>10003</v>
       </c>
-      <c r="F5" s="4" t="b">
+      <c r="F6" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4" t="s">
+      <c r="G6" s="8">
+        <v>0</v>
+      </c>
+      <c r="H6" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="K5" s="4">
-        <v>0</v>
-      </c>
-      <c r="L5" s="4"/>
-      <c r="M5" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="6" ht="57" spans="1:15">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6">
-        <v>30003001</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6">
-        <v>10003</v>
-      </c>
-      <c r="F6" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6" s="6">
-        <v>0</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="J6" s="6" t="s">
+      <c r="I6" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="J6" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="8">
         <v>10002</v>
       </c>
-      <c r="L6" s="6"/>
-      <c r="M6" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
     </row>
     <row r="7" ht="57" spans="2:15">
       <c r="B7">
         <v>40004001</v>
       </c>
       <c r="C7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E7">
         <v>10003</v>
@@ -4802,8 +3423,8 @@
       <c r="H7" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="13" t="s">
-        <v>190</v>
+      <c r="I7" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="J7" t="s">
         <v>60</v>
@@ -4811,15 +3432,1397 @@
       <c r="K7">
         <v>0</v>
       </c>
-      <c r="M7" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="N7" s="15" t="s">
+      <c r="M7" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="N7" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="O7" s="17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="16.4416666666667" customWidth="1"/>
+    <col min="4" max="4" width="16.125" customWidth="1"/>
+    <col min="5" max="5" width="12.625" customWidth="1"/>
+    <col min="6" max="6" width="14.875" customWidth="1"/>
+    <col min="7" max="7" width="14.25" customWidth="1"/>
+    <col min="8" max="8" width="26.625" customWidth="1"/>
+    <col min="9" max="9" width="19.375" customWidth="1"/>
+    <col min="10" max="10" width="22.4916666666667" customWidth="1"/>
+    <col min="11" max="11" width="16.75" customWidth="1"/>
+    <col min="12" max="12" width="24.75" customWidth="1"/>
+    <col min="13" max="13" width="26.75" style="1" customWidth="1"/>
+    <col min="14" max="14" width="23.875" customWidth="1"/>
+    <col min="15" max="15" width="18.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" ht="28.5" spans="1:15">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4">
+        <v>20001001</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4">
+        <v>20001</v>
+      </c>
+      <c r="F4" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="O7" s="15" t="s">
+      <c r="I4" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0</v>
+      </c>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" ht="28.5" spans="1:15">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4">
+        <v>20001002</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4">
+        <v>20001</v>
+      </c>
+      <c r="F5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>20001001</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" ht="28.5" spans="1:15">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4">
+        <v>20001003</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4">
+        <v>20001</v>
+      </c>
+      <c r="F6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>20001002</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0</v>
+      </c>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" ht="28.5" spans="1:15">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4">
+        <v>20001004</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4">
+        <v>20001</v>
+      </c>
+      <c r="F7" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>20001003</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0</v>
+      </c>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" ht="28.5" spans="1:15">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4">
+        <v>20001005</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4">
+        <v>20001</v>
+      </c>
+      <c r="F8" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>20001004</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0</v>
+      </c>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" ht="28.5" spans="1:15">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4">
+        <v>20001006</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4">
+        <v>20001</v>
+      </c>
+      <c r="F9" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>20001005</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0</v>
+      </c>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" ht="28.5" spans="1:15">
+      <c r="A10" s="5"/>
+      <c r="B10" s="4">
+        <v>20001007</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4">
+        <v>20001</v>
+      </c>
+      <c r="F10" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>20001006</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10" s="5">
+        <v>0</v>
+      </c>
+      <c r="L10" s="5"/>
+      <c r="M10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" ht="28.5" spans="1:15">
+      <c r="A11" s="5"/>
+      <c r="B11" s="4">
+        <v>20001008</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4">
+        <v>20001</v>
+      </c>
+      <c r="F11" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>20001007</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" s="5">
+        <v>0</v>
+      </c>
+      <c r="L11" s="5"/>
+      <c r="M11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" ht="28.5" spans="1:15">
+      <c r="A12" s="5"/>
+      <c r="B12" s="4">
+        <v>20001009</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4">
+        <v>20001</v>
+      </c>
+      <c r="F12" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>20001008</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K12" s="5">
+        <v>0</v>
+      </c>
+      <c r="L12" s="5"/>
+      <c r="M12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" ht="28.5" spans="1:15">
+      <c r="A13" s="5"/>
+      <c r="B13" s="4">
+        <v>20001010</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4">
+        <v>20001</v>
+      </c>
+      <c r="F13" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>20001009</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K13" s="5">
+        <v>0</v>
+      </c>
+      <c r="L13" s="5"/>
+      <c r="M13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" ht="28.5" spans="1:15">
+      <c r="A14" s="6"/>
+      <c r="B14" s="7">
+        <v>20002001</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7">
+        <v>20001</v>
+      </c>
+      <c r="F14" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K14" s="6">
+        <v>0</v>
+      </c>
+      <c r="L14" s="6"/>
+      <c r="M14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" ht="28.5" spans="1:15">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7">
+        <v>20002002</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6">
+        <v>20001</v>
+      </c>
+      <c r="F15" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" s="6">
+        <v>20001002</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K15" s="6">
+        <v>0</v>
+      </c>
+      <c r="L15" s="6"/>
+      <c r="M15" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" ht="28.5" spans="1:15">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7">
+        <v>20002003</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7">
+        <v>20001</v>
+      </c>
+      <c r="F16" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" s="6">
+        <v>20001003</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K16" s="6">
+        <v>0</v>
+      </c>
+      <c r="L16" s="6"/>
+      <c r="M16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17" ht="28.5" spans="1:15">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7">
+        <v>20002004</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6">
+        <v>20001</v>
+      </c>
+      <c r="F17" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" s="6">
+        <v>20001004</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K17" s="6">
+        <v>0</v>
+      </c>
+      <c r="L17" s="6"/>
+      <c r="M17" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" ht="28.5" spans="1:15">
+      <c r="A18" s="6"/>
+      <c r="B18" s="7">
+        <v>20002005</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7">
+        <v>20001</v>
+      </c>
+      <c r="F18" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" s="6">
+        <v>20001004</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K18" s="6">
+        <v>0</v>
+      </c>
+      <c r="L18" s="6"/>
+      <c r="M18" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="O18" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" ht="28.5" spans="1:15">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7">
+        <v>20002006</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6">
+        <v>20001</v>
+      </c>
+      <c r="F19" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" s="6">
+        <v>20001005</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K19" s="6">
+        <v>0</v>
+      </c>
+      <c r="L19" s="6"/>
+      <c r="M19" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="N19" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20" ht="28.5" spans="1:15">
+      <c r="A20" s="6"/>
+      <c r="B20" s="7">
+        <v>20002007</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7">
+        <v>20001</v>
+      </c>
+      <c r="F20" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20" s="6">
+        <v>20001006</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K20" s="6">
+        <v>0</v>
+      </c>
+      <c r="L20" s="6"/>
+      <c r="M20" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="N20" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="O20" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21" ht="28.5" spans="1:15">
+      <c r="A21" s="6"/>
+      <c r="B21" s="7">
+        <v>20002008</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6">
+        <v>20001</v>
+      </c>
+      <c r="F21" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" s="6">
+        <v>20001006</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K21" s="6">
+        <v>0</v>
+      </c>
+      <c r="L21" s="6"/>
+      <c r="M21" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="O21" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="22" ht="28.5" spans="1:15">
+      <c r="A22" s="6"/>
+      <c r="B22" s="7">
+        <v>20002009</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7">
+        <v>20001</v>
+      </c>
+      <c r="F22" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G22" s="6">
+        <v>20001007</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K22" s="6">
+        <v>0</v>
+      </c>
+      <c r="L22" s="6"/>
+      <c r="M22" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="N22" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="O22" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23" ht="28.5" spans="1:15">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7">
+        <v>20002010</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6">
+        <v>20001</v>
+      </c>
+      <c r="F23" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G23" s="6">
+        <v>20001008</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K23" s="6">
+        <v>0</v>
+      </c>
+      <c r="L23" s="6"/>
+      <c r="M23" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="N23" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="O23" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="24" ht="28.5" spans="1:15">
+      <c r="A24" s="6"/>
+      <c r="B24" s="7">
+        <v>20002011</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7">
+        <v>20001</v>
+      </c>
+      <c r="F24" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G24" s="6">
+        <v>20001008</v>
+      </c>
+      <c r="H24" s="6"/>
+      <c r="I24" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K24" s="6">
+        <v>0</v>
+      </c>
+      <c r="L24" s="6"/>
+      <c r="M24" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="N24" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="O24" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="25" ht="28.5" spans="1:15">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8">
+        <v>20003001</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8">
+        <v>20001</v>
+      </c>
+      <c r="F25" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G25" s="8">
+        <v>0</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I25" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K25" s="8">
+        <v>10002</v>
+      </c>
+      <c r="L25" s="8"/>
+      <c r="M25" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+    </row>
+    <row r="26" ht="28.5" spans="1:15">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8">
+        <v>20003002</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8">
+        <v>20001</v>
+      </c>
+      <c r="F26" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G26" s="8">
+        <v>0</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I26" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K26" s="8">
+        <v>10002</v>
+      </c>
+      <c r="L26" s="8"/>
+      <c r="M26" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+    </row>
+    <row r="27" ht="28.5" spans="1:15">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8">
+        <v>20003003</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8">
+        <v>20001</v>
+      </c>
+      <c r="F27" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G27" s="8">
+        <v>0</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I27" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K27" s="8">
+        <v>10002</v>
+      </c>
+      <c r="L27" s="8"/>
+      <c r="M27" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+    </row>
+    <row r="28" ht="28.5" spans="1:15">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8">
+        <v>20003004</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8">
+        <v>20001</v>
+      </c>
+      <c r="F28" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G28" s="8">
+        <v>0</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I28" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="K28" s="8">
+        <v>10002</v>
+      </c>
+      <c r="L28" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="M28" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+    </row>
+    <row r="29" ht="28.5" spans="1:15">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8">
+        <v>20003005</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8">
+        <v>20001</v>
+      </c>
+      <c r="F29" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G29" s="8">
+        <v>0</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I29" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="K29" s="8">
+        <v>10005</v>
+      </c>
+      <c r="L29" s="8" t="s">
         <v>186</v>
       </c>
+      <c r="M29" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+    </row>
+    <row r="30" ht="28.5" spans="1:15">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8">
+        <v>20003006</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8">
+        <v>20001</v>
+      </c>
+      <c r="F30" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G30" s="8">
+        <v>0</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I30" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="K30" s="8">
+        <v>10002</v>
+      </c>
+      <c r="L30" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="M30" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+    </row>
+    <row r="31" ht="28.5" spans="2:15">
+      <c r="B31">
+        <v>20004001</v>
+      </c>
+      <c r="C31" t="s">
+        <v>111</v>
+      </c>
+      <c r="E31">
+        <v>20001</v>
+      </c>
+      <c r="F31" t="b">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31" t="s">
+        <v>38</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="J31" t="s">
+        <v>60</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="M31" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="N31" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="O31" s="17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="32" ht="28.5" spans="2:15">
+      <c r="B32">
+        <v>20004002</v>
+      </c>
+      <c r="C32" t="s">
+        <v>114</v>
+      </c>
+      <c r="E32">
+        <v>20001</v>
+      </c>
+      <c r="F32" t="b">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32" t="s">
+        <v>38</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="J32" t="s">
+        <v>115</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="M32" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="N32" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="O32" s="17" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="33" ht="28.5" spans="2:15">
+      <c r="B33">
+        <v>20004003</v>
+      </c>
+      <c r="C33" t="s">
+        <v>117</v>
+      </c>
+      <c r="E33">
+        <v>20001</v>
+      </c>
+      <c r="F33" t="b">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33" t="s">
+        <v>38</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="J33" t="s">
+        <v>118</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="M33" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="N33" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="O33" s="17" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="34" spans="9:9">
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="9:9">
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="9:9">
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="9:9">
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="9:9">
+      <c r="I38" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/DataConfig/Datas/bubble.xlsx
+++ b/DataConfig/Datas/bubble.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18345" windowHeight="17655" activeTab="1"/>
+    <workbookView windowHeight="17655" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="章鱼" sheetId="2" r:id="rId1"/>
@@ -12,7 +12,20 @@
     <sheet name="伊万" sheetId="5" r:id="rId3"/>
     <sheet name="杂鱼A" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -641,7 +654,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1738,13 +1751,13 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="9.875" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="23.05" customWidth="1"/>
     <col min="4" max="4" width="12.975" customWidth="1"/>
     <col min="5" max="5" width="11.25" customWidth="1"/>
     <col min="6" max="7" width="14" customWidth="1"/>
@@ -2158,15 +2171,16 @@
   <sheetPr/>
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="11.5" customWidth="1"/>
     <col min="3" max="3" width="21.375" customWidth="1"/>
-    <col min="4" max="5" width="21" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="5" width="24.2333333333333" customWidth="1"/>
     <col min="6" max="6" width="14.25" style="1" customWidth="1"/>
     <col min="7" max="7" width="19.625" style="1" customWidth="1"/>
     <col min="8" max="8" width="25.875" style="1" customWidth="1"/>
@@ -3135,7 +3149,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
@@ -3143,6 +3157,7 @@
     <col min="2" max="2" width="9.375"/>
     <col min="4" max="4" width="11.95" customWidth="1"/>
     <col min="5" max="5" width="13.9083333333333" customWidth="1"/>
+    <col min="6" max="6" width="16.25" customWidth="1"/>
     <col min="7" max="7" width="12.5" customWidth="1"/>
     <col min="8" max="8" width="13.75" customWidth="1"/>
     <col min="9" max="9" width="15.5" customWidth="1"/>
@@ -3453,8 +3468,8 @@
   <sheetPr/>
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/DataConfig/Datas/bubble.xlsx
+++ b/DataConfig/Datas/bubble.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655" activeTab="3"/>
+    <workbookView windowWidth="18345" windowHeight="17655" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="章鱼" sheetId="2" r:id="rId1"/>
     <sheet name="喵老师" sheetId="3" r:id="rId2"/>
     <sheet name="伊万" sheetId="5" r:id="rId3"/>
-    <sheet name="杂鱼A" sheetId="4" r:id="rId4"/>
+    <sheet name="宇轩" sheetId="4" r:id="rId4"/>
+    <sheet name="费南多" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="220">
   <si>
     <t>##var</t>
   </si>
@@ -650,6 +651,98 @@
   <si>
     <t>young_comment_omakase</t>
   </si>
+  <si>
+    <t>好久不见</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>周一</t>
+    </r>
+  </si>
+  <si>
+    <t>Assets/GameRes/Story/Fernando/Fernando.yarnproject</t>
+  </si>
+  <si>
+    <t>Fernando_main_1</t>
+  </si>
+  <si>
+    <t>伊莉丝，真可爱</t>
+  </si>
+  <si>
+    <t>0:999</t>
+  </si>
+  <si>
+    <t>Fernando_main_2</t>
+  </si>
+  <si>
+    <t>最近都不知道玩啥</t>
+  </si>
+  <si>
+    <t>Fernando_main_3</t>
+  </si>
+  <si>
+    <t>PlayGround3真是经久耐用</t>
+  </si>
+  <si>
+    <t>Fernando_main_4</t>
+  </si>
+  <si>
+    <t>我老爸真的很喜欢</t>
+  </si>
+  <si>
+    <t>Fernando_main_5</t>
+  </si>
+  <si>
+    <t>我那不争气的儿子吃饭</t>
+  </si>
+  <si>
+    <t>Fernando_main_6</t>
+  </si>
+  <si>
+    <t>我都忘了今天是周几了</t>
+  </si>
+  <si>
+    <t>周一,周三,周五</t>
+  </si>
+  <si>
+    <t>Fernando_talk_1</t>
+  </si>
+  <si>
+    <t>越玩越菜</t>
+  </si>
+  <si>
+    <t>Fernando_talk_2</t>
+  </si>
+  <si>
+    <t>今天玩什么好呢</t>
+  </si>
+  <si>
+    <t>Fernando_talk_3</t>
+  </si>
+  <si>
+    <t>手感回复不少</t>
+  </si>
+  <si>
+    <t>Fernando_talk_4</t>
+  </si>
+  <si>
+    <t>手指运动</t>
+  </si>
+  <si>
+    <t>Fernando_talk_5</t>
+  </si>
+  <si>
+    <t>坚持三秒</t>
+  </si>
+  <si>
+    <t>Fernando_talk_6</t>
+  </si>
 </sst>
 </file>
 
@@ -661,7 +754,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -682,6 +775,12 @@
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -826,7 +925,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -842,6 +941,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1196,52 +1307,52 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1250,22 +1361,16 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1274,10 +1379,10 @@
     <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1286,34 +1391,34 @@
     <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1322,111 +1427,150 @@
     <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="22" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="23" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1810,7 +1954,7 @@
       <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="45" t="s">
+      <c r="N1" s="56" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1854,7 +1998,7 @@
       <c r="M2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="45" t="s">
+      <c r="N2" s="56" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1894,7 +2038,7 @@
       <c r="M3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N3" s="45" t="s">
+      <c r="N3" s="56" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1909,22 +2053,22 @@
       <c r="E4">
         <v>10001</v>
       </c>
-      <c r="F4" s="44" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="44" t="s">
+      <c r="F4" s="55" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="44" t="s">
+      <c r="H4" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="44" t="s">
+      <c r="I4" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="44" t="s">
+      <c r="J4" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="46">
+      <c r="K4" s="57">
         <v>0</v>
       </c>
       <c r="L4" t="s">
@@ -1948,23 +2092,23 @@
       <c r="E5">
         <v>10001</v>
       </c>
-      <c r="F5" s="44" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" s="44">
+      <c r="F5" s="55" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="55">
         <f>$E5*1000+1</f>
         <v>10001001</v>
       </c>
-      <c r="H5" s="44" t="s">
+      <c r="H5" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="44" t="s">
+      <c r="I5" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="J5" s="44" t="s">
+      <c r="J5" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="K5" s="46">
+      <c r="K5" s="57">
         <v>0</v>
       </c>
       <c r="L5" t="s">
@@ -1988,22 +2132,22 @@
       <c r="E6">
         <v>10001</v>
       </c>
-      <c r="F6" s="44" t="s">
+      <c r="F6" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="44" t="s">
+      <c r="G6" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="44" t="s">
+      <c r="H6" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="44" t="s">
+      <c r="I6" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="J6" s="44" t="s">
+      <c r="J6" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="K6" s="47">
+      <c r="K6" s="58">
         <v>10002</v>
       </c>
       <c r="L6" t="s">
@@ -2021,22 +2165,22 @@
       <c r="E7">
         <v>10001</v>
       </c>
-      <c r="F7" s="44" t="s">
+      <c r="F7" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="44" t="s">
+      <c r="G7" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="44" t="s">
+      <c r="H7" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="44" t="s">
+      <c r="I7" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="J7" s="44" t="s">
+      <c r="J7" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="K7" s="47">
+      <c r="K7" s="58">
         <v>10002</v>
       </c>
       <c r="L7" t="s">
@@ -2057,19 +2201,19 @@
       <c r="F8" t="b">
         <v>1</v>
       </c>
-      <c r="G8" s="44" t="s">
+      <c r="G8" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="44" t="s">
+      <c r="H8" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="44" t="s">
+      <c r="I8" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="J8" s="44" t="s">
+      <c r="J8" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="46">
+      <c r="K8" s="57">
         <v>0</v>
       </c>
       <c r="L8" t="s">
@@ -2096,19 +2240,19 @@
       <c r="F9" t="b">
         <v>1</v>
       </c>
-      <c r="G9" s="44" t="s">
+      <c r="G9" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="44" t="s">
+      <c r="H9" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="I9" s="44" t="s">
+      <c r="I9" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="J9" s="44" t="s">
+      <c r="J9" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="K9" s="46">
+      <c r="K9" s="57">
         <v>0</v>
       </c>
       <c r="L9" t="s">
@@ -2135,19 +2279,19 @@
       <c r="F10" t="b">
         <v>1</v>
       </c>
-      <c r="G10" s="44">
-        <v>0</v>
-      </c>
-      <c r="H10" s="44" t="s">
+      <c r="G10" s="55">
+        <v>0</v>
+      </c>
+      <c r="H10" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="I10" s="44" t="s">
+      <c r="I10" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="J10" s="44" t="s">
+      <c r="J10" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="K10" s="44">
+      <c r="K10" s="55">
         <v>0</v>
       </c>
       <c r="L10" t="s">
@@ -2181,10 +2325,10 @@
     <col min="3" max="3" width="21.375" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
     <col min="5" max="5" width="24.2333333333333" customWidth="1"/>
-    <col min="6" max="6" width="14.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="25.875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.25" style="16" customWidth="1"/>
+    <col min="7" max="7" width="19.625" style="16" customWidth="1"/>
+    <col min="8" max="8" width="25.875" style="16" customWidth="1"/>
+    <col min="9" max="9" width="16.625" style="16" customWidth="1"/>
     <col min="10" max="10" width="17.1666666666667" customWidth="1"/>
     <col min="11" max="11" width="15.25" customWidth="1"/>
     <col min="12" max="12" width="29.625" customWidth="1"/>
@@ -2218,7 +2362,7 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="10" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -2265,7 +2409,7 @@
       <c r="H2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="11" t="s">
         <v>21</v>
       </c>
       <c r="J2" s="3" t="s">
@@ -2310,7 +2454,7 @@
         <v>30</v>
       </c>
       <c r="H3" s="2"/>
-      <c r="I3" s="9"/>
+      <c r="I3" s="10"/>
       <c r="J3" s="2" t="s">
         <v>31</v>
       </c>
@@ -2331,808 +2475,808 @@
       </c>
     </row>
     <row r="4" ht="28.5" spans="1:15">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20">
+      <c r="A4" s="31"/>
+      <c r="B4" s="31">
         <v>100021001</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21">
+      <c r="D4" s="32"/>
+      <c r="E4" s="32">
         <v>10002</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22" t="s">
+      <c r="G4" s="33"/>
+      <c r="H4" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="22" t="s">
+      <c r="I4" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="J4" s="22" t="s">
+      <c r="J4" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="33" t="s">
+      <c r="K4" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="L4" s="22"/>
-      <c r="M4" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="N4" s="35" t="s">
+      <c r="L4" s="33"/>
+      <c r="M4" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="O4" s="20" t="s">
+      <c r="O4" s="31" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="5" ht="28.5" spans="1:15">
-      <c r="A5" s="23"/>
-      <c r="B5" s="23">
+      <c r="A5" s="34"/>
+      <c r="B5" s="34">
         <v>100021002</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24">
+      <c r="D5" s="35"/>
+      <c r="E5" s="35">
         <v>10002</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="G5" s="26">
+      <c r="G5" s="37">
         <v>10002009</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="H5" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="I5" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="J5" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="K5" s="27">
-        <v>0</v>
-      </c>
-      <c r="L5" s="24"/>
-      <c r="M5" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="N5" s="37" t="s">
+      <c r="K5" s="38">
+        <v>0</v>
+      </c>
+      <c r="L5" s="35"/>
+      <c r="M5" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="O5" s="23" t="s">
+      <c r="O5" s="34" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="6" ht="28.5" spans="1:15">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23">
+      <c r="A6" s="34"/>
+      <c r="B6" s="34">
         <v>100021003</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24">
+      <c r="D6" s="35"/>
+      <c r="E6" s="35">
         <v>10002</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25" t="s">
+      <c r="G6" s="36"/>
+      <c r="H6" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="25" t="s">
+      <c r="I6" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="J6" s="25" t="s">
+      <c r="J6" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="K6" s="27">
-        <v>0</v>
-      </c>
-      <c r="L6" s="24"/>
-      <c r="M6" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="N6" s="37" t="s">
+      <c r="K6" s="38">
+        <v>0</v>
+      </c>
+      <c r="L6" s="35"/>
+      <c r="M6" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="N6" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="O6" s="23" t="s">
+      <c r="O6" s="34" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="7" ht="28.5" spans="1:15">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23">
+      <c r="A7" s="34"/>
+      <c r="B7" s="34">
         <v>100021004</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24">
+      <c r="D7" s="35"/>
+      <c r="E7" s="35">
         <v>10002</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25" t="s">
+      <c r="G7" s="36"/>
+      <c r="H7" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="25" t="s">
+      <c r="I7" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="J7" s="25" t="s">
+      <c r="J7" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="27">
-        <v>0</v>
-      </c>
-      <c r="L7" s="24"/>
-      <c r="M7" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="N7" s="37" t="s">
+      <c r="K7" s="38">
+        <v>0</v>
+      </c>
+      <c r="L7" s="35"/>
+      <c r="M7" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="N7" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="O7" s="23" t="s">
+      <c r="O7" s="34" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="8" ht="28.5" spans="1:15">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23">
+      <c r="A8" s="34"/>
+      <c r="B8" s="34">
         <v>100021005</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24">
+      <c r="D8" s="35"/>
+      <c r="E8" s="35">
         <v>10002</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25" t="s">
+      <c r="G8" s="36"/>
+      <c r="H8" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="25" t="s">
+      <c r="I8" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="J8" s="25" t="s">
+      <c r="J8" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="K8" s="27">
-        <v>0</v>
-      </c>
-      <c r="L8" s="38" t="s">
+      <c r="K8" s="38">
+        <v>0</v>
+      </c>
+      <c r="L8" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="M8" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="N8" s="37" t="s">
+      <c r="M8" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="N8" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="O8" s="23" t="s">
+      <c r="O8" s="34" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="9" ht="28.5" spans="1:15">
-      <c r="A9" s="23"/>
-      <c r="B9" s="20">
+      <c r="A9" s="34"/>
+      <c r="B9" s="31">
         <v>100021006</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24">
+      <c r="D9" s="35"/>
+      <c r="E9" s="35">
         <v>10002</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25" t="s">
+      <c r="G9" s="36"/>
+      <c r="H9" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="I9" s="25" t="s">
+      <c r="I9" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="J9" s="25" t="s">
+      <c r="J9" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="K9" s="27" t="s">
+      <c r="K9" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="L9" s="38" t="s">
+      <c r="L9" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="M9" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="N9" s="37" t="s">
+      <c r="M9" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="N9" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="O9" s="23" t="s">
+      <c r="O9" s="34" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="10" ht="28.5" spans="1:15">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23">
+      <c r="A10" s="34"/>
+      <c r="B10" s="34">
         <v>100021007</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24">
+      <c r="C10" s="34"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35">
         <v>10002</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25" t="s">
+      <c r="G10" s="36"/>
+      <c r="H10" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="I10" s="25" t="s">
+      <c r="I10" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="J10" s="25" t="s">
+      <c r="J10" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="K10" s="27">
-        <v>0</v>
-      </c>
-      <c r="L10" s="24"/>
-      <c r="M10" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="N10" s="37" t="s">
+      <c r="K10" s="38">
+        <v>0</v>
+      </c>
+      <c r="L10" s="35"/>
+      <c r="M10" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="N10" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="O10" s="23" t="s">
+      <c r="O10" s="34" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11" ht="28.5" spans="1:15">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23">
+      <c r="A11" s="34"/>
+      <c r="B11" s="34">
         <v>100021008</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24">
+      <c r="D11" s="35"/>
+      <c r="E11" s="35">
         <v>10002</v>
       </c>
-      <c r="F11" s="27" t="s">
+      <c r="F11" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25" t="s">
+      <c r="G11" s="36"/>
+      <c r="H11" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="I11" s="25" t="s">
+      <c r="I11" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="J11" s="27" t="s">
+      <c r="J11" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="K11" s="27">
-        <v>0</v>
-      </c>
-      <c r="L11" s="24"/>
-      <c r="M11" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="N11" s="37" t="s">
+      <c r="K11" s="38">
+        <v>0</v>
+      </c>
+      <c r="L11" s="35"/>
+      <c r="M11" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="N11" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="O11" s="23" t="s">
+      <c r="O11" s="34" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="12" ht="28.5" spans="1:15">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23">
+      <c r="A12" s="34"/>
+      <c r="B12" s="34">
         <v>100021009</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24">
+      <c r="D12" s="35"/>
+      <c r="E12" s="35">
         <v>10002</v>
       </c>
-      <c r="F12" s="27" t="s">
+      <c r="F12" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="G12" s="26">
+      <c r="G12" s="37">
         <v>10002015</v>
       </c>
-      <c r="H12" s="25" t="s">
+      <c r="H12" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="I12" s="25" t="s">
+      <c r="I12" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="J12" s="27" t="s">
+      <c r="J12" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="K12" s="27">
-        <v>0</v>
-      </c>
-      <c r="L12" s="24"/>
-      <c r="M12" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="N12" s="37" t="s">
+      <c r="K12" s="38">
+        <v>0</v>
+      </c>
+      <c r="L12" s="35"/>
+      <c r="M12" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="N12" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="O12" s="23" t="s">
+      <c r="O12" s="34" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="13" ht="28.5" spans="1:15">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23">
+      <c r="A13" s="34"/>
+      <c r="B13" s="34">
         <v>100021010</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24">
+      <c r="D13" s="35"/>
+      <c r="E13" s="35">
         <v>10002</v>
       </c>
-      <c r="F13" s="27" t="s">
+      <c r="F13" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="G13" s="26">
+      <c r="G13" s="37">
         <v>10002016</v>
       </c>
-      <c r="H13" s="25" t="s">
+      <c r="H13" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="I13" s="25" t="s">
+      <c r="I13" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="J13" s="27" t="s">
+      <c r="J13" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="K13" s="27">
-        <v>0</v>
-      </c>
-      <c r="L13" s="24"/>
-      <c r="M13" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="N13" s="37" t="s">
+      <c r="K13" s="38">
+        <v>0</v>
+      </c>
+      <c r="L13" s="35"/>
+      <c r="M13" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="N13" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="O13" s="23" t="s">
+      <c r="O13" s="34" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="14" ht="28.5" spans="1:15">
-      <c r="A14" s="23"/>
-      <c r="B14" s="20">
+      <c r="A14" s="34"/>
+      <c r="B14" s="31">
         <v>100021011</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24">
+      <c r="D14" s="35"/>
+      <c r="E14" s="35">
         <v>10002</v>
       </c>
-      <c r="F14" s="27" t="s">
+      <c r="F14" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="G14" s="26">
+      <c r="G14" s="37">
         <v>10002017</v>
       </c>
-      <c r="H14" s="25" t="s">
+      <c r="H14" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="I14" s="25" t="s">
+      <c r="I14" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="J14" s="27" t="s">
+      <c r="J14" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="K14" s="27">
-        <v>0</v>
-      </c>
-      <c r="L14" s="24"/>
-      <c r="M14" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="N14" s="37" t="s">
+      <c r="K14" s="38">
+        <v>0</v>
+      </c>
+      <c r="L14" s="35"/>
+      <c r="M14" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="N14" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="O14" s="23" t="s">
+      <c r="O14" s="34" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="15" ht="28.5" spans="1:15">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23">
+      <c r="A15" s="34"/>
+      <c r="B15" s="34">
         <v>100021012</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24">
+      <c r="D15" s="35"/>
+      <c r="E15" s="35">
         <v>10002</v>
       </c>
-      <c r="F15" s="27" t="s">
+      <c r="F15" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="G15" s="26">
+      <c r="G15" s="37">
         <v>10002018</v>
       </c>
-      <c r="H15" s="25" t="s">
+      <c r="H15" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="I15" s="25" t="s">
+      <c r="I15" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="J15" s="27" t="s">
+      <c r="J15" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="K15" s="27">
-        <v>0</v>
-      </c>
-      <c r="L15" s="24"/>
-      <c r="M15" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="N15" s="37" t="s">
+      <c r="K15" s="38">
+        <v>0</v>
+      </c>
+      <c r="L15" s="35"/>
+      <c r="M15" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="N15" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="O15" s="23" t="s">
+      <c r="O15" s="34" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="16" ht="28.5" spans="1:15">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23">
+      <c r="A16" s="34"/>
+      <c r="B16" s="34">
         <v>100021013</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24">
+      <c r="D16" s="35"/>
+      <c r="E16" s="35">
         <v>10002</v>
       </c>
-      <c r="F16" s="27" t="s">
+      <c r="F16" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="G16" s="26">
+      <c r="G16" s="37">
         <v>10002019</v>
       </c>
-      <c r="H16" s="25" t="s">
+      <c r="H16" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="25" t="s">
+      <c r="I16" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="J16" s="27" t="s">
+      <c r="J16" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="K16" s="27">
-        <v>0</v>
-      </c>
-      <c r="L16" s="24"/>
-      <c r="M16" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="N16" s="37" t="s">
+      <c r="K16" s="38">
+        <v>0</v>
+      </c>
+      <c r="L16" s="35"/>
+      <c r="M16" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="N16" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="O16" s="23" t="s">
+      <c r="O16" s="34" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="17" ht="28.5" spans="1:15">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23">
+      <c r="A17" s="34"/>
+      <c r="B17" s="34">
         <v>100021014</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24">
+      <c r="D17" s="35"/>
+      <c r="E17" s="35">
         <v>10002</v>
       </c>
-      <c r="F17" s="27" t="s">
+      <c r="F17" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="G17" s="26">
+      <c r="G17" s="37">
         <v>10002020</v>
       </c>
-      <c r="H17" s="25" t="s">
+      <c r="H17" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="I17" s="25" t="s">
+      <c r="I17" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="J17" s="27" t="s">
+      <c r="J17" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="K17" s="27">
-        <v>0</v>
-      </c>
-      <c r="L17" s="24"/>
-      <c r="M17" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="N17" s="37" t="s">
+      <c r="K17" s="38">
+        <v>0</v>
+      </c>
+      <c r="L17" s="35"/>
+      <c r="M17" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="N17" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="O17" s="23" t="s">
+      <c r="O17" s="34" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="18" s="18" customFormat="1" ht="28.5" spans="1:15">
-      <c r="A18" s="28"/>
-      <c r="B18" s="28">
+    <row r="18" s="29" customFormat="1" ht="28.5" spans="1:15">
+      <c r="A18" s="39"/>
+      <c r="B18" s="39">
         <v>100022001</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28">
+      <c r="D18" s="39"/>
+      <c r="E18" s="39">
         <v>10002</v>
       </c>
-      <c r="F18" s="29" t="s">
+      <c r="F18" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="G18" s="29" t="s">
+      <c r="G18" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="H18" s="29" t="s">
+      <c r="H18" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="I18" s="29" t="s">
+      <c r="I18" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="J18" s="29" t="s">
+      <c r="J18" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="K18" s="29" t="s">
+      <c r="K18" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="L18" s="29"/>
-      <c r="M18" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="N18" s="39" t="s">
+      <c r="L18" s="40"/>
+      <c r="M18" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="N18" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="O18" s="28"/>
-    </row>
-    <row r="19" s="18" customFormat="1" ht="28.5" spans="1:15">
-      <c r="A19" s="28"/>
-      <c r="B19" s="28">
+      <c r="O18" s="39"/>
+    </row>
+    <row r="19" s="29" customFormat="1" ht="28.5" spans="1:15">
+      <c r="A19" s="39"/>
+      <c r="B19" s="39">
         <v>100022002</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28">
+      <c r="D19" s="39"/>
+      <c r="E19" s="39">
         <v>10002</v>
       </c>
-      <c r="F19" s="29" t="s">
+      <c r="F19" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="G19" s="30">
+      <c r="G19" s="41">
         <v>100021002</v>
       </c>
-      <c r="H19" s="29" t="s">
+      <c r="H19" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="I19" s="29" t="s">
+      <c r="I19" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="J19" s="29" t="s">
+      <c r="J19" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="K19" s="40" t="s">
+      <c r="K19" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="L19" s="40" t="s">
+      <c r="L19" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="M19" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="N19" s="39" t="s">
+      <c r="M19" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="N19" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="O19" s="28"/>
-    </row>
-    <row r="20" s="18" customFormat="1" ht="28.5" spans="1:15">
-      <c r="A20" s="28"/>
-      <c r="B20" s="28">
+      <c r="O19" s="39"/>
+    </row>
+    <row r="20" s="29" customFormat="1" ht="28.5" spans="1:15">
+      <c r="A20" s="39"/>
+      <c r="B20" s="39">
         <v>100022003</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28">
+      <c r="D20" s="39"/>
+      <c r="E20" s="39">
         <v>10002</v>
       </c>
-      <c r="F20" s="29" t="s">
+      <c r="F20" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="G20" s="29" t="s">
+      <c r="G20" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="H20" s="29" t="s">
+      <c r="H20" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="I20" s="29" t="s">
+      <c r="I20" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="J20" s="29" t="s">
+      <c r="J20" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="K20" s="40" t="s">
+      <c r="K20" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="L20" s="40" t="s">
+      <c r="L20" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="M20" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="N20" s="39" t="s">
+      <c r="M20" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="N20" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="O20" s="28"/>
-    </row>
-    <row r="21" s="19" customFormat="1" ht="28.5" spans="1:15">
-      <c r="A21" s="31"/>
-      <c r="B21" s="31">
+      <c r="O20" s="39"/>
+    </row>
+    <row r="21" s="30" customFormat="1" ht="28.5" spans="1:15">
+      <c r="A21" s="42"/>
+      <c r="B21" s="42">
         <v>100023001</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="C21" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31">
+      <c r="D21" s="42"/>
+      <c r="E21" s="42">
         <v>10002</v>
       </c>
-      <c r="F21" s="31" t="b">
+      <c r="F21" s="42" t="b">
         <v>1</v>
       </c>
-      <c r="G21" s="32">
-        <v>0</v>
-      </c>
-      <c r="H21" s="32" t="s">
+      <c r="G21" s="43">
+        <v>0</v>
+      </c>
+      <c r="H21" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="I21" s="41" t="s">
+      <c r="I21" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="J21" s="32" t="s">
+      <c r="J21" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="K21" s="32">
-        <v>0</v>
-      </c>
-      <c r="L21" s="31"/>
-      <c r="M21" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="N21" s="43" t="s">
+      <c r="K21" s="43">
+        <v>0</v>
+      </c>
+      <c r="L21" s="42"/>
+      <c r="M21" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="N21" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="O21" s="43" t="s">
+      <c r="O21" s="54" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="22" s="19" customFormat="1" ht="28.5" spans="1:15">
-      <c r="A22" s="31"/>
-      <c r="B22" s="31">
+    <row r="22" s="30" customFormat="1" ht="28.5" spans="1:15">
+      <c r="A22" s="42"/>
+      <c r="B22" s="42">
         <v>100023002</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31">
+      <c r="D22" s="42"/>
+      <c r="E22" s="42">
         <v>10002</v>
       </c>
-      <c r="F22" s="31" t="b">
+      <c r="F22" s="42" t="b">
         <v>1</v>
       </c>
-      <c r="G22" s="32">
-        <v>0</v>
-      </c>
-      <c r="H22" s="32" t="s">
+      <c r="G22" s="43">
+        <v>0</v>
+      </c>
+      <c r="H22" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="I22" s="41" t="s">
+      <c r="I22" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="J22" s="32" t="s">
+      <c r="J22" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="K22" s="32">
-        <v>0</v>
-      </c>
-      <c r="L22" s="31"/>
-      <c r="M22" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="N22" s="43" t="s">
+      <c r="K22" s="43">
+        <v>0</v>
+      </c>
+      <c r="L22" s="42"/>
+      <c r="M22" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="N22" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="O22" s="43" t="s">
+      <c r="O22" s="54" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="23" s="19" customFormat="1" ht="28.5" spans="1:15">
-      <c r="A23" s="31"/>
-      <c r="B23" s="31">
+    <row r="23" s="30" customFormat="1" ht="28.5" spans="1:15">
+      <c r="A23" s="42"/>
+      <c r="B23" s="42">
         <v>100023003</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31">
+      <c r="D23" s="42"/>
+      <c r="E23" s="42">
         <v>10002</v>
       </c>
-      <c r="F23" s="31" t="b">
+      <c r="F23" s="42" t="b">
         <v>1</v>
       </c>
-      <c r="G23" s="32">
-        <v>0</v>
-      </c>
-      <c r="H23" s="32" t="s">
+      <c r="G23" s="43">
+        <v>0</v>
+      </c>
+      <c r="H23" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="I23" s="41" t="s">
+      <c r="I23" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="J23" s="32" t="s">
+      <c r="J23" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="K23" s="32">
-        <v>0</v>
-      </c>
-      <c r="L23" s="31"/>
-      <c r="M23" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="N23" s="43" t="s">
+      <c r="K23" s="43">
+        <v>0</v>
+      </c>
+      <c r="L23" s="42"/>
+      <c r="M23" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="N23" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="O23" s="43" t="s">
+      <c r="O23" s="54" t="s">
         <v>119</v>
       </c>
     </row>
@@ -3192,7 +3336,7 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="10" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -3239,7 +3383,7 @@
       <c r="H2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="11" t="s">
         <v>21</v>
       </c>
       <c r="J2" s="3" t="s">
@@ -3284,7 +3428,7 @@
         <v>30</v>
       </c>
       <c r="H3" s="2"/>
-      <c r="I3" s="9"/>
+      <c r="I3" s="10"/>
       <c r="J3" s="2" t="s">
         <v>31</v>
       </c>
@@ -3305,119 +3449,119 @@
       </c>
     </row>
     <row r="4" ht="57" spans="1:15">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17">
         <v>30001001</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4">
+      <c r="D4" s="17"/>
+      <c r="E4" s="17">
         <v>10003</v>
       </c>
-      <c r="F4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4" t="s">
+      <c r="F4" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="4">
-        <v>0</v>
-      </c>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="N4" s="4" t="s">
+      <c r="K4" s="17">
+        <v>0</v>
+      </c>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="O4" s="17" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="5" ht="57" spans="1:15">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7">
+      <c r="A5" s="19"/>
+      <c r="B5" s="20">
         <v>30002001</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7">
+      <c r="D5" s="20"/>
+      <c r="E5" s="20">
         <v>10003</v>
       </c>
-      <c r="F5" s="6" t="b">
+      <c r="F5" s="19" t="b">
         <v>1</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6" t="s">
+      <c r="G5" s="19"/>
+      <c r="H5" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="K5" s="6">
-        <v>0</v>
-      </c>
-      <c r="L5" s="6"/>
-      <c r="M5" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="N5" s="7" t="s">
+      <c r="K5" s="19">
+        <v>0</v>
+      </c>
+      <c r="L5" s="19"/>
+      <c r="M5" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="O5" s="6" t="s">
+      <c r="O5" s="19" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="6" ht="57" spans="1:15">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8">
+      <c r="A6" s="21"/>
+      <c r="B6" s="21">
         <v>30003001</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8">
+      <c r="D6" s="21"/>
+      <c r="E6" s="21">
         <v>10003</v>
       </c>
-      <c r="F6" s="8" t="b">
+      <c r="F6" s="21" t="b">
         <v>1</v>
       </c>
-      <c r="G6" s="8">
-        <v>0</v>
-      </c>
-      <c r="H6" s="8" t="s">
+      <c r="G6" s="21">
+        <v>0</v>
+      </c>
+      <c r="H6" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="21">
         <v>10002</v>
       </c>
-      <c r="L6" s="8"/>
-      <c r="M6" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
     </row>
     <row r="7" ht="57" spans="2:15">
       <c r="B7">
@@ -3438,7 +3582,7 @@
       <c r="H7" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="16" t="s">
         <v>122</v>
       </c>
       <c r="J7" t="s">
@@ -3447,13 +3591,13 @@
       <c r="K7">
         <v>0</v>
       </c>
-      <c r="M7" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="N7" s="17" t="s">
+      <c r="M7" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="N7" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="O7" s="17" t="s">
+      <c r="O7" s="28" t="s">
         <v>128</v>
       </c>
     </row>
@@ -3468,7 +3612,7 @@
   <sheetPr/>
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
@@ -3485,7 +3629,7 @@
     <col min="10" max="10" width="22.4916666666667" customWidth="1"/>
     <col min="11" max="11" width="16.75" customWidth="1"/>
     <col min="12" max="12" width="24.75" customWidth="1"/>
-    <col min="13" max="13" width="26.75" style="1" customWidth="1"/>
+    <col min="13" max="13" width="26.75" style="16" customWidth="1"/>
     <col min="14" max="14" width="23.875" customWidth="1"/>
     <col min="15" max="15" width="18.125" customWidth="1"/>
   </cols>
@@ -3515,7 +3659,7 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="10" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -3562,7 +3706,7 @@
       <c r="H2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="11" t="s">
         <v>21</v>
       </c>
       <c r="J2" s="3" t="s">
@@ -3607,7 +3751,7 @@
         <v>30</v>
       </c>
       <c r="H3" s="2"/>
-      <c r="I3" s="9"/>
+      <c r="I3" s="10"/>
       <c r="J3" s="2" t="s">
         <v>31</v>
       </c>
@@ -3628,1087 +3772,1087 @@
       </c>
     </row>
     <row r="4" ht="28.5" spans="1:15">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17">
         <v>20001001</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4">
+      <c r="D4" s="17"/>
+      <c r="E4" s="17">
         <v>20001</v>
       </c>
-      <c r="F4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4" t="s">
+      <c r="F4" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="4">
-        <v>0</v>
-      </c>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="N4" s="4" t="s">
+      <c r="K4" s="17">
+        <v>0</v>
+      </c>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="O4" s="17" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="5" ht="28.5" spans="1:15">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17">
         <v>20001002</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4">
+      <c r="D5" s="17"/>
+      <c r="E5" s="17">
         <v>20001</v>
       </c>
-      <c r="F5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4">
+      <c r="F5" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="17">
         <v>20001001</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="K5" s="4">
-        <v>0</v>
-      </c>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="N5" s="4" t="s">
+      <c r="K5" s="17">
+        <v>0</v>
+      </c>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="O5" s="17" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="6" ht="28.5" spans="1:15">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17">
         <v>20001003</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4">
+      <c r="D6" s="17"/>
+      <c r="E6" s="17">
         <v>20001</v>
       </c>
-      <c r="F6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4">
+      <c r="F6" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="17">
         <v>20001002</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="K6" s="4">
-        <v>0</v>
-      </c>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="N6" s="4" t="s">
+      <c r="K6" s="17">
+        <v>0</v>
+      </c>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="N6" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="O6" s="4" t="s">
+      <c r="O6" s="17" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="7" ht="28.5" spans="1:15">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4">
+      <c r="A7" s="17"/>
+      <c r="B7" s="17">
         <v>20001004</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4">
+      <c r="D7" s="17"/>
+      <c r="E7" s="17">
         <v>20001</v>
       </c>
-      <c r="F7" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4">
+      <c r="F7" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="17">
         <v>20001003</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="4">
-        <v>0</v>
-      </c>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="N7" s="4" t="s">
+      <c r="K7" s="17">
+        <v>0</v>
+      </c>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="N7" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="O7" s="4" t="s">
+      <c r="O7" s="17" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="8" ht="28.5" spans="1:15">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4">
+      <c r="A8" s="17"/>
+      <c r="B8" s="17">
         <v>20001005</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4">
+      <c r="D8" s="17"/>
+      <c r="E8" s="17">
         <v>20001</v>
       </c>
-      <c r="F8" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" s="4">
+      <c r="F8" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="17">
         <v>20001004</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="K8" s="4">
-        <v>0</v>
-      </c>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="N8" s="4" t="s">
+      <c r="K8" s="17">
+        <v>0</v>
+      </c>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="N8" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="O8" s="4" t="s">
+      <c r="O8" s="17" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="9" ht="28.5" spans="1:15">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4">
+      <c r="A9" s="17"/>
+      <c r="B9" s="17">
         <v>20001006</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4">
+      <c r="D9" s="17"/>
+      <c r="E9" s="17">
         <v>20001</v>
       </c>
-      <c r="F9" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G9" s="4">
+      <c r="F9" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="17">
         <v>20001005</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="K9" s="4">
-        <v>0</v>
-      </c>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="N9" s="4" t="s">
+      <c r="K9" s="17">
+        <v>0</v>
+      </c>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="N9" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="O9" s="4" t="s">
+      <c r="O9" s="17" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="10" ht="28.5" spans="1:15">
-      <c r="A10" s="5"/>
-      <c r="B10" s="4">
+      <c r="A10" s="18"/>
+      <c r="B10" s="17">
         <v>20001007</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4">
+      <c r="D10" s="17"/>
+      <c r="E10" s="17">
         <v>20001</v>
       </c>
-      <c r="F10" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G10" s="4">
+      <c r="F10" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="17">
         <v>20001006</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="I10" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="J10" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="K10" s="5">
-        <v>0</v>
-      </c>
-      <c r="L10" s="5"/>
-      <c r="M10" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="N10" s="4" t="s">
+      <c r="K10" s="18">
+        <v>0</v>
+      </c>
+      <c r="L10" s="18"/>
+      <c r="M10" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="N10" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="O10" s="4" t="s">
+      <c r="O10" s="17" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="11" ht="28.5" spans="1:15">
-      <c r="A11" s="5"/>
-      <c r="B11" s="4">
+      <c r="A11" s="18"/>
+      <c r="B11" s="17">
         <v>20001008</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4">
+      <c r="D11" s="17"/>
+      <c r="E11" s="17">
         <v>20001</v>
       </c>
-      <c r="F11" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G11" s="4">
+      <c r="F11" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" s="17">
         <v>20001007</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="I11" s="12" t="s">
+      <c r="I11" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J11" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="K11" s="5">
-        <v>0</v>
-      </c>
-      <c r="L11" s="5"/>
-      <c r="M11" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="N11" s="4" t="s">
+      <c r="K11" s="18">
+        <v>0</v>
+      </c>
+      <c r="L11" s="18"/>
+      <c r="M11" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="N11" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="O11" s="5" t="s">
+      <c r="O11" s="18" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="12" ht="28.5" spans="1:15">
-      <c r="A12" s="5"/>
-      <c r="B12" s="4">
+      <c r="A12" s="18"/>
+      <c r="B12" s="17">
         <v>20001009</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4">
+      <c r="D12" s="17"/>
+      <c r="E12" s="17">
         <v>20001</v>
       </c>
-      <c r="F12" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G12" s="4">
+      <c r="F12" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" s="17">
         <v>20001008</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="I12" s="12" t="s">
+      <c r="I12" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="J12" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="K12" s="5">
-        <v>0</v>
-      </c>
-      <c r="L12" s="5"/>
-      <c r="M12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="N12" s="4" t="s">
+      <c r="K12" s="18">
+        <v>0</v>
+      </c>
+      <c r="L12" s="18"/>
+      <c r="M12" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="N12" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="O12" s="5" t="s">
+      <c r="O12" s="18" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="13" ht="28.5" spans="1:15">
-      <c r="A13" s="5"/>
-      <c r="B13" s="4">
+      <c r="A13" s="18"/>
+      <c r="B13" s="17">
         <v>20001010</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4">
+      <c r="D13" s="17"/>
+      <c r="E13" s="17">
         <v>20001</v>
       </c>
-      <c r="F13" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G13" s="4">
+      <c r="F13" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="17">
         <v>20001009</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="I13" s="12" t="s">
+      <c r="I13" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="J13" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="K13" s="5">
-        <v>0</v>
-      </c>
-      <c r="L13" s="5"/>
-      <c r="M13" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="N13" s="4" t="s">
+      <c r="K13" s="18">
+        <v>0</v>
+      </c>
+      <c r="L13" s="18"/>
+      <c r="M13" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="N13" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="O13" s="5" t="s">
+      <c r="O13" s="18" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="14" ht="28.5" spans="1:15">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7">
+      <c r="A14" s="19"/>
+      <c r="B14" s="20">
         <v>20002001</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7">
+      <c r="D14" s="20"/>
+      <c r="E14" s="20">
         <v>20001</v>
       </c>
-      <c r="F14" s="6" t="b">
+      <c r="F14" s="19" t="b">
         <v>1</v>
       </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6" t="s">
+      <c r="G14" s="19"/>
+      <c r="H14" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="I14" s="13" t="s">
+      <c r="I14" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="J14" s="6" t="s">
+      <c r="J14" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="K14" s="6">
-        <v>0</v>
-      </c>
-      <c r="L14" s="6"/>
-      <c r="M14" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="N14" s="7" t="s">
+      <c r="K14" s="19">
+        <v>0</v>
+      </c>
+      <c r="L14" s="19"/>
+      <c r="M14" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="N14" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="O14" s="6" t="s">
+      <c r="O14" s="19" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="15" ht="28.5" spans="1:15">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7">
+      <c r="A15" s="19"/>
+      <c r="B15" s="20">
         <v>20002002</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6">
+      <c r="D15" s="19"/>
+      <c r="E15" s="19">
         <v>20001</v>
       </c>
-      <c r="F15" s="6" t="b">
+      <c r="F15" s="19" t="b">
         <v>1</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="19">
         <v>20001002</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H15" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="I15" s="13" t="s">
+      <c r="I15" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="J15" s="6" t="s">
+      <c r="J15" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="K15" s="6">
-        <v>0</v>
-      </c>
-      <c r="L15" s="6"/>
-      <c r="M15" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="N15" s="7" t="s">
+      <c r="K15" s="19">
+        <v>0</v>
+      </c>
+      <c r="L15" s="19"/>
+      <c r="M15" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="N15" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="O15" s="6" t="s">
+      <c r="O15" s="19" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="16" ht="28.5" spans="1:15">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7">
+      <c r="A16" s="19"/>
+      <c r="B16" s="20">
         <v>20002003</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7">
+      <c r="D16" s="20"/>
+      <c r="E16" s="20">
         <v>20001</v>
       </c>
-      <c r="F16" s="6" t="b">
+      <c r="F16" s="19" t="b">
         <v>1</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="19">
         <v>20001003</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="13" t="s">
+      <c r="I16" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="J16" s="6" t="s">
+      <c r="J16" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="K16" s="6">
-        <v>0</v>
-      </c>
-      <c r="L16" s="6"/>
-      <c r="M16" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="N16" s="7" t="s">
+      <c r="K16" s="19">
+        <v>0</v>
+      </c>
+      <c r="L16" s="19"/>
+      <c r="M16" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="N16" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="O16" s="6" t="s">
+      <c r="O16" s="19" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="17" ht="28.5" spans="1:15">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7">
+      <c r="A17" s="19"/>
+      <c r="B17" s="20">
         <v>20002004</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6">
+      <c r="D17" s="19"/>
+      <c r="E17" s="19">
         <v>20001</v>
       </c>
-      <c r="F17" s="6" t="b">
+      <c r="F17" s="19" t="b">
         <v>1</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="19">
         <v>20001004</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="H17" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="I17" s="13" t="s">
+      <c r="I17" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="J17" s="6" t="s">
+      <c r="J17" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="K17" s="6">
-        <v>0</v>
-      </c>
-      <c r="L17" s="6"/>
-      <c r="M17" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="N17" s="7" t="s">
+      <c r="K17" s="19">
+        <v>0</v>
+      </c>
+      <c r="L17" s="19"/>
+      <c r="M17" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="N17" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="O17" s="6" t="s">
+      <c r="O17" s="19" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="18" ht="28.5" spans="1:15">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7">
+      <c r="A18" s="19"/>
+      <c r="B18" s="20">
         <v>20002005</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7">
+      <c r="D18" s="20"/>
+      <c r="E18" s="20">
         <v>20001</v>
       </c>
-      <c r="F18" s="6" t="b">
+      <c r="F18" s="19" t="b">
         <v>1</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="19">
         <v>20001004</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="H18" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="I18" s="13" t="s">
+      <c r="I18" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="J18" s="6" t="s">
+      <c r="J18" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="K18" s="6">
-        <v>0</v>
-      </c>
-      <c r="L18" s="6"/>
-      <c r="M18" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="N18" s="7" t="s">
+      <c r="K18" s="19">
+        <v>0</v>
+      </c>
+      <c r="L18" s="19"/>
+      <c r="M18" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="N18" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="O18" s="6" t="s">
+      <c r="O18" s="19" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="19" ht="28.5" spans="1:15">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7">
+      <c r="A19" s="19"/>
+      <c r="B19" s="20">
         <v>20002006</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6">
+      <c r="D19" s="19"/>
+      <c r="E19" s="19">
         <v>20001</v>
       </c>
-      <c r="F19" s="6" t="b">
+      <c r="F19" s="19" t="b">
         <v>1</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="19">
         <v>20001005</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="H19" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="I19" s="13" t="s">
+      <c r="I19" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="J19" s="6" t="s">
+      <c r="J19" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="K19" s="6">
-        <v>0</v>
-      </c>
-      <c r="L19" s="6"/>
-      <c r="M19" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="N19" s="7" t="s">
+      <c r="K19" s="19">
+        <v>0</v>
+      </c>
+      <c r="L19" s="19"/>
+      <c r="M19" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="N19" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="O19" s="6" t="s">
+      <c r="O19" s="19" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="20" ht="28.5" spans="1:15">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7">
+      <c r="A20" s="19"/>
+      <c r="B20" s="20">
         <v>20002007</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7">
+      <c r="D20" s="20"/>
+      <c r="E20" s="20">
         <v>20001</v>
       </c>
-      <c r="F20" s="6" t="b">
+      <c r="F20" s="19" t="b">
         <v>1</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="19">
         <v>20001006</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="H20" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="I20" s="13" t="s">
+      <c r="I20" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="J20" s="6" t="s">
+      <c r="J20" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="K20" s="6">
-        <v>0</v>
-      </c>
-      <c r="L20" s="6"/>
-      <c r="M20" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="N20" s="7" t="s">
+      <c r="K20" s="19">
+        <v>0</v>
+      </c>
+      <c r="L20" s="19"/>
+      <c r="M20" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="N20" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="O20" s="6" t="s">
+      <c r="O20" s="19" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="21" ht="28.5" spans="1:15">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7">
+      <c r="A21" s="19"/>
+      <c r="B21" s="20">
         <v>20002008</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6">
+      <c r="D21" s="19"/>
+      <c r="E21" s="19">
         <v>20001</v>
       </c>
-      <c r="F21" s="6" t="b">
+      <c r="F21" s="19" t="b">
         <v>1</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="19">
         <v>20001006</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="H21" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="I21" s="13" t="s">
+      <c r="I21" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="J21" s="6" t="s">
+      <c r="J21" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="K21" s="6">
-        <v>0</v>
-      </c>
-      <c r="L21" s="6"/>
-      <c r="M21" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="N21" s="7" t="s">
+      <c r="K21" s="19">
+        <v>0</v>
+      </c>
+      <c r="L21" s="19"/>
+      <c r="M21" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="N21" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="O21" s="6" t="s">
+      <c r="O21" s="19" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="22" ht="28.5" spans="1:15">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7">
+      <c r="A22" s="19"/>
+      <c r="B22" s="20">
         <v>20002009</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7">
+      <c r="D22" s="20"/>
+      <c r="E22" s="20">
         <v>20001</v>
       </c>
-      <c r="F22" s="6" t="b">
+      <c r="F22" s="19" t="b">
         <v>1</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="19">
         <v>20001007</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="H22" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="I22" s="13" t="s">
+      <c r="I22" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="J22" s="6" t="s">
+      <c r="J22" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="K22" s="6">
-        <v>0</v>
-      </c>
-      <c r="L22" s="6"/>
-      <c r="M22" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="N22" s="7" t="s">
+      <c r="K22" s="19">
+        <v>0</v>
+      </c>
+      <c r="L22" s="19"/>
+      <c r="M22" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="N22" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="O22" s="6" t="s">
+      <c r="O22" s="19" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="23" ht="28.5" spans="1:15">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7">
+      <c r="A23" s="19"/>
+      <c r="B23" s="20">
         <v>20002010</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6">
+      <c r="D23" s="19"/>
+      <c r="E23" s="19">
         <v>20001</v>
       </c>
-      <c r="F23" s="6" t="b">
+      <c r="F23" s="19" t="b">
         <v>1</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="19">
         <v>20001008</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="H23" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="I23" s="13" t="s">
+      <c r="I23" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="J23" s="6" t="s">
+      <c r="J23" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="K23" s="6">
-        <v>0</v>
-      </c>
-      <c r="L23" s="6"/>
-      <c r="M23" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="N23" s="7" t="s">
+      <c r="K23" s="19">
+        <v>0</v>
+      </c>
+      <c r="L23" s="19"/>
+      <c r="M23" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="N23" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="O23" s="6" t="s">
+      <c r="O23" s="19" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="24" ht="28.5" spans="1:15">
-      <c r="A24" s="6"/>
-      <c r="B24" s="7">
+      <c r="A24" s="19"/>
+      <c r="B24" s="20">
         <v>20002011</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7">
+      <c r="D24" s="20"/>
+      <c r="E24" s="20">
         <v>20001</v>
       </c>
-      <c r="F24" s="6" t="b">
+      <c r="F24" s="19" t="b">
         <v>1</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="19">
         <v>20001008</v>
       </c>
-      <c r="H24" s="6"/>
-      <c r="I24" s="13" t="s">
+      <c r="H24" s="19"/>
+      <c r="I24" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="J24" s="6" t="s">
+      <c r="J24" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="K24" s="6">
-        <v>0</v>
-      </c>
-      <c r="L24" s="6"/>
-      <c r="M24" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="N24" s="7" t="s">
+      <c r="K24" s="19">
+        <v>0</v>
+      </c>
+      <c r="L24" s="19"/>
+      <c r="M24" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="N24" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="O24" s="6" t="s">
+      <c r="O24" s="19" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="25" ht="28.5" spans="1:15">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8">
+      <c r="A25" s="21"/>
+      <c r="B25" s="21">
         <v>20003001</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8">
+      <c r="D25" s="21"/>
+      <c r="E25" s="21">
         <v>20001</v>
       </c>
-      <c r="F25" s="8" t="b">
+      <c r="F25" s="21" t="b">
         <v>1</v>
       </c>
-      <c r="G25" s="8">
-        <v>0</v>
-      </c>
-      <c r="H25" s="8" t="s">
+      <c r="G25" s="21">
+        <v>0</v>
+      </c>
+      <c r="H25" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="I25" s="14" t="s">
+      <c r="I25" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="J25" s="8" t="s">
+      <c r="J25" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="K25" s="8">
+      <c r="K25" s="21">
         <v>10002</v>
       </c>
-      <c r="L25" s="8"/>
-      <c r="M25" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
     </row>
     <row r="26" ht="28.5" spans="1:15">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8">
+      <c r="A26" s="21"/>
+      <c r="B26" s="21">
         <v>20003002</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8">
+      <c r="D26" s="21"/>
+      <c r="E26" s="21">
         <v>20001</v>
       </c>
-      <c r="F26" s="8" t="b">
+      <c r="F26" s="21" t="b">
         <v>1</v>
       </c>
-      <c r="G26" s="8">
-        <v>0</v>
-      </c>
-      <c r="H26" s="8" t="s">
+      <c r="G26" s="21">
+        <v>0</v>
+      </c>
+      <c r="H26" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="I26" s="14" t="s">
+      <c r="I26" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="J26" s="8" t="s">
+      <c r="J26" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="K26" s="8">
+      <c r="K26" s="21">
         <v>10002</v>
       </c>
-      <c r="L26" s="8"/>
-      <c r="M26" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
     </row>
     <row r="27" ht="28.5" spans="1:15">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8">
+      <c r="A27" s="21"/>
+      <c r="B27" s="21">
         <v>20003003</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8">
+      <c r="D27" s="21"/>
+      <c r="E27" s="21">
         <v>20001</v>
       </c>
-      <c r="F27" s="8" t="b">
+      <c r="F27" s="21" t="b">
         <v>1</v>
       </c>
-      <c r="G27" s="8">
-        <v>0</v>
-      </c>
-      <c r="H27" s="8" t="s">
+      <c r="G27" s="21">
+        <v>0</v>
+      </c>
+      <c r="H27" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="I27" s="14" t="s">
+      <c r="I27" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="J27" s="8" t="s">
+      <c r="J27" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="K27" s="8">
+      <c r="K27" s="21">
         <v>10002</v>
       </c>
-      <c r="L27" s="8"/>
-      <c r="M27" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
     </row>
     <row r="28" ht="28.5" spans="1:15">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8">
+      <c r="A28" s="21"/>
+      <c r="B28" s="21">
         <v>20003004</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8">
+      <c r="D28" s="21"/>
+      <c r="E28" s="21">
         <v>20001</v>
       </c>
-      <c r="F28" s="8" t="b">
+      <c r="F28" s="21" t="b">
         <v>1</v>
       </c>
-      <c r="G28" s="8">
-        <v>0</v>
-      </c>
-      <c r="H28" s="8" t="s">
+      <c r="G28" s="21">
+        <v>0</v>
+      </c>
+      <c r="H28" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="I28" s="14" t="s">
+      <c r="I28" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="J28" s="8" t="s">
+      <c r="J28" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="K28" s="8">
+      <c r="K28" s="21">
         <v>10002</v>
       </c>
-      <c r="L28" s="8" t="s">
+      <c r="L28" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="M28" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
+      <c r="M28" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
     </row>
     <row r="29" ht="28.5" spans="1:15">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8">
+      <c r="A29" s="21"/>
+      <c r="B29" s="21">
         <v>20003005</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8">
+      <c r="D29" s="21"/>
+      <c r="E29" s="21">
         <v>20001</v>
       </c>
-      <c r="F29" s="8" t="b">
+      <c r="F29" s="21" t="b">
         <v>1</v>
       </c>
-      <c r="G29" s="8">
-        <v>0</v>
-      </c>
-      <c r="H29" s="8" t="s">
+      <c r="G29" s="21">
+        <v>0</v>
+      </c>
+      <c r="H29" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="I29" s="14" t="s">
+      <c r="I29" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="J29" s="8" t="s">
+      <c r="J29" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="K29" s="8">
+      <c r="K29" s="21">
         <v>10005</v>
       </c>
-      <c r="L29" s="8" t="s">
+      <c r="L29" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="M29" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
+      <c r="M29" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
     </row>
     <row r="30" ht="28.5" spans="1:15">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8">
+      <c r="A30" s="21"/>
+      <c r="B30" s="21">
         <v>20003006</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8">
+      <c r="D30" s="21"/>
+      <c r="E30" s="21">
         <v>20001</v>
       </c>
-      <c r="F30" s="8" t="b">
+      <c r="F30" s="21" t="b">
         <v>1</v>
       </c>
-      <c r="G30" s="8">
-        <v>0</v>
-      </c>
-      <c r="H30" s="8" t="s">
+      <c r="G30" s="21">
+        <v>0</v>
+      </c>
+      <c r="H30" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="I30" s="14" t="s">
+      <c r="I30" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="J30" s="8" t="s">
+      <c r="J30" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="K30" s="8">
+      <c r="K30" s="21">
         <v>10002</v>
       </c>
-      <c r="L30" s="8" t="s">
+      <c r="L30" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="M30" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
+      <c r="M30" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
     </row>
     <row r="31" ht="28.5" spans="2:15">
       <c r="B31">
@@ -4729,7 +4873,7 @@
       <c r="H31" t="s">
         <v>38</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="I31" s="16" t="s">
         <v>112</v>
       </c>
       <c r="J31" t="s">
@@ -4738,13 +4882,13 @@
       <c r="K31">
         <v>0</v>
       </c>
-      <c r="M31" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="N31" s="17" t="s">
+      <c r="M31" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="N31" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="O31" s="17" t="s">
+      <c r="O31" s="28" t="s">
         <v>128</v>
       </c>
     </row>
@@ -4767,7 +4911,7 @@
       <c r="H32" t="s">
         <v>38</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="I32" s="16" t="s">
         <v>189</v>
       </c>
       <c r="J32" t="s">
@@ -4776,13 +4920,13 @@
       <c r="K32">
         <v>0</v>
       </c>
-      <c r="M32" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="N32" s="17" t="s">
+      <c r="M32" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="N32" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="O32" s="17" t="s">
+      <c r="O32" s="28" t="s">
         <v>190</v>
       </c>
     </row>
@@ -4805,7 +4949,7 @@
       <c r="H33" t="s">
         <v>38</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="I33" s="16" t="s">
         <v>189</v>
       </c>
       <c r="J33" t="s">
@@ -4814,30 +4958,690 @@
       <c r="K33">
         <v>0</v>
       </c>
-      <c r="M33" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="N33" s="17" t="s">
+      <c r="M33" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="N33" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="O33" s="17" t="s">
+      <c r="O33" s="28" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="34" spans="9:9">
-      <c r="I34" s="1"/>
+      <c r="I34" s="16"/>
     </row>
     <row r="35" spans="9:9">
-      <c r="I35" s="1"/>
+      <c r="I35" s="16"/>
     </row>
     <row r="36" spans="9:9">
-      <c r="I36" s="1"/>
+      <c r="I36" s="16"/>
     </row>
     <row r="37" spans="9:9">
-      <c r="I37" s="1"/>
+      <c r="I37" s="16"/>
     </row>
     <row r="38" spans="9:9">
-      <c r="I38" s="1"/>
+      <c r="I38" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="12.125" customWidth="1"/>
+    <col min="3" max="3" width="10.875" customWidth="1"/>
+    <col min="4" max="4" width="14.625" customWidth="1"/>
+    <col min="5" max="5" width="25.375" customWidth="1"/>
+    <col min="6" max="6" width="12.875" customWidth="1"/>
+    <col min="7" max="7" width="14.375" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="12.125" customWidth="1"/>
+    <col min="10" max="10" width="16.875" customWidth="1"/>
+    <col min="11" max="11" width="13.25" customWidth="1"/>
+    <col min="12" max="12" width="13.5" customWidth="1"/>
+    <col min="13" max="13" width="19.375" customWidth="1"/>
+    <col min="14" max="14" width="20.375" customWidth="1"/>
+    <col min="15" max="15" width="18.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="96" customHeight="1" spans="1:15">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4">
+        <v>100051001</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4">
+        <v>10005</v>
+      </c>
+      <c r="F4" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0</v>
+      </c>
+      <c r="L4" s="4"/>
+      <c r="M4" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="O4" s="13" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="96" customHeight="1" spans="1:15">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4">
+        <v>100051002</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4">
+        <v>10005</v>
+      </c>
+      <c r="F5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>100051001</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4"/>
+      <c r="M5" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="O5" s="13" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="96" customHeight="1" spans="1:15">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4">
+        <v>100051003</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4">
+        <v>10005</v>
+      </c>
+      <c r="F6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>100051002</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0</v>
+      </c>
+      <c r="L6" s="4"/>
+      <c r="M6" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="N6" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="O6" s="13" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="96" customHeight="1" spans="1:15">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4">
+        <v>100051004</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4">
+        <v>10005</v>
+      </c>
+      <c r="F7" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>100051003</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0</v>
+      </c>
+      <c r="L7" s="4"/>
+      <c r="M7" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="N7" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="O7" s="13" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="81" customHeight="1" spans="1:15">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4">
+        <v>100051005</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4">
+        <v>10005</v>
+      </c>
+      <c r="F8" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>100051004</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0</v>
+      </c>
+      <c r="L8" s="4"/>
+      <c r="M8" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="N8" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="O8" s="13" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" ht="42.75" spans="1:15">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4">
+        <v>100051006</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4">
+        <v>10005</v>
+      </c>
+      <c r="F9" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>100051005</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0</v>
+      </c>
+      <c r="L9" s="4"/>
+      <c r="M9" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="N9" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="O9" s="13" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="10" ht="42.75" spans="1:15">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7">
+        <v>100052001</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7">
+        <v>10005</v>
+      </c>
+      <c r="F10" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" s="7">
+        <v>100051001</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" s="7">
+        <v>0</v>
+      </c>
+      <c r="L10" s="7"/>
+      <c r="M10" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="N10" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="O10" s="15" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="11" ht="42.75" spans="1:15">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7">
+        <v>100052002</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7">
+        <v>10005</v>
+      </c>
+      <c r="F11" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" s="7">
+        <v>100051001</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11" s="7">
+        <v>0</v>
+      </c>
+      <c r="L11" s="7"/>
+      <c r="M11" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="N11" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="O11" s="15" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="12" ht="42.75" spans="1:15">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7">
+        <v>100052003</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7">
+        <v>10005</v>
+      </c>
+      <c r="F12" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" s="7">
+        <v>100051001</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K12" s="7">
+        <v>0</v>
+      </c>
+      <c r="L12" s="7"/>
+      <c r="M12" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="N12" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="O12" s="15" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="13" ht="42.75" spans="1:15">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7">
+        <v>100052004</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7">
+        <v>10005</v>
+      </c>
+      <c r="F13" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" s="7">
+        <v>100051001</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K13" s="7">
+        <v>0</v>
+      </c>
+      <c r="L13" s="7"/>
+      <c r="M13" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="N13" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="O13" s="15" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="14" ht="42.75" spans="1:15">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7">
+        <v>100052005</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7">
+        <v>10005</v>
+      </c>
+      <c r="F14" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" s="7">
+        <v>100051001</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K14" s="7">
+        <v>0</v>
+      </c>
+      <c r="L14" s="7"/>
+      <c r="M14" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="N14" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="O14" s="15" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="15" ht="42.75" spans="1:15">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7">
+        <v>100052006</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7">
+        <v>10005</v>
+      </c>
+      <c r="F15" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" s="7">
+        <v>100051001</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K15" s="7">
+        <v>0</v>
+      </c>
+      <c r="L15" s="7"/>
+      <c r="M15" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="N15" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="O15" s="15" t="s">
+        <v>219</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/DataConfig/Datas/bubble.xlsx
+++ b/DataConfig/Datas/bubble.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18345" windowHeight="17655" activeTab="4"/>
+    <workbookView windowHeight="17655" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="章鱼" sheetId="2" r:id="rId1"/>
@@ -12,6 +12,9 @@
     <sheet name="伊万" sheetId="5" r:id="rId3"/>
     <sheet name="宇轩" sheetId="4" r:id="rId4"/>
     <sheet name="费南多" sheetId="6" r:id="rId5"/>
+    <sheet name="路人A" sheetId="7" r:id="rId6"/>
+    <sheet name="路人B" sheetId="8" r:id="rId7"/>
+    <sheet name="路人C" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="246">
   <si>
     <t>##var</t>
   </si>
@@ -742,6 +745,84 @@
   </si>
   <si>
     <t>Fernando_talk_6</t>
+  </si>
+  <si>
+    <t>Fernando_comment_specify</t>
+  </si>
+  <si>
+    <t>Fernando_comment_blur</t>
+  </si>
+  <si>
+    <t>Fernando_comment_omakase</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/Story/Fernando/normal_guy.yarnproject</t>
+  </si>
+  <si>
+    <t>normal_guy_comment_specify</t>
+  </si>
+  <si>
+    <t>normal_guy_comment_blur</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/Story/NormalGuy/normal_guy.yarnproject</t>
+  </si>
+  <si>
+    <t>normal_guy_comment_omakase</t>
+  </si>
+  <si>
+    <t>200032001</t>
+  </si>
+  <si>
+    <t>200032002</t>
+  </si>
+  <si>
+    <t>200032003</t>
+  </si>
+  <si>
+    <t>200032004</t>
+  </si>
+  <si>
+    <t>200032005</t>
+  </si>
+  <si>
+    <t>200032006</t>
+  </si>
+  <si>
+    <t>200033001</t>
+  </si>
+  <si>
+    <t>200033002</t>
+  </si>
+  <si>
+    <t>200033003</t>
+  </si>
+  <si>
+    <t>200042001</t>
+  </si>
+  <si>
+    <t>200042002</t>
+  </si>
+  <si>
+    <t>200042003</t>
+  </si>
+  <si>
+    <t>200042004</t>
+  </si>
+  <si>
+    <t>200042005</t>
+  </si>
+  <si>
+    <t>200042006</t>
+  </si>
+  <si>
+    <t>200043001</t>
+  </si>
+  <si>
+    <t>200043002</t>
+  </si>
+  <si>
+    <t>200043003</t>
   </si>
 </sst>
 </file>
@@ -925,7 +1006,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -953,6 +1034,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1313,7 +1400,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1337,16 +1424,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1361,89 +1448,110 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="22" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="23" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1462,8 +1570,9 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="22" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="23" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1476,23 +1585,29 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1501,75 +1616,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1915,130 +2024,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="56" t="s">
+      <c r="N1" s="65" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="56" t="s">
+      <c r="N2" s="65" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2" t="s">
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N3" s="56" t="s">
+      <c r="N3" s="65" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2053,22 +2162,22 @@
       <c r="E4">
         <v>10001</v>
       </c>
-      <c r="F4" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="55" t="s">
+      <c r="F4" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="55" t="s">
+      <c r="H4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="55" t="s">
+      <c r="J4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="57">
+      <c r="K4" s="7">
         <v>0</v>
       </c>
       <c r="L4" t="s">
@@ -2092,23 +2201,23 @@
       <c r="E5">
         <v>10001</v>
       </c>
-      <c r="F5" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" s="55">
+      <c r="F5" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
         <f>$E5*1000+1</f>
         <v>10001001</v>
       </c>
-      <c r="H5" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="55" t="s">
+      <c r="H5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="J5" s="55" t="s">
+      <c r="J5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="K5" s="57">
+      <c r="K5" s="7">
         <v>0</v>
       </c>
       <c r="L5" t="s">
@@ -2132,22 +2241,22 @@
       <c r="E6">
         <v>10001</v>
       </c>
-      <c r="F6" s="55" t="s">
+      <c r="F6" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="55" t="s">
+      <c r="G6" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="55" t="s">
+      <c r="H6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="J6" s="55" t="s">
+      <c r="J6" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="K6" s="58">
+      <c r="K6" s="66">
         <v>10002</v>
       </c>
       <c r="L6" t="s">
@@ -2165,22 +2274,22 @@
       <c r="E7">
         <v>10001</v>
       </c>
-      <c r="F7" s="55" t="s">
+      <c r="F7" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="55" t="s">
+      <c r="G7" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="55" t="s">
+      <c r="H7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="J7" s="55" t="s">
+      <c r="J7" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="K7" s="58">
+      <c r="K7" s="66">
         <v>10002</v>
       </c>
       <c r="L7" t="s">
@@ -2201,19 +2310,19 @@
       <c r="F8" t="b">
         <v>1</v>
       </c>
-      <c r="G8" s="55" t="s">
+      <c r="G8" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="55" t="s">
+      <c r="H8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="J8" s="55" t="s">
+      <c r="J8" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="57">
+      <c r="K8" s="7">
         <v>0</v>
       </c>
       <c r="L8" t="s">
@@ -2240,19 +2349,19 @@
       <c r="F9" t="b">
         <v>1</v>
       </c>
-      <c r="G9" s="55" t="s">
+      <c r="G9" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="55" t="s">
+      <c r="H9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="J9" s="55" t="s">
+      <c r="J9" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="K9" s="57">
+      <c r="K9" s="7">
         <v>0</v>
       </c>
       <c r="L9" t="s">
@@ -2279,19 +2388,19 @@
       <c r="F10" t="b">
         <v>1</v>
       </c>
-      <c r="G10" s="55">
-        <v>0</v>
-      </c>
-      <c r="H10" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="55" t="s">
+      <c r="G10" s="6">
+        <v>0</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="J10" s="55" t="s">
+      <c r="J10" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="K10" s="55">
+      <c r="K10" s="6">
         <v>0</v>
       </c>
       <c r="L10" t="s">
@@ -2316,7 +2425,7 @@
   <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2325,10 +2434,10 @@
     <col min="3" max="3" width="21.375" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
     <col min="5" max="5" width="24.2333333333333" customWidth="1"/>
-    <col min="6" max="6" width="14.25" style="16" customWidth="1"/>
-    <col min="7" max="7" width="19.625" style="16" customWidth="1"/>
-    <col min="8" max="8" width="25.875" style="16" customWidth="1"/>
-    <col min="9" max="9" width="16.625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="14.25" style="26" customWidth="1"/>
+    <col min="7" max="7" width="19.625" style="26" customWidth="1"/>
+    <col min="8" max="8" width="25.875" style="26" customWidth="1"/>
+    <col min="9" max="9" width="16.625" style="26" customWidth="1"/>
     <col min="10" max="10" width="17.1666666666667" customWidth="1"/>
     <col min="11" max="11" width="15.25" customWidth="1"/>
     <col min="12" max="12" width="29.625" customWidth="1"/>
@@ -2338,945 +2447,945 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="2" t="s">
+      <c r="H3" s="1"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="O3" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="4" ht="28.5" spans="1:15">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31">
+      <c r="A4" s="41"/>
+      <c r="B4" s="41">
         <v>100021001</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32">
+      <c r="D4" s="42"/>
+      <c r="E4" s="42">
         <v>10002</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="33" t="s">
+      <c r="G4" s="43"/>
+      <c r="H4" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="J4" s="33" t="s">
+      <c r="J4" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="44" t="s">
+      <c r="K4" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="L4" s="33"/>
-      <c r="M4" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="N4" s="46" t="s">
+      <c r="L4" s="43"/>
+      <c r="M4" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="O4" s="31" t="s">
+      <c r="O4" s="41" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="5" ht="28.5" spans="1:15">
-      <c r="A5" s="34"/>
-      <c r="B5" s="34">
+      <c r="A5" s="44"/>
+      <c r="B5" s="44">
         <v>100021002</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35">
+      <c r="D5" s="45"/>
+      <c r="E5" s="45">
         <v>10002</v>
       </c>
-      <c r="F5" s="36" t="s">
+      <c r="F5" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="G5" s="37">
+      <c r="G5" s="47">
         <v>10002009</v>
       </c>
-      <c r="H5" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="36" t="s">
+      <c r="H5" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="J5" s="36" t="s">
+      <c r="J5" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="K5" s="38">
-        <v>0</v>
-      </c>
-      <c r="L5" s="35"/>
-      <c r="M5" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="N5" s="48" t="s">
+      <c r="K5" s="48">
+        <v>0</v>
+      </c>
+      <c r="L5" s="45"/>
+      <c r="M5" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="O5" s="34" t="s">
+      <c r="O5" s="44" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="6" ht="28.5" spans="1:15">
-      <c r="A6" s="34"/>
-      <c r="B6" s="34">
+      <c r="A6" s="44"/>
+      <c r="B6" s="44">
         <v>100021003</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35">
+      <c r="D6" s="45"/>
+      <c r="E6" s="45">
         <v>10002</v>
       </c>
-      <c r="F6" s="36" t="s">
+      <c r="F6" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="36" t="s">
+      <c r="G6" s="46"/>
+      <c r="H6" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="J6" s="36" t="s">
+      <c r="J6" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="K6" s="38">
-        <v>0</v>
-      </c>
-      <c r="L6" s="35"/>
-      <c r="M6" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="N6" s="48" t="s">
+      <c r="K6" s="48">
+        <v>0</v>
+      </c>
+      <c r="L6" s="45"/>
+      <c r="M6" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="N6" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="O6" s="34" t="s">
+      <c r="O6" s="44" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="7" ht="28.5" spans="1:15">
-      <c r="A7" s="34"/>
-      <c r="B7" s="34">
+      <c r="A7" s="44"/>
+      <c r="B7" s="44">
         <v>100021004</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35">
+      <c r="D7" s="45"/>
+      <c r="E7" s="45">
         <v>10002</v>
       </c>
-      <c r="F7" s="36" t="s">
+      <c r="F7" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="36" t="s">
+      <c r="G7" s="46"/>
+      <c r="H7" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="J7" s="36" t="s">
+      <c r="J7" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="38">
-        <v>0</v>
-      </c>
-      <c r="L7" s="35"/>
-      <c r="M7" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="N7" s="48" t="s">
+      <c r="K7" s="48">
+        <v>0</v>
+      </c>
+      <c r="L7" s="45"/>
+      <c r="M7" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="N7" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="O7" s="34" t="s">
+      <c r="O7" s="44" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="8" ht="28.5" spans="1:15">
-      <c r="A8" s="34"/>
-      <c r="B8" s="34">
+      <c r="A8" s="44"/>
+      <c r="B8" s="44">
         <v>100021005</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35">
+      <c r="D8" s="45"/>
+      <c r="E8" s="45">
         <v>10002</v>
       </c>
-      <c r="F8" s="36" t="s">
+      <c r="F8" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="36" t="s">
+      <c r="G8" s="46"/>
+      <c r="H8" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="J8" s="36" t="s">
+      <c r="J8" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="K8" s="38">
-        <v>0</v>
-      </c>
-      <c r="L8" s="49" t="s">
+      <c r="K8" s="48">
+        <v>0</v>
+      </c>
+      <c r="L8" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="M8" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="N8" s="48" t="s">
+      <c r="M8" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="N8" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="O8" s="34" t="s">
+      <c r="O8" s="44" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="9" ht="28.5" spans="1:15">
-      <c r="A9" s="34"/>
-      <c r="B9" s="31">
+      <c r="A9" s="44"/>
+      <c r="B9" s="41">
         <v>100021006</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35">
+      <c r="D9" s="45"/>
+      <c r="E9" s="45">
         <v>10002</v>
       </c>
-      <c r="F9" s="36" t="s">
+      <c r="F9" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="36" t="s">
+      <c r="G9" s="46"/>
+      <c r="H9" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="J9" s="36" t="s">
+      <c r="J9" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="K9" s="38" t="s">
+      <c r="K9" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="L9" s="49" t="s">
+      <c r="L9" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="M9" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="N9" s="48" t="s">
+      <c r="M9" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="N9" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="O9" s="34" t="s">
+      <c r="O9" s="44" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="10" ht="28.5" spans="1:15">
-      <c r="A10" s="34"/>
-      <c r="B10" s="34">
+      <c r="A10" s="44"/>
+      <c r="B10" s="44">
         <v>100021007</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35">
+      <c r="C10" s="44"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45">
         <v>10002</v>
       </c>
-      <c r="F10" s="36" t="s">
+      <c r="F10" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="36" t="s">
+      <c r="G10" s="46"/>
+      <c r="H10" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="J10" s="36" t="s">
+      <c r="J10" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="K10" s="38">
-        <v>0</v>
-      </c>
-      <c r="L10" s="35"/>
-      <c r="M10" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="N10" s="48" t="s">
+      <c r="K10" s="48">
+        <v>0</v>
+      </c>
+      <c r="L10" s="45"/>
+      <c r="M10" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="N10" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="O10" s="34" t="s">
+      <c r="O10" s="44" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11" ht="28.5" spans="1:15">
-      <c r="A11" s="34"/>
-      <c r="B11" s="34">
+      <c r="A11" s="44"/>
+      <c r="B11" s="44">
         <v>100021008</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35">
+      <c r="D11" s="45"/>
+      <c r="E11" s="45">
         <v>10002</v>
       </c>
-      <c r="F11" s="38" t="s">
+      <c r="F11" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="36" t="s">
+      <c r="G11" s="46"/>
+      <c r="H11" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="J11" s="38" t="s">
+      <c r="J11" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="K11" s="38">
-        <v>0</v>
-      </c>
-      <c r="L11" s="35"/>
-      <c r="M11" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="N11" s="48" t="s">
+      <c r="K11" s="48">
+        <v>0</v>
+      </c>
+      <c r="L11" s="45"/>
+      <c r="M11" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="N11" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="O11" s="34" t="s">
+      <c r="O11" s="44" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="12" ht="28.5" spans="1:15">
-      <c r="A12" s="34"/>
-      <c r="B12" s="34">
+      <c r="A12" s="44"/>
+      <c r="B12" s="44">
         <v>100021009</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35">
+      <c r="D12" s="45"/>
+      <c r="E12" s="45">
         <v>10002</v>
       </c>
-      <c r="F12" s="38" t="s">
+      <c r="F12" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="G12" s="37">
+      <c r="G12" s="47">
         <v>10002015</v>
       </c>
-      <c r="H12" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="36" t="s">
+      <c r="H12" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="J12" s="38" t="s">
+      <c r="J12" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="K12" s="38">
-        <v>0</v>
-      </c>
-      <c r="L12" s="35"/>
-      <c r="M12" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="N12" s="48" t="s">
+      <c r="K12" s="48">
+        <v>0</v>
+      </c>
+      <c r="L12" s="45"/>
+      <c r="M12" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="N12" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="O12" s="34" t="s">
+      <c r="O12" s="44" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="13" ht="28.5" spans="1:15">
-      <c r="A13" s="34"/>
-      <c r="B13" s="34">
+      <c r="A13" s="44"/>
+      <c r="B13" s="44">
         <v>100021010</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35">
+      <c r="D13" s="45"/>
+      <c r="E13" s="45">
         <v>10002</v>
       </c>
-      <c r="F13" s="38" t="s">
+      <c r="F13" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="G13" s="37">
+      <c r="G13" s="47">
         <v>10002016</v>
       </c>
-      <c r="H13" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" s="36" t="s">
+      <c r="H13" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="J13" s="38" t="s">
+      <c r="J13" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="K13" s="38">
-        <v>0</v>
-      </c>
-      <c r="L13" s="35"/>
-      <c r="M13" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="N13" s="48" t="s">
+      <c r="K13" s="48">
+        <v>0</v>
+      </c>
+      <c r="L13" s="45"/>
+      <c r="M13" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="N13" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="O13" s="34" t="s">
+      <c r="O13" s="44" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="14" ht="28.5" spans="1:15">
-      <c r="A14" s="34"/>
-      <c r="B14" s="31">
+      <c r="A14" s="44"/>
+      <c r="B14" s="41">
         <v>100021011</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35">
+      <c r="D14" s="45"/>
+      <c r="E14" s="45">
         <v>10002</v>
       </c>
-      <c r="F14" s="38" t="s">
+      <c r="F14" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="G14" s="37">
+      <c r="G14" s="47">
         <v>10002017</v>
       </c>
-      <c r="H14" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="I14" s="36" t="s">
+      <c r="H14" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="J14" s="38" t="s">
+      <c r="J14" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="K14" s="38">
-        <v>0</v>
-      </c>
-      <c r="L14" s="35"/>
-      <c r="M14" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="N14" s="48" t="s">
+      <c r="K14" s="48">
+        <v>0</v>
+      </c>
+      <c r="L14" s="45"/>
+      <c r="M14" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="N14" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="O14" s="34" t="s">
+      <c r="O14" s="44" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="15" ht="28.5" spans="1:15">
-      <c r="A15" s="34"/>
-      <c r="B15" s="34">
+      <c r="A15" s="44"/>
+      <c r="B15" s="44">
         <v>100021012</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35">
+      <c r="D15" s="45"/>
+      <c r="E15" s="45">
         <v>10002</v>
       </c>
-      <c r="F15" s="38" t="s">
+      <c r="F15" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="G15" s="37">
+      <c r="G15" s="47">
         <v>10002018</v>
       </c>
-      <c r="H15" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="I15" s="36" t="s">
+      <c r="H15" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="J15" s="38" t="s">
+      <c r="J15" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="K15" s="38">
-        <v>0</v>
-      </c>
-      <c r="L15" s="35"/>
-      <c r="M15" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="N15" s="48" t="s">
+      <c r="K15" s="48">
+        <v>0</v>
+      </c>
+      <c r="L15" s="45"/>
+      <c r="M15" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="N15" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="O15" s="34" t="s">
+      <c r="O15" s="44" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="16" ht="28.5" spans="1:15">
-      <c r="A16" s="34"/>
-      <c r="B16" s="34">
+      <c r="A16" s="44"/>
+      <c r="B16" s="44">
         <v>100021013</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35">
+      <c r="D16" s="45"/>
+      <c r="E16" s="45">
         <v>10002</v>
       </c>
-      <c r="F16" s="38" t="s">
+      <c r="F16" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="G16" s="37">
+      <c r="G16" s="47">
         <v>10002019</v>
       </c>
-      <c r="H16" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="I16" s="36" t="s">
+      <c r="H16" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="J16" s="38" t="s">
+      <c r="J16" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="K16" s="38">
-        <v>0</v>
-      </c>
-      <c r="L16" s="35"/>
-      <c r="M16" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="N16" s="48" t="s">
+      <c r="K16" s="48">
+        <v>0</v>
+      </c>
+      <c r="L16" s="45"/>
+      <c r="M16" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="N16" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="O16" s="34" t="s">
+      <c r="O16" s="44" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="17" ht="28.5" spans="1:15">
-      <c r="A17" s="34"/>
-      <c r="B17" s="34">
+      <c r="A17" s="44"/>
+      <c r="B17" s="44">
         <v>100021014</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35">
+      <c r="D17" s="45"/>
+      <c r="E17" s="45">
         <v>10002</v>
       </c>
-      <c r="F17" s="38" t="s">
+      <c r="F17" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="G17" s="37">
+      <c r="G17" s="47">
         <v>10002020</v>
       </c>
-      <c r="H17" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="I17" s="36" t="s">
+      <c r="H17" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="J17" s="38" t="s">
+      <c r="J17" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="K17" s="38">
-        <v>0</v>
-      </c>
-      <c r="L17" s="35"/>
-      <c r="M17" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="N17" s="48" t="s">
+      <c r="K17" s="48">
+        <v>0</v>
+      </c>
+      <c r="L17" s="45"/>
+      <c r="M17" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="N17" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="O17" s="34" t="s">
+      <c r="O17" s="44" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="18" s="29" customFormat="1" ht="28.5" spans="1:15">
-      <c r="A18" s="39"/>
-      <c r="B18" s="39">
+    <row r="18" s="39" customFormat="1" ht="28.5" spans="1:15">
+      <c r="A18" s="49"/>
+      <c r="B18" s="49">
         <v>100022001</v>
       </c>
-      <c r="C18" s="39" t="s">
+      <c r="C18" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39">
+      <c r="D18" s="49"/>
+      <c r="E18" s="49">
         <v>10002</v>
       </c>
-      <c r="F18" s="40" t="s">
+      <c r="F18" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="G18" s="40" t="s">
+      <c r="G18" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="H18" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="I18" s="40" t="s">
+      <c r="H18" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="J18" s="40" t="s">
+      <c r="J18" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="K18" s="40" t="s">
+      <c r="K18" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="L18" s="40"/>
-      <c r="M18" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="N18" s="50" t="s">
+      <c r="L18" s="50"/>
+      <c r="M18" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="N18" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="O18" s="39"/>
-    </row>
-    <row r="19" s="29" customFormat="1" ht="28.5" spans="1:15">
-      <c r="A19" s="39"/>
-      <c r="B19" s="39">
+      <c r="O18" s="49"/>
+    </row>
+    <row r="19" s="39" customFormat="1" ht="28.5" spans="1:15">
+      <c r="A19" s="49"/>
+      <c r="B19" s="49">
         <v>100022002</v>
       </c>
-      <c r="C19" s="39" t="s">
+      <c r="C19" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39">
+      <c r="D19" s="49"/>
+      <c r="E19" s="49">
         <v>10002</v>
       </c>
-      <c r="F19" s="40" t="s">
+      <c r="F19" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="G19" s="41">
+      <c r="G19" s="51">
         <v>100021002</v>
       </c>
-      <c r="H19" s="40" t="s">
+      <c r="H19" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="I19" s="40" t="s">
+      <c r="I19" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="J19" s="40" t="s">
+      <c r="J19" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="K19" s="51" t="s">
+      <c r="K19" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="L19" s="51" t="s">
+      <c r="L19" s="61" t="s">
         <v>106</v>
       </c>
-      <c r="M19" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="N19" s="50" t="s">
+      <c r="M19" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="N19" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="O19" s="39"/>
-    </row>
-    <row r="20" s="29" customFormat="1" ht="28.5" spans="1:15">
-      <c r="A20" s="39"/>
-      <c r="B20" s="39">
+      <c r="O19" s="49"/>
+    </row>
+    <row r="20" s="39" customFormat="1" ht="28.5" spans="1:15">
+      <c r="A20" s="49"/>
+      <c r="B20" s="49">
         <v>100022003</v>
       </c>
-      <c r="C20" s="39" t="s">
+      <c r="C20" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39">
+      <c r="D20" s="49"/>
+      <c r="E20" s="49">
         <v>10002</v>
       </c>
-      <c r="F20" s="40" t="s">
+      <c r="F20" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="G20" s="40" t="s">
+      <c r="G20" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="H20" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="I20" s="40" t="s">
+      <c r="H20" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="J20" s="40" t="s">
+      <c r="J20" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="K20" s="51" t="s">
+      <c r="K20" s="61" t="s">
         <v>110</v>
       </c>
-      <c r="L20" s="51" t="s">
+      <c r="L20" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="M20" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="N20" s="50" t="s">
+      <c r="M20" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="N20" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="O20" s="39"/>
-    </row>
-    <row r="21" s="30" customFormat="1" ht="28.5" spans="1:15">
-      <c r="A21" s="42"/>
-      <c r="B21" s="42">
+      <c r="O20" s="49"/>
+    </row>
+    <row r="21" s="40" customFormat="1" ht="28.5" spans="1:15">
+      <c r="A21" s="52"/>
+      <c r="B21" s="52">
         <v>100023001</v>
       </c>
-      <c r="C21" s="42" t="s">
+      <c r="C21" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42">
+      <c r="D21" s="52"/>
+      <c r="E21" s="52">
         <v>10002</v>
       </c>
-      <c r="F21" s="42" t="b">
+      <c r="F21" s="52" t="b">
         <v>1</v>
       </c>
-      <c r="G21" s="43">
-        <v>0</v>
-      </c>
-      <c r="H21" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="I21" s="52" t="s">
+      <c r="G21" s="53">
+        <v>0</v>
+      </c>
+      <c r="H21" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="62" t="s">
         <v>112</v>
       </c>
-      <c r="J21" s="43" t="s">
+      <c r="J21" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="K21" s="43">
-        <v>0</v>
-      </c>
-      <c r="L21" s="42"/>
-      <c r="M21" s="53" t="s">
-        <v>41</v>
-      </c>
-      <c r="N21" s="54" t="s">
+      <c r="K21" s="53">
+        <v>0</v>
+      </c>
+      <c r="L21" s="52"/>
+      <c r="M21" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="N21" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="O21" s="54" t="s">
+      <c r="O21" s="64" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="22" s="30" customFormat="1" ht="28.5" spans="1:15">
-      <c r="A22" s="42"/>
-      <c r="B22" s="42">
+    <row r="22" s="40" customFormat="1" ht="28.5" spans="1:15">
+      <c r="A22" s="52"/>
+      <c r="B22" s="52">
         <v>100023002</v>
       </c>
-      <c r="C22" s="42" t="s">
+      <c r="C22" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42">
+      <c r="D22" s="52"/>
+      <c r="E22" s="52">
         <v>10002</v>
       </c>
-      <c r="F22" s="42" t="b">
+      <c r="F22" s="52" t="b">
         <v>1</v>
       </c>
-      <c r="G22" s="43">
-        <v>0</v>
-      </c>
-      <c r="H22" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="I22" s="52" t="s">
+      <c r="G22" s="53">
+        <v>0</v>
+      </c>
+      <c r="H22" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="I22" s="62" t="s">
         <v>101</v>
       </c>
-      <c r="J22" s="43" t="s">
+      <c r="J22" s="53" t="s">
         <v>115</v>
       </c>
-      <c r="K22" s="43">
-        <v>0</v>
-      </c>
-      <c r="L22" s="42"/>
-      <c r="M22" s="53" t="s">
-        <v>41</v>
-      </c>
-      <c r="N22" s="54" t="s">
+      <c r="K22" s="53">
+        <v>0</v>
+      </c>
+      <c r="L22" s="52"/>
+      <c r="M22" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="N22" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="O22" s="54" t="s">
+      <c r="O22" s="64" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="23" s="30" customFormat="1" ht="28.5" spans="1:15">
-      <c r="A23" s="42"/>
-      <c r="B23" s="42">
+    <row r="23" s="40" customFormat="1" ht="28.5" spans="1:15">
+      <c r="A23" s="52"/>
+      <c r="B23" s="52">
         <v>100023003</v>
       </c>
-      <c r="C23" s="42" t="s">
+      <c r="C23" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42">
+      <c r="D23" s="52"/>
+      <c r="E23" s="52">
         <v>10002</v>
       </c>
-      <c r="F23" s="42" t="b">
+      <c r="F23" s="52" t="b">
         <v>1</v>
       </c>
-      <c r="G23" s="43">
-        <v>0</v>
-      </c>
-      <c r="H23" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="I23" s="52" t="s">
+      <c r="G23" s="53">
+        <v>0</v>
+      </c>
+      <c r="H23" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="I23" s="62" t="s">
         <v>101</v>
       </c>
-      <c r="J23" s="43" t="s">
+      <c r="J23" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="K23" s="43">
-        <v>0</v>
-      </c>
-      <c r="L23" s="42"/>
-      <c r="M23" s="53" t="s">
-        <v>41</v>
-      </c>
-      <c r="N23" s="54" t="s">
+      <c r="K23" s="53">
+        <v>0</v>
+      </c>
+      <c r="L23" s="52"/>
+      <c r="M23" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="N23" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="O23" s="54" t="s">
+      <c r="O23" s="64" t="s">
         <v>119</v>
       </c>
     </row>
@@ -3293,7 +3402,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
@@ -3312,256 +3421,256 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="2" t="s">
+      <c r="H3" s="1"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="O3" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="4" ht="57" spans="1:15">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17">
+      <c r="A4" s="27"/>
+      <c r="B4" s="27">
         <v>30001001</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17">
+      <c r="D4" s="27"/>
+      <c r="E4" s="27">
         <v>10003</v>
       </c>
-      <c r="F4" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17" t="s">
+      <c r="F4" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="I4" s="22" t="s">
+      <c r="I4" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="17">
-        <v>0</v>
-      </c>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="N4" s="17" t="s">
+      <c r="K4" s="27">
+        <v>0</v>
+      </c>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="O4" s="17" t="s">
+      <c r="O4" s="27" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="5" ht="57" spans="1:15">
-      <c r="A5" s="19"/>
-      <c r="B5" s="20">
+      <c r="A5" s="29"/>
+      <c r="B5" s="30">
         <v>30002001</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20">
+      <c r="D5" s="30"/>
+      <c r="E5" s="30">
         <v>10003</v>
       </c>
-      <c r="F5" s="19" t="b">
+      <c r="F5" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="24" t="s">
+      <c r="G5" s="29"/>
+      <c r="H5" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="J5" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="K5" s="19">
-        <v>0</v>
-      </c>
-      <c r="L5" s="19"/>
-      <c r="M5" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="N5" s="20" t="s">
+      <c r="K5" s="29">
+        <v>0</v>
+      </c>
+      <c r="L5" s="29"/>
+      <c r="M5" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="O5" s="19" t="s">
+      <c r="O5" s="29" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="6" ht="57" spans="1:15">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21">
+      <c r="A6" s="31"/>
+      <c r="B6" s="31">
         <v>30003001</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21">
+      <c r="D6" s="31"/>
+      <c r="E6" s="31">
         <v>10003</v>
       </c>
-      <c r="F6" s="21" t="b">
+      <c r="F6" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="G6" s="21">
-        <v>0</v>
-      </c>
-      <c r="H6" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="25" t="s">
+      <c r="G6" s="31">
+        <v>0</v>
+      </c>
+      <c r="H6" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="J6" s="21" t="s">
+      <c r="J6" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="K6" s="21">
+      <c r="K6" s="31">
         <v>10002</v>
       </c>
-      <c r="L6" s="21"/>
-      <c r="M6" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
     </row>
     <row r="7" ht="57" spans="2:15">
       <c r="B7">
@@ -3582,7 +3691,7 @@
       <c r="H7" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="I7" s="26" t="s">
         <v>122</v>
       </c>
       <c r="J7" t="s">
@@ -3591,13 +3700,13 @@
       <c r="K7">
         <v>0</v>
       </c>
-      <c r="M7" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="N7" s="28" t="s">
+      <c r="M7" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="N7" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="O7" s="28" t="s">
+      <c r="O7" s="38" t="s">
         <v>128</v>
       </c>
     </row>
@@ -3612,8 +3721,8 @@
   <sheetPr/>
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3629,1230 +3738,1230 @@
     <col min="10" max="10" width="22.4916666666667" customWidth="1"/>
     <col min="11" max="11" width="16.75" customWidth="1"/>
     <col min="12" max="12" width="24.75" customWidth="1"/>
-    <col min="13" max="13" width="26.75" style="16" customWidth="1"/>
+    <col min="13" max="13" width="26.75" style="26" customWidth="1"/>
     <col min="14" max="14" width="23.875" customWidth="1"/>
     <col min="15" max="15" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="2" t="s">
+      <c r="H3" s="1"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="O3" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="4" ht="28.5" spans="1:15">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17">
+      <c r="A4" s="27"/>
+      <c r="B4" s="27">
         <v>20001001</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17">
+      <c r="D4" s="27"/>
+      <c r="E4" s="27">
         <v>20001</v>
       </c>
-      <c r="F4" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17" t="s">
+      <c r="F4" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="I4" s="22" t="s">
+      <c r="I4" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="17">
-        <v>0</v>
-      </c>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="N4" s="17" t="s">
+      <c r="K4" s="27">
+        <v>0</v>
+      </c>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="O4" s="17" t="s">
+      <c r="O4" s="27" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="5" ht="28.5" spans="1:15">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17">
+      <c r="A5" s="27"/>
+      <c r="B5" s="27">
         <v>20001002</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17">
+      <c r="D5" s="27"/>
+      <c r="E5" s="27">
         <v>20001</v>
       </c>
-      <c r="F5" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" s="17">
+      <c r="F5" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="27">
         <v>20001001</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="I5" s="22" t="s">
+      <c r="I5" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="J5" s="17" t="s">
+      <c r="J5" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="K5" s="17">
-        <v>0</v>
-      </c>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="N5" s="17" t="s">
+      <c r="K5" s="27">
+        <v>0</v>
+      </c>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="O5" s="17" t="s">
+      <c r="O5" s="27" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="6" ht="28.5" spans="1:15">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17">
+      <c r="A6" s="27"/>
+      <c r="B6" s="27">
         <v>20001003</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17">
+      <c r="D6" s="27"/>
+      <c r="E6" s="27">
         <v>20001</v>
       </c>
-      <c r="F6" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" s="17">
+      <c r="F6" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="27">
         <v>20001002</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="H6" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="I6" s="22" t="s">
+      <c r="I6" s="32" t="s">
         <v>135</v>
       </c>
-      <c r="J6" s="17" t="s">
+      <c r="J6" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="K6" s="17">
-        <v>0</v>
-      </c>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="N6" s="17" t="s">
+      <c r="K6" s="27">
+        <v>0</v>
+      </c>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="N6" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="O6" s="17" t="s">
+      <c r="O6" s="27" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="7" ht="28.5" spans="1:15">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17">
+      <c r="A7" s="27"/>
+      <c r="B7" s="27">
         <v>20001004</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17">
+      <c r="D7" s="27"/>
+      <c r="E7" s="27">
         <v>20001</v>
       </c>
-      <c r="F7" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" s="17">
+      <c r="F7" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="27">
         <v>20001003</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="H7" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="I7" s="22" t="s">
+      <c r="I7" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="J7" s="17" t="s">
+      <c r="J7" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="17">
-        <v>0</v>
-      </c>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="N7" s="17" t="s">
+      <c r="K7" s="27">
+        <v>0</v>
+      </c>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="N7" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="O7" s="17" t="s">
+      <c r="O7" s="27" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="8" ht="28.5" spans="1:15">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17">
+      <c r="A8" s="27"/>
+      <c r="B8" s="27">
         <v>20001005</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17">
+      <c r="D8" s="27"/>
+      <c r="E8" s="27">
         <v>20001</v>
       </c>
-      <c r="F8" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" s="17">
+      <c r="F8" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="27">
         <v>20001004</v>
       </c>
-      <c r="H8" s="17" t="s">
+      <c r="H8" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="I8" s="22" t="s">
+      <c r="I8" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="J8" s="17" t="s">
+      <c r="J8" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="K8" s="17">
-        <v>0</v>
-      </c>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="N8" s="17" t="s">
+      <c r="K8" s="27">
+        <v>0</v>
+      </c>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="N8" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="O8" s="17" t="s">
+      <c r="O8" s="27" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="9" ht="28.5" spans="1:15">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17">
+      <c r="A9" s="27"/>
+      <c r="B9" s="27">
         <v>20001006</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17">
+      <c r="D9" s="27"/>
+      <c r="E9" s="27">
         <v>20001</v>
       </c>
-      <c r="F9" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="G9" s="17">
+      <c r="F9" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="27">
         <v>20001005</v>
       </c>
-      <c r="H9" s="17" t="s">
+      <c r="H9" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="I9" s="22" t="s">
+      <c r="I9" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="J9" s="17" t="s">
+      <c r="J9" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="K9" s="17">
-        <v>0</v>
-      </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="N9" s="17" t="s">
+      <c r="K9" s="27">
+        <v>0</v>
+      </c>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="N9" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="O9" s="17" t="s">
+      <c r="O9" s="27" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="10" ht="28.5" spans="1:15">
-      <c r="A10" s="18"/>
-      <c r="B10" s="17">
+      <c r="A10" s="28"/>
+      <c r="B10" s="27">
         <v>20001007</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17">
+      <c r="D10" s="27"/>
+      <c r="E10" s="27">
         <v>20001</v>
       </c>
-      <c r="F10" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="G10" s="17">
+      <c r="F10" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="27">
         <v>20001006</v>
       </c>
-      <c r="H10" s="18" t="s">
+      <c r="H10" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="I10" s="23" t="s">
+      <c r="I10" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="J10" s="18" t="s">
+      <c r="J10" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="K10" s="18">
-        <v>0</v>
-      </c>
-      <c r="L10" s="18"/>
-      <c r="M10" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="N10" s="17" t="s">
+      <c r="K10" s="28">
+        <v>0</v>
+      </c>
+      <c r="L10" s="28"/>
+      <c r="M10" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="N10" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="O10" s="17" t="s">
+      <c r="O10" s="27" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="11" ht="28.5" spans="1:15">
-      <c r="A11" s="18"/>
-      <c r="B11" s="17">
+      <c r="A11" s="28"/>
+      <c r="B11" s="27">
         <v>20001008</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17">
+      <c r="D11" s="27"/>
+      <c r="E11" s="27">
         <v>20001</v>
       </c>
-      <c r="F11" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="G11" s="17">
+      <c r="F11" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" s="27">
         <v>20001007</v>
       </c>
-      <c r="H11" s="18" t="s">
+      <c r="H11" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="I11" s="23" t="s">
+      <c r="I11" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="J11" s="18" t="s">
+      <c r="J11" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="K11" s="18">
-        <v>0</v>
-      </c>
-      <c r="L11" s="18"/>
-      <c r="M11" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="N11" s="17" t="s">
+      <c r="K11" s="28">
+        <v>0</v>
+      </c>
+      <c r="L11" s="28"/>
+      <c r="M11" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="N11" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="O11" s="18" t="s">
+      <c r="O11" s="28" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="12" ht="28.5" spans="1:15">
-      <c r="A12" s="18"/>
-      <c r="B12" s="17">
+      <c r="A12" s="28"/>
+      <c r="B12" s="27">
         <v>20001009</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17">
+      <c r="D12" s="27"/>
+      <c r="E12" s="27">
         <v>20001</v>
       </c>
-      <c r="F12" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="G12" s="17">
+      <c r="F12" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" s="27">
         <v>20001008</v>
       </c>
-      <c r="H12" s="18" t="s">
+      <c r="H12" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="I12" s="23" t="s">
+      <c r="I12" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="J12" s="18" t="s">
+      <c r="J12" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="K12" s="18">
-        <v>0</v>
-      </c>
-      <c r="L12" s="18"/>
-      <c r="M12" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="N12" s="17" t="s">
+      <c r="K12" s="28">
+        <v>0</v>
+      </c>
+      <c r="L12" s="28"/>
+      <c r="M12" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="N12" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="O12" s="18" t="s">
+      <c r="O12" s="28" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="13" ht="28.5" spans="1:15">
-      <c r="A13" s="18"/>
-      <c r="B13" s="17">
+      <c r="A13" s="28"/>
+      <c r="B13" s="27">
         <v>20001010</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17">
+      <c r="D13" s="27"/>
+      <c r="E13" s="27">
         <v>20001</v>
       </c>
-      <c r="F13" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="G13" s="17">
+      <c r="F13" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="27">
         <v>20001009</v>
       </c>
-      <c r="H13" s="18" t="s">
+      <c r="H13" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="I13" s="23" t="s">
+      <c r="I13" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="J13" s="18" t="s">
+      <c r="J13" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="K13" s="18">
-        <v>0</v>
-      </c>
-      <c r="L13" s="18"/>
-      <c r="M13" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="N13" s="17" t="s">
+      <c r="K13" s="28">
+        <v>0</v>
+      </c>
+      <c r="L13" s="28"/>
+      <c r="M13" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="N13" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="O13" s="18" t="s">
+      <c r="O13" s="28" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="14" ht="28.5" spans="1:15">
-      <c r="A14" s="19"/>
-      <c r="B14" s="20">
+      <c r="A14" s="29"/>
+      <c r="B14" s="30">
         <v>20002001</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20">
+      <c r="D14" s="30"/>
+      <c r="E14" s="30">
         <v>20001</v>
       </c>
-      <c r="F14" s="19" t="b">
+      <c r="F14" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="I14" s="24" t="s">
+      <c r="G14" s="29"/>
+      <c r="H14" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="J14" s="19" t="s">
+      <c r="J14" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="K14" s="19">
-        <v>0</v>
-      </c>
-      <c r="L14" s="19"/>
-      <c r="M14" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="N14" s="20" t="s">
+      <c r="K14" s="29">
+        <v>0</v>
+      </c>
+      <c r="L14" s="29"/>
+      <c r="M14" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="N14" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="O14" s="19" t="s">
+      <c r="O14" s="29" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="15" ht="28.5" spans="1:15">
-      <c r="A15" s="19"/>
-      <c r="B15" s="20">
+      <c r="A15" s="29"/>
+      <c r="B15" s="30">
         <v>20002002</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19">
+      <c r="D15" s="29"/>
+      <c r="E15" s="29">
         <v>20001</v>
       </c>
-      <c r="F15" s="19" t="b">
+      <c r="F15" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="G15" s="19">
+      <c r="G15" s="29">
         <v>20001002</v>
       </c>
-      <c r="H15" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="I15" s="24" t="s">
+      <c r="H15" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="J15" s="19" t="s">
+      <c r="J15" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="K15" s="19">
-        <v>0</v>
-      </c>
-      <c r="L15" s="19"/>
-      <c r="M15" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="N15" s="20" t="s">
+      <c r="K15" s="29">
+        <v>0</v>
+      </c>
+      <c r="L15" s="29"/>
+      <c r="M15" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="N15" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="O15" s="19" t="s">
+      <c r="O15" s="29" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="16" ht="28.5" spans="1:15">
-      <c r="A16" s="19"/>
-      <c r="B16" s="20">
+      <c r="A16" s="29"/>
+      <c r="B16" s="30">
         <v>20002003</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20">
+      <c r="D16" s="30"/>
+      <c r="E16" s="30">
         <v>20001</v>
       </c>
-      <c r="F16" s="19" t="b">
+      <c r="F16" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="29">
         <v>20001003</v>
       </c>
-      <c r="H16" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="I16" s="24" t="s">
+      <c r="H16" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="J16" s="19" t="s">
+      <c r="J16" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="K16" s="19">
-        <v>0</v>
-      </c>
-      <c r="L16" s="19"/>
-      <c r="M16" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="N16" s="20" t="s">
+      <c r="K16" s="29">
+        <v>0</v>
+      </c>
+      <c r="L16" s="29"/>
+      <c r="M16" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="N16" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="O16" s="19" t="s">
+      <c r="O16" s="29" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="17" ht="28.5" spans="1:15">
-      <c r="A17" s="19"/>
-      <c r="B17" s="20">
+      <c r="A17" s="29"/>
+      <c r="B17" s="30">
         <v>20002004</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="29" t="s">
         <v>163</v>
       </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19">
+      <c r="D17" s="29"/>
+      <c r="E17" s="29">
         <v>20001</v>
       </c>
-      <c r="F17" s="19" t="b">
+      <c r="F17" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="G17" s="19">
+      <c r="G17" s="29">
         <v>20001004</v>
       </c>
-      <c r="H17" s="19" t="s">
+      <c r="H17" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="I17" s="24" t="s">
+      <c r="I17" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="J17" s="19" t="s">
+      <c r="J17" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="K17" s="19">
-        <v>0</v>
-      </c>
-      <c r="L17" s="19"/>
-      <c r="M17" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="N17" s="20" t="s">
+      <c r="K17" s="29">
+        <v>0</v>
+      </c>
+      <c r="L17" s="29"/>
+      <c r="M17" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="N17" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="O17" s="19" t="s">
+      <c r="O17" s="29" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="18" ht="28.5" spans="1:15">
-      <c r="A18" s="19"/>
-      <c r="B18" s="20">
+      <c r="A18" s="29"/>
+      <c r="B18" s="30">
         <v>20002005</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="29" t="s">
         <v>165</v>
       </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20">
+      <c r="D18" s="30"/>
+      <c r="E18" s="30">
         <v>20001</v>
       </c>
-      <c r="F18" s="19" t="b">
+      <c r="F18" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="G18" s="19">
+      <c r="G18" s="29">
         <v>20001004</v>
       </c>
-      <c r="H18" s="19" t="s">
+      <c r="H18" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="I18" s="24" t="s">
+      <c r="I18" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="J18" s="19" t="s">
+      <c r="J18" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="K18" s="19">
-        <v>0</v>
-      </c>
-      <c r="L18" s="19"/>
-      <c r="M18" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="N18" s="20" t="s">
+      <c r="K18" s="29">
+        <v>0</v>
+      </c>
+      <c r="L18" s="29"/>
+      <c r="M18" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="N18" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="O18" s="19" t="s">
+      <c r="O18" s="29" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="19" ht="28.5" spans="1:15">
-      <c r="A19" s="19"/>
-      <c r="B19" s="20">
+      <c r="A19" s="29"/>
+      <c r="B19" s="30">
         <v>20002006</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19">
+      <c r="D19" s="29"/>
+      <c r="E19" s="29">
         <v>20001</v>
       </c>
-      <c r="F19" s="19" t="b">
+      <c r="F19" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="G19" s="19">
+      <c r="G19" s="29">
         <v>20001005</v>
       </c>
-      <c r="H19" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="I19" s="24" t="s">
+      <c r="H19" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="I19" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="J19" s="19" t="s">
+      <c r="J19" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="K19" s="19">
-        <v>0</v>
-      </c>
-      <c r="L19" s="19"/>
-      <c r="M19" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="N19" s="20" t="s">
+      <c r="K19" s="29">
+        <v>0</v>
+      </c>
+      <c r="L19" s="29"/>
+      <c r="M19" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="N19" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="O19" s="19" t="s">
+      <c r="O19" s="29" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="20" ht="28.5" spans="1:15">
-      <c r="A20" s="19"/>
-      <c r="B20" s="20">
+      <c r="A20" s="29"/>
+      <c r="B20" s="30">
         <v>20002007</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20">
+      <c r="D20" s="30"/>
+      <c r="E20" s="30">
         <v>20001</v>
       </c>
-      <c r="F20" s="19" t="b">
+      <c r="F20" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="G20" s="19">
+      <c r="G20" s="29">
         <v>20001006</v>
       </c>
-      <c r="H20" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="I20" s="24" t="s">
+      <c r="H20" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="J20" s="19" t="s">
+      <c r="J20" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="K20" s="19">
-        <v>0</v>
-      </c>
-      <c r="L20" s="19"/>
-      <c r="M20" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="N20" s="20" t="s">
+      <c r="K20" s="29">
+        <v>0</v>
+      </c>
+      <c r="L20" s="29"/>
+      <c r="M20" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="N20" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="O20" s="19" t="s">
+      <c r="O20" s="29" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="21" ht="28.5" spans="1:15">
-      <c r="A21" s="19"/>
-      <c r="B21" s="20">
+      <c r="A21" s="29"/>
+      <c r="B21" s="30">
         <v>20002008</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19">
+      <c r="D21" s="29"/>
+      <c r="E21" s="29">
         <v>20001</v>
       </c>
-      <c r="F21" s="19" t="b">
+      <c r="F21" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="G21" s="19">
+      <c r="G21" s="29">
         <v>20001006</v>
       </c>
-      <c r="H21" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="I21" s="24" t="s">
+      <c r="H21" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="J21" s="19" t="s">
+      <c r="J21" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="K21" s="19">
-        <v>0</v>
-      </c>
-      <c r="L21" s="19"/>
-      <c r="M21" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="N21" s="20" t="s">
+      <c r="K21" s="29">
+        <v>0</v>
+      </c>
+      <c r="L21" s="29"/>
+      <c r="M21" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="N21" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="O21" s="19" t="s">
+      <c r="O21" s="29" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="22" ht="28.5" spans="1:15">
-      <c r="A22" s="19"/>
-      <c r="B22" s="20">
+      <c r="A22" s="29"/>
+      <c r="B22" s="30">
         <v>20002009</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="29" t="s">
         <v>173</v>
       </c>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20">
+      <c r="D22" s="30"/>
+      <c r="E22" s="30">
         <v>20001</v>
       </c>
-      <c r="F22" s="19" t="b">
+      <c r="F22" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="G22" s="19">
+      <c r="G22" s="29">
         <v>20001007</v>
       </c>
-      <c r="H22" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="I22" s="24" t="s">
+      <c r="H22" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="I22" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="J22" s="19" t="s">
+      <c r="J22" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="K22" s="19">
-        <v>0</v>
-      </c>
-      <c r="L22" s="19"/>
-      <c r="M22" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="N22" s="20" t="s">
+      <c r="K22" s="29">
+        <v>0</v>
+      </c>
+      <c r="L22" s="29"/>
+      <c r="M22" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="N22" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="O22" s="19" t="s">
+      <c r="O22" s="29" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="23" ht="28.5" spans="1:15">
-      <c r="A23" s="19"/>
-      <c r="B23" s="20">
+      <c r="A23" s="29"/>
+      <c r="B23" s="30">
         <v>20002010</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19">
+      <c r="D23" s="29"/>
+      <c r="E23" s="29">
         <v>20001</v>
       </c>
-      <c r="F23" s="19" t="b">
+      <c r="F23" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="G23" s="19">
+      <c r="G23" s="29">
         <v>20001008</v>
       </c>
-      <c r="H23" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="I23" s="24" t="s">
+      <c r="H23" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="I23" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="J23" s="19" t="s">
+      <c r="J23" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="K23" s="19">
-        <v>0</v>
-      </c>
-      <c r="L23" s="19"/>
-      <c r="M23" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="N23" s="20" t="s">
+      <c r="K23" s="29">
+        <v>0</v>
+      </c>
+      <c r="L23" s="29"/>
+      <c r="M23" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="N23" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="O23" s="19" t="s">
+      <c r="O23" s="29" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="24" ht="28.5" spans="1:15">
-      <c r="A24" s="19"/>
-      <c r="B24" s="20">
+      <c r="A24" s="29"/>
+      <c r="B24" s="30">
         <v>20002011</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20">
+      <c r="D24" s="30"/>
+      <c r="E24" s="30">
         <v>20001</v>
       </c>
-      <c r="F24" s="19" t="b">
+      <c r="F24" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="G24" s="19">
+      <c r="G24" s="29">
         <v>20001008</v>
       </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="24" t="s">
+      <c r="H24" s="29"/>
+      <c r="I24" s="34" t="s">
         <v>154</v>
       </c>
-      <c r="J24" s="19" t="s">
+      <c r="J24" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="K24" s="19">
-        <v>0</v>
-      </c>
-      <c r="L24" s="19"/>
-      <c r="M24" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="N24" s="20" t="s">
+      <c r="K24" s="29">
+        <v>0</v>
+      </c>
+      <c r="L24" s="29"/>
+      <c r="M24" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="N24" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="O24" s="19" t="s">
+      <c r="O24" s="29" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="25" ht="28.5" spans="1:15">
-      <c r="A25" s="21"/>
-      <c r="B25" s="21">
+      <c r="A25" s="31"/>
+      <c r="B25" s="31">
         <v>20003001</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21">
+      <c r="D25" s="31"/>
+      <c r="E25" s="31">
         <v>20001</v>
       </c>
-      <c r="F25" s="21" t="b">
+      <c r="F25" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="G25" s="21">
-        <v>0</v>
-      </c>
-      <c r="H25" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="I25" s="25" t="s">
+      <c r="G25" s="31">
+        <v>0</v>
+      </c>
+      <c r="H25" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="I25" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="J25" s="21" t="s">
+      <c r="J25" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="K25" s="21">
+      <c r="K25" s="31">
         <v>10002</v>
       </c>
-      <c r="L25" s="21"/>
-      <c r="M25" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="N25" s="21"/>
-      <c r="O25" s="21"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31"/>
     </row>
     <row r="26" ht="28.5" spans="1:15">
-      <c r="A26" s="21"/>
-      <c r="B26" s="21">
+      <c r="A26" s="31"/>
+      <c r="B26" s="31">
         <v>20003002</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21">
+      <c r="D26" s="31"/>
+      <c r="E26" s="31">
         <v>20001</v>
       </c>
-      <c r="F26" s="21" t="b">
+      <c r="F26" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="G26" s="21">
-        <v>0</v>
-      </c>
-      <c r="H26" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="I26" s="25" t="s">
+      <c r="G26" s="31">
+        <v>0</v>
+      </c>
+      <c r="H26" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="I26" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="J26" s="21" t="s">
+      <c r="J26" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="K26" s="21">
+      <c r="K26" s="31">
         <v>10002</v>
       </c>
-      <c r="L26" s="21"/>
-      <c r="M26" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="N26" s="21"/>
-      <c r="O26" s="21"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="N26" s="31"/>
+      <c r="O26" s="31"/>
     </row>
     <row r="27" ht="28.5" spans="1:15">
-      <c r="A27" s="21"/>
-      <c r="B27" s="21">
+      <c r="A27" s="31"/>
+      <c r="B27" s="31">
         <v>20003003</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21">
+      <c r="D27" s="31"/>
+      <c r="E27" s="31">
         <v>20001</v>
       </c>
-      <c r="F27" s="21" t="b">
+      <c r="F27" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="G27" s="21">
-        <v>0</v>
-      </c>
-      <c r="H27" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="I27" s="25" t="s">
+      <c r="G27" s="31">
+        <v>0</v>
+      </c>
+      <c r="H27" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="I27" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="J27" s="21" t="s">
+      <c r="J27" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="K27" s="21">
+      <c r="K27" s="31">
         <v>10002</v>
       </c>
-      <c r="L27" s="21"/>
-      <c r="M27" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="N27" s="31"/>
+      <c r="O27" s="31"/>
     </row>
     <row r="28" ht="28.5" spans="1:15">
-      <c r="A28" s="21"/>
-      <c r="B28" s="21">
+      <c r="A28" s="31"/>
+      <c r="B28" s="31">
         <v>20003004</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21">
+      <c r="D28" s="31"/>
+      <c r="E28" s="31">
         <v>20001</v>
       </c>
-      <c r="F28" s="21" t="b">
+      <c r="F28" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="G28" s="21">
-        <v>0</v>
-      </c>
-      <c r="H28" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="I28" s="25" t="s">
+      <c r="G28" s="31">
+        <v>0</v>
+      </c>
+      <c r="H28" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="I28" s="35" t="s">
         <v>183</v>
       </c>
-      <c r="J28" s="21" t="s">
+      <c r="J28" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="K28" s="21">
+      <c r="K28" s="31">
         <v>10002</v>
       </c>
-      <c r="L28" s="21" t="s">
+      <c r="L28" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="M28" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="N28" s="21"/>
-      <c r="O28" s="21"/>
+      <c r="M28" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="N28" s="31"/>
+      <c r="O28" s="31"/>
     </row>
     <row r="29" ht="28.5" spans="1:15">
-      <c r="A29" s="21"/>
-      <c r="B29" s="21">
+      <c r="A29" s="31"/>
+      <c r="B29" s="31">
         <v>20003005</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="31" t="s">
         <v>185</v>
       </c>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21">
+      <c r="D29" s="31"/>
+      <c r="E29" s="31">
         <v>20001</v>
       </c>
-      <c r="F29" s="21" t="b">
+      <c r="F29" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="G29" s="21">
-        <v>0</v>
-      </c>
-      <c r="H29" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="I29" s="25" t="s">
+      <c r="G29" s="31">
+        <v>0</v>
+      </c>
+      <c r="H29" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="I29" s="35" t="s">
         <v>183</v>
       </c>
-      <c r="J29" s="21" t="s">
+      <c r="J29" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="K29" s="21">
+      <c r="K29" s="31">
         <v>10005</v>
       </c>
-      <c r="L29" s="21" t="s">
+      <c r="L29" s="31" t="s">
         <v>186</v>
       </c>
-      <c r="M29" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="N29" s="21"/>
-      <c r="O29" s="21"/>
+      <c r="M29" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="N29" s="31"/>
+      <c r="O29" s="31"/>
     </row>
     <row r="30" ht="28.5" spans="1:15">
-      <c r="A30" s="21"/>
-      <c r="B30" s="21">
+      <c r="A30" s="31"/>
+      <c r="B30" s="31">
         <v>20003006</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21">
+      <c r="D30" s="31"/>
+      <c r="E30" s="31">
         <v>20001</v>
       </c>
-      <c r="F30" s="21" t="b">
+      <c r="F30" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="G30" s="21">
-        <v>0</v>
-      </c>
-      <c r="H30" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="I30" s="25" t="s">
+      <c r="G30" s="31">
+        <v>0</v>
+      </c>
+      <c r="H30" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="I30" s="35" t="s">
         <v>183</v>
       </c>
-      <c r="J30" s="21" t="s">
+      <c r="J30" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="K30" s="21">
+      <c r="K30" s="31">
         <v>10002</v>
       </c>
-      <c r="L30" s="21" t="s">
+      <c r="L30" s="31" t="s">
         <v>188</v>
       </c>
-      <c r="M30" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="N30" s="21"/>
-      <c r="O30" s="21"/>
+      <c r="M30" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31"/>
     </row>
     <row r="31" ht="28.5" spans="2:15">
       <c r="B31">
@@ -4873,7 +4982,7 @@
       <c r="H31" t="s">
         <v>38</v>
       </c>
-      <c r="I31" s="16" t="s">
+      <c r="I31" s="26" t="s">
         <v>112</v>
       </c>
       <c r="J31" t="s">
@@ -4882,13 +4991,13 @@
       <c r="K31">
         <v>0</v>
       </c>
-      <c r="M31" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="N31" s="28" t="s">
+      <c r="M31" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="N31" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="O31" s="28" t="s">
+      <c r="O31" s="38" t="s">
         <v>128</v>
       </c>
     </row>
@@ -4911,7 +5020,7 @@
       <c r="H32" t="s">
         <v>38</v>
       </c>
-      <c r="I32" s="16" t="s">
+      <c r="I32" s="26" t="s">
         <v>189</v>
       </c>
       <c r="J32" t="s">
@@ -4920,13 +5029,13 @@
       <c r="K32">
         <v>0</v>
       </c>
-      <c r="M32" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="N32" s="28" t="s">
+      <c r="M32" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="N32" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="O32" s="28" t="s">
+      <c r="O32" s="38" t="s">
         <v>190</v>
       </c>
     </row>
@@ -4949,7 +5058,7 @@
       <c r="H33" t="s">
         <v>38</v>
       </c>
-      <c r="I33" s="16" t="s">
+      <c r="I33" s="26" t="s">
         <v>189</v>
       </c>
       <c r="J33" t="s">
@@ -4958,30 +5067,30 @@
       <c r="K33">
         <v>0</v>
       </c>
-      <c r="M33" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="N33" s="28" t="s">
+      <c r="M33" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="N33" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="O33" s="28" t="s">
+      <c r="O33" s="38" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="34" spans="9:9">
-      <c r="I34" s="16"/>
+      <c r="I34" s="26"/>
     </row>
     <row r="35" spans="9:9">
-      <c r="I35" s="16"/>
+      <c r="I35" s="26"/>
     </row>
     <row r="36" spans="9:9">
-      <c r="I36" s="16"/>
+      <c r="I36" s="26"/>
     </row>
     <row r="37" spans="9:9">
-      <c r="I37" s="16"/>
+      <c r="I37" s="26"/>
     </row>
     <row r="38" spans="9:9">
-      <c r="I38" s="16"/>
+      <c r="I38" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4992,16 +5101,16 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="12.125" customWidth="1"/>
-    <col min="3" max="3" width="10.875" customWidth="1"/>
+    <col min="3" max="3" width="21.375" customWidth="1"/>
     <col min="4" max="4" width="14.625" customWidth="1"/>
     <col min="5" max="5" width="25.375" customWidth="1"/>
     <col min="6" max="6" width="12.875" customWidth="1"/>
@@ -5017,630 +5126,2341 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="2" t="s">
+      <c r="H3" s="1"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="O3" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="96" customHeight="1" spans="1:15">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4">
+    <row r="4" s="7" customFormat="1" ht="96" customHeight="1" spans="1:15">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13">
         <v>100051001</v>
       </c>
+      <c r="C4" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13">
+        <v>10005</v>
+      </c>
+      <c r="F4" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="13">
+        <v>0</v>
+      </c>
+      <c r="L4" s="13"/>
+      <c r="M4" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="O4" s="21" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" s="7" customFormat="1" ht="96" customHeight="1" spans="1:15">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13">
+        <v>100051002</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13">
+        <v>10005</v>
+      </c>
+      <c r="F5" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="13">
+        <v>100051001</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="13">
+        <v>0</v>
+      </c>
+      <c r="L5" s="13"/>
+      <c r="M5" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="O5" s="21" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" s="7" customFormat="1" ht="96" customHeight="1" spans="1:15">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13">
+        <v>100051003</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13">
+        <v>10005</v>
+      </c>
+      <c r="F6" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="13">
+        <v>100051002</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="13">
+        <v>0</v>
+      </c>
+      <c r="L6" s="13"/>
+      <c r="M6" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="N6" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="O6" s="21" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" s="7" customFormat="1" ht="96" customHeight="1" spans="1:15">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13">
+        <v>100051004</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13">
+        <v>10005</v>
+      </c>
+      <c r="F7" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="13">
+        <v>100051003</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="13">
+        <v>0</v>
+      </c>
+      <c r="L7" s="13"/>
+      <c r="M7" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="N7" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="O7" s="21" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="8" s="7" customFormat="1" ht="81" customHeight="1" spans="1:15">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13">
+        <v>100051005</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13">
+        <v>10005</v>
+      </c>
+      <c r="F8" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="13">
+        <v>100051004</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="13">
+        <v>0</v>
+      </c>
+      <c r="L8" s="13"/>
+      <c r="M8" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="N8" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="O8" s="21" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" ht="42.75" spans="1:15">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13">
+        <v>100051006</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13">
+        <v>10005</v>
+      </c>
+      <c r="F9" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="13">
+        <v>100051005</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" s="13">
+        <v>0</v>
+      </c>
+      <c r="L9" s="13"/>
+      <c r="M9" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="N9" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="O9" s="21" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="10" ht="42.75" spans="1:15">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16">
+        <v>100052001</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16">
+        <v>10005</v>
+      </c>
+      <c r="F10" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" s="16">
+        <v>100051001</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="I10" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" s="16">
+        <v>0</v>
+      </c>
+      <c r="L10" s="16"/>
+      <c r="M10" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="N10" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="O10" s="23" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="11" ht="42.75" spans="1:15">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16">
+        <v>100052002</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16">
+        <v>10005</v>
+      </c>
+      <c r="F11" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" s="16">
+        <v>100051001</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="I11" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11" s="16">
+        <v>0</v>
+      </c>
+      <c r="L11" s="16"/>
+      <c r="M11" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="N11" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="O11" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="12" ht="42.75" spans="1:15">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16">
+        <v>100052003</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16">
+        <v>10005</v>
+      </c>
+      <c r="F12" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" s="16">
+        <v>100051001</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="I12" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="J12" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="K12" s="16">
+        <v>0</v>
+      </c>
+      <c r="L12" s="16"/>
+      <c r="M12" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="N12" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="O12" s="23" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="13" ht="42.75" spans="1:15">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16">
+        <v>100052004</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16">
+        <v>10005</v>
+      </c>
+      <c r="F13" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" s="16">
+        <v>100051001</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="I13" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="J13" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="K13" s="16">
+        <v>0</v>
+      </c>
+      <c r="L13" s="16"/>
+      <c r="M13" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="N13" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="O13" s="23" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="14" ht="42.75" spans="1:15">
+      <c r="A14" s="16"/>
+      <c r="B14" s="16">
+        <v>100052005</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16">
+        <v>10005</v>
+      </c>
+      <c r="F14" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" s="16">
+        <v>100051001</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="I14" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="J14" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="K14" s="16">
+        <v>0</v>
+      </c>
+      <c r="L14" s="16"/>
+      <c r="M14" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="N14" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="O14" s="23" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="15" ht="42.75" spans="1:15">
+      <c r="A15" s="16"/>
+      <c r="B15" s="16">
+        <v>100052006</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16">
+        <v>10005</v>
+      </c>
+      <c r="F15" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" s="16">
+        <v>100051001</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="I15" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="J15" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="K15" s="16">
+        <v>0</v>
+      </c>
+      <c r="L15" s="16"/>
+      <c r="M15" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="N15" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="O15" s="23" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="16" s="3" customFormat="1" ht="42.75" spans="1:15">
+      <c r="A16" s="19"/>
+      <c r="B16" s="19">
+        <v>100053002</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19">
+        <v>10005</v>
+      </c>
+      <c r="F16" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" s="19">
+        <v>0</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="J16" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="K16" s="19">
+        <v>20002</v>
+      </c>
+      <c r="L16" s="19"/>
+      <c r="M16" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+    </row>
+    <row r="17" ht="42.75" spans="1:15">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7">
+        <v>100054001</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7">
+        <v>10005</v>
+      </c>
+      <c r="F17" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" s="7">
+        <v>0</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K17" s="7">
+        <v>0</v>
+      </c>
+      <c r="L17" s="7"/>
+      <c r="M17" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="N17" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="O17" s="12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="18" ht="42.75" spans="1:15">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7">
+        <v>100054002</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7">
+        <v>10005</v>
+      </c>
+      <c r="F18" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" s="7">
+        <v>0</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K18" s="7">
+        <v>0</v>
+      </c>
+      <c r="L18" s="7"/>
+      <c r="M18" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="N18" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="O18" s="12" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="19" ht="42.75" spans="1:15">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7">
+        <v>100054003</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7">
+        <v>10005</v>
+      </c>
+      <c r="F19" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" s="7">
+        <v>0</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K19" s="7">
+        <v>0</v>
+      </c>
+      <c r="L19" s="7"/>
+      <c r="M19" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="N19" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="O19" s="12" t="s">
+        <v>222</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="10.375"/>
+    <col min="3" max="3" width="18.75" customWidth="1"/>
+    <col min="4" max="4" width="15.625" customWidth="1"/>
+    <col min="5" max="6" width="25.25" customWidth="1"/>
+    <col min="7" max="7" width="14.875" customWidth="1"/>
+    <col min="8" max="8" width="26" customWidth="1"/>
+    <col min="9" max="9" width="19.5" customWidth="1"/>
+    <col min="10" max="10" width="18.625" customWidth="1"/>
+    <col min="12" max="12" width="22.75" customWidth="1"/>
+    <col min="13" max="13" width="28.75" customWidth="1"/>
+    <col min="14" max="14" width="31.625" customWidth="1"/>
+    <col min="15" max="15" width="18.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" ht="28.5" spans="1:15">
+      <c r="A4" s="3"/>
+      <c r="B4" s="5">
+        <v>200022001</v>
+      </c>
       <c r="C4" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4">
+        <v>127</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5">
+        <v>20002</v>
+      </c>
+      <c r="F4" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4" s="5">
+        <v>10002</v>
+      </c>
+      <c r="L4" s="5"/>
+      <c r="M4" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+    </row>
+    <row r="5" ht="28.5" spans="1:15">
+      <c r="A5" s="3"/>
+      <c r="B5" s="5">
+        <v>200022002</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5">
+        <v>20002</v>
+      </c>
+      <c r="F5" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" s="5">
+        <v>10002</v>
+      </c>
+      <c r="L5" s="5"/>
+      <c r="M5" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+    </row>
+    <row r="6" ht="28.5" spans="1:15">
+      <c r="A6" s="3"/>
+      <c r="B6" s="5">
+        <v>200022003</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5">
+        <v>20002</v>
+      </c>
+      <c r="F6" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6" s="5">
+        <v>10002</v>
+      </c>
+      <c r="L6" s="5"/>
+      <c r="M6" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+    </row>
+    <row r="7" ht="28.5" spans="1:15">
+      <c r="A7" s="3"/>
+      <c r="B7" s="5">
+        <v>200022004</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5">
+        <v>20002</v>
+      </c>
+      <c r="F7" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="K7" s="5">
+        <v>10002</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+    </row>
+    <row r="8" ht="28.5" spans="1:15">
+      <c r="A8" s="3"/>
+      <c r="B8" s="5">
+        <v>200022005</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5">
+        <v>20002</v>
+      </c>
+      <c r="F8" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="K8" s="5">
         <v>10005</v>
       </c>
-      <c r="F4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K4" s="4">
-        <v>0</v>
-      </c>
-      <c r="L4" s="4"/>
-      <c r="M4" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="N4" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="O4" s="13" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="96" customHeight="1" spans="1:15">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4">
-        <v>100051002</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4">
-        <v>10005</v>
-      </c>
-      <c r="F5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4">
-        <v>100051001</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K5" s="4">
-        <v>0</v>
-      </c>
-      <c r="L5" s="4"/>
-      <c r="M5" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="N5" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="O5" s="13" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="96" customHeight="1" spans="1:15">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4">
-        <v>100051003</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4">
-        <v>10005</v>
-      </c>
-      <c r="F6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4">
-        <v>100051002</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K6" s="4">
-        <v>0</v>
-      </c>
-      <c r="L6" s="4"/>
-      <c r="M6" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="N6" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="O6" s="13" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="96" customHeight="1" spans="1:15">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4">
-        <v>100051004</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4">
-        <v>10005</v>
-      </c>
-      <c r="F7" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4">
-        <v>100051003</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K7" s="4">
-        <v>0</v>
-      </c>
-      <c r="L7" s="4"/>
-      <c r="M7" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="N7" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="O7" s="13" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="81" customHeight="1" spans="1:15">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4">
-        <v>100051005</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4">
-        <v>10005</v>
-      </c>
-      <c r="F8" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" s="4">
-        <v>100051004</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K8" s="4">
-        <v>0</v>
-      </c>
-      <c r="L8" s="4"/>
-      <c r="M8" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="N8" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="O8" s="13" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="9" ht="42.75" spans="1:15">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4">
-        <v>100051006</v>
+      <c r="L8" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+    </row>
+    <row r="9" ht="28.5" spans="1:15">
+      <c r="A9" s="3"/>
+      <c r="B9" s="5">
+        <v>200022006</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4">
-        <v>10005</v>
-      </c>
-      <c r="F9" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G9" s="4">
-        <v>100051005</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K9" s="4">
-        <v>0</v>
-      </c>
-      <c r="L9" s="4"/>
-      <c r="M9" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="N9" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="O9" s="13" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="10" ht="42.75" spans="1:15">
-      <c r="A10" s="7"/>
+        <v>187</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5">
+        <v>20002</v>
+      </c>
+      <c r="F9" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9" s="5">
+        <v>10002</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+    </row>
+    <row r="10" ht="28.5" spans="2:15">
       <c r="B10" s="7">
-        <v>100052001</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>207</v>
+        <v>200023001</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>111</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7">
-        <v>10005</v>
+        <v>20002</v>
       </c>
       <c r="F10" s="7" t="b">
         <v>1</v>
       </c>
       <c r="G10" s="7">
-        <v>100051001</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>49</v>
+        <v>0</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="K10" s="7">
         <v>0</v>
       </c>
       <c r="L10" s="7"/>
-      <c r="M10" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="N10" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="O10" s="15" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="11" ht="42.75" spans="1:15">
-      <c r="A11" s="7"/>
+      <c r="M10" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="11" ht="28.5" spans="2:15">
       <c r="B11" s="7">
-        <v>100052002</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>210</v>
+        <v>200023002</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>114</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7">
-        <v>10005</v>
+        <v>20002</v>
       </c>
       <c r="F11" s="7" t="b">
         <v>1</v>
       </c>
       <c r="G11" s="7">
-        <v>100051001</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="I11" s="14" t="s">
-        <v>49</v>
+        <v>0</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>54</v>
+        <v>115</v>
       </c>
       <c r="K11" s="7">
         <v>0</v>
       </c>
       <c r="L11" s="7"/>
-      <c r="M11" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="N11" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="O11" s="15" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="12" ht="42.75" spans="1:15">
-      <c r="A12" s="7"/>
+      <c r="M11" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="N11" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="O11" s="12" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="12" ht="28.5" spans="2:15">
       <c r="B12" s="7">
-        <v>100052003</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>212</v>
+        <v>200023003</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>117</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7">
-        <v>10005</v>
+        <v>20002</v>
       </c>
       <c r="F12" s="7" t="b">
         <v>1</v>
       </c>
       <c r="G12" s="7">
-        <v>100051001</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="I12" s="14" t="s">
-        <v>49</v>
+        <v>0</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>54</v>
+        <v>118</v>
       </c>
       <c r="K12" s="7">
         <v>0</v>
       </c>
       <c r="L12" s="7"/>
-      <c r="M12" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="N12" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="O12" s="15" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="13" ht="42.75" spans="1:15">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7">
-        <v>100052004</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7">
+      <c r="M12" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="N12" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="O12" s="12" t="s">
+        <v>227</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:O12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="4" max="4" width="14.75" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="25.625" customWidth="1"/>
+    <col min="9" max="9" width="19.125" customWidth="1"/>
+    <col min="10" max="10" width="18.625" customWidth="1"/>
+    <col min="11" max="11" width="10.625" customWidth="1"/>
+    <col min="12" max="12" width="22.875" customWidth="1"/>
+    <col min="13" max="13" width="12.875" customWidth="1"/>
+    <col min="14" max="14" width="19.125" customWidth="1"/>
+    <col min="15" max="15" width="18.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" ht="57" spans="1:15">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5">
+        <v>20003</v>
+      </c>
+      <c r="F4" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4" s="5">
+        <v>10002</v>
+      </c>
+      <c r="L4" s="5"/>
+      <c r="M4" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+    </row>
+    <row r="5" ht="57" spans="1:15">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5">
+        <v>20003</v>
+      </c>
+      <c r="F5" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" s="5">
+        <v>10002</v>
+      </c>
+      <c r="L5" s="5"/>
+      <c r="M5" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+    </row>
+    <row r="6" ht="57" spans="1:15">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5">
+        <v>20003</v>
+      </c>
+      <c r="F6" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6" s="5">
+        <v>10002</v>
+      </c>
+      <c r="L6" s="5"/>
+      <c r="M6" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+    </row>
+    <row r="7" ht="57" spans="1:15">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5">
+        <v>20003</v>
+      </c>
+      <c r="F7" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="K7" s="5">
+        <v>10002</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+    </row>
+    <row r="8" ht="57" spans="1:15">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5">
+        <v>20003</v>
+      </c>
+      <c r="F8" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="K8" s="5">
         <v>10005</v>
       </c>
-      <c r="F13" s="7" t="b">
+      <c r="L8" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+    </row>
+    <row r="9" ht="57" spans="1:15">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5">
+        <v>20003</v>
+      </c>
+      <c r="F9" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="G13" s="7">
-        <v>100051001</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="I13" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="K13" s="7">
-        <v>0</v>
-      </c>
-      <c r="L13" s="7"/>
-      <c r="M13" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="N13" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="O13" s="15" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="14" ht="42.75" spans="1:15">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7">
-        <v>100052005</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7">
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9" s="5">
+        <v>10002</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+    </row>
+    <row r="10" ht="57" spans="1:15">
+      <c r="A10" s="3"/>
+      <c r="B10" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7">
+        <v>20003</v>
+      </c>
+      <c r="F10" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" s="7">
+        <v>0</v>
+      </c>
+      <c r="L10" s="7"/>
+      <c r="M10" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="11" ht="57" spans="2:15">
+      <c r="B11" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7">
+        <v>20003</v>
+      </c>
+      <c r="F11" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K11" s="7">
+        <v>0</v>
+      </c>
+      <c r="L11" s="7"/>
+      <c r="M11" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="N11" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="O11" s="12" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="12" ht="57" spans="2:15">
+      <c r="B12" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7">
+        <v>20003</v>
+      </c>
+      <c r="F12" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K12" s="7">
+        <v>0</v>
+      </c>
+      <c r="L12" s="7"/>
+      <c r="M12" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="N12" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="O12" s="12" t="s">
+        <v>227</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="20.75" customWidth="1"/>
+    <col min="4" max="4" width="16.125" customWidth="1"/>
+    <col min="5" max="5" width="24.375" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="16.5" customWidth="1"/>
+    <col min="8" max="8" width="26.375" customWidth="1"/>
+    <col min="9" max="9" width="19.5" customWidth="1"/>
+    <col min="10" max="10" width="19.75" customWidth="1"/>
+    <col min="12" max="12" width="17.625" customWidth="1"/>
+    <col min="13" max="13" width="28.875" customWidth="1"/>
+    <col min="14" max="14" width="20.25" customWidth="1"/>
+    <col min="15" max="15" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" ht="28.5" spans="1:15">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5">
+        <v>20004</v>
+      </c>
+      <c r="F4" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4" s="5">
+        <v>10002</v>
+      </c>
+      <c r="L4" s="5"/>
+      <c r="M4" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+    </row>
+    <row r="5" ht="28.5" spans="1:15">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5">
+        <v>20004</v>
+      </c>
+      <c r="F5" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" s="5">
+        <v>10002</v>
+      </c>
+      <c r="L5" s="5"/>
+      <c r="M5" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+    </row>
+    <row r="6" ht="28.5" spans="1:15">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5">
+        <v>20004</v>
+      </c>
+      <c r="F6" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6" s="5">
+        <v>10002</v>
+      </c>
+      <c r="L6" s="5"/>
+      <c r="M6" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+    </row>
+    <row r="7" ht="28.5" spans="1:15">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5">
+        <v>20004</v>
+      </c>
+      <c r="F7" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="K7" s="5">
+        <v>10002</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+    </row>
+    <row r="8" ht="28.5" spans="1:15">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5">
+        <v>20004</v>
+      </c>
+      <c r="F8" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="K8" s="5">
         <v>10005</v>
       </c>
-      <c r="F14" s="7" t="b">
+      <c r="L8" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+    </row>
+    <row r="9" ht="28.5" spans="1:15">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5">
+        <v>20004</v>
+      </c>
+      <c r="F9" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="G14" s="7">
-        <v>100051001</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="I14" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="K14" s="7">
-        <v>0</v>
-      </c>
-      <c r="L14" s="7"/>
-      <c r="M14" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="N14" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="O14" s="15" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="15" ht="42.75" spans="1:15">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7">
-        <v>100052006</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7">
-        <v>10005</v>
-      </c>
-      <c r="F15" s="7" t="b">
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9" s="5">
+        <v>10002</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+    </row>
+    <row r="10" ht="42.75" spans="2:15">
+      <c r="B10" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7">
+        <v>20004</v>
+      </c>
+      <c r="F10" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="G15" s="7">
-        <v>100051001</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="I15" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="K15" s="7">
-        <v>0</v>
-      </c>
-      <c r="L15" s="7"/>
-      <c r="M15" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="N15" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="O15" s="15" t="s">
-        <v>219</v>
+      <c r="G10" s="7">
+        <v>0</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" s="7">
+        <v>0</v>
+      </c>
+      <c r="L10" s="7"/>
+      <c r="M10" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="11" ht="42.75" spans="2:15">
+      <c r="B11" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7">
+        <v>20004</v>
+      </c>
+      <c r="F11" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K11" s="7">
+        <v>0</v>
+      </c>
+      <c r="L11" s="7"/>
+      <c r="M11" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="N11" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="O11" s="12" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="12" ht="42.75" spans="2:15">
+      <c r="B12" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7">
+        <v>20004</v>
+      </c>
+      <c r="F12" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K12" s="7">
+        <v>0</v>
+      </c>
+      <c r="L12" s="7"/>
+      <c r="M12" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="N12" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="O12" s="12" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>

--- a/DataConfig/Datas/bubble.xlsx
+++ b/DataConfig/Datas/bubble.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655" activeTab="7"/>
+    <workbookView windowWidth="18345" windowHeight="17655" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="章鱼" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="248">
   <si>
     <t>##var</t>
   </si>
@@ -88,6 +88,9 @@
     <t>menu_id</t>
   </si>
   <si>
+    <t>flavor_tags</t>
+  </si>
+  <si>
     <t>bubble_bg</t>
   </si>
   <si>
@@ -124,6 +127,9 @@
     <t>common.bubbleType</t>
   </si>
   <si>
+    <t>(list#sep=,),food.flavorTag</t>
+  </si>
+  <si>
     <t>string?</t>
   </si>
   <si>
@@ -154,6 +160,9 @@
     <t>下单</t>
   </si>
   <si>
+    <t>气泡类型=模糊订单</t>
+  </si>
+  <si>
     <t>气泡背景图</t>
   </si>
   <si>
@@ -241,19 +250,10 @@
     <t>ZhangyuComment</t>
   </si>
   <si>
-    <t>flavor_tags</t>
-  </si>
-  <si>
     <t>common_bubbleType</t>
   </si>
   <si>
-    <t>(list#sep=,),food.flavorTag</t>
-  </si>
-  <si>
     <t>气泡类型=下单</t>
-  </si>
-  <si>
-    <t>气泡类型=模糊订单</t>
   </si>
   <si>
     <t>现在是营业时间吗</t>
@@ -754,6 +754,12 @@
   </si>
   <si>
     <t>Fernando_comment_omakase</t>
+  </si>
+  <si>
+    <t>炒素炒什锦</t>
+  </si>
+  <si>
+    <t>中和下炒素炒什锦</t>
   </si>
   <si>
     <t>Assets/GameRes/Story/Fernando/normal_guy.yarnproject</t>
@@ -2001,10 +2007,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2016,14 +2022,14 @@
     <col min="6" max="7" width="14" customWidth="1"/>
     <col min="8" max="8" width="19.75" customWidth="1"/>
     <col min="9" max="9" width="18.75" customWidth="1"/>
-    <col min="10" max="10" width="15.875" customWidth="1"/>
-    <col min="11" max="11" width="11.5" customWidth="1"/>
-    <col min="12" max="12" width="37" customWidth="1"/>
-    <col min="13" max="13" width="23.25" customWidth="1"/>
-    <col min="14" max="14" width="18.5" customWidth="1"/>
+    <col min="10" max="10" width="20.3083333333333" customWidth="1"/>
+    <col min="11" max="12" width="11.5" customWidth="1"/>
+    <col min="13" max="13" width="37" customWidth="1"/>
+    <col min="14" max="14" width="23.25" customWidth="1"/>
+    <col min="15" max="15" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2063,101 +2069,110 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="65" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="65" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="L2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" s="65" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="N2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="65" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N3" s="65" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14">
+        <v>36</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" s="65" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15">
       <c r="B4">
         <f>$E4*1000+1</f>
         <v>10001001</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E4">
         <v>10001</v>
@@ -2166,37 +2181,38 @@
         <v>0</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K4" s="7">
         <v>0</v>
       </c>
-      <c r="L4" t="s">
-        <v>41</v>
-      </c>
+      <c r="L4" s="7"/>
       <c r="M4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14">
+        <v>45</v>
+      </c>
+      <c r="O4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15">
       <c r="B5">
         <f>$E5*1000+2</f>
         <v>10001002</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E5">
         <v>10001</v>
@@ -2209,100 +2225,103 @@
         <v>10001001</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I5" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" s="7">
+        <v>0</v>
+      </c>
+      <c r="L5" s="7"/>
+      <c r="M5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" t="s">
         <v>45</v>
       </c>
-      <c r="J5" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="K5" s="7">
-        <v>0</v>
-      </c>
-      <c r="L5" t="s">
-        <v>41</v>
-      </c>
-      <c r="M5" t="s">
-        <v>42</v>
-      </c>
-      <c r="N5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" ht="16.5" spans="2:12">
+      <c r="O5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" ht="16.5" spans="2:13">
       <c r="B6">
         <f>$E6*1000+3</f>
         <v>10001003</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E6">
         <v>10001</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K6" s="66">
         <v>10002</v>
       </c>
-      <c r="L6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" ht="16.5" spans="2:12">
+      <c r="L6" s="66"/>
+      <c r="M6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" ht="16.5" spans="2:13">
       <c r="B7">
         <f>$E7*1000+4</f>
         <v>10001004</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E7">
         <v>10001</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K7" s="66">
         <v>10002</v>
       </c>
-      <c r="L7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14">
+      <c r="L7" s="66"/>
+      <c r="M7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15">
       <c r="B8">
         <f>$E8*1000+5</f>
         <v>10001005</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E8">
         <v>10001</v>
@@ -2311,37 +2330,38 @@
         <v>1</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K8" s="7">
         <v>0</v>
       </c>
-      <c r="L8" t="s">
-        <v>41</v>
-      </c>
+      <c r="L8" s="7"/>
       <c r="M8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14">
+        <v>45</v>
+      </c>
+      <c r="O8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15">
       <c r="B9">
         <f>$E9*1000+6</f>
         <v>10001006</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E9">
         <v>10001</v>
@@ -2350,37 +2370,38 @@
         <v>1</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K9" s="7">
         <v>0</v>
       </c>
-      <c r="L9" t="s">
-        <v>41</v>
-      </c>
+      <c r="L9" s="7"/>
       <c r="M9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14">
+        <v>45</v>
+      </c>
+      <c r="O9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15">
       <c r="B10">
         <f>$E10*1000+7</f>
         <v>10001007</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E10">
         <v>10001</v>
@@ -2392,25 +2413,26 @@
         <v>0</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K10" s="6">
         <v>0</v>
       </c>
-      <c r="L10" t="s">
-        <v>41</v>
-      </c>
+      <c r="L10" s="6"/>
       <c r="M10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N10" t="s">
-        <v>61</v>
+        <v>45</v>
+      </c>
+      <c r="O10" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2425,7 +2447,7 @@
   <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="L1" sqref="L1:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2481,106 +2503,106 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="L2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="N2" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="8"/>
       <c r="J3" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" ht="28.5" spans="1:15">
@@ -2600,20 +2622,20 @@
       </c>
       <c r="G4" s="43"/>
       <c r="H4" s="43" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I4" s="43" t="s">
         <v>69</v>
       </c>
       <c r="J4" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" s="54" t="s">
         <v>40</v>
-      </c>
-      <c r="K4" s="54" t="s">
-        <v>37</v>
       </c>
       <c r="L4" s="43"/>
       <c r="M4" s="55" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N4" s="56" t="s">
         <v>70</v>
@@ -2641,20 +2663,20 @@
         <v>10002009</v>
       </c>
       <c r="H5" s="46" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I5" s="46" t="s">
         <v>69</v>
       </c>
       <c r="J5" s="46" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K5" s="48">
         <v>0</v>
       </c>
       <c r="L5" s="45"/>
       <c r="M5" s="57" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N5" s="58" t="s">
         <v>70</v>
@@ -2680,20 +2702,20 @@
       </c>
       <c r="G6" s="46"/>
       <c r="H6" s="46" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I6" s="46" t="s">
         <v>69</v>
       </c>
       <c r="J6" s="46" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K6" s="48">
         <v>0</v>
       </c>
       <c r="L6" s="45"/>
       <c r="M6" s="57" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N6" s="58" t="s">
         <v>70</v>
@@ -2719,20 +2741,20 @@
       </c>
       <c r="G7" s="46"/>
       <c r="H7" s="46" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I7" s="46" t="s">
         <v>69</v>
       </c>
       <c r="J7" s="46" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K7" s="48">
         <v>0</v>
       </c>
       <c r="L7" s="45"/>
       <c r="M7" s="57" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N7" s="58" t="s">
         <v>70</v>
@@ -2758,13 +2780,13 @@
       </c>
       <c r="G8" s="46"/>
       <c r="H8" s="46" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I8" s="46" t="s">
         <v>69</v>
       </c>
       <c r="J8" s="46" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K8" s="48">
         <v>0</v>
@@ -2773,7 +2795,7 @@
         <v>79</v>
       </c>
       <c r="M8" s="57" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N8" s="58" t="s">
         <v>70</v>
@@ -2799,22 +2821,22 @@
       </c>
       <c r="G9" s="46"/>
       <c r="H9" s="46" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I9" s="46" t="s">
         <v>69</v>
       </c>
       <c r="J9" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9" s="48" t="s">
         <v>40</v>
-      </c>
-      <c r="K9" s="48" t="s">
-        <v>37</v>
       </c>
       <c r="L9" s="59" t="s">
         <v>82</v>
       </c>
       <c r="M9" s="57" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N9" s="58" t="s">
         <v>70</v>
@@ -2838,20 +2860,20 @@
       </c>
       <c r="G10" s="46"/>
       <c r="H10" s="46" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I10" s="46" t="s">
         <v>69</v>
       </c>
       <c r="J10" s="46" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K10" s="48">
         <v>0</v>
       </c>
       <c r="L10" s="45"/>
       <c r="M10" s="57" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N10" s="58" t="s">
         <v>70</v>
@@ -2873,24 +2895,24 @@
         <v>10002</v>
       </c>
       <c r="F11" s="48" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G11" s="46"/>
       <c r="H11" s="46" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I11" s="46" t="s">
         <v>69</v>
       </c>
       <c r="J11" s="48" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K11" s="48">
         <v>0</v>
       </c>
       <c r="L11" s="45"/>
       <c r="M11" s="57" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N11" s="58" t="s">
         <v>70</v>
@@ -2912,26 +2934,26 @@
         <v>10002</v>
       </c>
       <c r="F12" s="48" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G12" s="47">
         <v>10002015</v>
       </c>
       <c r="H12" s="46" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I12" s="46" t="s">
         <v>69</v>
       </c>
       <c r="J12" s="48" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K12" s="48">
         <v>0</v>
       </c>
       <c r="L12" s="45"/>
       <c r="M12" s="57" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N12" s="58" t="s">
         <v>70</v>
@@ -2953,26 +2975,26 @@
         <v>10002</v>
       </c>
       <c r="F13" s="48" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G13" s="47">
         <v>10002016</v>
       </c>
       <c r="H13" s="46" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I13" s="46" t="s">
         <v>69</v>
       </c>
       <c r="J13" s="48" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K13" s="48">
         <v>0</v>
       </c>
       <c r="L13" s="45"/>
       <c r="M13" s="57" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N13" s="58" t="s">
         <v>70</v>
@@ -2994,26 +3016,26 @@
         <v>10002</v>
       </c>
       <c r="F14" s="48" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G14" s="47">
         <v>10002017</v>
       </c>
       <c r="H14" s="46" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I14" s="46" t="s">
         <v>69</v>
       </c>
       <c r="J14" s="48" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K14" s="48">
         <v>0</v>
       </c>
       <c r="L14" s="45"/>
       <c r="M14" s="57" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N14" s="58" t="s">
         <v>70</v>
@@ -3035,26 +3057,26 @@
         <v>10002</v>
       </c>
       <c r="F15" s="48" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G15" s="47">
         <v>10002018</v>
       </c>
       <c r="H15" s="46" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I15" s="46" t="s">
         <v>69</v>
       </c>
       <c r="J15" s="48" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K15" s="48">
         <v>0</v>
       </c>
       <c r="L15" s="45"/>
       <c r="M15" s="57" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N15" s="58" t="s">
         <v>70</v>
@@ -3076,26 +3098,26 @@
         <v>10002</v>
       </c>
       <c r="F16" s="48" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G16" s="47">
         <v>10002019</v>
       </c>
       <c r="H16" s="46" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I16" s="46" t="s">
         <v>69</v>
       </c>
       <c r="J16" s="48" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K16" s="48">
         <v>0</v>
       </c>
       <c r="L16" s="45"/>
       <c r="M16" s="57" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N16" s="58" t="s">
         <v>70</v>
@@ -3117,26 +3139,26 @@
         <v>10002</v>
       </c>
       <c r="F17" s="48" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G17" s="47">
         <v>10002020</v>
       </c>
       <c r="H17" s="46" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I17" s="46" t="s">
         <v>69</v>
       </c>
       <c r="J17" s="48" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K17" s="48">
         <v>0</v>
       </c>
       <c r="L17" s="45"/>
       <c r="M17" s="57" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N17" s="58" t="s">
         <v>70</v>
@@ -3158,26 +3180,26 @@
         <v>10002</v>
       </c>
       <c r="F18" s="50" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G18" s="50" t="s">
         <v>100</v>
       </c>
       <c r="H18" s="50" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I18" s="50" t="s">
         <v>101</v>
       </c>
       <c r="J18" s="50" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K18" s="50" t="s">
         <v>102</v>
       </c>
       <c r="L18" s="50"/>
       <c r="M18" s="60" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N18" s="60" t="s">
         <v>70</v>
@@ -3197,7 +3219,7 @@
         <v>10002</v>
       </c>
       <c r="F19" s="50" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G19" s="51">
         <v>100021002</v>
@@ -3212,13 +3234,13 @@
         <v>105</v>
       </c>
       <c r="K19" s="61" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="L19" s="61" t="s">
         <v>106</v>
       </c>
       <c r="M19" s="60" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N19" s="60" t="s">
         <v>70</v>
@@ -3238,13 +3260,13 @@
         <v>10002</v>
       </c>
       <c r="F20" s="50" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G20" s="50" t="s">
         <v>108</v>
       </c>
       <c r="H20" s="50" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I20" s="50" t="s">
         <v>69</v>
@@ -3259,7 +3281,7 @@
         <v>79</v>
       </c>
       <c r="M20" s="60" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N20" s="60" t="s">
         <v>70</v>
@@ -3285,20 +3307,20 @@
         <v>0</v>
       </c>
       <c r="H21" s="53" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I21" s="62" t="s">
         <v>112</v>
       </c>
       <c r="J21" s="53" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K21" s="53">
         <v>0</v>
       </c>
       <c r="L21" s="52"/>
       <c r="M21" s="63" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N21" s="64" t="s">
         <v>70</v>
@@ -3326,7 +3348,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="53" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I22" s="62" t="s">
         <v>101</v>
@@ -3339,7 +3361,7 @@
       </c>
       <c r="L22" s="52"/>
       <c r="M22" s="63" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N22" s="64" t="s">
         <v>70</v>
@@ -3367,7 +3389,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="53" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I23" s="62" t="s">
         <v>101</v>
@@ -3380,7 +3402,7 @@
       </c>
       <c r="L23" s="52"/>
       <c r="M23" s="63" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N23" s="64" t="s">
         <v>70</v>
@@ -3455,106 +3477,106 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="L2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="N2" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="8"/>
       <c r="J3" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" ht="57" spans="1:15">
@@ -3580,14 +3602,14 @@
         <v>122</v>
       </c>
       <c r="J4" s="27" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K4" s="27">
         <v>0</v>
       </c>
       <c r="L4" s="27"/>
       <c r="M4" s="27" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N4" s="27" t="s">
         <v>123</v>
@@ -3613,20 +3635,20 @@
       </c>
       <c r="G5" s="29"/>
       <c r="H5" s="29" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I5" s="34" t="s">
         <v>122</v>
       </c>
       <c r="J5" s="29" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K5" s="29">
         <v>0</v>
       </c>
       <c r="L5" s="29"/>
       <c r="M5" s="30" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N5" s="30" t="s">
         <v>123</v>
@@ -3654,20 +3676,20 @@
         <v>0</v>
       </c>
       <c r="H6" s="31" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I6" s="35" t="s">
         <v>122</v>
       </c>
       <c r="J6" s="31" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K6" s="31">
         <v>10002</v>
       </c>
       <c r="L6" s="31"/>
       <c r="M6" s="36" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N6" s="31"/>
       <c r="O6" s="31"/>
@@ -3689,19 +3711,19 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I7" s="26" t="s">
         <v>122</v>
       </c>
       <c r="J7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="M7" s="37" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N7" s="38" t="s">
         <v>123</v>
@@ -3721,7 +3743,7 @@
   <sheetPr/>
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
@@ -3778,106 +3800,106 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="L2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="N2" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="8"/>
       <c r="J3" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" ht="28.5" spans="1:15">
@@ -3900,17 +3922,17 @@
         <v>121</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="J4" s="27" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K4" s="27">
         <v>0</v>
       </c>
       <c r="L4" s="27"/>
       <c r="M4" s="27" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N4" s="27" t="s">
         <v>123</v>
@@ -3944,14 +3966,14 @@
         <v>131</v>
       </c>
       <c r="J5" s="27" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K5" s="27">
         <v>0</v>
       </c>
       <c r="L5" s="27"/>
       <c r="M5" s="27" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N5" s="27" t="s">
         <v>123</v>
@@ -3985,14 +4007,14 @@
         <v>135</v>
       </c>
       <c r="J6" s="27" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K6" s="27">
         <v>0</v>
       </c>
       <c r="L6" s="27"/>
       <c r="M6" s="27" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N6" s="27" t="s">
         <v>123</v>
@@ -4026,14 +4048,14 @@
         <v>139</v>
       </c>
       <c r="J7" s="27" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K7" s="27">
         <v>0</v>
       </c>
       <c r="L7" s="27"/>
       <c r="M7" s="27" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N7" s="27" t="s">
         <v>123</v>
@@ -4067,14 +4089,14 @@
         <v>142</v>
       </c>
       <c r="J8" s="27" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K8" s="27">
         <v>0</v>
       </c>
       <c r="L8" s="27"/>
       <c r="M8" s="27" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N8" s="27" t="s">
         <v>123</v>
@@ -4108,14 +4130,14 @@
         <v>145</v>
       </c>
       <c r="J9" s="27" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K9" s="27">
         <v>0</v>
       </c>
       <c r="L9" s="27"/>
       <c r="M9" s="27" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N9" s="27" t="s">
         <v>123</v>
@@ -4149,14 +4171,14 @@
         <v>148</v>
       </c>
       <c r="J10" s="28" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K10" s="28">
         <v>0</v>
       </c>
       <c r="L10" s="28"/>
       <c r="M10" s="27" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N10" s="27" t="s">
         <v>123</v>
@@ -4190,14 +4212,14 @@
         <v>151</v>
       </c>
       <c r="J11" s="28" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K11" s="28">
         <v>0</v>
       </c>
       <c r="L11" s="28"/>
       <c r="M11" s="27" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N11" s="27" t="s">
         <v>123</v>
@@ -4231,14 +4253,14 @@
         <v>154</v>
       </c>
       <c r="J12" s="28" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K12" s="28">
         <v>0</v>
       </c>
       <c r="L12" s="28"/>
       <c r="M12" s="27" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N12" s="27" t="s">
         <v>123</v>
@@ -4272,14 +4294,14 @@
         <v>157</v>
       </c>
       <c r="J13" s="28" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K13" s="28">
         <v>0</v>
       </c>
       <c r="L13" s="28"/>
       <c r="M13" s="27" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N13" s="27" t="s">
         <v>123</v>
@@ -4305,20 +4327,20 @@
       </c>
       <c r="G14" s="29"/>
       <c r="H14" s="29" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I14" s="34" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="J14" s="29" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K14" s="29">
         <v>0</v>
       </c>
       <c r="L14" s="29"/>
       <c r="M14" s="30" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N14" s="30" t="s">
         <v>123</v>
@@ -4346,20 +4368,20 @@
         <v>20001002</v>
       </c>
       <c r="H15" s="29" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I15" s="34" t="s">
         <v>131</v>
       </c>
       <c r="J15" s="29" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K15" s="29">
         <v>0</v>
       </c>
       <c r="L15" s="29"/>
       <c r="M15" s="30" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N15" s="30" t="s">
         <v>123</v>
@@ -4387,20 +4409,20 @@
         <v>20001003</v>
       </c>
       <c r="H16" s="29" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I16" s="34" t="s">
         <v>135</v>
       </c>
       <c r="J16" s="29" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K16" s="29">
         <v>0</v>
       </c>
       <c r="L16" s="29"/>
       <c r="M16" s="30" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N16" s="30" t="s">
         <v>123</v>
@@ -4434,14 +4456,14 @@
         <v>139</v>
       </c>
       <c r="J17" s="29" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K17" s="29">
         <v>0</v>
       </c>
       <c r="L17" s="29"/>
       <c r="M17" s="30" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N17" s="30" t="s">
         <v>123</v>
@@ -4475,14 +4497,14 @@
         <v>139</v>
       </c>
       <c r="J18" s="29" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K18" s="29">
         <v>0</v>
       </c>
       <c r="L18" s="29"/>
       <c r="M18" s="30" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N18" s="30" t="s">
         <v>123</v>
@@ -4510,20 +4532,20 @@
         <v>20001005</v>
       </c>
       <c r="H19" s="29" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I19" s="34" t="s">
         <v>142</v>
       </c>
       <c r="J19" s="29" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K19" s="29">
         <v>0</v>
       </c>
       <c r="L19" s="29"/>
       <c r="M19" s="30" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N19" s="30" t="s">
         <v>123</v>
@@ -4551,20 +4573,20 @@
         <v>20001006</v>
       </c>
       <c r="H20" s="29" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I20" s="34" t="s">
         <v>142</v>
       </c>
       <c r="J20" s="29" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K20" s="29">
         <v>0</v>
       </c>
       <c r="L20" s="29"/>
       <c r="M20" s="30" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N20" s="30" t="s">
         <v>123</v>
@@ -4592,20 +4614,20 @@
         <v>20001006</v>
       </c>
       <c r="H21" s="29" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I21" s="34" t="s">
         <v>145</v>
       </c>
       <c r="J21" s="29" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K21" s="29">
         <v>0</v>
       </c>
       <c r="L21" s="29"/>
       <c r="M21" s="30" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N21" s="30" t="s">
         <v>123</v>
@@ -4633,20 +4655,20 @@
         <v>20001007</v>
       </c>
       <c r="H22" s="29" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I22" s="34" t="s">
         <v>148</v>
       </c>
       <c r="J22" s="29" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K22" s="29">
         <v>0</v>
       </c>
       <c r="L22" s="29"/>
       <c r="M22" s="30" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N22" s="30" t="s">
         <v>123</v>
@@ -4674,20 +4696,20 @@
         <v>20001008</v>
       </c>
       <c r="H23" s="29" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I23" s="34" t="s">
         <v>151</v>
       </c>
       <c r="J23" s="29" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K23" s="29">
         <v>0</v>
       </c>
       <c r="L23" s="29"/>
       <c r="M23" s="30" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N23" s="30" t="s">
         <v>123</v>
@@ -4719,14 +4741,14 @@
         <v>154</v>
       </c>
       <c r="J24" s="29" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K24" s="29">
         <v>0</v>
       </c>
       <c r="L24" s="29"/>
       <c r="M24" s="30" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N24" s="30" t="s">
         <v>123</v>
@@ -4754,20 +4776,20 @@
         <v>0</v>
       </c>
       <c r="H25" s="31" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I25" s="35" t="s">
         <v>179</v>
       </c>
       <c r="J25" s="31" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K25" s="31">
         <v>10002</v>
       </c>
       <c r="L25" s="31"/>
       <c r="M25" s="36" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N25" s="31"/>
       <c r="O25" s="31"/>
@@ -4791,20 +4813,20 @@
         <v>0</v>
       </c>
       <c r="H26" s="31" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I26" s="35" t="s">
         <v>179</v>
       </c>
       <c r="J26" s="31" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K26" s="31">
         <v>10002</v>
       </c>
       <c r="L26" s="31"/>
       <c r="M26" s="36" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N26" s="31"/>
       <c r="O26" s="31"/>
@@ -4828,20 +4850,20 @@
         <v>0</v>
       </c>
       <c r="H27" s="31" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I27" s="35" t="s">
         <v>179</v>
       </c>
       <c r="J27" s="31" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K27" s="31">
         <v>10002</v>
       </c>
       <c r="L27" s="31"/>
       <c r="M27" s="36" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N27" s="31"/>
       <c r="O27" s="31"/>
@@ -4865,7 +4887,7 @@
         <v>0</v>
       </c>
       <c r="H28" s="31" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I28" s="35" t="s">
         <v>183</v>
@@ -4880,7 +4902,7 @@
         <v>184</v>
       </c>
       <c r="M28" s="36" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N28" s="31"/>
       <c r="O28" s="31"/>
@@ -4904,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="31" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I29" s="35" t="s">
         <v>183</v>
@@ -4919,7 +4941,7 @@
         <v>186</v>
       </c>
       <c r="M29" s="36" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N29" s="31"/>
       <c r="O29" s="31"/>
@@ -4943,7 +4965,7 @@
         <v>0</v>
       </c>
       <c r="H30" s="31" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I30" s="35" t="s">
         <v>183</v>
@@ -4958,7 +4980,7 @@
         <v>188</v>
       </c>
       <c r="M30" s="36" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N30" s="31"/>
       <c r="O30" s="31"/>
@@ -4980,19 +5002,19 @@
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I31" s="26" t="s">
         <v>112</v>
       </c>
       <c r="J31" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K31">
         <v>0</v>
       </c>
       <c r="M31" s="37" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N31" s="38" t="s">
         <v>123</v>
@@ -5018,7 +5040,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I32" s="26" t="s">
         <v>189</v>
@@ -5030,7 +5052,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="37" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N32" s="38" t="s">
         <v>123</v>
@@ -5056,7 +5078,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I33" s="26" t="s">
         <v>189</v>
@@ -5068,7 +5090,7 @@
         <v>0</v>
       </c>
       <c r="M33" s="37" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N33" s="38" t="s">
         <v>123</v>
@@ -5104,7 +5126,7 @@
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5160,106 +5182,106 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="L2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="N2" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="8"/>
       <c r="J3" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" s="7" customFormat="1" ht="96" customHeight="1" spans="1:15">
@@ -5282,17 +5304,17 @@
         <v>193</v>
       </c>
       <c r="I4" s="20" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K4" s="13">
         <v>0</v>
       </c>
       <c r="L4" s="13"/>
       <c r="M4" s="21" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N4" s="21" t="s">
         <v>194</v>
@@ -5326,14 +5348,14 @@
         <v>197</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K5" s="13">
         <v>0</v>
       </c>
       <c r="L5" s="13"/>
       <c r="M5" s="21" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N5" s="21" t="s">
         <v>194</v>
@@ -5364,17 +5386,17 @@
         <v>134</v>
       </c>
       <c r="I6" s="20" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K6" s="13">
         <v>0</v>
       </c>
       <c r="L6" s="13"/>
       <c r="M6" s="21" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N6" s="21" t="s">
         <v>194</v>
@@ -5405,17 +5427,17 @@
         <v>193</v>
       </c>
       <c r="I7" s="20" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K7" s="13">
         <v>0</v>
       </c>
       <c r="L7" s="13"/>
       <c r="M7" s="21" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N7" s="21" t="s">
         <v>194</v>
@@ -5446,17 +5468,17 @@
         <v>134</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K8" s="13">
         <v>0</v>
       </c>
       <c r="L8" s="13"/>
       <c r="M8" s="21" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N8" s="21" t="s">
         <v>194</v>
@@ -5487,17 +5509,17 @@
         <v>134</v>
       </c>
       <c r="I9" s="20" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K9" s="13">
         <v>0</v>
       </c>
       <c r="L9" s="13"/>
       <c r="M9" s="21" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N9" s="21" t="s">
         <v>194</v>
@@ -5528,17 +5550,17 @@
         <v>208</v>
       </c>
       <c r="I10" s="22" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K10" s="16">
         <v>0</v>
       </c>
       <c r="L10" s="16"/>
       <c r="M10" s="23" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N10" s="23" t="s">
         <v>194</v>
@@ -5569,17 +5591,17 @@
         <v>208</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="J11" s="16" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K11" s="16">
         <v>0</v>
       </c>
       <c r="L11" s="16"/>
       <c r="M11" s="23" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N11" s="23" t="s">
         <v>194</v>
@@ -5610,17 +5632,17 @@
         <v>208</v>
       </c>
       <c r="I12" s="22" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="J12" s="16" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K12" s="16">
         <v>0</v>
       </c>
       <c r="L12" s="16"/>
       <c r="M12" s="23" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N12" s="23" t="s">
         <v>194</v>
@@ -5651,17 +5673,17 @@
         <v>208</v>
       </c>
       <c r="I13" s="22" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="J13" s="16" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K13" s="16">
         <v>0</v>
       </c>
       <c r="L13" s="16"/>
       <c r="M13" s="23" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N13" s="23" t="s">
         <v>194</v>
@@ -5692,17 +5714,17 @@
         <v>208</v>
       </c>
       <c r="I14" s="22" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="J14" s="16" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K14" s="16">
         <v>0</v>
       </c>
       <c r="L14" s="16"/>
       <c r="M14" s="23" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N14" s="23" t="s">
         <v>194</v>
@@ -5733,17 +5755,17 @@
         <v>208</v>
       </c>
       <c r="I15" s="22" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="J15" s="16" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K15" s="16">
         <v>0</v>
       </c>
       <c r="L15" s="16"/>
       <c r="M15" s="23" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N15" s="23" t="s">
         <v>194</v>
@@ -5771,20 +5793,20 @@
         <v>0</v>
       </c>
       <c r="H16" s="19" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I16" s="24" t="s">
         <v>179</v>
       </c>
       <c r="J16" s="19" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K16" s="19">
         <v>20002</v>
       </c>
       <c r="L16" s="19"/>
       <c r="M16" s="25" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N16" s="19"/>
       <c r="O16" s="19"/>
@@ -5808,20 +5830,20 @@
         <v>0</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>112</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K17" s="7">
         <v>0</v>
       </c>
       <c r="L17" s="7"/>
       <c r="M17" s="11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N17" s="12" t="s">
         <v>194</v>
@@ -5849,7 +5871,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>112</v>
@@ -5862,7 +5884,7 @@
       </c>
       <c r="L18" s="7"/>
       <c r="M18" s="11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N18" s="12" t="s">
         <v>194</v>
@@ -5890,7 +5912,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>112</v>
@@ -5903,7 +5925,7 @@
       </c>
       <c r="L19" s="7"/>
       <c r="M19" s="11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N19" s="12" t="s">
         <v>194</v>
@@ -5923,21 +5945,22 @@
   <sheetPr/>
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="10.375"/>
     <col min="3" max="3" width="18.75" customWidth="1"/>
-    <col min="4" max="4" width="15.625" customWidth="1"/>
+    <col min="4" max="4" width="8" customWidth="1"/>
     <col min="5" max="6" width="25.25" customWidth="1"/>
     <col min="7" max="7" width="14.875" customWidth="1"/>
     <col min="8" max="8" width="26" customWidth="1"/>
     <col min="9" max="9" width="19.5" customWidth="1"/>
-    <col min="10" max="10" width="18.625" customWidth="1"/>
-    <col min="12" max="12" width="22.75" customWidth="1"/>
+    <col min="10" max="10" width="21.125" customWidth="1"/>
+    <col min="11" max="11" width="14.75" customWidth="1"/>
+    <col min="12" max="12" width="24.625" customWidth="1"/>
     <col min="13" max="13" width="28.75" customWidth="1"/>
     <col min="14" max="14" width="31.625" customWidth="1"/>
     <col min="15" max="15" width="18.5" customWidth="1"/>
@@ -5978,106 +6001,106 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="L2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="N2" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="8"/>
       <c r="J3" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" ht="28.5" spans="1:15">
@@ -6099,20 +6122,20 @@
         <v>0</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>112</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K4" s="5">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="L4" s="5"/>
       <c r="M4" s="10" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
@@ -6136,20 +6159,20 @@
         <v>0</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>112</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K5" s="5">
-        <v>10002</v>
+        <v>20002</v>
       </c>
       <c r="L5" s="5"/>
       <c r="M5" s="10" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
@@ -6160,7 +6183,7 @@
         <v>200022003</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>181</v>
+        <v>223</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5">
@@ -6173,20 +6196,20 @@
         <v>0</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>112</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K6" s="5">
-        <v>10002</v>
+        <v>10003</v>
       </c>
       <c r="L6" s="5"/>
       <c r="M6" s="10" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
@@ -6210,7 +6233,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>112</v>
@@ -6219,13 +6242,13 @@
         <v>109</v>
       </c>
       <c r="K7" s="5">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="L7" s="5" t="s">
         <v>184</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
@@ -6249,7 +6272,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>112</v>
@@ -6258,13 +6281,13 @@
         <v>109</v>
       </c>
       <c r="K8" s="5">
-        <v>10005</v>
+        <v>20002</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>186</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
@@ -6275,7 +6298,7 @@
         <v>200022006</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>187</v>
+        <v>224</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5">
@@ -6288,7 +6311,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>112</v>
@@ -6297,13 +6320,13 @@
         <v>105</v>
       </c>
       <c r="K9" s="5">
-        <v>10002</v>
+        <v>10003</v>
       </c>
       <c r="L9" s="5" t="s">
         <v>188</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
@@ -6326,26 +6349,26 @@
         <v>0</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>112</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K10" s="7">
         <v>0</v>
       </c>
       <c r="L10" s="7"/>
       <c r="M10" s="11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N10" s="12" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="O10" s="12" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" ht="28.5" spans="2:15">
@@ -6366,7 +6389,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>112</v>
@@ -6379,13 +6402,13 @@
       </c>
       <c r="L11" s="7"/>
       <c r="M11" s="11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N11" s="12" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="O11" s="12" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" ht="28.5" spans="2:15">
@@ -6406,7 +6429,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>112</v>
@@ -6419,13 +6442,13 @@
       </c>
       <c r="L12" s="7"/>
       <c r="M12" s="11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N12" s="12" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O12" s="12" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -6439,8 +6462,8 @@
   <sheetPr/>
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:O12"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6495,112 +6518,112 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="L2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="N2" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="8"/>
       <c r="J3" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" ht="57" spans="1:15">
       <c r="A4" s="3"/>
       <c r="B4" s="4" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>127</v>
@@ -6616,20 +6639,20 @@
         <v>0</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>112</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K4" s="5">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="L4" s="5"/>
       <c r="M4" s="10" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
@@ -6637,7 +6660,7 @@
     <row r="5" ht="57" spans="1:15">
       <c r="A5" s="3"/>
       <c r="B5" s="4" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>180</v>
@@ -6653,20 +6676,20 @@
         <v>0</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>112</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K5" s="5">
-        <v>10002</v>
+        <v>20002</v>
       </c>
       <c r="L5" s="5"/>
       <c r="M5" s="10" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
@@ -6674,7 +6697,7 @@
     <row r="6" ht="57" spans="1:15">
       <c r="A6" s="3"/>
       <c r="B6" s="4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>181</v>
@@ -6690,20 +6713,20 @@
         <v>0</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>112</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K6" s="5">
-        <v>10002</v>
+        <v>10003</v>
       </c>
       <c r="L6" s="5"/>
       <c r="M6" s="10" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
@@ -6711,7 +6734,7 @@
     <row r="7" ht="57" spans="1:15">
       <c r="A7" s="3"/>
       <c r="B7" s="4" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>182</v>
@@ -6727,7 +6750,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>112</v>
@@ -6736,13 +6759,13 @@
         <v>109</v>
       </c>
       <c r="K7" s="5">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="L7" s="5" t="s">
         <v>184</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
@@ -6750,7 +6773,7 @@
     <row r="8" ht="57" spans="1:15">
       <c r="A8" s="3"/>
       <c r="B8" s="4" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>185</v>
@@ -6766,7 +6789,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>112</v>
@@ -6775,13 +6798,13 @@
         <v>109</v>
       </c>
       <c r="K8" s="5">
-        <v>10005</v>
+        <v>20002</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>186</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
@@ -6789,7 +6812,7 @@
     <row r="9" ht="57" spans="1:15">
       <c r="A9" s="3"/>
       <c r="B9" s="4" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>187</v>
@@ -6805,7 +6828,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>112</v>
@@ -6814,13 +6837,13 @@
         <v>105</v>
       </c>
       <c r="K9" s="5">
-        <v>10002</v>
+        <v>10003</v>
       </c>
       <c r="L9" s="5" t="s">
         <v>188</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
@@ -6828,7 +6851,7 @@
     <row r="10" ht="57" spans="1:15">
       <c r="A10" s="3"/>
       <c r="B10" s="6" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>111</v>
@@ -6844,31 +6867,31 @@
         <v>0</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>112</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K10" s="7">
         <v>0</v>
       </c>
       <c r="L10" s="7"/>
       <c r="M10" s="11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N10" s="12" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="O10" s="12" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" ht="57" spans="2:15">
       <c r="B11" s="6" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>114</v>
@@ -6884,7 +6907,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>112</v>
@@ -6897,18 +6920,18 @@
       </c>
       <c r="L11" s="7"/>
       <c r="M11" s="11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N11" s="12" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="O11" s="12" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" ht="57" spans="2:15">
       <c r="B12" s="6" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>117</v>
@@ -6924,7 +6947,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>112</v>
@@ -6937,13 +6960,13 @@
       </c>
       <c r="L12" s="7"/>
       <c r="M12" s="11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N12" s="12" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O12" s="12" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -6957,8 +6980,8 @@
   <sheetPr/>
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -7013,112 +7036,112 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="L2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="N2" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="8"/>
       <c r="J3" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" ht="28.5" spans="1:15">
       <c r="A4" s="3"/>
       <c r="B4" s="4" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>127</v>
@@ -7134,20 +7157,20 @@
         <v>0</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>112</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K4" s="5">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="L4" s="5"/>
       <c r="M4" s="10" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
@@ -7155,7 +7178,7 @@
     <row r="5" ht="28.5" spans="1:15">
       <c r="A5" s="3"/>
       <c r="B5" s="4" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>180</v>
@@ -7171,20 +7194,20 @@
         <v>0</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>112</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K5" s="5">
-        <v>10002</v>
+        <v>20002</v>
       </c>
       <c r="L5" s="5"/>
       <c r="M5" s="10" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
@@ -7192,7 +7215,7 @@
     <row r="6" ht="28.5" spans="1:15">
       <c r="A6" s="3"/>
       <c r="B6" s="4" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>181</v>
@@ -7208,20 +7231,20 @@
         <v>0</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>112</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K6" s="5">
-        <v>10002</v>
+        <v>10003</v>
       </c>
       <c r="L6" s="5"/>
       <c r="M6" s="10" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
@@ -7229,7 +7252,7 @@
     <row r="7" ht="28.5" spans="1:15">
       <c r="A7" s="3"/>
       <c r="B7" s="4" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>182</v>
@@ -7245,7 +7268,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>112</v>
@@ -7254,13 +7277,13 @@
         <v>109</v>
       </c>
       <c r="K7" s="5">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="L7" s="5" t="s">
         <v>184</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
@@ -7268,7 +7291,7 @@
     <row r="8" ht="28.5" spans="1:15">
       <c r="A8" s="3"/>
       <c r="B8" s="4" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>185</v>
@@ -7284,7 +7307,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>112</v>
@@ -7293,13 +7316,13 @@
         <v>109</v>
       </c>
       <c r="K8" s="5">
-        <v>10005</v>
+        <v>20002</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>186</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
@@ -7307,7 +7330,7 @@
     <row r="9" ht="28.5" spans="1:15">
       <c r="A9" s="3"/>
       <c r="B9" s="4" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>187</v>
@@ -7323,7 +7346,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>112</v>
@@ -7332,20 +7355,20 @@
         <v>105</v>
       </c>
       <c r="K9" s="5">
-        <v>10002</v>
+        <v>10003</v>
       </c>
       <c r="L9" s="5" t="s">
         <v>188</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
     </row>
     <row r="10" ht="42.75" spans="2:15">
       <c r="B10" s="6" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>111</v>
@@ -7361,31 +7384,31 @@
         <v>0</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>112</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K10" s="7">
         <v>0</v>
       </c>
       <c r="L10" s="7"/>
       <c r="M10" s="11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N10" s="12" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="O10" s="12" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" ht="42.75" spans="2:15">
       <c r="B11" s="6" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>114</v>
@@ -7401,7 +7424,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>112</v>
@@ -7414,18 +7437,18 @@
       </c>
       <c r="L11" s="7"/>
       <c r="M11" s="11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N11" s="12" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="O11" s="12" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" ht="42.75" spans="2:15">
       <c r="B12" s="6" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>117</v>
@@ -7441,7 +7464,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>112</v>
@@ -7454,13 +7477,13 @@
       </c>
       <c r="L12" s="7"/>
       <c r="M12" s="11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N12" s="12" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O12" s="12" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>

--- a/DataConfig/Datas/bubble.xlsx
+++ b/DataConfig/Datas/bubble.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18345" windowHeight="17655" activeTab="7"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="章鱼" sheetId="2" r:id="rId1"/>
@@ -190,7 +190,7 @@
     <t>Assets/GameRes/Picture/UI/Dialogue/think_common.png</t>
   </si>
   <si>
-    <t>Assets/GameRes/Story/ZhangyuProject.yarnproject</t>
+    <t>Assets/GameRes/Story/Zhangyu/ZhangyuProject.yarnproject</t>
   </si>
   <si>
     <t>FirstTalk</t>
@@ -2009,8 +2009,8 @@
   <sheetPr/>
   <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2024,8 +2024,8 @@
     <col min="9" max="9" width="18.75" customWidth="1"/>
     <col min="10" max="10" width="20.3083333333333" customWidth="1"/>
     <col min="11" max="12" width="11.5" customWidth="1"/>
-    <col min="13" max="13" width="37" customWidth="1"/>
-    <col min="14" max="14" width="23.25" customWidth="1"/>
+    <col min="13" max="13" width="19.2916666666667" customWidth="1"/>
+    <col min="14" max="14" width="40.625" customWidth="1"/>
     <col min="15" max="15" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5945,8 +5945,8 @@
   <sheetPr/>
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4:K9"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6463,7 +6463,7 @@
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4:K9"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6980,8 +6980,8 @@
   <sheetPr/>
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/DataConfig/Datas/bubble.xlsx
+++ b/DataConfig/Datas/bubble.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="20850" windowHeight="10480"/>
   </bookViews>
   <sheets>
     <sheet name="章鱼" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="294">
   <si>
     <t>##var</t>
   </si>
@@ -250,6 +250,204 @@
     <t>ZhangyuComment</t>
   </si>
   <si>
+    <t>老板？没打烊吧</t>
+  </si>
+  <si>
+    <t>周一</t>
+  </si>
+  <si>
+    <t>0:99999</t>
+  </si>
+  <si>
+    <t>title: Octopus_MainStory_1_FormerVersion</t>
+  </si>
+  <si>
+    <t>再来杯啤酒</t>
+  </si>
+  <si>
+    <t>饭后发言</t>
+  </si>
+  <si>
+    <t>title: Octopus_MainStory_1_FormerVersion_AfterMeal</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>老板我又来了</t>
+    </r>
+  </si>
+  <si>
+    <t>周三</t>
+  </si>
+  <si>
+    <t>title: Octopus_MainStory_2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>真爽</t>
+    </r>
+  </si>
+  <si>
+    <t>title: Octopus_MainStory_2__AfterMeal</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>这周太忙了</t>
+    </r>
+  </si>
+  <si>
+    <t>周日</t>
+  </si>
+  <si>
+    <t>title: Octopus_MainStory_3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>老板做的东西真够味</t>
+    </r>
+  </si>
+  <si>
+    <t>title: Octopus_MainStory_3__AfterMeal1</t>
+  </si>
+  <si>
+    <t>蛋炒饭这种东西……</t>
+  </si>
+  <si>
+    <t>title: Octopus_MainStory_3__AfterMeal2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>外包款终于给我结了</t>
+    </r>
+  </si>
+  <si>
+    <t>title: Octopus_MainStory_4</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全职做外包</t>
+    </r>
+  </si>
+  <si>
+    <t>title: Octopus_MainStory_4__AfterMeal</t>
+  </si>
+  <si>
+    <t>老板，我又来了</t>
+  </si>
+  <si>
+    <t>title: Octopus_MainStory_5</t>
+  </si>
+  <si>
+    <t>终于吃饱了</t>
+  </si>
+  <si>
+    <t>title: Octopus_MainStory_5__AfterMeal</t>
+  </si>
+  <si>
+    <t>发行商终于联系好了</t>
+  </si>
+  <si>
+    <t>title: Octopus_MainStory_6</t>
+  </si>
+  <si>
+    <t>蛋炒饭真好吃</t>
+  </si>
+  <si>
+    <t>title: Octopus_MainStory_6__AfterMeal</t>
+  </si>
+  <si>
+    <t>来份蛋炒饭</t>
+  </si>
+  <si>
+    <t>title: Octopus_MainStory_7</t>
+  </si>
+  <si>
+    <t>就爱蛋炒饭</t>
+  </si>
+  <si>
+    <t>title: Octopus_MainStory_7__AfterMeal</t>
+  </si>
+  <si>
+    <t>title: Octopus_MainStory_8</t>
+  </si>
+  <si>
+    <t>好久没喝了</t>
+  </si>
+  <si>
+    <t>title: Octopus_MainStory_8__AfterMeal</t>
+  </si>
+  <si>
+    <t>title: Octopus_MainStory_9</t>
+  </si>
+  <si>
+    <t>今天先回去了</t>
+  </si>
+  <si>
+    <t>title: Octopus_MainStory_9__AfterMeal</t>
+  </si>
+  <si>
+    <t>体检报告出来了</t>
+  </si>
+  <si>
+    <t>title: Octopus_MainStory_10</t>
+  </si>
+  <si>
+    <t>这份工作可以算我的二次创业了吧</t>
+  </si>
+  <si>
+    <t>title: Octopus_MainStory_10__AfterMeal</t>
+  </si>
+  <si>
+    <t>前面的区域以后再来探索吧</t>
+  </si>
+  <si>
+    <t>title: Octopus_MainStory_11</t>
+  </si>
+  <si>
+    <t>title: Octopus_MainStory_11__AfterMeal</t>
+  </si>
+  <si>
+    <t>title: Octopus_MainStory_12</t>
+  </si>
+  <si>
+    <t>title: Octopus_MainStory_12__AfterMeal</t>
+  </si>
+  <si>
     <t>common_bubbleType</t>
   </si>
   <si>
@@ -260,9 +458,6 @@
   </si>
   <si>
     <t>FALSE</t>
-  </si>
-  <si>
-    <t>0:99999</t>
   </si>
   <si>
     <t>Assets/GameRes/Story/Miao/Miao.yarnproject</t>
@@ -442,9 +637,6 @@
     <t>还能点单吗</t>
   </si>
   <si>
-    <t>周一</t>
-  </si>
-  <si>
     <t>999:9999</t>
   </si>
   <si>
@@ -460,16 +652,10 @@
     <t>young_talk_a</t>
   </si>
   <si>
-    <t>来份蛋炒饭</t>
-  </si>
-  <si>
     <t>young_comment_specify</t>
   </si>
   <si>
     <t>老板晚上好</t>
-  </si>
-  <si>
-    <t>周三</t>
   </si>
   <si>
     <t>101:200</t>
@@ -1530,7 +1716,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyBorder="1" applyAlignment="1"/>
@@ -1683,6 +1869,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2007,18 +2196,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="9.875" customWidth="1"/>
-    <col min="3" max="3" width="23.05" customWidth="1"/>
+    <col min="2" max="2" width="16.175" customWidth="1"/>
+    <col min="3" max="3" width="44.9916666666667" customWidth="1"/>
     <col min="4" max="4" width="12.975" customWidth="1"/>
-    <col min="5" max="5" width="11.25" customWidth="1"/>
+    <col min="5" max="5" width="25.775" customWidth="1"/>
     <col min="6" max="7" width="14" customWidth="1"/>
     <col min="8" max="8" width="19.75" customWidth="1"/>
     <col min="9" max="9" width="18.75" customWidth="1"/>
@@ -2072,7 +2261,7 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="65" t="s">
+      <c r="O1" s="66" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2119,7 +2308,7 @@
       <c r="N2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="65" t="s">
+      <c r="O2" s="66" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2162,7 +2351,7 @@
       <c r="N3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="O3" s="65" t="s">
+      <c r="O3" s="66" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2273,10 +2462,10 @@
       <c r="J6" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="K6" s="66">
+      <c r="K6" s="67">
         <v>10002</v>
       </c>
-      <c r="L6" s="66"/>
+      <c r="L6" s="67"/>
       <c r="M6" t="s">
         <v>44</v>
       </c>
@@ -2307,10 +2496,10 @@
       <c r="J7" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="K7" s="66">
+      <c r="K7" s="67">
         <v>10002</v>
       </c>
-      <c r="L7" s="66"/>
+      <c r="L7" s="67"/>
       <c r="M7" t="s">
         <v>44</v>
       </c>
@@ -2433,6 +2622,956 @@
       </c>
       <c r="O10" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="11" ht="16.5" spans="2:15">
+      <c r="B11">
+        <v>10001008</v>
+      </c>
+      <c r="C11" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11">
+        <v>10001</v>
+      </c>
+      <c r="F11" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" s="67">
+        <v>10002</v>
+      </c>
+      <c r="M11" t="s">
+        <v>44</v>
+      </c>
+      <c r="N11" t="s">
+        <v>45</v>
+      </c>
+      <c r="O11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" ht="16.5" spans="2:15">
+      <c r="B12">
+        <v>10001009</v>
+      </c>
+      <c r="C12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12">
+        <v>10001</v>
+      </c>
+      <c r="F12" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6">
+        <v>10001008</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="K12" s="67">
+        <v>0</v>
+      </c>
+      <c r="M12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N12" t="s">
+        <v>45</v>
+      </c>
+      <c r="O12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" ht="16.5" spans="2:15">
+      <c r="B13">
+        <v>10001010</v>
+      </c>
+      <c r="C13" s="65" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13">
+        <v>10001</v>
+      </c>
+      <c r="F13" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6">
+        <v>10001009</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K13" s="67">
+        <v>10002</v>
+      </c>
+      <c r="M13" t="s">
+        <v>44</v>
+      </c>
+      <c r="N13" t="s">
+        <v>45</v>
+      </c>
+      <c r="O13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" ht="16.5" spans="2:15">
+      <c r="B14">
+        <v>10001011</v>
+      </c>
+      <c r="C14" s="65" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14">
+        <v>10001</v>
+      </c>
+      <c r="F14" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6">
+        <v>10001010</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="K14" s="67">
+        <v>0</v>
+      </c>
+      <c r="M14" t="s">
+        <v>44</v>
+      </c>
+      <c r="N14" t="s">
+        <v>45</v>
+      </c>
+      <c r="O14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" ht="16.5" spans="2:15">
+      <c r="B15">
+        <v>10001012</v>
+      </c>
+      <c r="C15" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15">
+        <v>10001</v>
+      </c>
+      <c r="F15" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" s="6">
+        <v>10001011</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K15" s="67">
+        <v>20001</v>
+      </c>
+      <c r="M15" t="s">
+        <v>44</v>
+      </c>
+      <c r="N15" t="s">
+        <v>45</v>
+      </c>
+      <c r="O15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" ht="16.5" spans="2:15">
+      <c r="B16">
+        <v>10001013</v>
+      </c>
+      <c r="C16" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16">
+        <v>10001</v>
+      </c>
+      <c r="F16" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" s="6">
+        <v>10001012</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="K16" s="67">
+        <v>10002</v>
+      </c>
+      <c r="M16" t="s">
+        <v>44</v>
+      </c>
+      <c r="N16" t="s">
+        <v>45</v>
+      </c>
+      <c r="O16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" ht="16.5" spans="2:15">
+      <c r="B17">
+        <v>10001014</v>
+      </c>
+      <c r="C17" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17">
+        <v>10001</v>
+      </c>
+      <c r="F17" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" s="6">
+        <v>10001013</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="K17" s="67">
+        <v>0</v>
+      </c>
+      <c r="M17" t="s">
+        <v>44</v>
+      </c>
+      <c r="N17" t="s">
+        <v>45</v>
+      </c>
+      <c r="O17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" ht="16.5" spans="2:15">
+      <c r="B18">
+        <v>10001015</v>
+      </c>
+      <c r="C18" s="65" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18">
+        <v>10001</v>
+      </c>
+      <c r="F18" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" s="6">
+        <v>10001014</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K18" s="67">
+        <v>10002</v>
+      </c>
+      <c r="M18" t="s">
+        <v>44</v>
+      </c>
+      <c r="N18" t="s">
+        <v>45</v>
+      </c>
+      <c r="O18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" ht="16.5" spans="2:15">
+      <c r="B19">
+        <v>10001016</v>
+      </c>
+      <c r="C19" s="65" t="s">
+        <v>86</v>
+      </c>
+      <c r="E19">
+        <v>10001</v>
+      </c>
+      <c r="F19" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" s="6">
+        <v>10001015</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="K19" s="67">
+        <v>0</v>
+      </c>
+      <c r="M19" t="s">
+        <v>44</v>
+      </c>
+      <c r="N19" t="s">
+        <v>45</v>
+      </c>
+      <c r="O19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" ht="16.5" spans="2:15">
+      <c r="B20">
+        <v>10001017</v>
+      </c>
+      <c r="C20" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20">
+        <v>10001</v>
+      </c>
+      <c r="F20" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" s="6">
+        <v>10001016</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K20" s="67">
+        <v>10002</v>
+      </c>
+      <c r="M20" t="s">
+        <v>44</v>
+      </c>
+      <c r="N20" t="s">
+        <v>45</v>
+      </c>
+      <c r="O20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" ht="16.5" spans="2:15">
+      <c r="B21">
+        <v>10001018</v>
+      </c>
+      <c r="C21" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21">
+        <v>10001</v>
+      </c>
+      <c r="F21" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" s="6">
+        <v>10001017</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="K21" s="67">
+        <v>0</v>
+      </c>
+      <c r="M21" t="s">
+        <v>44</v>
+      </c>
+      <c r="N21" t="s">
+        <v>45</v>
+      </c>
+      <c r="O21" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" ht="16.5" spans="2:15">
+      <c r="B22">
+        <v>10001019</v>
+      </c>
+      <c r="C22" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22">
+        <v>10001</v>
+      </c>
+      <c r="F22" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" s="6">
+        <v>10001018</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K22" s="67">
+        <v>10002</v>
+      </c>
+      <c r="M22" t="s">
+        <v>44</v>
+      </c>
+      <c r="N22" t="s">
+        <v>45</v>
+      </c>
+      <c r="O22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" ht="16.5" spans="2:15">
+      <c r="B23">
+        <v>10001020</v>
+      </c>
+      <c r="C23" t="s">
+        <v>94</v>
+      </c>
+      <c r="E23">
+        <v>10001</v>
+      </c>
+      <c r="F23" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" s="6">
+        <v>10001019</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="K23" s="67">
+        <v>0</v>
+      </c>
+      <c r="M23" t="s">
+        <v>44</v>
+      </c>
+      <c r="N23" t="s">
+        <v>45</v>
+      </c>
+      <c r="O23" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" ht="16.5" spans="2:15">
+      <c r="B24">
+        <v>10001021</v>
+      </c>
+      <c r="C24" t="s">
+        <v>96</v>
+      </c>
+      <c r="E24">
+        <v>10001</v>
+      </c>
+      <c r="F24" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" s="6">
+        <v>10001020</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K24" s="67">
+        <v>10002</v>
+      </c>
+      <c r="M24" t="s">
+        <v>44</v>
+      </c>
+      <c r="N24" t="s">
+        <v>45</v>
+      </c>
+      <c r="O24" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" ht="16.5" spans="2:15">
+      <c r="B25">
+        <v>10001022</v>
+      </c>
+      <c r="C25" t="s">
+        <v>98</v>
+      </c>
+      <c r="E25">
+        <v>10001</v>
+      </c>
+      <c r="F25" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" s="6">
+        <v>10001021</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="K25" s="67">
+        <v>0</v>
+      </c>
+      <c r="M25" t="s">
+        <v>44</v>
+      </c>
+      <c r="N25" t="s">
+        <v>45</v>
+      </c>
+      <c r="O25" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" ht="16.5" spans="2:15">
+      <c r="B26">
+        <v>10001023</v>
+      </c>
+      <c r="C26" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26">
+        <v>10001</v>
+      </c>
+      <c r="F26" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26" s="6">
+        <v>10001022</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K26" s="67">
+        <v>10002</v>
+      </c>
+      <c r="M26" t="s">
+        <v>44</v>
+      </c>
+      <c r="N26" t="s">
+        <v>45</v>
+      </c>
+      <c r="O26" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" ht="16.5" spans="2:15">
+      <c r="B27">
+        <v>10001024</v>
+      </c>
+      <c r="C27" t="s">
+        <v>101</v>
+      </c>
+      <c r="E27">
+        <v>10001</v>
+      </c>
+      <c r="F27" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G27" s="6">
+        <v>10001023</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="K27" s="67">
+        <v>0</v>
+      </c>
+      <c r="M27" t="s">
+        <v>44</v>
+      </c>
+      <c r="N27" t="s">
+        <v>45</v>
+      </c>
+      <c r="O27" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" ht="16.5" spans="2:15">
+      <c r="B28">
+        <v>10001025</v>
+      </c>
+      <c r="C28" t="s">
+        <v>96</v>
+      </c>
+      <c r="E28">
+        <v>10001</v>
+      </c>
+      <c r="F28" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G28" s="6">
+        <v>10001024</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K28" s="67">
+        <v>10002</v>
+      </c>
+      <c r="M28" t="s">
+        <v>44</v>
+      </c>
+      <c r="N28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O28" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" ht="16.5" spans="2:15">
+      <c r="B29">
+        <v>10001026</v>
+      </c>
+      <c r="C29" t="s">
+        <v>104</v>
+      </c>
+      <c r="E29">
+        <v>10001</v>
+      </c>
+      <c r="F29" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G29" s="6">
+        <v>10001025</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="K29" s="67">
+        <v>0</v>
+      </c>
+      <c r="M29" t="s">
+        <v>44</v>
+      </c>
+      <c r="N29" t="s">
+        <v>45</v>
+      </c>
+      <c r="O29" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" ht="16.5" spans="2:15">
+      <c r="B30">
+        <v>10001027</v>
+      </c>
+      <c r="C30" t="s">
+        <v>106</v>
+      </c>
+      <c r="E30">
+        <v>10001</v>
+      </c>
+      <c r="F30" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G30" s="6">
+        <v>10001026</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K30" s="67">
+        <v>10002</v>
+      </c>
+      <c r="M30" t="s">
+        <v>44</v>
+      </c>
+      <c r="N30" t="s">
+        <v>45</v>
+      </c>
+      <c r="O30" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" ht="16.5" spans="2:15">
+      <c r="B31">
+        <v>10001028</v>
+      </c>
+      <c r="C31" t="s">
+        <v>108</v>
+      </c>
+      <c r="E31">
+        <v>10001</v>
+      </c>
+      <c r="F31" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G31" s="6">
+        <v>10001027</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="K31" s="67">
+        <v>0</v>
+      </c>
+      <c r="M31" t="s">
+        <v>44</v>
+      </c>
+      <c r="N31" t="s">
+        <v>45</v>
+      </c>
+      <c r="O31" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" ht="16.5" spans="2:15">
+      <c r="B32">
+        <v>10001029</v>
+      </c>
+      <c r="C32" t="s">
+        <v>110</v>
+      </c>
+      <c r="E32">
+        <v>10001</v>
+      </c>
+      <c r="F32" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G32" s="6">
+        <v>10001028</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K32" s="67">
+        <v>10002</v>
+      </c>
+      <c r="M32" t="s">
+        <v>44</v>
+      </c>
+      <c r="N32" t="s">
+        <v>45</v>
+      </c>
+      <c r="O32" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="33" ht="16.5" spans="2:15">
+      <c r="B33">
+        <v>10001030</v>
+      </c>
+      <c r="C33" t="s">
+        <v>110</v>
+      </c>
+      <c r="E33">
+        <v>10001</v>
+      </c>
+      <c r="F33" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G33" s="6">
+        <v>10001029</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="K33" s="67">
+        <v>0</v>
+      </c>
+      <c r="M33" t="s">
+        <v>44</v>
+      </c>
+      <c r="N33" t="s">
+        <v>45</v>
+      </c>
+      <c r="O33" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34" ht="16.5" spans="2:15">
+      <c r="B34">
+        <v>10001031</v>
+      </c>
+      <c r="C34" t="s">
+        <v>110</v>
+      </c>
+      <c r="E34">
+        <v>10001</v>
+      </c>
+      <c r="F34" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G34" s="6">
+        <v>10001030</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K34" s="67">
+        <v>10002</v>
+      </c>
+      <c r="M34" t="s">
+        <v>44</v>
+      </c>
+      <c r="N34" t="s">
+        <v>45</v>
+      </c>
+      <c r="O34" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35" ht="16.5" spans="2:15">
+      <c r="B35">
+        <v>10001032</v>
+      </c>
+      <c r="C35" t="s">
+        <v>110</v>
+      </c>
+      <c r="E35">
+        <v>10001</v>
+      </c>
+      <c r="F35" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G35" s="6">
+        <v>10001031</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="K35" s="67">
+        <v>0</v>
+      </c>
+      <c r="M35" t="s">
+        <v>44</v>
+      </c>
+      <c r="N35" t="s">
+        <v>45</v>
+      </c>
+      <c r="O35" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2446,11 +3585,11 @@
   <sheetPr/>
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L3"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="D3" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="2" max="2" width="11.5" customWidth="1"/>
     <col min="3" max="3" width="21.375" customWidth="1"/>
@@ -2544,7 +3683,7 @@
         <v>22</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>16</v>
@@ -2590,7 +3729,7 @@
         <v>33</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>66</v>
+        <v>116</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>35</v>
@@ -2605,27 +3744,27 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" ht="28.5" spans="1:15">
+    <row r="4" ht="28" spans="1:15">
       <c r="A4" s="41"/>
       <c r="B4" s="41">
         <v>100021001</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="D4" s="42"/>
       <c r="E4" s="42">
         <v>10002</v>
       </c>
       <c r="F4" s="43" t="s">
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="G4" s="43"/>
       <c r="H4" s="43" t="s">
         <v>41</v>
       </c>
       <c r="I4" s="43" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J4" s="43" t="s">
         <v>43</v>
@@ -2638,26 +3777,26 @@
         <v>44</v>
       </c>
       <c r="N4" s="56" t="s">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="O4" s="41" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" ht="28.5" spans="1:15">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" ht="28" spans="1:15">
       <c r="A5" s="44"/>
       <c r="B5" s="44">
         <v>100021002</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="D5" s="45"/>
       <c r="E5" s="45">
         <v>10002</v>
       </c>
       <c r="F5" s="46" t="s">
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="G5" s="47">
         <v>10002009</v>
@@ -2666,7 +3805,7 @@
         <v>41</v>
       </c>
       <c r="I5" s="46" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J5" s="46" t="s">
         <v>43</v>
@@ -2679,33 +3818,33 @@
         <v>44</v>
       </c>
       <c r="N5" s="58" t="s">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="O5" s="44" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" ht="28.5" spans="1:15">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" ht="28" spans="1:15">
       <c r="A6" s="44"/>
       <c r="B6" s="44">
         <v>100021003</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="D6" s="45"/>
       <c r="E6" s="45">
         <v>10002</v>
       </c>
       <c r="F6" s="46" t="s">
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="G6" s="46"/>
       <c r="H6" s="46" t="s">
         <v>41</v>
       </c>
       <c r="I6" s="46" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J6" s="46" t="s">
         <v>43</v>
@@ -2718,33 +3857,33 @@
         <v>44</v>
       </c>
       <c r="N6" s="58" t="s">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="O6" s="44" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" ht="28.5" spans="1:15">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" ht="28" spans="1:15">
       <c r="A7" s="44"/>
       <c r="B7" s="44">
         <v>100021004</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>76</v>
+        <v>125</v>
       </c>
       <c r="D7" s="45"/>
       <c r="E7" s="45">
         <v>10002</v>
       </c>
       <c r="F7" s="46" t="s">
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="G7" s="46"/>
       <c r="H7" s="46" t="s">
         <v>41</v>
       </c>
       <c r="I7" s="46" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J7" s="46" t="s">
         <v>43</v>
@@ -2757,33 +3896,33 @@
         <v>44</v>
       </c>
       <c r="N7" s="58" t="s">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="O7" s="44" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" ht="28.5" spans="1:15">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" ht="28" spans="1:15">
       <c r="A8" s="44"/>
       <c r="B8" s="44">
         <v>100021005</v>
       </c>
       <c r="C8" s="44" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="D8" s="45"/>
       <c r="E8" s="45">
         <v>10002</v>
       </c>
       <c r="F8" s="46" t="s">
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="G8" s="46"/>
       <c r="H8" s="46" t="s">
         <v>41</v>
       </c>
       <c r="I8" s="46" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J8" s="46" t="s">
         <v>43</v>
@@ -2792,39 +3931,39 @@
         <v>0</v>
       </c>
       <c r="L8" s="59" t="s">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="M8" s="57" t="s">
         <v>44</v>
       </c>
       <c r="N8" s="58" t="s">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="O8" s="44" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" ht="28.5" spans="1:15">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" ht="28" spans="1:15">
       <c r="A9" s="44"/>
       <c r="B9" s="41">
         <v>100021006</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>81</v>
+        <v>130</v>
       </c>
       <c r="D9" s="45"/>
       <c r="E9" s="45">
         <v>10002</v>
       </c>
       <c r="F9" s="46" t="s">
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="G9" s="46"/>
       <c r="H9" s="46" t="s">
         <v>41</v>
       </c>
       <c r="I9" s="46" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J9" s="46" t="s">
         <v>43</v>
@@ -2833,19 +3972,19 @@
         <v>40</v>
       </c>
       <c r="L9" s="59" t="s">
-        <v>82</v>
+        <v>131</v>
       </c>
       <c r="M9" s="57" t="s">
         <v>44</v>
       </c>
       <c r="N9" s="58" t="s">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="O9" s="44" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" ht="28.5" spans="1:15">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" ht="28" spans="1:15">
       <c r="A10" s="44"/>
       <c r="B10" s="44">
         <v>100021007</v>
@@ -2856,14 +3995,14 @@
         <v>10002</v>
       </c>
       <c r="F10" s="46" t="s">
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="G10" s="46"/>
       <c r="H10" s="46" t="s">
         <v>41</v>
       </c>
       <c r="I10" s="46" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J10" s="46" t="s">
         <v>43</v>
@@ -2876,19 +4015,19 @@
         <v>44</v>
       </c>
       <c r="N10" s="58" t="s">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="O10" s="44" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" ht="28.5" spans="1:15">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" ht="28" spans="1:15">
       <c r="A11" s="44"/>
       <c r="B11" s="44">
         <v>100021008</v>
       </c>
       <c r="C11" s="44" t="s">
-        <v>85</v>
+        <v>134</v>
       </c>
       <c r="D11" s="45"/>
       <c r="E11" s="45">
@@ -2902,7 +4041,7 @@
         <v>41</v>
       </c>
       <c r="I11" s="46" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J11" s="48" t="s">
         <v>57</v>
@@ -2915,19 +4054,19 @@
         <v>44</v>
       </c>
       <c r="N11" s="58" t="s">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="O11" s="44" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" ht="28.5" spans="1:15">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" ht="28" spans="1:15">
       <c r="A12" s="44"/>
       <c r="B12" s="44">
         <v>100021009</v>
       </c>
       <c r="C12" s="44" t="s">
-        <v>87</v>
+        <v>136</v>
       </c>
       <c r="D12" s="45"/>
       <c r="E12" s="45">
@@ -2943,7 +4082,7 @@
         <v>41</v>
       </c>
       <c r="I12" s="46" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J12" s="48" t="s">
         <v>57</v>
@@ -2956,19 +4095,19 @@
         <v>44</v>
       </c>
       <c r="N12" s="58" t="s">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="O12" s="44" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" ht="28.5" spans="1:15">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" ht="28" spans="1:15">
       <c r="A13" s="44"/>
       <c r="B13" s="44">
         <v>100021010</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>89</v>
+        <v>138</v>
       </c>
       <c r="D13" s="45"/>
       <c r="E13" s="45">
@@ -2984,7 +4123,7 @@
         <v>41</v>
       </c>
       <c r="I13" s="46" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J13" s="48" t="s">
         <v>57</v>
@@ -2997,19 +4136,19 @@
         <v>44</v>
       </c>
       <c r="N13" s="58" t="s">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="O13" s="44" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" ht="28.5" spans="1:15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" ht="28" spans="1:15">
       <c r="A14" s="44"/>
       <c r="B14" s="41">
         <v>100021011</v>
       </c>
       <c r="C14" s="44" t="s">
-        <v>91</v>
+        <v>140</v>
       </c>
       <c r="D14" s="45"/>
       <c r="E14" s="45">
@@ -3025,7 +4164,7 @@
         <v>41</v>
       </c>
       <c r="I14" s="46" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J14" s="48" t="s">
         <v>57</v>
@@ -3038,19 +4177,19 @@
         <v>44</v>
       </c>
       <c r="N14" s="58" t="s">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="O14" s="44" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15" ht="28.5" spans="1:15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" ht="28" spans="1:15">
       <c r="A15" s="44"/>
       <c r="B15" s="44">
         <v>100021012</v>
       </c>
       <c r="C15" s="44" t="s">
-        <v>93</v>
+        <v>142</v>
       </c>
       <c r="D15" s="45"/>
       <c r="E15" s="45">
@@ -3066,7 +4205,7 @@
         <v>41</v>
       </c>
       <c r="I15" s="46" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J15" s="48" t="s">
         <v>57</v>
@@ -3079,19 +4218,19 @@
         <v>44</v>
       </c>
       <c r="N15" s="58" t="s">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="O15" s="44" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="16" ht="28.5" spans="1:15">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" ht="28" spans="1:15">
       <c r="A16" s="44"/>
       <c r="B16" s="44">
         <v>100021013</v>
       </c>
       <c r="C16" s="44" t="s">
-        <v>95</v>
+        <v>144</v>
       </c>
       <c r="D16" s="45"/>
       <c r="E16" s="45">
@@ -3107,7 +4246,7 @@
         <v>41</v>
       </c>
       <c r="I16" s="46" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J16" s="48" t="s">
         <v>57</v>
@@ -3120,19 +4259,19 @@
         <v>44</v>
       </c>
       <c r="N16" s="58" t="s">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="O16" s="44" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="17" ht="28.5" spans="1:15">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" ht="28" spans="1:15">
       <c r="A17" s="44"/>
       <c r="B17" s="44">
         <v>100021014</v>
       </c>
       <c r="C17" s="44" t="s">
-        <v>97</v>
+        <v>146</v>
       </c>
       <c r="D17" s="45"/>
       <c r="E17" s="45">
@@ -3148,7 +4287,7 @@
         <v>41</v>
       </c>
       <c r="I17" s="46" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J17" s="48" t="s">
         <v>57</v>
@@ -3161,19 +4300,19 @@
         <v>44</v>
       </c>
       <c r="N17" s="58" t="s">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="O17" s="44" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" s="39" customFormat="1" ht="28.5" spans="1:15">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18" s="39" customFormat="1" ht="28" spans="1:15">
       <c r="A18" s="49"/>
       <c r="B18" s="49">
         <v>100022001</v>
       </c>
       <c r="C18" s="49" t="s">
-        <v>99</v>
+        <v>148</v>
       </c>
       <c r="D18" s="49"/>
       <c r="E18" s="49">
@@ -3183,36 +4322,36 @@
         <v>51</v>
       </c>
       <c r="G18" s="50" t="s">
-        <v>100</v>
+        <v>149</v>
       </c>
       <c r="H18" s="50" t="s">
         <v>41</v>
       </c>
       <c r="I18" s="50" t="s">
-        <v>101</v>
+        <v>150</v>
       </c>
       <c r="J18" s="50" t="s">
         <v>53</v>
       </c>
       <c r="K18" s="50" t="s">
-        <v>102</v>
+        <v>151</v>
       </c>
       <c r="L18" s="50"/>
       <c r="M18" s="60" t="s">
         <v>44</v>
       </c>
       <c r="N18" s="60" t="s">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="O18" s="49"/>
     </row>
-    <row r="19" s="39" customFormat="1" ht="28.5" spans="1:15">
+    <row r="19" s="39" customFormat="1" ht="28" spans="1:15">
       <c r="A19" s="49"/>
       <c r="B19" s="49">
         <v>100022002</v>
       </c>
       <c r="C19" s="49" t="s">
-        <v>103</v>
+        <v>152</v>
       </c>
       <c r="D19" s="49"/>
       <c r="E19" s="49">
@@ -3225,35 +4364,35 @@
         <v>100021002</v>
       </c>
       <c r="H19" s="50" t="s">
-        <v>104</v>
+        <v>153</v>
       </c>
       <c r="I19" s="50" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J19" s="50" t="s">
-        <v>105</v>
+        <v>154</v>
       </c>
       <c r="K19" s="61" t="s">
         <v>40</v>
       </c>
       <c r="L19" s="61" t="s">
-        <v>106</v>
+        <v>155</v>
       </c>
       <c r="M19" s="60" t="s">
         <v>44</v>
       </c>
       <c r="N19" s="60" t="s">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="O19" s="49"/>
     </row>
-    <row r="20" s="39" customFormat="1" ht="28.5" spans="1:15">
+    <row r="20" s="39" customFormat="1" ht="28" spans="1:15">
       <c r="A20" s="49"/>
       <c r="B20" s="49">
         <v>100022003</v>
       </c>
       <c r="C20" s="49" t="s">
-        <v>107</v>
+        <v>156</v>
       </c>
       <c r="D20" s="49"/>
       <c r="E20" s="49">
@@ -3263,38 +4402,38 @@
         <v>51</v>
       </c>
       <c r="G20" s="50" t="s">
-        <v>108</v>
+        <v>157</v>
       </c>
       <c r="H20" s="50" t="s">
         <v>41</v>
       </c>
       <c r="I20" s="50" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J20" s="50" t="s">
-        <v>109</v>
+        <v>158</v>
       </c>
       <c r="K20" s="61" t="s">
-        <v>110</v>
+        <v>159</v>
       </c>
       <c r="L20" s="61" t="s">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="M20" s="60" t="s">
         <v>44</v>
       </c>
       <c r="N20" s="60" t="s">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="O20" s="49"/>
     </row>
-    <row r="21" s="40" customFormat="1" ht="28.5" spans="1:15">
+    <row r="21" s="40" customFormat="1" ht="28" spans="1:15">
       <c r="A21" s="52"/>
       <c r="B21" s="52">
         <v>100023001</v>
       </c>
       <c r="C21" s="52" t="s">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="D21" s="52"/>
       <c r="E21" s="52">
@@ -3310,7 +4449,7 @@
         <v>41</v>
       </c>
       <c r="I21" s="62" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="J21" s="53" t="s">
         <v>63</v>
@@ -3323,19 +4462,19 @@
         <v>44</v>
       </c>
       <c r="N21" s="64" t="s">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="O21" s="64" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="22" s="40" customFormat="1" ht="28.5" spans="1:15">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22" s="40" customFormat="1" ht="28" spans="1:15">
       <c r="A22" s="52"/>
       <c r="B22" s="52">
         <v>100023002</v>
       </c>
       <c r="C22" s="52" t="s">
-        <v>114</v>
+        <v>163</v>
       </c>
       <c r="D22" s="52"/>
       <c r="E22" s="52">
@@ -3351,10 +4490,10 @@
         <v>41</v>
       </c>
       <c r="I22" s="62" t="s">
-        <v>101</v>
+        <v>150</v>
       </c>
       <c r="J22" s="53" t="s">
-        <v>115</v>
+        <v>164</v>
       </c>
       <c r="K22" s="53">
         <v>0</v>
@@ -3364,19 +4503,19 @@
         <v>44</v>
       </c>
       <c r="N22" s="64" t="s">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="O22" s="64" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="23" s="40" customFormat="1" ht="28.5" spans="1:15">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="23" s="40" customFormat="1" ht="28" spans="1:15">
       <c r="A23" s="52"/>
       <c r="B23" s="52">
         <v>100023003</v>
       </c>
       <c r="C23" s="52" t="s">
-        <v>117</v>
+        <v>166</v>
       </c>
       <c r="D23" s="52"/>
       <c r="E23" s="52">
@@ -3392,10 +4531,10 @@
         <v>41</v>
       </c>
       <c r="I23" s="62" t="s">
-        <v>101</v>
+        <v>150</v>
       </c>
       <c r="J23" s="53" t="s">
-        <v>118</v>
+        <v>167</v>
       </c>
       <c r="K23" s="53">
         <v>0</v>
@@ -3405,10 +4544,10 @@
         <v>44</v>
       </c>
       <c r="N23" s="64" t="s">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="O23" s="64" t="s">
-        <v>119</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -3423,11 +4562,11 @@
   <sheetPr/>
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6"/>
   <cols>
     <col min="2" max="2" width="9.375"/>
     <col min="4" max="4" width="11.95" customWidth="1"/>
@@ -3518,7 +4657,7 @@
         <v>22</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>16</v>
@@ -3564,7 +4703,7 @@
         <v>33</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>66</v>
+        <v>116</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>35</v>
@@ -3579,13 +4718,13 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" ht="57" spans="1:15">
+    <row r="4" ht="56" spans="1:15">
       <c r="A4" s="27"/>
       <c r="B4" s="27">
         <v>30001001</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>120</v>
+        <v>169</v>
       </c>
       <c r="D4" s="27"/>
       <c r="E4" s="27">
@@ -3596,10 +4735,10 @@
       </c>
       <c r="G4" s="27"/>
       <c r="H4" s="27" t="s">
-        <v>121</v>
+        <v>66</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="J4" s="27" t="s">
         <v>43</v>
@@ -3612,19 +4751,19 @@
         <v>44</v>
       </c>
       <c r="N4" s="27" t="s">
-        <v>123</v>
+        <v>171</v>
       </c>
       <c r="O4" s="27" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" ht="57" spans="1:15">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" ht="56" spans="1:15">
       <c r="A5" s="29"/>
       <c r="B5" s="30">
         <v>30002001</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="D5" s="30"/>
       <c r="E5" s="30">
@@ -3638,7 +4777,7 @@
         <v>41</v>
       </c>
       <c r="I5" s="34" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="J5" s="29" t="s">
         <v>57</v>
@@ -3651,19 +4790,19 @@
         <v>44</v>
       </c>
       <c r="N5" s="30" t="s">
-        <v>123</v>
+        <v>171</v>
       </c>
       <c r="O5" s="29" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6" ht="57" spans="1:15">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" ht="56" spans="1:15">
       <c r="A6" s="31"/>
       <c r="B6" s="31">
         <v>30003001</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="D6" s="31"/>
       <c r="E6" s="31">
@@ -3679,7 +4818,7 @@
         <v>41</v>
       </c>
       <c r="I6" s="35" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="J6" s="31" t="s">
         <v>53</v>
@@ -3694,12 +4833,12 @@
       <c r="N6" s="31"/>
       <c r="O6" s="31"/>
     </row>
-    <row r="7" ht="57" spans="2:15">
+    <row r="7" ht="56" spans="2:15">
       <c r="B7">
         <v>40004001</v>
       </c>
       <c r="C7" t="s">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="E7">
         <v>10003</v>
@@ -3714,7 +4853,7 @@
         <v>41</v>
       </c>
       <c r="I7" s="26" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="J7" t="s">
         <v>63</v>
@@ -3726,10 +4865,10 @@
         <v>44</v>
       </c>
       <c r="N7" s="38" t="s">
-        <v>123</v>
+        <v>171</v>
       </c>
       <c r="O7" s="38" t="s">
-        <v>128</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -3743,11 +4882,11 @@
   <sheetPr/>
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="2" max="2" width="12.5" customWidth="1"/>
     <col min="3" max="3" width="16.4416666666667" customWidth="1"/>
@@ -3841,7 +4980,7 @@
         <v>22</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>16</v>
@@ -3887,7 +5026,7 @@
         <v>33</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>66</v>
+        <v>116</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>35</v>
@@ -3902,13 +5041,13 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" ht="28.5" spans="1:15">
+    <row r="4" ht="28" spans="1:15">
       <c r="A4" s="27"/>
       <c r="B4" s="27">
         <v>20001001</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>120</v>
+        <v>169</v>
       </c>
       <c r="D4" s="27"/>
       <c r="E4" s="27">
@@ -3919,7 +5058,7 @@
       </c>
       <c r="G4" s="27"/>
       <c r="H4" s="27" t="s">
-        <v>121</v>
+        <v>66</v>
       </c>
       <c r="I4" s="32" t="s">
         <v>52</v>
@@ -3935,19 +5074,19 @@
         <v>44</v>
       </c>
       <c r="N4" s="27" t="s">
-        <v>123</v>
+        <v>171</v>
       </c>
       <c r="O4" s="27" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" ht="28.5" spans="1:15">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" ht="28" spans="1:15">
       <c r="A5" s="27"/>
       <c r="B5" s="27">
         <v>20001002</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>129</v>
+        <v>176</v>
       </c>
       <c r="D5" s="27"/>
       <c r="E5" s="27">
@@ -3960,10 +5099,10 @@
         <v>20001001</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>130</v>
+        <v>73</v>
       </c>
       <c r="I5" s="32" t="s">
-        <v>131</v>
+        <v>177</v>
       </c>
       <c r="J5" s="27" t="s">
         <v>43</v>
@@ -3976,19 +5115,19 @@
         <v>44</v>
       </c>
       <c r="N5" s="27" t="s">
-        <v>123</v>
+        <v>171</v>
       </c>
       <c r="O5" s="27" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="6" ht="28.5" spans="1:15">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" ht="28" spans="1:15">
       <c r="A6" s="27"/>
       <c r="B6" s="27">
         <v>20001003</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>133</v>
+        <v>179</v>
       </c>
       <c r="D6" s="27"/>
       <c r="E6" s="27">
@@ -4001,10 +5140,10 @@
         <v>20001002</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>134</v>
+        <v>180</v>
       </c>
       <c r="I6" s="32" t="s">
-        <v>135</v>
+        <v>181</v>
       </c>
       <c r="J6" s="27" t="s">
         <v>43</v>
@@ -4017,19 +5156,19 @@
         <v>44</v>
       </c>
       <c r="N6" s="27" t="s">
-        <v>123</v>
+        <v>171</v>
       </c>
       <c r="O6" s="27" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="7" ht="28.5" spans="1:15">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" ht="28" spans="1:15">
       <c r="A7" s="27"/>
       <c r="B7" s="27">
         <v>20001004</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>137</v>
+        <v>183</v>
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="27">
@@ -4042,10 +5181,10 @@
         <v>20001003</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="I7" s="32" t="s">
-        <v>139</v>
+        <v>185</v>
       </c>
       <c r="J7" s="27" t="s">
         <v>43</v>
@@ -4058,19 +5197,19 @@
         <v>44</v>
       </c>
       <c r="N7" s="27" t="s">
-        <v>123</v>
+        <v>171</v>
       </c>
       <c r="O7" s="27" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8" ht="28.5" spans="1:15">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" ht="28" spans="1:15">
       <c r="A8" s="27"/>
       <c r="B8" s="27">
         <v>20001005</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>141</v>
+        <v>187</v>
       </c>
       <c r="D8" s="27"/>
       <c r="E8" s="27">
@@ -4083,10 +5222,10 @@
         <v>20001004</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>130</v>
+        <v>73</v>
       </c>
       <c r="I8" s="32" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="J8" s="27" t="s">
         <v>43</v>
@@ -4099,19 +5238,19 @@
         <v>44</v>
       </c>
       <c r="N8" s="27" t="s">
-        <v>123</v>
+        <v>171</v>
       </c>
       <c r="O8" s="27" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="9" ht="28.5" spans="1:15">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="9" ht="28" spans="1:15">
       <c r="A9" s="27"/>
       <c r="B9" s="27">
         <v>20001006</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>144</v>
+        <v>190</v>
       </c>
       <c r="D9" s="27"/>
       <c r="E9" s="27">
@@ -4124,10 +5263,10 @@
         <v>20001005</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>121</v>
+        <v>66</v>
       </c>
       <c r="I9" s="32" t="s">
-        <v>145</v>
+        <v>191</v>
       </c>
       <c r="J9" s="27" t="s">
         <v>43</v>
@@ -4140,19 +5279,19 @@
         <v>44</v>
       </c>
       <c r="N9" s="27" t="s">
-        <v>123</v>
+        <v>171</v>
       </c>
       <c r="O9" s="27" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="10" ht="28.5" spans="1:15">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="10" ht="28" spans="1:15">
       <c r="A10" s="28"/>
       <c r="B10" s="27">
         <v>20001007</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>147</v>
+        <v>193</v>
       </c>
       <c r="D10" s="27"/>
       <c r="E10" s="27">
@@ -4165,10 +5304,10 @@
         <v>20001006</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>134</v>
+        <v>180</v>
       </c>
       <c r="I10" s="33" t="s">
-        <v>148</v>
+        <v>194</v>
       </c>
       <c r="J10" s="28" t="s">
         <v>43</v>
@@ -4181,19 +5320,19 @@
         <v>44</v>
       </c>
       <c r="N10" s="27" t="s">
-        <v>123</v>
+        <v>171</v>
       </c>
       <c r="O10" s="27" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="11" ht="28.5" spans="1:15">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" ht="28" spans="1:15">
       <c r="A11" s="28"/>
       <c r="B11" s="27">
         <v>20001008</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>150</v>
+        <v>196</v>
       </c>
       <c r="D11" s="27"/>
       <c r="E11" s="27">
@@ -4206,10 +5345,10 @@
         <v>20001007</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>134</v>
+        <v>180</v>
       </c>
       <c r="I11" s="33" t="s">
-        <v>151</v>
+        <v>197</v>
       </c>
       <c r="J11" s="28" t="s">
         <v>43</v>
@@ -4222,19 +5361,19 @@
         <v>44</v>
       </c>
       <c r="N11" s="27" t="s">
-        <v>123</v>
+        <v>171</v>
       </c>
       <c r="O11" s="28" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="12" ht="28.5" spans="1:15">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="12" ht="28" spans="1:15">
       <c r="A12" s="28"/>
       <c r="B12" s="27">
         <v>20001009</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>153</v>
+        <v>199</v>
       </c>
       <c r="D12" s="27"/>
       <c r="E12" s="27">
@@ -4247,10 +5386,10 @@
         <v>20001008</v>
       </c>
       <c r="H12" s="28" t="s">
-        <v>130</v>
+        <v>73</v>
       </c>
       <c r="I12" s="33" t="s">
-        <v>154</v>
+        <v>200</v>
       </c>
       <c r="J12" s="28" t="s">
         <v>43</v>
@@ -4263,19 +5402,19 @@
         <v>44</v>
       </c>
       <c r="N12" s="27" t="s">
-        <v>123</v>
+        <v>171</v>
       </c>
       <c r="O12" s="28" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="13" ht="28.5" spans="1:15">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="13" ht="28" spans="1:15">
       <c r="A13" s="28"/>
       <c r="B13" s="27">
         <v>20001010</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>156</v>
+        <v>202</v>
       </c>
       <c r="D13" s="27"/>
       <c r="E13" s="27">
@@ -4288,10 +5427,10 @@
         <v>20001009</v>
       </c>
       <c r="H13" s="28" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="I13" s="33" t="s">
-        <v>157</v>
+        <v>203</v>
       </c>
       <c r="J13" s="28" t="s">
         <v>43</v>
@@ -4304,19 +5443,19 @@
         <v>44</v>
       </c>
       <c r="N13" s="27" t="s">
-        <v>123</v>
+        <v>171</v>
       </c>
       <c r="O13" s="28" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="14" ht="28.5" spans="1:15">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="14" ht="28" spans="1:15">
       <c r="A14" s="29"/>
       <c r="B14" s="30">
         <v>20002001</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="D14" s="30"/>
       <c r="E14" s="30">
@@ -4343,19 +5482,19 @@
         <v>44</v>
       </c>
       <c r="N14" s="30" t="s">
-        <v>123</v>
+        <v>171</v>
       </c>
       <c r="O14" s="29" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="15" ht="28.5" spans="1:15">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" ht="28" spans="1:15">
       <c r="A15" s="29"/>
       <c r="B15" s="30">
         <v>20002002</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>159</v>
+        <v>205</v>
       </c>
       <c r="D15" s="29"/>
       <c r="E15" s="29">
@@ -4371,7 +5510,7 @@
         <v>41</v>
       </c>
       <c r="I15" s="34" t="s">
-        <v>131</v>
+        <v>177</v>
       </c>
       <c r="J15" s="29" t="s">
         <v>57</v>
@@ -4384,19 +5523,19 @@
         <v>44</v>
       </c>
       <c r="N15" s="30" t="s">
-        <v>123</v>
+        <v>171</v>
       </c>
       <c r="O15" s="29" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="16" ht="28.5" spans="1:15">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="16" ht="28" spans="1:15">
       <c r="A16" s="29"/>
       <c r="B16" s="30">
         <v>20002003</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>161</v>
+        <v>207</v>
       </c>
       <c r="D16" s="30"/>
       <c r="E16" s="30">
@@ -4412,7 +5551,7 @@
         <v>41</v>
       </c>
       <c r="I16" s="34" t="s">
-        <v>135</v>
+        <v>181</v>
       </c>
       <c r="J16" s="29" t="s">
         <v>57</v>
@@ -4425,19 +5564,19 @@
         <v>44</v>
       </c>
       <c r="N16" s="30" t="s">
-        <v>123</v>
+        <v>171</v>
       </c>
       <c r="O16" s="29" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="17" ht="28.5" spans="1:15">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="17" ht="28" spans="1:15">
       <c r="A17" s="29"/>
       <c r="B17" s="30">
         <v>20002004</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>163</v>
+        <v>209</v>
       </c>
       <c r="D17" s="29"/>
       <c r="E17" s="29">
@@ -4450,10 +5589,10 @@
         <v>20001004</v>
       </c>
       <c r="H17" s="29" t="s">
-        <v>134</v>
+        <v>180</v>
       </c>
       <c r="I17" s="34" t="s">
-        <v>139</v>
+        <v>185</v>
       </c>
       <c r="J17" s="29" t="s">
         <v>57</v>
@@ -4466,19 +5605,19 @@
         <v>44</v>
       </c>
       <c r="N17" s="30" t="s">
-        <v>123</v>
+        <v>171</v>
       </c>
       <c r="O17" s="29" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="18" ht="28.5" spans="1:15">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="18" ht="28" spans="1:15">
       <c r="A18" s="29"/>
       <c r="B18" s="30">
         <v>20002005</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>165</v>
+        <v>211</v>
       </c>
       <c r="D18" s="30"/>
       <c r="E18" s="30">
@@ -4491,10 +5630,10 @@
         <v>20001004</v>
       </c>
       <c r="H18" s="29" t="s">
-        <v>121</v>
+        <v>66</v>
       </c>
       <c r="I18" s="34" t="s">
-        <v>139</v>
+        <v>185</v>
       </c>
       <c r="J18" s="29" t="s">
         <v>57</v>
@@ -4507,19 +5646,19 @@
         <v>44</v>
       </c>
       <c r="N18" s="30" t="s">
-        <v>123</v>
+        <v>171</v>
       </c>
       <c r="O18" s="29" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="19" ht="28.5" spans="1:15">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="19" ht="28" spans="1:15">
       <c r="A19" s="29"/>
       <c r="B19" s="30">
         <v>20002006</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>167</v>
+        <v>213</v>
       </c>
       <c r="D19" s="29"/>
       <c r="E19" s="29">
@@ -4535,7 +5674,7 @@
         <v>41</v>
       </c>
       <c r="I19" s="34" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="J19" s="29" t="s">
         <v>57</v>
@@ -4548,19 +5687,19 @@
         <v>44</v>
       </c>
       <c r="N19" s="30" t="s">
-        <v>123</v>
+        <v>171</v>
       </c>
       <c r="O19" s="29" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="20" ht="28.5" spans="1:15">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="20" ht="28" spans="1:15">
       <c r="A20" s="29"/>
       <c r="B20" s="30">
         <v>20002007</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>169</v>
+        <v>215</v>
       </c>
       <c r="D20" s="30"/>
       <c r="E20" s="30">
@@ -4576,7 +5715,7 @@
         <v>41</v>
       </c>
       <c r="I20" s="34" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="J20" s="29" t="s">
         <v>57</v>
@@ -4589,19 +5728,19 @@
         <v>44</v>
       </c>
       <c r="N20" s="30" t="s">
-        <v>123</v>
+        <v>171</v>
       </c>
       <c r="O20" s="29" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="21" ht="28.5" spans="1:15">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="21" ht="28" spans="1:15">
       <c r="A21" s="29"/>
       <c r="B21" s="30">
         <v>20002008</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>171</v>
+        <v>217</v>
       </c>
       <c r="D21" s="29"/>
       <c r="E21" s="29">
@@ -4617,7 +5756,7 @@
         <v>41</v>
       </c>
       <c r="I21" s="34" t="s">
-        <v>145</v>
+        <v>191</v>
       </c>
       <c r="J21" s="29" t="s">
         <v>57</v>
@@ -4630,19 +5769,19 @@
         <v>44</v>
       </c>
       <c r="N21" s="30" t="s">
-        <v>123</v>
+        <v>171</v>
       </c>
       <c r="O21" s="29" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="22" ht="28.5" spans="1:15">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="22" ht="28" spans="1:15">
       <c r="A22" s="29"/>
       <c r="B22" s="30">
         <v>20002009</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>173</v>
+        <v>219</v>
       </c>
       <c r="D22" s="30"/>
       <c r="E22" s="30">
@@ -4658,7 +5797,7 @@
         <v>41</v>
       </c>
       <c r="I22" s="34" t="s">
-        <v>148</v>
+        <v>194</v>
       </c>
       <c r="J22" s="29" t="s">
         <v>57</v>
@@ -4671,19 +5810,19 @@
         <v>44</v>
       </c>
       <c r="N22" s="30" t="s">
-        <v>123</v>
+        <v>171</v>
       </c>
       <c r="O22" s="29" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="23" ht="28.5" spans="1:15">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="23" ht="28" spans="1:15">
       <c r="A23" s="29"/>
       <c r="B23" s="30">
         <v>20002010</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>175</v>
+        <v>221</v>
       </c>
       <c r="D23" s="29"/>
       <c r="E23" s="29">
@@ -4699,7 +5838,7 @@
         <v>41</v>
       </c>
       <c r="I23" s="34" t="s">
-        <v>151</v>
+        <v>197</v>
       </c>
       <c r="J23" s="29" t="s">
         <v>57</v>
@@ -4712,19 +5851,19 @@
         <v>44</v>
       </c>
       <c r="N23" s="30" t="s">
-        <v>123</v>
+        <v>171</v>
       </c>
       <c r="O23" s="29" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="24" ht="28.5" spans="1:15">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="24" ht="28" spans="1:15">
       <c r="A24" s="29"/>
       <c r="B24" s="30">
         <v>20002011</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>177</v>
+        <v>223</v>
       </c>
       <c r="D24" s="30"/>
       <c r="E24" s="30">
@@ -4738,7 +5877,7 @@
       </c>
       <c r="H24" s="29"/>
       <c r="I24" s="34" t="s">
-        <v>154</v>
+        <v>200</v>
       </c>
       <c r="J24" s="29" t="s">
         <v>57</v>
@@ -4751,19 +5890,19 @@
         <v>44</v>
       </c>
       <c r="N24" s="30" t="s">
-        <v>123</v>
+        <v>171</v>
       </c>
       <c r="O24" s="29" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="25" ht="28.5" spans="1:15">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="25" ht="28" spans="1:15">
       <c r="A25" s="31"/>
       <c r="B25" s="31">
         <v>20003001</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="D25" s="31"/>
       <c r="E25" s="31">
@@ -4779,7 +5918,7 @@
         <v>41</v>
       </c>
       <c r="I25" s="35" t="s">
-        <v>179</v>
+        <v>225</v>
       </c>
       <c r="J25" s="31" t="s">
         <v>53</v>
@@ -4794,13 +5933,13 @@
       <c r="N25" s="31"/>
       <c r="O25" s="31"/>
     </row>
-    <row r="26" ht="28.5" spans="1:15">
+    <row r="26" ht="28" spans="1:15">
       <c r="A26" s="31"/>
       <c r="B26" s="31">
         <v>20003002</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>180</v>
+        <v>226</v>
       </c>
       <c r="D26" s="31"/>
       <c r="E26" s="31">
@@ -4816,7 +5955,7 @@
         <v>41</v>
       </c>
       <c r="I26" s="35" t="s">
-        <v>179</v>
+        <v>225</v>
       </c>
       <c r="J26" s="31" t="s">
         <v>53</v>
@@ -4831,13 +5970,13 @@
       <c r="N26" s="31"/>
       <c r="O26" s="31"/>
     </row>
-    <row r="27" ht="28.5" spans="1:15">
+    <row r="27" ht="28" spans="1:15">
       <c r="A27" s="31"/>
       <c r="B27" s="31">
         <v>20003003</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>181</v>
+        <v>227</v>
       </c>
       <c r="D27" s="31"/>
       <c r="E27" s="31">
@@ -4853,7 +5992,7 @@
         <v>41</v>
       </c>
       <c r="I27" s="35" t="s">
-        <v>179</v>
+        <v>225</v>
       </c>
       <c r="J27" s="31" t="s">
         <v>53</v>
@@ -4868,13 +6007,13 @@
       <c r="N27" s="31"/>
       <c r="O27" s="31"/>
     </row>
-    <row r="28" ht="28.5" spans="1:15">
+    <row r="28" ht="28" spans="1:15">
       <c r="A28" s="31"/>
       <c r="B28" s="31">
         <v>20003004</v>
       </c>
       <c r="C28" s="31" t="s">
-        <v>182</v>
+        <v>228</v>
       </c>
       <c r="D28" s="31"/>
       <c r="E28" s="31">
@@ -4890,16 +6029,16 @@
         <v>41</v>
       </c>
       <c r="I28" s="35" t="s">
-        <v>183</v>
+        <v>229</v>
       </c>
       <c r="J28" s="31" t="s">
-        <v>109</v>
+        <v>158</v>
       </c>
       <c r="K28" s="31">
         <v>10002</v>
       </c>
       <c r="L28" s="31" t="s">
-        <v>184</v>
+        <v>230</v>
       </c>
       <c r="M28" s="36" t="s">
         <v>44</v>
@@ -4907,13 +6046,13 @@
       <c r="N28" s="31"/>
       <c r="O28" s="31"/>
     </row>
-    <row r="29" ht="28.5" spans="1:15">
+    <row r="29" ht="28" spans="1:15">
       <c r="A29" s="31"/>
       <c r="B29" s="31">
         <v>20003005</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>185</v>
+        <v>231</v>
       </c>
       <c r="D29" s="31"/>
       <c r="E29" s="31">
@@ -4929,16 +6068,16 @@
         <v>41</v>
       </c>
       <c r="I29" s="35" t="s">
-        <v>183</v>
+        <v>229</v>
       </c>
       <c r="J29" s="31" t="s">
-        <v>109</v>
+        <v>158</v>
       </c>
       <c r="K29" s="31">
         <v>10005</v>
       </c>
       <c r="L29" s="31" t="s">
-        <v>186</v>
+        <v>232</v>
       </c>
       <c r="M29" s="36" t="s">
         <v>44</v>
@@ -4946,13 +6085,13 @@
       <c r="N29" s="31"/>
       <c r="O29" s="31"/>
     </row>
-    <row r="30" ht="28.5" spans="1:15">
+    <row r="30" ht="28" spans="1:15">
       <c r="A30" s="31"/>
       <c r="B30" s="31">
         <v>20003006</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>187</v>
+        <v>233</v>
       </c>
       <c r="D30" s="31"/>
       <c r="E30" s="31">
@@ -4968,16 +6107,16 @@
         <v>41</v>
       </c>
       <c r="I30" s="35" t="s">
-        <v>183</v>
+        <v>229</v>
       </c>
       <c r="J30" s="31" t="s">
-        <v>105</v>
+        <v>154</v>
       </c>
       <c r="K30" s="31">
         <v>10002</v>
       </c>
       <c r="L30" s="31" t="s">
-        <v>188</v>
+        <v>234</v>
       </c>
       <c r="M30" s="36" t="s">
         <v>44</v>
@@ -4985,12 +6124,12 @@
       <c r="N30" s="31"/>
       <c r="O30" s="31"/>
     </row>
-    <row r="31" ht="28.5" spans="2:15">
+    <row r="31" ht="28" spans="2:15">
       <c r="B31">
         <v>20004001</v>
       </c>
       <c r="C31" t="s">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="E31">
         <v>20001</v>
@@ -5005,7 +6144,7 @@
         <v>41</v>
       </c>
       <c r="I31" s="26" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="J31" t="s">
         <v>63</v>
@@ -5017,18 +6156,18 @@
         <v>44</v>
       </c>
       <c r="N31" s="38" t="s">
-        <v>123</v>
+        <v>171</v>
       </c>
       <c r="O31" s="38" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="32" ht="28.5" spans="2:15">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="32" ht="28" spans="2:15">
       <c r="B32">
         <v>20004002</v>
       </c>
       <c r="C32" t="s">
-        <v>114</v>
+        <v>163</v>
       </c>
       <c r="E32">
         <v>20001</v>
@@ -5043,10 +6182,10 @@
         <v>41</v>
       </c>
       <c r="I32" s="26" t="s">
-        <v>189</v>
+        <v>235</v>
       </c>
       <c r="J32" t="s">
-        <v>115</v>
+        <v>164</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -5055,18 +6194,18 @@
         <v>44</v>
       </c>
       <c r="N32" s="38" t="s">
-        <v>123</v>
+        <v>171</v>
       </c>
       <c r="O32" s="38" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="33" ht="28.5" spans="2:15">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="33" ht="28" spans="2:15">
       <c r="B33">
         <v>20004003</v>
       </c>
       <c r="C33" t="s">
-        <v>117</v>
+        <v>166</v>
       </c>
       <c r="E33">
         <v>20001</v>
@@ -5081,10 +6220,10 @@
         <v>41</v>
       </c>
       <c r="I33" s="26" t="s">
-        <v>189</v>
+        <v>235</v>
       </c>
       <c r="J33" t="s">
-        <v>118</v>
+        <v>167</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -5093,10 +6232,10 @@
         <v>44</v>
       </c>
       <c r="N33" s="38" t="s">
-        <v>123</v>
+        <v>171</v>
       </c>
       <c r="O33" s="38" t="s">
-        <v>191</v>
+        <v>237</v>
       </c>
     </row>
     <row r="34" spans="9:9">
@@ -5125,11 +6264,11 @@
   <sheetPr/>
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="2" max="2" width="12.125" customWidth="1"/>
     <col min="3" max="3" width="21.375" customWidth="1"/>
@@ -5223,7 +6362,7 @@
         <v>22</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>16</v>
@@ -5269,7 +6408,7 @@
         <v>33</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>66</v>
+        <v>116</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>35</v>
@@ -5290,7 +6429,7 @@
         <v>100051001</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>192</v>
+        <v>238</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13">
@@ -5301,7 +6440,7 @@
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="15" t="s">
-        <v>193</v>
+        <v>239</v>
       </c>
       <c r="I4" s="20" t="s">
         <v>52</v>
@@ -5317,10 +6456,10 @@
         <v>44</v>
       </c>
       <c r="N4" s="21" t="s">
-        <v>194</v>
+        <v>240</v>
       </c>
       <c r="O4" s="21" t="s">
-        <v>195</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" s="7" customFormat="1" ht="96" customHeight="1" spans="1:15">
@@ -5329,7 +6468,7 @@
         <v>100051002</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>196</v>
+        <v>242</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13">
@@ -5342,10 +6481,10 @@
         <v>100051001</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>130</v>
+        <v>73</v>
       </c>
       <c r="I5" s="20" t="s">
-        <v>197</v>
+        <v>243</v>
       </c>
       <c r="J5" s="13" t="s">
         <v>43</v>
@@ -5358,10 +6497,10 @@
         <v>44</v>
       </c>
       <c r="N5" s="21" t="s">
-        <v>194</v>
+        <v>240</v>
       </c>
       <c r="O5" s="21" t="s">
-        <v>198</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" s="7" customFormat="1" ht="96" customHeight="1" spans="1:15">
@@ -5370,7 +6509,7 @@
         <v>100051003</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>199</v>
+        <v>245</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13">
@@ -5383,7 +6522,7 @@
         <v>100051002</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>134</v>
+        <v>180</v>
       </c>
       <c r="I6" s="20" t="s">
         <v>52</v>
@@ -5399,10 +6538,10 @@
         <v>44</v>
       </c>
       <c r="N6" s="21" t="s">
-        <v>194</v>
+        <v>240</v>
       </c>
       <c r="O6" s="21" t="s">
-        <v>200</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" s="7" customFormat="1" ht="96" customHeight="1" spans="1:15">
@@ -5411,7 +6550,7 @@
         <v>100051004</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>201</v>
+        <v>247</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="13">
@@ -5424,7 +6563,7 @@
         <v>100051003</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>193</v>
+        <v>239</v>
       </c>
       <c r="I7" s="20" t="s">
         <v>52</v>
@@ -5440,10 +6579,10 @@
         <v>44</v>
       </c>
       <c r="N7" s="21" t="s">
-        <v>194</v>
+        <v>240</v>
       </c>
       <c r="O7" s="21" t="s">
-        <v>202</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" s="7" customFormat="1" ht="81" customHeight="1" spans="1:15">
@@ -5452,7 +6591,7 @@
         <v>100051005</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>203</v>
+        <v>249</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="13">
@@ -5465,7 +6604,7 @@
         <v>100051004</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>134</v>
+        <v>180</v>
       </c>
       <c r="I8" s="20" t="s">
         <v>52</v>
@@ -5481,19 +6620,19 @@
         <v>44</v>
       </c>
       <c r="N8" s="21" t="s">
-        <v>194</v>
+        <v>240</v>
       </c>
       <c r="O8" s="21" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="9" ht="42.75" spans="1:15">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" ht="42" spans="1:15">
       <c r="A9" s="13"/>
       <c r="B9" s="13">
         <v>100051006</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>205</v>
+        <v>251</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="13">
@@ -5506,7 +6645,7 @@
         <v>100051005</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>134</v>
+        <v>180</v>
       </c>
       <c r="I9" s="20" t="s">
         <v>52</v>
@@ -5522,19 +6661,19 @@
         <v>44</v>
       </c>
       <c r="N9" s="21" t="s">
-        <v>194</v>
+        <v>240</v>
       </c>
       <c r="O9" s="21" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="10" ht="42.75" spans="1:15">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="10" ht="42" spans="1:15">
       <c r="A10" s="16"/>
       <c r="B10" s="16">
         <v>100052001</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>207</v>
+        <v>253</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="16">
@@ -5547,7 +6686,7 @@
         <v>100051001</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>208</v>
+        <v>254</v>
       </c>
       <c r="I10" s="22" t="s">
         <v>52</v>
@@ -5563,19 +6702,19 @@
         <v>44</v>
       </c>
       <c r="N10" s="23" t="s">
-        <v>194</v>
+        <v>240</v>
       </c>
       <c r="O10" s="23" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="11" ht="42.75" spans="1:15">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="11" ht="42" spans="1:15">
       <c r="A11" s="16"/>
       <c r="B11" s="16">
         <v>100052002</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>210</v>
+        <v>256</v>
       </c>
       <c r="D11" s="16"/>
       <c r="E11" s="16">
@@ -5588,7 +6727,7 @@
         <v>100051001</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>208</v>
+        <v>254</v>
       </c>
       <c r="I11" s="22" t="s">
         <v>52</v>
@@ -5604,19 +6743,19 @@
         <v>44</v>
       </c>
       <c r="N11" s="23" t="s">
-        <v>194</v>
+        <v>240</v>
       </c>
       <c r="O11" s="23" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="12" ht="42.75" spans="1:15">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="12" ht="42" spans="1:15">
       <c r="A12" s="16"/>
       <c r="B12" s="16">
         <v>100052003</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>212</v>
+        <v>258</v>
       </c>
       <c r="D12" s="16"/>
       <c r="E12" s="16">
@@ -5629,7 +6768,7 @@
         <v>100051001</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>208</v>
+        <v>254</v>
       </c>
       <c r="I12" s="22" t="s">
         <v>52</v>
@@ -5645,19 +6784,19 @@
         <v>44</v>
       </c>
       <c r="N12" s="23" t="s">
-        <v>194</v>
+        <v>240</v>
       </c>
       <c r="O12" s="23" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="13" ht="42.75" spans="1:15">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="13" ht="42" spans="1:15">
       <c r="A13" s="16"/>
       <c r="B13" s="16">
         <v>100052004</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>214</v>
+        <v>260</v>
       </c>
       <c r="D13" s="16"/>
       <c r="E13" s="16">
@@ -5670,7 +6809,7 @@
         <v>100051001</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>208</v>
+        <v>254</v>
       </c>
       <c r="I13" s="22" t="s">
         <v>52</v>
@@ -5686,19 +6825,19 @@
         <v>44</v>
       </c>
       <c r="N13" s="23" t="s">
-        <v>194</v>
+        <v>240</v>
       </c>
       <c r="O13" s="23" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="14" ht="42.75" spans="1:15">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="14" ht="42" spans="1:15">
       <c r="A14" s="16"/>
       <c r="B14" s="16">
         <v>100052005</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>216</v>
+        <v>262</v>
       </c>
       <c r="D14" s="16"/>
       <c r="E14" s="16">
@@ -5711,7 +6850,7 @@
         <v>100051001</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>208</v>
+        <v>254</v>
       </c>
       <c r="I14" s="22" t="s">
         <v>52</v>
@@ -5727,19 +6866,19 @@
         <v>44</v>
       </c>
       <c r="N14" s="23" t="s">
-        <v>194</v>
+        <v>240</v>
       </c>
       <c r="O14" s="23" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="15" ht="42.75" spans="1:15">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="15" ht="42" spans="1:15">
       <c r="A15" s="16"/>
       <c r="B15" s="16">
         <v>100052006</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>218</v>
+        <v>264</v>
       </c>
       <c r="D15" s="16"/>
       <c r="E15" s="16">
@@ -5752,7 +6891,7 @@
         <v>100051001</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>208</v>
+        <v>254</v>
       </c>
       <c r="I15" s="22" t="s">
         <v>52</v>
@@ -5768,19 +6907,19 @@
         <v>44</v>
       </c>
       <c r="N15" s="23" t="s">
-        <v>194</v>
+        <v>240</v>
       </c>
       <c r="O15" s="23" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="16" s="3" customFormat="1" ht="42.75" spans="1:15">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="16" s="3" customFormat="1" ht="42" spans="1:15">
       <c r="A16" s="19"/>
       <c r="B16" s="19">
         <v>100053002</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>180</v>
+        <v>226</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="19">
@@ -5796,7 +6935,7 @@
         <v>41</v>
       </c>
       <c r="I16" s="24" t="s">
-        <v>179</v>
+        <v>225</v>
       </c>
       <c r="J16" s="19" t="s">
         <v>53</v>
@@ -5811,13 +6950,13 @@
       <c r="N16" s="19"/>
       <c r="O16" s="19"/>
     </row>
-    <row r="17" ht="42.75" spans="1:15">
+    <row r="17" ht="42" spans="1:15">
       <c r="A17" s="7"/>
       <c r="B17" s="7">
         <v>100054001</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7">
@@ -5833,7 +6972,7 @@
         <v>41</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>63</v>
@@ -5846,19 +6985,19 @@
         <v>44</v>
       </c>
       <c r="N17" s="12" t="s">
-        <v>194</v>
+        <v>240</v>
       </c>
       <c r="O17" s="12" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="18" ht="42.75" spans="1:15">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="18" ht="42" spans="1:15">
       <c r="A18" s="7"/>
       <c r="B18" s="7">
         <v>100054002</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>114</v>
+        <v>163</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7">
@@ -5874,10 +7013,10 @@
         <v>41</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>115</v>
+        <v>164</v>
       </c>
       <c r="K18" s="7">
         <v>0</v>
@@ -5887,19 +7026,19 @@
         <v>44</v>
       </c>
       <c r="N18" s="12" t="s">
-        <v>194</v>
+        <v>240</v>
       </c>
       <c r="O18" s="12" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="19" ht="42.75" spans="1:15">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="19" ht="42" spans="1:15">
       <c r="A19" s="7"/>
       <c r="B19" s="7">
         <v>100054003</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>117</v>
+        <v>166</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7">
@@ -5915,10 +7054,10 @@
         <v>41</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>118</v>
+        <v>167</v>
       </c>
       <c r="K19" s="7">
         <v>0</v>
@@ -5928,10 +7067,10 @@
         <v>44</v>
       </c>
       <c r="N19" s="12" t="s">
-        <v>194</v>
+        <v>240</v>
       </c>
       <c r="O19" s="12" t="s">
-        <v>222</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -5949,7 +7088,7 @@
       <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="2" max="2" width="10.375"/>
     <col min="3" max="3" width="18.75" customWidth="1"/>
@@ -6042,7 +7181,7 @@
         <v>22</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>16</v>
@@ -6088,7 +7227,7 @@
         <v>33</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>66</v>
+        <v>116</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>35</v>
@@ -6103,13 +7242,13 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" ht="28.5" spans="1:15">
+    <row r="4" ht="28" spans="1:15">
       <c r="A4" s="3"/>
       <c r="B4" s="5">
         <v>200022001</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5">
@@ -6125,7 +7264,7 @@
         <v>41</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>53</v>
@@ -6140,13 +7279,13 @@
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
     </row>
-    <row r="5" ht="28.5" spans="1:15">
+    <row r="5" ht="28" spans="1:15">
       <c r="A5" s="3"/>
       <c r="B5" s="5">
         <v>200022002</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>180</v>
+        <v>226</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5">
@@ -6162,7 +7301,7 @@
         <v>41</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>53</v>
@@ -6177,13 +7316,13 @@
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
     </row>
-    <row r="6" ht="28.5" spans="1:15">
+    <row r="6" ht="28" spans="1:15">
       <c r="A6" s="3"/>
       <c r="B6" s="5">
         <v>200022003</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>223</v>
+        <v>269</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5">
@@ -6199,7 +7338,7 @@
         <v>41</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>53</v>
@@ -6214,13 +7353,13 @@
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
     </row>
-    <row r="7" ht="28.5" spans="1:15">
+    <row r="7" ht="28" spans="1:15">
       <c r="A7" s="3"/>
       <c r="B7" s="5">
         <v>200022004</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>182</v>
+        <v>228</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5">
@@ -6236,16 +7375,16 @@
         <v>41</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>109</v>
+        <v>158</v>
       </c>
       <c r="K7" s="5">
         <v>10001</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>184</v>
+        <v>230</v>
       </c>
       <c r="M7" s="10" t="s">
         <v>44</v>
@@ -6253,13 +7392,13 @@
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
     </row>
-    <row r="8" ht="28.5" spans="1:15">
+    <row r="8" ht="28" spans="1:15">
       <c r="A8" s="3"/>
       <c r="B8" s="5">
         <v>200022005</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>185</v>
+        <v>231</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5">
@@ -6275,16 +7414,16 @@
         <v>41</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>109</v>
+        <v>158</v>
       </c>
       <c r="K8" s="5">
         <v>20002</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>186</v>
+        <v>232</v>
       </c>
       <c r="M8" s="10" t="s">
         <v>44</v>
@@ -6292,13 +7431,13 @@
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
     </row>
-    <row r="9" ht="28.5" spans="1:15">
+    <row r="9" ht="28" spans="1:15">
       <c r="A9" s="3"/>
       <c r="B9" s="5">
         <v>200022006</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>224</v>
+        <v>270</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5">
@@ -6314,16 +7453,16 @@
         <v>41</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>105</v>
+        <v>154</v>
       </c>
       <c r="K9" s="5">
         <v>10003</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>188</v>
+        <v>234</v>
       </c>
       <c r="M9" s="10" t="s">
         <v>44</v>
@@ -6331,12 +7470,12 @@
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
     </row>
-    <row r="10" ht="28.5" spans="2:15">
+    <row r="10" ht="28" spans="2:15">
       <c r="B10" s="7">
         <v>200023001</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7">
@@ -6352,7 +7491,7 @@
         <v>41</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>63</v>
@@ -6365,18 +7504,18 @@
         <v>44</v>
       </c>
       <c r="N10" s="12" t="s">
-        <v>225</v>
+        <v>271</v>
       </c>
       <c r="O10" s="12" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="11" ht="28.5" spans="2:15">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="11" ht="28" spans="2:15">
       <c r="B11" s="7">
         <v>200023002</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>114</v>
+        <v>163</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7">
@@ -6392,10 +7531,10 @@
         <v>41</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>115</v>
+        <v>164</v>
       </c>
       <c r="K11" s="7">
         <v>0</v>
@@ -6405,18 +7544,18 @@
         <v>44</v>
       </c>
       <c r="N11" s="12" t="s">
-        <v>225</v>
+        <v>271</v>
       </c>
       <c r="O11" s="12" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="12" ht="28.5" spans="2:15">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="12" ht="28" spans="2:15">
       <c r="B12" s="7">
         <v>200023003</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>117</v>
+        <v>166</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7">
@@ -6432,10 +7571,10 @@
         <v>41</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>118</v>
+        <v>167</v>
       </c>
       <c r="K12" s="7">
         <v>0</v>
@@ -6445,10 +7584,10 @@
         <v>44</v>
       </c>
       <c r="N12" s="12" t="s">
-        <v>228</v>
+        <v>274</v>
       </c>
       <c r="O12" s="12" t="s">
-        <v>229</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -6462,11 +7601,11 @@
   <sheetPr/>
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="4" max="4" width="14.75" customWidth="1"/>
@@ -6559,7 +7698,7 @@
         <v>22</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>16</v>
@@ -6605,7 +7744,7 @@
         <v>33</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>66</v>
+        <v>116</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>35</v>
@@ -6620,13 +7759,13 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" ht="57" spans="1:15">
+    <row r="4" ht="56" spans="1:15">
       <c r="A4" s="3"/>
       <c r="B4" s="4" t="s">
-        <v>230</v>
+        <v>276</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5">
@@ -6642,7 +7781,7 @@
         <v>41</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>53</v>
@@ -6657,13 +7796,13 @@
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
     </row>
-    <row r="5" ht="57" spans="1:15">
+    <row r="5" ht="56" spans="1:15">
       <c r="A5" s="3"/>
       <c r="B5" s="4" t="s">
-        <v>231</v>
+        <v>277</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>180</v>
+        <v>226</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5">
@@ -6679,7 +7818,7 @@
         <v>41</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>53</v>
@@ -6694,13 +7833,13 @@
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
     </row>
-    <row r="6" ht="57" spans="1:15">
+    <row r="6" ht="56" spans="1:15">
       <c r="A6" s="3"/>
       <c r="B6" s="4" t="s">
-        <v>232</v>
+        <v>278</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>181</v>
+        <v>227</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5">
@@ -6716,7 +7855,7 @@
         <v>41</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>53</v>
@@ -6731,13 +7870,13 @@
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
     </row>
-    <row r="7" ht="57" spans="1:15">
+    <row r="7" ht="56" spans="1:15">
       <c r="A7" s="3"/>
       <c r="B7" s="4" t="s">
-        <v>233</v>
+        <v>279</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>182</v>
+        <v>228</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5">
@@ -6753,16 +7892,16 @@
         <v>41</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>109</v>
+        <v>158</v>
       </c>
       <c r="K7" s="5">
         <v>10001</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>184</v>
+        <v>230</v>
       </c>
       <c r="M7" s="10" t="s">
         <v>44</v>
@@ -6770,13 +7909,13 @@
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
     </row>
-    <row r="8" ht="57" spans="1:15">
+    <row r="8" ht="56" spans="1:15">
       <c r="A8" s="3"/>
       <c r="B8" s="4" t="s">
-        <v>234</v>
+        <v>280</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>185</v>
+        <v>231</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5">
@@ -6792,16 +7931,16 @@
         <v>41</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>109</v>
+        <v>158</v>
       </c>
       <c r="K8" s="5">
         <v>20002</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>186</v>
+        <v>232</v>
       </c>
       <c r="M8" s="10" t="s">
         <v>44</v>
@@ -6809,13 +7948,13 @@
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
     </row>
-    <row r="9" ht="57" spans="1:15">
+    <row r="9" ht="56" spans="1:15">
       <c r="A9" s="3"/>
       <c r="B9" s="4" t="s">
-        <v>235</v>
+        <v>281</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>187</v>
+        <v>233</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5">
@@ -6831,16 +7970,16 @@
         <v>41</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>105</v>
+        <v>154</v>
       </c>
       <c r="K9" s="5">
         <v>10003</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>188</v>
+        <v>234</v>
       </c>
       <c r="M9" s="10" t="s">
         <v>44</v>
@@ -6848,13 +7987,13 @@
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
     </row>
-    <row r="10" ht="57" spans="1:15">
+    <row r="10" ht="56" spans="1:15">
       <c r="A10" s="3"/>
       <c r="B10" s="6" t="s">
-        <v>236</v>
+        <v>282</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7">
@@ -6870,7 +8009,7 @@
         <v>41</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>63</v>
@@ -6883,18 +8022,18 @@
         <v>44</v>
       </c>
       <c r="N10" s="12" t="s">
-        <v>225</v>
+        <v>271</v>
       </c>
       <c r="O10" s="12" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="11" ht="57" spans="2:15">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="11" ht="56" spans="2:15">
       <c r="B11" s="6" t="s">
-        <v>237</v>
+        <v>283</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>114</v>
+        <v>163</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7">
@@ -6910,10 +8049,10 @@
         <v>41</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>115</v>
+        <v>164</v>
       </c>
       <c r="K11" s="7">
         <v>0</v>
@@ -6923,18 +8062,18 @@
         <v>44</v>
       </c>
       <c r="N11" s="12" t="s">
-        <v>225</v>
+        <v>271</v>
       </c>
       <c r="O11" s="12" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="12" ht="57" spans="2:15">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="12" ht="56" spans="2:15">
       <c r="B12" s="6" t="s">
-        <v>238</v>
+        <v>284</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>117</v>
+        <v>166</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7">
@@ -6950,10 +8089,10 @@
         <v>41</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>118</v>
+        <v>167</v>
       </c>
       <c r="K12" s="7">
         <v>0</v>
@@ -6963,10 +8102,10 @@
         <v>44</v>
       </c>
       <c r="N12" s="12" t="s">
-        <v>228</v>
+        <v>274</v>
       </c>
       <c r="O12" s="12" t="s">
-        <v>229</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -6984,7 +8123,7 @@
       <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="20.75" customWidth="1"/>
@@ -7077,7 +8216,7 @@
         <v>22</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>16</v>
@@ -7123,7 +8262,7 @@
         <v>33</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>66</v>
+        <v>116</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>35</v>
@@ -7138,13 +8277,13 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" ht="28.5" spans="1:15">
+    <row r="4" ht="28" spans="1:15">
       <c r="A4" s="3"/>
       <c r="B4" s="4" t="s">
-        <v>239</v>
+        <v>285</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5">
@@ -7160,7 +8299,7 @@
         <v>41</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>53</v>
@@ -7175,13 +8314,13 @@
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
     </row>
-    <row r="5" ht="28.5" spans="1:15">
+    <row r="5" ht="28" spans="1:15">
       <c r="A5" s="3"/>
       <c r="B5" s="4" t="s">
-        <v>240</v>
+        <v>286</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>180</v>
+        <v>226</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5">
@@ -7197,7 +8336,7 @@
         <v>41</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>53</v>
@@ -7212,13 +8351,13 @@
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
     </row>
-    <row r="6" ht="28.5" spans="1:15">
+    <row r="6" ht="28" spans="1:15">
       <c r="A6" s="3"/>
       <c r="B6" s="4" t="s">
-        <v>241</v>
+        <v>287</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>181</v>
+        <v>227</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5">
@@ -7234,7 +8373,7 @@
         <v>41</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>53</v>
@@ -7249,13 +8388,13 @@
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
     </row>
-    <row r="7" ht="28.5" spans="1:15">
+    <row r="7" ht="28" spans="1:15">
       <c r="A7" s="3"/>
       <c r="B7" s="4" t="s">
-        <v>242</v>
+        <v>288</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>182</v>
+        <v>228</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5">
@@ -7271,16 +8410,16 @@
         <v>41</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>109</v>
+        <v>158</v>
       </c>
       <c r="K7" s="5">
         <v>10001</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>184</v>
+        <v>230</v>
       </c>
       <c r="M7" s="10" t="s">
         <v>44</v>
@@ -7288,13 +8427,13 @@
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
     </row>
-    <row r="8" ht="28.5" spans="1:15">
+    <row r="8" ht="28" spans="1:15">
       <c r="A8" s="3"/>
       <c r="B8" s="4" t="s">
-        <v>243</v>
+        <v>289</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>185</v>
+        <v>231</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5">
@@ -7310,16 +8449,16 @@
         <v>41</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>109</v>
+        <v>158</v>
       </c>
       <c r="K8" s="5">
         <v>20002</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>186</v>
+        <v>232</v>
       </c>
       <c r="M8" s="10" t="s">
         <v>44</v>
@@ -7327,13 +8466,13 @@
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
     </row>
-    <row r="9" ht="28.5" spans="1:15">
+    <row r="9" ht="28" spans="1:15">
       <c r="A9" s="3"/>
       <c r="B9" s="4" t="s">
-        <v>244</v>
+        <v>290</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>187</v>
+        <v>233</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5">
@@ -7349,16 +8488,16 @@
         <v>41</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>105</v>
+        <v>154</v>
       </c>
       <c r="K9" s="5">
         <v>10003</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>188</v>
+        <v>234</v>
       </c>
       <c r="M9" s="10" t="s">
         <v>44</v>
@@ -7366,12 +8505,12 @@
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
     </row>
-    <row r="10" ht="42.75" spans="2:15">
+    <row r="10" ht="42" spans="2:15">
       <c r="B10" s="6" t="s">
-        <v>245</v>
+        <v>291</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7">
@@ -7387,7 +8526,7 @@
         <v>41</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>63</v>
@@ -7400,18 +8539,18 @@
         <v>44</v>
       </c>
       <c r="N10" s="12" t="s">
-        <v>225</v>
+        <v>271</v>
       </c>
       <c r="O10" s="12" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="11" ht="42.75" spans="2:15">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="11" ht="42" spans="2:15">
       <c r="B11" s="6" t="s">
-        <v>246</v>
+        <v>292</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>114</v>
+        <v>163</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7">
@@ -7427,10 +8566,10 @@
         <v>41</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>115</v>
+        <v>164</v>
       </c>
       <c r="K11" s="7">
         <v>0</v>
@@ -7440,18 +8579,18 @@
         <v>44</v>
       </c>
       <c r="N11" s="12" t="s">
-        <v>225</v>
+        <v>271</v>
       </c>
       <c r="O11" s="12" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="12" ht="42.75" spans="2:15">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="12" ht="42" spans="2:15">
       <c r="B12" s="6" t="s">
-        <v>247</v>
+        <v>293</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>117</v>
+        <v>166</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7">
@@ -7467,10 +8606,10 @@
         <v>41</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>118</v>
+        <v>167</v>
       </c>
       <c r="K12" s="7">
         <v>0</v>
@@ -7480,10 +8619,10 @@
         <v>44</v>
       </c>
       <c r="N12" s="12" t="s">
-        <v>228</v>
+        <v>274</v>
       </c>
       <c r="O12" s="12" t="s">
-        <v>229</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
